--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6187899</v>
+        <v>6187900</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M19">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="N19">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P19">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.6659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6187900</v>
+        <v>6187899</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="L20">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="N20">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="O20">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="Q20">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.222</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6187904</v>
+        <v>6187903</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6187903</v>
+        <v>6187904</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M24">
+        <v>6.5</v>
+      </c>
+      <c r="N24">
+        <v>1.4</v>
+      </c>
+      <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>-1.25</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="N24">
-        <v>3.1</v>
-      </c>
-      <c r="O24">
-        <v>3.3</v>
-      </c>
-      <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <v>0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.975</v>
-      </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6187911</v>
+        <v>6187912</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
         <v>1.5</v>
       </c>
       <c r="N31">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O31">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P31">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q31">
         <v>1.25</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z31">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6187912</v>
+        <v>6187911</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M32">
         <v>1.5</v>
       </c>
       <c r="N32">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O32">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P32">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q32">
         <v>1.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6187922</v>
+        <v>6187926</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4366,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>1.95</v>
+      </c>
+      <c r="V44">
+        <v>1.85</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
         <v>2.75</v>
       </c>
-      <c r="U44">
-        <v>1.8</v>
-      </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>2.25</v>
-      </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6187926</v>
+        <v>6187922</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
+        <v>2.4</v>
+      </c>
+      <c r="O45">
+        <v>3.25</v>
+      </c>
+      <c r="P45">
+        <v>2.55</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <v>1.8</v>
       </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.5</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.875</v>
-      </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6187923</v>
+        <v>6187924</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,49 +4544,49 @@
         <v>44995.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N46">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>1.95</v>
@@ -4598,22 +4598,22 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6187924</v>
+        <v>6187923</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,49 +4633,49 @@
         <v>44995.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
         <v>1.95</v>
@@ -4687,22 +4687,22 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6236427</v>
+        <v>6236429</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45017.625</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N60">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1.975</v>
+      </c>
+      <c r="S60">
+        <v>1.825</v>
+      </c>
+      <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
+        <v>1.9</v>
+      </c>
+      <c r="V60">
+        <v>1.9</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>1.4</v>
+      </c>
+      <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>0.825</v>
+      </c>
+      <c r="AB60">
+        <v>0.45</v>
+      </c>
+      <c r="AC60">
         <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>1.825</v>
-      </c>
-      <c r="S60">
-        <v>1.975</v>
-      </c>
-      <c r="T60">
-        <v>3</v>
-      </c>
-      <c r="U60">
-        <v>1.95</v>
-      </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
-      <c r="X60">
-        <v>2.75</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
-        <v>-1</v>
-      </c>
-      <c r="AA60">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
-      <c r="AC60">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6236624</v>
+        <v>6236427</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45017.625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N61">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="O61">
         <v>3.75</v>
       </c>
       <c r="P61">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
+        <v>1.825</v>
+      </c>
+      <c r="S61">
+        <v>1.975</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
         <v>1.95</v>
       </c>
-      <c r="S61">
+      <c r="V61">
         <v>1.85</v>
       </c>
-      <c r="T61">
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
         <v>2.75</v>
       </c>
-      <c r="U61">
-        <v>1.8</v>
-      </c>
-      <c r="V61">
-        <v>2</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
       <c r="Y61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB61">
-        <v>0.8</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6236429</v>
+        <v>6236624</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,55 +5968,55 @@
         <v>45017.625</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>1.909</v>
+      </c>
+      <c r="N62">
         <v>3.4</v>
       </c>
-      <c r="M62">
-        <v>2.9</v>
-      </c>
-      <c r="N62">
-        <v>2.55</v>
-      </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6025,19 +6025,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6236627</v>
+        <v>6236432</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,46 +6235,46 @@
         <v>45023.625</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N65">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
         <v>2.75</v>
@@ -6286,25 +6286,25 @@
         <v>1.975</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6236432</v>
+        <v>6236627</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,46 +6324,46 @@
         <v>45023.625</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O66">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
         <v>2.75</v>
@@ -6375,25 +6375,25 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6236431</v>
+        <v>6236628</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45025.625</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="L68">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="N68">
-        <v>1.125</v>
+        <v>6.5</v>
       </c>
       <c r="O68">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P68">
-        <v>15</v>
+        <v>1.363</v>
       </c>
       <c r="Q68">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>2</v>
@@ -6553,25 +6553,25 @@
         <v>1.8</v>
       </c>
       <c r="W68">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6236628</v>
+        <v>6236431</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,49 +6680,49 @@
         <v>45025.625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M70">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="N70">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P70">
-        <v>1.363</v>
+        <v>15</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6731,25 +6731,25 @@
         <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6236435</v>
+        <v>6236433</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,73 +6858,73 @@
         <v>45034.625</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6236632</v>
+        <v>6236435</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45034.625</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M73">
         <v>3</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
         <v>3.4</v>
       </c>
       <c r="P73">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6236433</v>
+        <v>6236632</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45034.625</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6236434</v>
+        <v>6236631</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45035.625</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>2</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
+        <v>2.1</v>
+      </c>
+      <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76">
+        <v>2.9</v>
+      </c>
+      <c r="N76">
         <v>2.2</v>
-      </c>
-      <c r="L76">
-        <v>3.3</v>
-      </c>
-      <c r="M76">
-        <v>3</v>
-      </c>
-      <c r="N76">
-        <v>1.8</v>
       </c>
       <c r="O76">
         <v>3.5</v>
       </c>
       <c r="P76">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
         <v>1.8</v>
       </c>
-      <c r="S76">
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
         <v>2</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
+        <v>1.7</v>
+      </c>
+      <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
         <v>0.8</v>
       </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>-1</v>
-      </c>
-      <c r="Z76">
+      <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.8</v>
-      </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
-      <c r="AB76">
-        <v>-1</v>
-      </c>
-      <c r="AC76">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6236631</v>
+        <v>6236434</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45035.625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O78">
         <v>3.5</v>
       </c>
       <c r="P78">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
         <v>2</v>
       </c>
-      <c r="S78">
-        <v>1.8</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6236633</v>
+        <v>6236636</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>2</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>1.571</v>
+      </c>
+      <c r="N82">
+        <v>5.75</v>
+      </c>
+      <c r="O82">
         <v>4.5</v>
       </c>
-      <c r="M82">
-        <v>5.5</v>
-      </c>
-      <c r="N82">
+      <c r="P82">
+        <v>1.444</v>
+      </c>
+      <c r="Q82">
         <v>1.25</v>
       </c>
-      <c r="O82">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>9</v>
-      </c>
-      <c r="Q82">
-        <v>-1.75</v>
-      </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6236636</v>
+        <v>6236633</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M83">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N83">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P83">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q83">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>47</v>
+      </c>
+      <c r="K123">
+        <v>1.666</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
+        <v>4</v>
+      </c>
+      <c r="P123">
+        <v>3.5</v>
+      </c>
+      <c r="Q123">
+        <v>-0.5</v>
+      </c>
+      <c r="R123">
+        <v>1.825</v>
+      </c>
+      <c r="S123">
+        <v>1.975</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
+        <v>1.925</v>
+      </c>
+      <c r="V123">
+        <v>1.875</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>5</v>
-      </c>
-      <c r="J123" t="s">
-        <v>46</v>
-      </c>
-      <c r="K123">
-        <v>2.4</v>
-      </c>
-      <c r="L123">
-        <v>3.5</v>
-      </c>
-      <c r="M123">
-        <v>2.55</v>
-      </c>
-      <c r="N123">
-        <v>2.875</v>
-      </c>
-      <c r="O123">
-        <v>3.6</v>
-      </c>
-      <c r="P123">
-        <v>2.15</v>
-      </c>
-      <c r="Q123">
-        <v>0.25</v>
-      </c>
-      <c r="R123">
-        <v>1.85</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>3</v>
-      </c>
-      <c r="U123">
-        <v>1.9</v>
-      </c>
-      <c r="V123">
-        <v>1.9</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N124">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L137">
+        <v>4.75</v>
+      </c>
+      <c r="M137">
+        <v>5.25</v>
+      </c>
+      <c r="N137">
+        <v>1.4</v>
+      </c>
+      <c r="O137">
+        <v>5</v>
+      </c>
+      <c r="P137">
+        <v>5.5</v>
+      </c>
+      <c r="Q137">
+        <v>-1.25</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>3.25</v>
+      </c>
+      <c r="U137">
+        <v>1.925</v>
+      </c>
+      <c r="V137">
+        <v>1.875</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>4</v>
       </c>
-      <c r="M137">
-        <v>4.2</v>
-      </c>
-      <c r="N137">
-        <v>1.666</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <v>4.2</v>
-      </c>
-      <c r="Q137">
-        <v>-0.75</v>
-      </c>
-      <c r="R137">
-        <v>1.85</v>
-      </c>
-      <c r="S137">
-        <v>1.95</v>
-      </c>
-      <c r="T137">
-        <v>3</v>
-      </c>
-      <c r="U137">
-        <v>1.775</v>
-      </c>
-      <c r="V137">
-        <v>2.025</v>
-      </c>
-      <c r="W137">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>45</v>
+      </c>
+      <c r="K138">
+        <v>1.666</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>4.2</v>
+      </c>
+      <c r="N138">
+        <v>1.666</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138">
+        <v>4.2</v>
+      </c>
+      <c r="Q138">
+        <v>-0.75</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>1.95</v>
+      </c>
+      <c r="T138">
         <v>3</v>
       </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
-      <c r="J138" t="s">
-        <v>47</v>
-      </c>
-      <c r="K138">
-        <v>1.45</v>
-      </c>
-      <c r="L138">
-        <v>4.75</v>
-      </c>
-      <c r="M138">
-        <v>5.25</v>
-      </c>
-      <c r="N138">
-        <v>1.4</v>
-      </c>
-      <c r="O138">
-        <v>5</v>
-      </c>
-      <c r="P138">
-        <v>5.5</v>
-      </c>
-      <c r="Q138">
-        <v>-1.25</v>
-      </c>
-      <c r="R138">
-        <v>1.9</v>
-      </c>
-      <c r="S138">
-        <v>1.9</v>
-      </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X138">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6832533</v>
+        <v>6832534</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,76 +14067,76 @@
         <v>45256.40625</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K153">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N153">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
+        <v>1.95</v>
+      </c>
+      <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
+        <v>1.85</v>
+      </c>
+      <c r="V153">
+        <v>1.95</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
         <v>2</v>
       </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>1.925</v>
-      </c>
-      <c r="V153">
-        <v>1.875</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>2.6</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
       <c r="Z153">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
+        <v>0.95</v>
+      </c>
+      <c r="AB153">
+        <v>0.425</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="AB153">
-        <v>-1</v>
-      </c>
-      <c r="AC153">
-        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6832534</v>
+        <v>6832533</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,76 +14156,76 @@
         <v>45256.40625</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>47</v>
+      </c>
+      <c r="K154">
+        <v>2.45</v>
+      </c>
+      <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
+        <v>2.45</v>
+      </c>
+      <c r="N154">
+        <v>2.625</v>
+      </c>
+      <c r="O154">
+        <v>3.6</v>
+      </c>
+      <c r="P154">
+        <v>2.25</v>
+      </c>
+      <c r="Q154">
+        <v>0.25</v>
+      </c>
+      <c r="R154">
+        <v>1.8</v>
+      </c>
+      <c r="S154">
         <v>2</v>
       </c>
-      <c r="J154" t="s">
-        <v>46</v>
-      </c>
-      <c r="K154">
-        <v>2.2</v>
-      </c>
-      <c r="L154">
-        <v>3.5</v>
-      </c>
-      <c r="M154">
-        <v>2.8</v>
-      </c>
-      <c r="N154">
-        <v>2.1</v>
-      </c>
-      <c r="O154">
-        <v>3.5</v>
-      </c>
-      <c r="P154">
+      <c r="T154">
         <v>3</v>
       </c>
-      <c r="Q154">
-        <v>-0.25</v>
-      </c>
-      <c r="R154">
-        <v>1.85</v>
-      </c>
-      <c r="S154">
-        <v>1.95</v>
-      </c>
-      <c r="T154">
-        <v>2.75</v>
-      </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y154">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,73 +15135,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K165">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M165">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N165">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O165">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P165">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,73 +15224,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L166">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N166">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P166">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q166">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6832552</v>
+        <v>6832551</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L170">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M170">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="N170">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P170">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q170">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
         <v>1.95</v>
-      </c>
-      <c r="S170">
-        <v>1.85</v>
       </c>
       <c r="T170">
         <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z170">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6832551</v>
+        <v>6832552</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K171">
+        <v>1.3</v>
+      </c>
+      <c r="L171">
         <v>5.25</v>
       </c>
-      <c r="L171">
-        <v>4.75</v>
-      </c>
       <c r="M171">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="N171">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O171">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P171">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q171">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R171">
+        <v>1.95</v>
+      </c>
+      <c r="S171">
         <v>1.85</v>
-      </c>
-      <c r="S171">
-        <v>1.95</v>
       </c>
       <c r="T171">
         <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,13 +16203,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -16218,25 +16218,25 @@
         <v>45</v>
       </c>
       <c r="K177">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L177">
+        <v>4.75</v>
+      </c>
+      <c r="M177">
         <v>6</v>
       </c>
-      <c r="M177">
-        <v>10</v>
-      </c>
       <c r="N177">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O177">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P177">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q177">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R177">
         <v>1.9</v>
@@ -16245,16 +16245,16 @@
         <v>1.9</v>
       </c>
       <c r="T177">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16307,25 +16307,25 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L178">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M178">
+        <v>10</v>
+      </c>
+      <c r="N178">
+        <v>1.222</v>
+      </c>
+      <c r="O178">
         <v>6</v>
       </c>
-      <c r="N178">
-        <v>1.333</v>
-      </c>
-      <c r="O178">
-        <v>5</v>
-      </c>
       <c r="P178">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R178">
         <v>1.9</v>
@@ -16334,16 +16334,16 @@
         <v>1.9</v>
       </c>
       <c r="T178">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U178">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,16 +16352,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,49 +16470,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L180">
+        <v>5</v>
+      </c>
+      <c r="M180">
+        <v>1.333</v>
+      </c>
+      <c r="N180">
+        <v>8</v>
+      </c>
+      <c r="O180">
         <v>5.5</v>
       </c>
-      <c r="M180">
-        <v>9</v>
-      </c>
-      <c r="N180">
-        <v>1.5</v>
-      </c>
-      <c r="O180">
-        <v>4.5</v>
-      </c>
       <c r="P180">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U180">
         <v>1.925</v>
@@ -16524,22 +16524,22 @@
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,49 +16559,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L181">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M181">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N181">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P181">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q181">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
         <v>1.925</v>
@@ -16613,22 +16613,22 @@
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y181">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:29">

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6187900</v>
+        <v>6187899</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="N19">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="O19">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="Q19">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6187899</v>
+        <v>6187900</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="N20">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P20">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.6659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6187903</v>
+        <v>6187904</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M23">
+        <v>6.5</v>
+      </c>
+      <c r="N23">
+        <v>1.4</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>-1.25</v>
+      </c>
+      <c r="R23">
         <v>1.95</v>
       </c>
-      <c r="N23">
-        <v>3.1</v>
-      </c>
-      <c r="O23">
-        <v>3.3</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>0.25</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6187904</v>
+        <v>6187903</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6187918</v>
+        <v>6187917</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>44987.4375</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>2.875</v>
+      </c>
+      <c r="L37">
+        <v>3.5</v>
+      </c>
+      <c r="M37">
+        <v>2.1</v>
+      </c>
+      <c r="N37">
+        <v>2.45</v>
+      </c>
+      <c r="O37">
+        <v>3.5</v>
+      </c>
+      <c r="P37">
+        <v>2.3</v>
+      </c>
+      <c r="Q37">
         <v>0</v>
       </c>
-      <c r="J37" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37">
-        <v>1.166</v>
-      </c>
-      <c r="L37">
-        <v>6.5</v>
-      </c>
-      <c r="M37">
-        <v>12</v>
-      </c>
-      <c r="N37">
-        <v>1.09</v>
-      </c>
-      <c r="O37">
-        <v>8.5</v>
-      </c>
-      <c r="P37">
-        <v>23</v>
-      </c>
-      <c r="Q37">
-        <v>-2.5</v>
-      </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6187917</v>
+        <v>6187918</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>44987.4375</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38">
+        <v>1.166</v>
+      </c>
+      <c r="L38">
+        <v>6.5</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="N38">
+        <v>1.09</v>
+      </c>
+      <c r="O38">
+        <v>8.5</v>
+      </c>
+      <c r="P38">
+        <v>23</v>
+      </c>
+      <c r="Q38">
+        <v>-2.5</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>3.5</v>
+      </c>
+      <c r="U38">
         <v>2</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>2.875</v>
-      </c>
-      <c r="L38">
-        <v>3.5</v>
-      </c>
-      <c r="M38">
-        <v>2.1</v>
-      </c>
-      <c r="N38">
-        <v>2.45</v>
-      </c>
-      <c r="O38">
-        <v>3.5</v>
-      </c>
-      <c r="P38">
-        <v>2.3</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>1.775</v>
-      </c>
       <c r="V38">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6187926</v>
+        <v>6187922</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4366,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
+        <v>2.4</v>
+      </c>
+      <c r="O44">
+        <v>3.25</v>
+      </c>
+      <c r="P44">
+        <v>2.55</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
         <v>1.8</v>
       </c>
-      <c r="O44">
-        <v>3.75</v>
-      </c>
-      <c r="P44">
-        <v>3.5</v>
-      </c>
-      <c r="Q44">
-        <v>-0.5</v>
-      </c>
-      <c r="R44">
-        <v>1.875</v>
-      </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6187922</v>
+        <v>6187926</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>1.95</v>
+      </c>
+      <c r="V45">
+        <v>1.85</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>2.75</v>
       </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>2.25</v>
-      </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6236623</v>
+        <v>6236428</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,40 +5612,40 @@
         <v>45016.625</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N58">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P58">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R58">
         <v>1.95</v>
@@ -5654,34 +5654,34 @@
         <v>1.85</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6236428</v>
+        <v>6236623</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,40 +5701,40 @@
         <v>45016.625</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O59">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R59">
         <v>1.95</v>
@@ -5743,34 +5743,34 @@
         <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6236628</v>
+        <v>6236431</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45025.625</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M68">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="N68">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="O68">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P68">
-        <v>1.363</v>
+        <v>15</v>
       </c>
       <c r="Q68">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
         <v>2</v>
@@ -6553,25 +6553,25 @@
         <v>1.8</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6236626</v>
+        <v>6236628</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,40 +6591,40 @@
         <v>45025.625</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N69">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P69">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
         <v>1.975</v>
@@ -6633,34 +6633,34 @@
         <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6236431</v>
+        <v>6236626</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,58 +6680,58 @@
         <v>45025.625</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.2</v>
+        <v>2.875</v>
       </c>
       <c r="L70">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N70">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O70">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="Q70">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>0.125</v>
+        <v>2.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6740,16 +6740,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6236632</v>
+        <v>6236629</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,55 +7036,55 @@
         <v>45034.625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>46</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>3.3</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
+        <v>1.95</v>
+      </c>
+      <c r="Q74">
+        <v>0.5</v>
+      </c>
+      <c r="R74">
+        <v>1.8</v>
+      </c>
+      <c r="S74">
+        <v>2</v>
+      </c>
+      <c r="T74">
         <v>3</v>
       </c>
-      <c r="N74">
-        <v>2.4</v>
-      </c>
-      <c r="O74">
-        <v>3.4</v>
-      </c>
-      <c r="P74">
-        <v>2.55</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7093,19 +7093,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6236629</v>
+        <v>6236632</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,55 +7125,55 @@
         <v>45034.625</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>46</v>
       </c>
       <c r="K75">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
+        <v>2.55</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
         <v>1.95</v>
       </c>
-      <c r="Q75">
-        <v>0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7182,19 +7182,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
+        <v>1.55</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
         <v>0.95</v>
       </c>
-      <c r="Z75">
-        <v>-1</v>
-      </c>
-      <c r="AA75">
-        <v>1</v>
-      </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6236631</v>
+        <v>6236630</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45035.625</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
         <v>0</v>
       </c>
-      <c r="I76">
+      <c r="J76" t="s">
+        <v>45</v>
+      </c>
+      <c r="K76">
+        <v>1.55</v>
+      </c>
+      <c r="L76">
+        <v>3.8</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>1.533</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>5</v>
+      </c>
+      <c r="Q76">
+        <v>-1</v>
+      </c>
+      <c r="R76">
+        <v>1.925</v>
+      </c>
+      <c r="S76">
+        <v>1.875</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>1.8</v>
+      </c>
+      <c r="V76">
         <v>2</v>
       </c>
-      <c r="J76" t="s">
-        <v>46</v>
-      </c>
-      <c r="K76">
-        <v>2.1</v>
-      </c>
-      <c r="L76">
-        <v>3.5</v>
-      </c>
-      <c r="M76">
-        <v>2.9</v>
-      </c>
-      <c r="N76">
-        <v>2.2</v>
-      </c>
-      <c r="O76">
-        <v>3.5</v>
-      </c>
-      <c r="P76">
-        <v>2.7</v>
-      </c>
-      <c r="Q76">
-        <v>-0.25</v>
-      </c>
-      <c r="R76">
-        <v>2</v>
-      </c>
-      <c r="S76">
-        <v>1.8</v>
-      </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
-      <c r="U76">
-        <v>2</v>
-      </c>
-      <c r="V76">
-        <v>1.8</v>
-      </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6236630</v>
+        <v>6236434</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,13 +7303,13 @@
         <v>45035.625</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7318,43 +7318,43 @@
         <v>45</v>
       </c>
       <c r="K77">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
+        <v>3.3</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>1.8</v>
+      </c>
+      <c r="O77">
+        <v>3.5</v>
+      </c>
+      <c r="P77">
         <v>3.8</v>
       </c>
-      <c r="M77">
-        <v>5</v>
-      </c>
-      <c r="N77">
-        <v>1.533</v>
-      </c>
-      <c r="O77">
-        <v>4</v>
-      </c>
-      <c r="P77">
-        <v>5</v>
-      </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6236434</v>
+        <v>6236631</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45035.625</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>2</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
+        <v>2.1</v>
+      </c>
+      <c r="L78">
+        <v>3.5</v>
+      </c>
+      <c r="M78">
+        <v>2.9</v>
+      </c>
+      <c r="N78">
         <v>2.2</v>
-      </c>
-      <c r="L78">
-        <v>3.3</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>1.8</v>
       </c>
       <c r="O78">
         <v>3.5</v>
       </c>
       <c r="P78">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
       </c>
-      <c r="S78">
+      <c r="T78">
+        <v>3</v>
+      </c>
+      <c r="U78">
         <v>2</v>
       </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
-      <c r="U78">
-        <v>1.95</v>
-      </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>1.7</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>0.8</v>
       </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
-      <c r="Z78">
+      <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.8</v>
-      </c>
-      <c r="AA78">
-        <v>-1</v>
-      </c>
-      <c r="AB78">
-        <v>-1</v>
-      </c>
-      <c r="AC78">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6236636</v>
+        <v>6236633</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M82">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N82">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O82">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P82">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q82">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6236633</v>
+        <v>6236636</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>2</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1.571</v>
+      </c>
+      <c r="N83">
+        <v>5.75</v>
+      </c>
+      <c r="O83">
         <v>4.5</v>
       </c>
-      <c r="M83">
-        <v>5.5</v>
-      </c>
-      <c r="N83">
+      <c r="P83">
+        <v>1.444</v>
+      </c>
+      <c r="Q83">
         <v>1.25</v>
       </c>
-      <c r="O83">
-        <v>6</v>
-      </c>
-      <c r="P83">
-        <v>9</v>
-      </c>
-      <c r="Q83">
-        <v>-1.75</v>
-      </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6236439</v>
+        <v>6236638</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,58 +8104,58 @@
         <v>45052.46875</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L86">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N86">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="O86">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q86">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
         <v>1.95</v>
       </c>
-      <c r="S86">
+      <c r="V86">
         <v>1.85</v>
       </c>
-      <c r="T86">
-        <v>3.5</v>
-      </c>
-      <c r="U86">
-        <v>1.85</v>
-      </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
       <c r="W86">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,16 +8164,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC86">
-        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6236638</v>
+        <v>6236439</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,58 +8282,58 @@
         <v>45052.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
       </c>
       <c r="K88">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L88">
+        <v>4.75</v>
+      </c>
+      <c r="M88">
+        <v>1.4</v>
+      </c>
+      <c r="N88">
+        <v>8.5</v>
+      </c>
+      <c r="O88">
+        <v>5.5</v>
+      </c>
+      <c r="P88">
+        <v>1.25</v>
+      </c>
+      <c r="Q88">
+        <v>1.75</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
+        <v>1.85</v>
+      </c>
+      <c r="T88">
         <v>3.5</v>
       </c>
-      <c r="M88">
+      <c r="U88">
+        <v>1.85</v>
+      </c>
+      <c r="V88">
         <v>1.95</v>
       </c>
-      <c r="N88">
-        <v>3.1</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>2.05</v>
-      </c>
-      <c r="Q88">
-        <v>0.25</v>
-      </c>
-      <c r="R88">
-        <v>2</v>
-      </c>
-      <c r="S88">
-        <v>1.8</v>
-      </c>
-      <c r="T88">
-        <v>3</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.85</v>
-      </c>
       <c r="W88">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,16 +8342,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124">
+        <v>1.666</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>1.8</v>
+      </c>
+      <c r="O124">
+        <v>4</v>
+      </c>
+      <c r="P124">
+        <v>3.5</v>
+      </c>
+      <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.825</v>
+      </c>
+      <c r="S124">
+        <v>1.975</v>
+      </c>
+      <c r="T124">
+        <v>3.25</v>
+      </c>
+      <c r="U124">
+        <v>1.925</v>
+      </c>
+      <c r="V124">
+        <v>1.875</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>5</v>
-      </c>
-      <c r="J124" t="s">
-        <v>46</v>
-      </c>
-      <c r="K124">
-        <v>2.4</v>
-      </c>
-      <c r="L124">
-        <v>3.5</v>
-      </c>
-      <c r="M124">
-        <v>2.55</v>
-      </c>
-      <c r="N124">
-        <v>2.875</v>
-      </c>
-      <c r="O124">
-        <v>3.6</v>
-      </c>
-      <c r="P124">
-        <v>2.15</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
-      <c r="U124">
-        <v>1.9</v>
-      </c>
-      <c r="V124">
-        <v>1.9</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
       <c r="Y124">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6832531</v>
+        <v>6833137</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,49 +13266,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
         <v>46</v>
       </c>
       <c r="K144">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N144">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O144">
         <v>4</v>
       </c>
       <c r="P144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q144">
         <v>-0.75</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13323,19 +13323,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6833137</v>
+        <v>6832531</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,49 +13355,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>2</v>
-      </c>
-      <c r="I145">
-        <v>4</v>
       </c>
       <c r="J145" t="s">
         <v>46</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N145">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O145">
         <v>4</v>
       </c>
       <c r="P145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q145">
         <v>-0.75</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
         <v>1.8</v>
@@ -13412,19 +13412,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6832534</v>
+        <v>6832533</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,76 +14067,76 @@
         <v>45256.40625</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153">
+        <v>2.45</v>
+      </c>
+      <c r="L153">
+        <v>3.6</v>
+      </c>
+      <c r="M153">
+        <v>2.45</v>
+      </c>
+      <c r="N153">
+        <v>2.625</v>
+      </c>
+      <c r="O153">
+        <v>3.6</v>
+      </c>
+      <c r="P153">
+        <v>2.25</v>
+      </c>
+      <c r="Q153">
+        <v>0.25</v>
+      </c>
+      <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
         <v>2</v>
       </c>
-      <c r="J153" t="s">
-        <v>46</v>
-      </c>
-      <c r="K153">
-        <v>2.2</v>
-      </c>
-      <c r="L153">
-        <v>3.5</v>
-      </c>
-      <c r="M153">
-        <v>2.8</v>
-      </c>
-      <c r="N153">
-        <v>2.1</v>
-      </c>
-      <c r="O153">
-        <v>3.5</v>
-      </c>
-      <c r="P153">
+      <c r="T153">
         <v>3</v>
       </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
-      <c r="R153">
-        <v>1.85</v>
-      </c>
-      <c r="S153">
-        <v>1.95</v>
-      </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y153">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6832533</v>
+        <v>6832534</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,76 +14156,76 @@
         <v>45256.40625</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K154">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N154">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.85</v>
+      </c>
+      <c r="V154">
+        <v>1.95</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
         <v>2</v>
       </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>1.925</v>
-      </c>
-      <c r="V154">
-        <v>1.875</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>2.6</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
       <c r="Z154">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
+        <v>0.95</v>
+      </c>
+      <c r="AB154">
+        <v>0.425</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="AB154">
-        <v>-1</v>
-      </c>
-      <c r="AC154">
-        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K161">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M161">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P161">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
         <v>1.85</v>
       </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
       <c r="W161">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L162">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N162">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O162">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q162">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>1.8</v>
+      </c>
+      <c r="T162">
+        <v>2.75</v>
+      </c>
+      <c r="U162">
+        <v>1.85</v>
+      </c>
+      <c r="V162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
-      <c r="T162">
-        <v>3.75</v>
-      </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>1.85</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,73 +14957,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H163">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>47</v>
+      </c>
+      <c r="K163">
+        <v>2.875</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>2.3</v>
+      </c>
+      <c r="N163">
+        <v>2.625</v>
+      </c>
+      <c r="O163">
+        <v>3.6</v>
+      </c>
+      <c r="P163">
+        <v>2.45</v>
+      </c>
+      <c r="Q163">
         <v>0</v>
       </c>
-      <c r="J163" t="s">
-        <v>45</v>
-      </c>
-      <c r="K163">
-        <v>1.222</v>
-      </c>
-      <c r="L163">
-        <v>6</v>
-      </c>
-      <c r="M163">
-        <v>8</v>
-      </c>
-      <c r="N163">
-        <v>1.25</v>
-      </c>
-      <c r="O163">
-        <v>6</v>
-      </c>
-      <c r="P163">
-        <v>6.5</v>
-      </c>
-      <c r="Q163">
-        <v>-1.75</v>
-      </c>
       <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>3</v>
+      </c>
+      <c r="U163">
         <v>1.95</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.85</v>
       </c>
-      <c r="T163">
-        <v>3.5</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
-      <c r="V163">
-        <v>1.925</v>
-      </c>
       <c r="W163">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>-0</v>
+      </c>
+      <c r="AB163">
         <v>0.95</v>
-      </c>
-      <c r="AA163">
-        <v>-1</v>
-      </c>
-      <c r="AB163">
-        <v>0.875</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,73 +15046,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M164">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N164">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P164">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X164">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,13 +16203,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -16218,25 +16218,25 @@
         <v>45</v>
       </c>
       <c r="K177">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L177">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M177">
+        <v>10</v>
+      </c>
+      <c r="N177">
+        <v>1.222</v>
+      </c>
+      <c r="O177">
         <v>6</v>
       </c>
-      <c r="N177">
-        <v>1.333</v>
-      </c>
-      <c r="O177">
-        <v>5</v>
-      </c>
       <c r="P177">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R177">
         <v>1.9</v>
@@ -16245,16 +16245,16 @@
         <v>1.9</v>
       </c>
       <c r="T177">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16307,25 +16307,25 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L178">
+        <v>4.75</v>
+      </c>
+      <c r="M178">
         <v>6</v>
       </c>
-      <c r="M178">
-        <v>10</v>
-      </c>
       <c r="N178">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O178">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P178">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q178">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
         <v>1.9</v>
@@ -16334,16 +16334,16 @@
         <v>1.9</v>
       </c>
       <c r="T178">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,16 +16352,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6832555</v>
+        <v>6832557</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K182">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="L182">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M182">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N182">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O182">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P182">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q182">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
         <v>1.875</v>
-      </c>
-      <c r="S182">
-        <v>1.925</v>
       </c>
       <c r="T182">
         <v>3.25</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W182">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
         <v>0.875</v>
       </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
       <c r="AB182">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6832557</v>
+        <v>6832555</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="L183">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M183">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N183">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P183">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
         <v>1.925</v>
-      </c>
-      <c r="S183">
-        <v>1.875</v>
       </c>
       <c r="T183">
         <v>3.25</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
         <v>0.875</v>
       </c>
-      <c r="AB183">
-        <v>-0.5</v>
-      </c>
       <c r="AC183">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Al Bataeh</t>
   </si>
   <si>
-    <t>Al Dhafra SCC</t>
+    <t>Ajman SCC</t>
   </si>
   <si>
-    <t>Ajman SCC</t>
+    <t>Al Dhafra SCC</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5386588</v>
+        <v>5374838</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,70 +987,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>0.825</v>
+      </c>
+      <c r="AB6">
         <v>0.875</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5374838</v>
+        <v>5386588</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,70 +1076,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
+        <v>2.55</v>
+      </c>
+      <c r="N7">
         <v>2.1</v>
       </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P7">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.825</v>
-      </c>
-      <c r="AB7">
-        <v>0.875</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6159514</v>
+        <v>6159576</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>44954.42708333334</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N13">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q13">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y13">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6159576</v>
+        <v>6159514</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>44954.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N14">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>44961.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6187900</v>
+        <v>6187899</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="N19">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="O19">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="Q19">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6187899</v>
+        <v>6187900</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="N20">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P20">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.6659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6187901</v>
+        <v>6187902</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,37 +2319,37 @@
         <v>44962.55208333334</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N21">
         <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q21">
         <v>-1.25</v>
@@ -2364,31 +2364,31 @@
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6187902</v>
+        <v>6187901</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,37 +2408,37 @@
         <v>44962.55208333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L22">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M22">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N22">
         <v>1.4</v>
       </c>
       <c r="O22">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P22">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q22">
         <v>-1.25</v>
@@ -2453,31 +2453,31 @@
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6187903</v>
+        <v>6187904</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
         <v>33</v>
       </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
       <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M23">
+        <v>6.5</v>
+      </c>
+      <c r="N23">
+        <v>1.4</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>-1.25</v>
+      </c>
+      <c r="R23">
         <v>1.95</v>
       </c>
-      <c r="N23">
-        <v>3.1</v>
-      </c>
-      <c r="O23">
-        <v>3.3</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>0.25</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6187904</v>
+        <v>6187903</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6187908</v>
+        <v>6187907</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>2.15</v>
+      </c>
+      <c r="N27">
         <v>3.6</v>
       </c>
-      <c r="M27">
-        <v>1.7</v>
-      </c>
-      <c r="N27">
-        <v>5.25</v>
-      </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
+        <v>1.95</v>
+      </c>
+      <c r="S27">
         <v>1.85</v>
       </c>
-      <c r="S27">
-        <v>1.95</v>
-      </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y27">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6187907</v>
+        <v>6187908</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1.85</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
+        <v>2.5</v>
+      </c>
+      <c r="U28">
+        <v>1.8</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
         <v>0.5</v>
       </c>
-      <c r="R28">
-        <v>1.95</v>
-      </c>
-      <c r="S28">
-        <v>1.85</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>2.6</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6187912</v>
+        <v>6187911</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <v>1.5</v>
       </c>
       <c r="N31">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O31">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q31">
         <v>1.25</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6187911</v>
+        <v>6187912</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
         <v>1.5</v>
       </c>
       <c r="N32">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P32">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q32">
         <v>1.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6187915</v>
+        <v>6187914</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
         <v>2</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="L34">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="M34">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="N34">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O34">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q34">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6187914</v>
+        <v>6187915</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,58 +3565,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
       <c r="K35">
-        <v>1.571</v>
+        <v>1.222</v>
       </c>
       <c r="L35">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M35">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="N35">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P35">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>0.615</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6188374</v>
+        <v>6187919</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>44987.55208333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
       </c>
       <c r="K39">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="N39">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
+        <v>1.95</v>
+      </c>
+      <c r="S39">
+        <v>1.85</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1.975</v>
+      </c>
+      <c r="V39">
+        <v>1.825</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
+        <v>-1</v>
+      </c>
+      <c r="Y39">
         <v>1.9</v>
       </c>
-      <c r="S39">
-        <v>1.9</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.825</v>
-      </c>
-      <c r="V39">
-        <v>1.975</v>
-      </c>
-      <c r="W39">
-        <v>-1</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
-      <c r="Y39">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6187919</v>
+        <v>6188374</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,56 +4010,56 @@
         <v>44987.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>2</v>
-      </c>
-      <c r="I40">
-        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>47</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="N40">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
+        <v>1.825</v>
+      </c>
+      <c r="V40">
         <v>1.975</v>
       </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
       <c r="W40">
         <v>-1</v>
       </c>
@@ -4067,19 +4067,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6187920</v>
+        <v>6187921</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,55 +4099,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>47</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="N41">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4156,19 +4156,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6187921</v>
+        <v>6187920</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,55 +4188,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>47</v>
       </c>
       <c r="K42">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="N42">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4245,19 +4245,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6187926</v>
+        <v>6187922</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4366,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
+        <v>2.4</v>
+      </c>
+      <c r="O44">
+        <v>3.25</v>
+      </c>
+      <c r="P44">
+        <v>2.55</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
         <v>1.8</v>
       </c>
-      <c r="O44">
-        <v>3.75</v>
-      </c>
-      <c r="P44">
-        <v>3.5</v>
-      </c>
-      <c r="Q44">
-        <v>-0.5</v>
-      </c>
-      <c r="R44">
-        <v>1.875</v>
-      </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6187922</v>
+        <v>6187926</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>1.95</v>
+      </c>
+      <c r="V45">
+        <v>1.85</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>2.75</v>
       </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>2.25</v>
-      </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6187925</v>
+        <v>6188376</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
+        <v>2.3</v>
+      </c>
+      <c r="N48">
+        <v>2.25</v>
+      </c>
+      <c r="O48">
         <v>3.3</v>
       </c>
-      <c r="N48">
-        <v>1.8</v>
-      </c>
-      <c r="O48">
-        <v>3.4</v>
-      </c>
       <c r="P48">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6188376</v>
+        <v>6187925</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49">
+        <v>1.909</v>
+      </c>
+      <c r="L49">
+        <v>3.5</v>
+      </c>
+      <c r="M49">
+        <v>3.3</v>
+      </c>
+      <c r="N49">
+        <v>1.8</v>
+      </c>
+      <c r="O49">
+        <v>3.4</v>
+      </c>
+      <c r="P49">
+        <v>4</v>
+      </c>
+      <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.8</v>
+      </c>
+      <c r="S49">
         <v>2</v>
       </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-      <c r="J49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49">
-        <v>2.625</v>
-      </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
-      <c r="M49">
-        <v>2.3</v>
-      </c>
-      <c r="N49">
-        <v>2.25</v>
-      </c>
-      <c r="O49">
-        <v>3.3</v>
-      </c>
-      <c r="P49">
-        <v>2.75</v>
-      </c>
-      <c r="Q49">
-        <v>-0.25</v>
-      </c>
-      <c r="R49">
-        <v>2.05</v>
-      </c>
-      <c r="S49">
-        <v>1.75</v>
-      </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6236425</v>
+        <v>6236618</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45002.44791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N51">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="O51">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6236618</v>
+        <v>6236425</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45002.44791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P52">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6236617</v>
+        <v>6236619</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,56 +5167,56 @@
         <v>45002.5625</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>1</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>47</v>
       </c>
       <c r="K53">
-        <v>7</v>
+        <v>1.444</v>
       </c>
       <c r="L53">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="N53">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="O53">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P53">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="Q53">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T53">
         <v>3</v>
       </c>
       <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
         <v>1.875</v>
       </c>
-      <c r="V53">
-        <v>1.925</v>
-      </c>
       <c r="W53">
         <v>-1</v>
       </c>
@@ -5224,19 +5224,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.25</v>
+        <v>7</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
         <v>0.875</v>
-      </c>
-      <c r="AC53">
-        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6236619</v>
+        <v>6236617</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,56 +5256,56 @@
         <v>45002.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>47</v>
       </c>
       <c r="K54">
-        <v>1.444</v>
+        <v>7</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M54">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="N54">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="O54">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P54">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="Q54">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54">
+        <v>1.875</v>
+      </c>
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="V54">
-        <v>1.875</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
@@ -5313,19 +5313,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
+        <v>0.4875</v>
+      </c>
+      <c r="AB54">
         <v>0.875</v>
       </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
       <c r="AC54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>45003.44791666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6236623</v>
+        <v>6236428</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,40 +5612,40 @@
         <v>45016.625</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>46</v>
       </c>
       <c r="K58">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N58">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P58">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R58">
         <v>1.95</v>
@@ -5654,34 +5654,34 @@
         <v>1.85</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6236428</v>
+        <v>6236623</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,40 +5701,40 @@
         <v>45016.625</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>46</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O59">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R59">
         <v>1.95</v>
@@ -5743,34 +5743,34 @@
         <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6236429</v>
+        <v>6236427</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45017.625</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N60">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
+        <v>1.825</v>
+      </c>
+      <c r="S60">
         <v>1.975</v>
       </c>
-      <c r="S60">
-        <v>1.825</v>
-      </c>
       <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
+        <v>1.85</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
         <v>2.75</v>
       </c>
-      <c r="U60">
-        <v>1.9</v>
-      </c>
-      <c r="V60">
-        <v>1.9</v>
-      </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
       <c r="Y60">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB60">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6236427</v>
+        <v>6236624</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45017.625</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
+        <v>3.4</v>
+      </c>
+      <c r="L61">
+        <v>3.6</v>
+      </c>
+      <c r="M61">
         <v>1.909</v>
       </c>
-      <c r="L61">
-        <v>3.75</v>
-      </c>
-      <c r="M61">
-        <v>3.5</v>
-      </c>
       <c r="N61">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O61">
         <v>3.75</v>
       </c>
       <c r="P61">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6236624</v>
+        <v>6236429</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,55 +5968,55 @@
         <v>45017.625</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>2</v>
-      </c>
-      <c r="I62">
-        <v>4</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
+        <v>2.15</v>
+      </c>
+      <c r="L62">
         <v>3.4</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
       <c r="M62">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N62">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6025,19 +6025,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6236432</v>
+        <v>6236627</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,46 +6235,46 @@
         <v>45023.625</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
         <v>2.75</v>
@@ -6286,25 +6286,25 @@
         <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6236627</v>
+        <v>6236432</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,46 +6324,46 @@
         <v>45023.625</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L66">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N66">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
         <v>2.75</v>
@@ -6375,25 +6375,25 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6236626</v>
+        <v>6236431</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,58 +6502,58 @@
         <v>45025.625</v>
       </c>
       <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
         <v>34</v>
       </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N68">
-        <v>3.8</v>
+        <v>1.125</v>
       </c>
       <c r="O68">
+        <v>7.5</v>
+      </c>
+      <c r="P68">
+        <v>15</v>
+      </c>
+      <c r="Q68">
+        <v>-2.25</v>
+      </c>
+      <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
         <v>3.5</v>
       </c>
-      <c r="P68">
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
         <v>1.8</v>
       </c>
-      <c r="Q68">
-        <v>0.5</v>
-      </c>
-      <c r="R68">
-        <v>1.975</v>
-      </c>
-      <c r="S68">
-        <v>1.825</v>
-      </c>
-      <c r="T68">
-        <v>2.75</v>
-      </c>
-      <c r="U68">
-        <v>1.85</v>
-      </c>
-      <c r="V68">
-        <v>1.95</v>
-      </c>
       <c r="W68">
-        <v>2.8</v>
+        <v>0.125</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6236628</v>
+        <v>6236626</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,40 +6591,40 @@
         <v>45025.625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N69">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
         <v>1.975</v>
@@ -6633,34 +6633,34 @@
         <v>1.825</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6236431</v>
+        <v>6236628</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,49 +6680,49 @@
         <v>45025.625</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="L70">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="N70">
-        <v>1.125</v>
+        <v>6.5</v>
       </c>
       <c r="O70">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>15</v>
+        <v>1.363</v>
       </c>
       <c r="Q70">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6731,25 +6731,25 @@
         <v>1.8</v>
       </c>
       <c r="W70">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6236629</v>
+        <v>6236433</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,73 +6858,73 @@
         <v>45034.625</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L72">
+        <v>3.8</v>
+      </c>
+      <c r="M72">
+        <v>1.615</v>
+      </c>
+      <c r="N72">
+        <v>4.75</v>
+      </c>
+      <c r="O72">
         <v>3.5</v>
       </c>
-      <c r="M72">
-        <v>2</v>
-      </c>
-      <c r="N72">
-        <v>3.3</v>
-      </c>
-      <c r="O72">
-        <v>3.6</v>
-      </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6236433</v>
+        <v>6236435</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,73 +7036,73 @@
         <v>45034.625</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74">
+        <v>2.15</v>
+      </c>
+      <c r="L74">
+        <v>3.3</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>2.6</v>
+      </c>
+      <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
+        <v>2.375</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <v>2</v>
       </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74" t="s">
-        <v>46</v>
-      </c>
-      <c r="K74">
-        <v>4.75</v>
-      </c>
-      <c r="L74">
-        <v>3.8</v>
-      </c>
-      <c r="M74">
-        <v>1.615</v>
-      </c>
-      <c r="N74">
-        <v>4.75</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
-      <c r="P74">
-        <v>1.666</v>
-      </c>
-      <c r="Q74">
-        <v>0.75</v>
-      </c>
-      <c r="R74">
-        <v>1.925</v>
-      </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6236435</v>
+        <v>6236629</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,46 +7125,46 @@
         <v>45034.625</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
         <v>3</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
         <v>3.3</v>
       </c>
-      <c r="M75">
-        <v>3</v>
-      </c>
-      <c r="N75">
-        <v>2.6</v>
-      </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
+        <v>1.8</v>
+      </c>
+      <c r="S75">
         <v>2</v>
-      </c>
-      <c r="S75">
-        <v>1.8</v>
       </c>
       <c r="T75">
         <v>3</v>
@@ -7176,19 +7176,19 @@
         <v>1.825</v>
       </c>
       <c r="W75">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
         <v>1</v>
-      </c>
-      <c r="AA75">
-        <v>-1</v>
       </c>
       <c r="AB75">
         <v>0.9750000000000001</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6236631</v>
+        <v>6236434</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45035.625</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O76">
         <v>3.5</v>
       </c>
       <c r="P76">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
+        <v>1.8</v>
+      </c>
+      <c r="S76">
         <v>2</v>
       </c>
-      <c r="S76">
-        <v>1.8</v>
-      </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6236434</v>
+        <v>6236631</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45035.625</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>2</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K78">
+        <v>2.1</v>
+      </c>
+      <c r="L78">
+        <v>3.5</v>
+      </c>
+      <c r="M78">
+        <v>2.9</v>
+      </c>
+      <c r="N78">
         <v>2.2</v>
-      </c>
-      <c r="L78">
-        <v>3.3</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>1.8</v>
       </c>
       <c r="O78">
         <v>3.5</v>
       </c>
       <c r="P78">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
       </c>
-      <c r="S78">
+      <c r="T78">
+        <v>3</v>
+      </c>
+      <c r="U78">
         <v>2</v>
       </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
-      <c r="U78">
-        <v>1.95</v>
-      </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>1.7</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>0.8</v>
       </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
-      <c r="Z78">
+      <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.8</v>
-      </c>
-      <c r="AA78">
-        <v>-1</v>
-      </c>
-      <c r="AB78">
-        <v>-1</v>
-      </c>
-      <c r="AC78">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7748,10 +7748,10 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" t="s">
         <v>34</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6236436</v>
+        <v>6236635</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,13 +7926,13 @@
         <v>45040.57291666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -7941,43 +7941,43 @@
         <v>45</v>
       </c>
       <c r="K84">
-        <v>1.222</v>
+        <v>3.5</v>
       </c>
       <c r="L84">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>10</v>
+        <v>1.95</v>
       </c>
       <c r="N84">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="O84">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q84">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>1.8</v>
+      </c>
+      <c r="T84">
+        <v>2.75</v>
+      </c>
+      <c r="U84">
+        <v>1.95</v>
+      </c>
+      <c r="V84">
         <v>1.85</v>
       </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>3.5</v>
-      </c>
-      <c r="U84">
-        <v>1.9</v>
-      </c>
-      <c r="V84">
-        <v>1.9</v>
-      </c>
       <c r="W84">
-        <v>0.222</v>
+        <v>1.75</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,16 +7986,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
+        <v>0.475</v>
+      </c>
+      <c r="AC84">
         <v>-0.5</v>
-      </c>
-      <c r="AB84">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC84">
-        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6236635</v>
+        <v>6236436</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,13 +8015,13 @@
         <v>45040.57291666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -8030,43 +8030,43 @@
         <v>45</v>
       </c>
       <c r="K85">
+        <v>1.222</v>
+      </c>
+      <c r="L85">
+        <v>6.5</v>
+      </c>
+      <c r="M85">
+        <v>10</v>
+      </c>
+      <c r="N85">
+        <v>1.222</v>
+      </c>
+      <c r="O85">
+        <v>6</v>
+      </c>
+      <c r="P85">
+        <v>9.5</v>
+      </c>
+      <c r="Q85">
+        <v>-1.75</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
         <v>3.5</v>
       </c>
-      <c r="L85">
-        <v>3.4</v>
-      </c>
-      <c r="M85">
-        <v>1.95</v>
-      </c>
-      <c r="N85">
-        <v>2.75</v>
-      </c>
-      <c r="O85">
-        <v>3.3</v>
-      </c>
-      <c r="P85">
-        <v>2.3</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
-        <v>1.8</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>1.75</v>
+        <v>0.222</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,16 +8075,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6236638</v>
+        <v>6236439</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,58 +8193,58 @@
         <v>45052.46875</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
       </c>
       <c r="K87">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L87">
+        <v>4.75</v>
+      </c>
+      <c r="M87">
+        <v>1.4</v>
+      </c>
+      <c r="N87">
+        <v>8.5</v>
+      </c>
+      <c r="O87">
+        <v>5.5</v>
+      </c>
+      <c r="P87">
+        <v>1.25</v>
+      </c>
+      <c r="Q87">
+        <v>1.75</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
+        <v>1.85</v>
+      </c>
+      <c r="T87">
         <v>3.5</v>
       </c>
-      <c r="M87">
+      <c r="U87">
+        <v>1.85</v>
+      </c>
+      <c r="V87">
         <v>1.95</v>
       </c>
-      <c r="N87">
-        <v>3.1</v>
-      </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
-      <c r="P87">
-        <v>2.05</v>
-      </c>
-      <c r="Q87">
-        <v>0.25</v>
-      </c>
-      <c r="R87">
-        <v>2</v>
-      </c>
-      <c r="S87">
-        <v>1.8</v>
-      </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.85</v>
-      </c>
       <c r="W87">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6236439</v>
+        <v>6236638</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,58 +8282,58 @@
         <v>45052.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
       </c>
       <c r="K88">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L88">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N88">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="O88">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q88">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>1.8</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
         <v>1.95</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>1.85</v>
       </c>
-      <c r="T88">
-        <v>3.5</v>
-      </c>
-      <c r="U88">
-        <v>1.85</v>
-      </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
       <c r="W88">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,16 +8342,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236643</v>
+        <v>6236642</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,10 +8994,10 @@
         <v>45058.46875</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9018,25 +9018,25 @@
         <v>7</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
         <v>1.825</v>
@@ -9048,7 +9048,7 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3.333</v>
+        <v>4.5</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9057,7 +9057,7 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
         <v>-1</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236642</v>
+        <v>6236641</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M97">
+        <v>9</v>
+      </c>
+      <c r="N97">
+        <v>1.142</v>
+      </c>
+      <c r="O97">
         <v>7</v>
       </c>
-      <c r="N97">
-        <v>1.285</v>
-      </c>
-      <c r="O97">
-        <v>5.5</v>
-      </c>
       <c r="P97">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Q97">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X97">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236641</v>
+        <v>6236643</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98">
+        <v>1.3</v>
+      </c>
+      <c r="L98">
         <v>5</v>
       </c>
-      <c r="I98">
-        <v>2</v>
-      </c>
-      <c r="J98" t="s">
-        <v>45</v>
-      </c>
-      <c r="K98">
-        <v>1.181</v>
-      </c>
-      <c r="L98">
-        <v>6.5</v>
-      </c>
       <c r="M98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N98">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O98">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P98">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6832698</v>
+        <v>6832494</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,76 +9528,76 @@
         <v>45156.5625</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>3</v>
       </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="L102">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="N102">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="O102">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q102">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832494</v>
+        <v>6832698</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45156.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q103">
+        <v>-1.75</v>
+      </c>
+      <c r="R103">
+        <v>1.825</v>
+      </c>
+      <c r="S103">
+        <v>1.975</v>
+      </c>
+      <c r="T103">
+        <v>3.5</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
+        <v>1.8</v>
+      </c>
+      <c r="W103">
+        <v>0.25</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB103">
         <v>1</v>
       </c>
-      <c r="R103">
-        <v>1.925</v>
-      </c>
-      <c r="S103">
-        <v>1.875</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
-      <c r="AA103">
-        <v>0.875</v>
-      </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832492</v>
+        <v>6832489</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,58 +9706,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="N104">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O104">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832489</v>
+        <v>6832492</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,58 +9795,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P105">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6832497</v>
+        <v>6832699</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,76 +10151,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
+        <v>5</v>
+      </c>
+      <c r="L109">
+        <v>4.333</v>
+      </c>
+      <c r="M109">
+        <v>1.5</v>
+      </c>
+      <c r="N109">
+        <v>7</v>
+      </c>
+      <c r="O109">
+        <v>5</v>
+      </c>
+      <c r="P109">
+        <v>1.3</v>
+      </c>
+      <c r="Q109">
+        <v>1.5</v>
+      </c>
+      <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
+        <v>1.825</v>
+      </c>
+      <c r="T109">
         <v>3.25</v>
       </c>
-      <c r="L109">
-        <v>3.3</v>
-      </c>
-      <c r="M109">
-        <v>2.05</v>
-      </c>
-      <c r="N109">
-        <v>3.5</v>
-      </c>
-      <c r="O109">
-        <v>3.4</v>
-      </c>
-      <c r="P109">
+      <c r="U109">
         <v>1.95</v>
       </c>
-      <c r="Q109">
-        <v>0.5</v>
-      </c>
-      <c r="R109">
-        <v>1.8</v>
-      </c>
-      <c r="S109">
-        <v>2</v>
-      </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
-      <c r="U109">
-        <v>1.8</v>
-      </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6832699</v>
+        <v>6832497</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>46</v>
+      </c>
+      <c r="K110">
+        <v>3.25</v>
+      </c>
+      <c r="L110">
+        <v>3.3</v>
+      </c>
+      <c r="M110">
+        <v>2.05</v>
+      </c>
+      <c r="N110">
+        <v>3.5</v>
+      </c>
+      <c r="O110">
+        <v>3.4</v>
+      </c>
+      <c r="P110">
+        <v>1.95</v>
+      </c>
+      <c r="Q110">
+        <v>0.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>5</v>
-      </c>
-      <c r="L110">
-        <v>4.333</v>
-      </c>
-      <c r="M110">
-        <v>1.5</v>
-      </c>
-      <c r="N110">
-        <v>7</v>
-      </c>
-      <c r="O110">
-        <v>5</v>
-      </c>
-      <c r="P110">
-        <v>1.3</v>
-      </c>
-      <c r="Q110">
-        <v>1.5</v>
-      </c>
-      <c r="R110">
-        <v>1.975</v>
-      </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y110">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J114" t="s">
         <v>47</v>
       </c>
       <c r="K114">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N114">
         <v>3.8</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10653,19 +10653,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,55 +10685,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>47</v>
       </c>
       <c r="K115">
+        <v>3.75</v>
+      </c>
+      <c r="L115">
         <v>3.6</v>
       </c>
-      <c r="L115">
-        <v>3.8</v>
-      </c>
       <c r="M115">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N115">
         <v>3.8</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,19 +10742,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>6</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6832506</v>
+        <v>6832505</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L118">
         <v>5</v>
       </c>
       <c r="M118">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="N118">
+        <v>5.75</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>1.444</v>
+      </c>
+      <c r="Q118">
         <v>1.25</v>
       </c>
-      <c r="O118">
-        <v>5.5</v>
-      </c>
-      <c r="P118">
-        <v>10</v>
-      </c>
-      <c r="Q118">
-        <v>-1.75</v>
-      </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6832505</v>
+        <v>6832506</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>0</v>
       </c>
-      <c r="I119">
-        <v>2</v>
-      </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L119">
         <v>5</v>
       </c>
       <c r="M119">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="N119">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O119">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P119">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="Q119">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
         <v>29</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6832519</v>
+        <v>6832514</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,13 +11842,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11857,43 +11857,43 @@
         <v>45</v>
       </c>
       <c r="K128">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N128">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P128">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R128">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11902,16 +11902,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832514</v>
+        <v>6832519</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,13 +11931,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11946,43 +11946,43 @@
         <v>45</v>
       </c>
       <c r="K129">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>2.025</v>
+      </c>
+      <c r="S129">
+        <v>1.775</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
-      <c r="U129">
-        <v>1.975</v>
-      </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA129">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12112,7 +12112,7 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6832521</v>
+        <v>6832525</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45226.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N135">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P135">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6832525</v>
+        <v>6832521</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45226.40625</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="L136">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="Q136">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y136">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>45</v>
+      </c>
+      <c r="K137">
+        <v>1.666</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>4.2</v>
+      </c>
+      <c r="N137">
+        <v>1.666</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>4.2</v>
+      </c>
+      <c r="Q137">
+        <v>-0.75</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
         <v>3</v>
       </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
-      <c r="J137" t="s">
-        <v>46</v>
-      </c>
-      <c r="K137">
-        <v>1.45</v>
-      </c>
-      <c r="L137">
-        <v>4.75</v>
-      </c>
-      <c r="M137">
-        <v>5.25</v>
-      </c>
-      <c r="N137">
-        <v>1.4</v>
-      </c>
-      <c r="O137">
-        <v>5</v>
-      </c>
-      <c r="P137">
-        <v>5.5</v>
-      </c>
-      <c r="Q137">
-        <v>-1.25</v>
-      </c>
-      <c r="R137">
-        <v>1.9</v>
-      </c>
-      <c r="S137">
-        <v>1.9</v>
-      </c>
-      <c r="T137">
-        <v>3.25</v>
-      </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X137">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L138">
+        <v>4.75</v>
+      </c>
+      <c r="M138">
+        <v>5.25</v>
+      </c>
+      <c r="N138">
+        <v>1.4</v>
+      </c>
+      <c r="O138">
+        <v>5</v>
+      </c>
+      <c r="P138">
+        <v>5.5</v>
+      </c>
+      <c r="Q138">
+        <v>-1.25</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
+        <v>3.25</v>
+      </c>
+      <c r="U138">
+        <v>1.925</v>
+      </c>
+      <c r="V138">
+        <v>1.875</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>4</v>
       </c>
-      <c r="M138">
-        <v>4.2</v>
-      </c>
-      <c r="N138">
-        <v>1.666</v>
-      </c>
-      <c r="O138">
-        <v>4</v>
-      </c>
-      <c r="P138">
-        <v>4.2</v>
-      </c>
-      <c r="Q138">
-        <v>-0.75</v>
-      </c>
-      <c r="R138">
-        <v>1.85</v>
-      </c>
-      <c r="S138">
-        <v>1.95</v>
-      </c>
-      <c r="T138">
-        <v>3</v>
-      </c>
-      <c r="U138">
-        <v>1.775</v>
-      </c>
-      <c r="V138">
-        <v>2.025</v>
-      </c>
-      <c r="W138">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,58 +12821,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>45</v>
       </c>
       <c r="K139">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M139">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N139">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P139">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q139">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
         <v>3.5</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12881,13 +12881,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>-0.5</v>
+      </c>
+      <c r="AA139">
+        <v>0.4625</v>
+      </c>
+      <c r="AB139">
         <v>0.95</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,58 +12910,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>45</v>
       </c>
       <c r="K140">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L140">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N140">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O140">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P140">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q140">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
         <v>3.5</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12970,13 +12970,13 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA140">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13622,7 +13622,7 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>40</v>
@@ -14070,7 +14070,7 @@
         <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14423,7 +14423,7 @@
         <v>45261.40625</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
         <v>44</v>
@@ -14871,7 +14871,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,73 +14957,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M163">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N163">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O163">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P163">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R163">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X163">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,73 +15046,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164" t="s">
+        <v>46</v>
+      </c>
+      <c r="K164">
+        <v>2.875</v>
+      </c>
+      <c r="L164">
+        <v>3.6</v>
+      </c>
+      <c r="M164">
+        <v>2.3</v>
+      </c>
+      <c r="N164">
+        <v>2.625</v>
+      </c>
+      <c r="O164">
+        <v>3.6</v>
+      </c>
+      <c r="P164">
+        <v>2.45</v>
+      </c>
+      <c r="Q164">
         <v>0</v>
       </c>
-      <c r="J164" t="s">
-        <v>45</v>
-      </c>
-      <c r="K164">
-        <v>1.222</v>
-      </c>
-      <c r="L164">
-        <v>6</v>
-      </c>
-      <c r="M164">
-        <v>8</v>
-      </c>
-      <c r="N164">
-        <v>1.25</v>
-      </c>
-      <c r="O164">
-        <v>6</v>
-      </c>
-      <c r="P164">
-        <v>6.5</v>
-      </c>
-      <c r="Q164">
-        <v>-1.75</v>
-      </c>
       <c r="R164">
+        <v>2.025</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
+        <v>3</v>
+      </c>
+      <c r="U164">
         <v>1.95</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.85</v>
       </c>
-      <c r="T164">
-        <v>3.5</v>
-      </c>
-      <c r="U164">
-        <v>1.875</v>
-      </c>
-      <c r="V164">
-        <v>1.925</v>
-      </c>
       <c r="W164">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>-0</v>
+      </c>
+      <c r="AB164">
         <v>0.95</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>0.875</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,73 +15135,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>4</v>
-      </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L165">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N165">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O165">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P165">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q165">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,73 +15224,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M166">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N166">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O166">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P166">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q166">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6832552</v>
+        <v>6832551</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L170">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M170">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="N170">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P170">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q170">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
         <v>1.95</v>
-      </c>
-      <c r="S170">
-        <v>1.85</v>
       </c>
       <c r="T170">
         <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z170">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6832551</v>
+        <v>6832552</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H171">
+        <v>4</v>
+      </c>
+      <c r="I171">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>2</v>
-      </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K171">
+        <v>1.3</v>
+      </c>
+      <c r="L171">
         <v>5.25</v>
       </c>
-      <c r="L171">
-        <v>4.75</v>
-      </c>
       <c r="M171">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="N171">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O171">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P171">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q171">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R171">
+        <v>1.95</v>
+      </c>
+      <c r="S171">
         <v>1.85</v>
-      </c>
-      <c r="S171">
-        <v>1.95</v>
       </c>
       <c r="T171">
         <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>45276.40625</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
         <v>38</v>
@@ -16473,7 +16473,7 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -17074,6 +17074,524 @@
       </c>
       <c r="AC186">
         <v>1.025</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>6832568</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45346.4375</v>
+      </c>
+      <c r="F187" t="s">
+        <v>44</v>
+      </c>
+      <c r="G187" t="s">
+        <v>37</v>
+      </c>
+      <c r="K187">
+        <v>2.9</v>
+      </c>
+      <c r="L187">
+        <v>3.6</v>
+      </c>
+      <c r="M187">
+        <v>2.15</v>
+      </c>
+      <c r="N187">
+        <v>3.2</v>
+      </c>
+      <c r="O187">
+        <v>3.6</v>
+      </c>
+      <c r="P187">
+        <v>2</v>
+      </c>
+      <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
+        <v>3</v>
+      </c>
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>1.85</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>6832569</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45346.4375</v>
+      </c>
+      <c r="F188" t="s">
+        <v>43</v>
+      </c>
+      <c r="G188" t="s">
+        <v>30</v>
+      </c>
+      <c r="K188">
+        <v>7</v>
+      </c>
+      <c r="L188">
+        <v>6.5</v>
+      </c>
+      <c r="M188">
+        <v>1.285</v>
+      </c>
+      <c r="N188">
+        <v>8.5</v>
+      </c>
+      <c r="O188">
+        <v>7.5</v>
+      </c>
+      <c r="P188">
+        <v>1.2</v>
+      </c>
+      <c r="Q188">
+        <v>2</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>1.8</v>
+      </c>
+      <c r="T188">
+        <v>3.75</v>
+      </c>
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>6832566</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45346.54166666666</v>
+      </c>
+      <c r="F189" t="s">
+        <v>42</v>
+      </c>
+      <c r="G189" t="s">
+        <v>38</v>
+      </c>
+      <c r="K189">
+        <v>1.533</v>
+      </c>
+      <c r="L189">
+        <v>4.5</v>
+      </c>
+      <c r="M189">
+        <v>4.333</v>
+      </c>
+      <c r="N189">
+        <v>1.615</v>
+      </c>
+      <c r="O189">
+        <v>4.5</v>
+      </c>
+      <c r="P189">
+        <v>4</v>
+      </c>
+      <c r="Q189">
+        <v>-0.75</v>
+      </c>
+      <c r="R189">
+        <v>1.8</v>
+      </c>
+      <c r="S189">
+        <v>2</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
+        <v>1.9</v>
+      </c>
+      <c r="V189">
+        <v>1.9</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>6832567</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45346.54166666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" t="s">
+        <v>29</v>
+      </c>
+      <c r="K190">
+        <v>1.571</v>
+      </c>
+      <c r="L190">
+        <v>4.333</v>
+      </c>
+      <c r="M190">
+        <v>4.333</v>
+      </c>
+      <c r="N190">
+        <v>1.571</v>
+      </c>
+      <c r="O190">
+        <v>4.333</v>
+      </c>
+      <c r="P190">
+        <v>4.333</v>
+      </c>
+      <c r="Q190">
+        <v>-1</v>
+      </c>
+      <c r="R190">
+        <v>1.925</v>
+      </c>
+      <c r="S190">
+        <v>1.875</v>
+      </c>
+      <c r="T190">
+        <v>3.25</v>
+      </c>
+      <c r="U190">
+        <v>1.95</v>
+      </c>
+      <c r="V190">
+        <v>1.85</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>6832570</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45347.4375</v>
+      </c>
+      <c r="F191" t="s">
+        <v>32</v>
+      </c>
+      <c r="G191" t="s">
+        <v>40</v>
+      </c>
+      <c r="K191">
+        <v>4.75</v>
+      </c>
+      <c r="L191">
+        <v>4.2</v>
+      </c>
+      <c r="M191">
+        <v>1.55</v>
+      </c>
+      <c r="N191">
+        <v>5</v>
+      </c>
+      <c r="O191">
+        <v>4.2</v>
+      </c>
+      <c r="P191">
+        <v>1.533</v>
+      </c>
+      <c r="Q191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>1.9</v>
+      </c>
+      <c r="S191">
+        <v>1.9</v>
+      </c>
+      <c r="T191">
+        <v>2.75</v>
+      </c>
+      <c r="U191">
+        <v>1.775</v>
+      </c>
+      <c r="V191">
+        <v>2.025</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>6832565</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45347.4375</v>
+      </c>
+      <c r="F192" t="s">
+        <v>41</v>
+      </c>
+      <c r="G192" t="s">
+        <v>33</v>
+      </c>
+      <c r="K192">
+        <v>1.3</v>
+      </c>
+      <c r="L192">
+        <v>5.75</v>
+      </c>
+      <c r="M192">
+        <v>6.5</v>
+      </c>
+      <c r="N192">
+        <v>1.333</v>
+      </c>
+      <c r="O192">
+        <v>5.5</v>
+      </c>
+      <c r="P192">
+        <v>6</v>
+      </c>
+      <c r="Q192">
+        <v>-1.5</v>
+      </c>
+      <c r="R192">
+        <v>1.85</v>
+      </c>
+      <c r="S192">
+        <v>1.95</v>
+      </c>
+      <c r="T192">
+        <v>3.5</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.8</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6832712</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45347.54166666666</v>
+      </c>
+      <c r="F193" t="s">
+        <v>35</v>
+      </c>
+      <c r="G193" t="s">
+        <v>36</v>
+      </c>
+      <c r="K193">
+        <v>6.5</v>
+      </c>
+      <c r="L193">
+        <v>5</v>
+      </c>
+      <c r="M193">
+        <v>1.363</v>
+      </c>
+      <c r="N193">
+        <v>7</v>
+      </c>
+      <c r="O193">
+        <v>5.25</v>
+      </c>
+      <c r="P193">
+        <v>1.3</v>
+      </c>
+      <c r="Q193">
+        <v>1.5</v>
+      </c>
+      <c r="R193">
+        <v>1.95</v>
+      </c>
+      <c r="S193">
+        <v>1.85</v>
+      </c>
+      <c r="T193">
+        <v>3.5</v>
+      </c>
+      <c r="U193">
+        <v>1.975</v>
+      </c>
+      <c r="V193">
+        <v>1.825</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -103,22 +103,22 @@
     <t>UAE Premier League</t>
   </si>
   <si>
+    <t>Al Wasl SC</t>
+  </si>
+  <si>
     <t>Al Ittihad Kalba</t>
   </si>
   <si>
-    <t>Al Wasl SC</t>
+    <t>Al Bataeh</t>
   </si>
   <si>
     <t>Sharjah SCC</t>
   </si>
   <si>
-    <t>Al Bataeh</t>
+    <t>Al Dhafra SCC</t>
   </si>
   <si>
     <t>Ajman SCC</t>
-  </si>
-  <si>
-    <t>Al Dhafra SCC</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -154,10 +154,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5374839</v>
+        <v>5386589</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,55 +631,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="O2">
         <v>3.6</v>
       </c>
       <c r="P2">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>3.333</v>
+        <v>0.615</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5386589</v>
+        <v>5374839</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,55 +720,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N3">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="O3">
         <v>3.6</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>0.615</v>
+        <v>3.333</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,16 +777,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5374812</v>
+        <v>5386587</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5386587</v>
+        <v>5374812</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M5">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y5">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5374838</v>
+        <v>5386588</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,70 +987,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
+        <v>2.55</v>
+      </c>
+      <c r="N6">
         <v>2.1</v>
       </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.825</v>
-      </c>
-      <c r="AB6">
-        <v>0.875</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5386588</v>
+        <v>5374838</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,70 +1076,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <v>0.825</v>
+      </c>
+      <c r="AB7">
         <v>0.875</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>3.3</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1352,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>2.6</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>44953.54166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>1.909</v>
@@ -1607,10 +1607,10 @@
         <v>44954.42708333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>3.5</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>5.5</v>
@@ -1788,7 +1788,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>1.7</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6187896</v>
+        <v>6187897</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,13 +1874,13 @@
         <v>44961.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1889,43 +1889,43 @@
         <v>45</v>
       </c>
       <c r="K16">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="N16">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.8</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>0.181</v>
+        <v>2.1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6187897</v>
+        <v>6187896</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,13 +1963,13 @@
         <v>44961.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1978,43 +1978,43 @@
         <v>45</v>
       </c>
       <c r="K17">
+        <v>1.222</v>
+      </c>
+      <c r="L17">
+        <v>5.5</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>1.181</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>11</v>
+      </c>
+      <c r="Q17">
+        <v>-2</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1.8</v>
+      </c>
+      <c r="T17">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>3.25</v>
-      </c>
-      <c r="M17">
-        <v>2.15</v>
-      </c>
-      <c r="N17">
-        <v>3.1</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
-      <c r="P17">
-        <v>2.1</v>
-      </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>1.9</v>
-      </c>
-      <c r="S17">
-        <v>1.9</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
       <c r="U17">
+        <v>1.8</v>
+      </c>
+      <c r="V17">
         <v>2</v>
       </c>
-      <c r="V17">
-        <v>1.8</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>0.181</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2055,7 +2055,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>4.75</v>
@@ -2141,7 +2141,7 @@
         <v>44962.4375</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2153,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>4.5</v>
@@ -2230,7 +2230,7 @@
         <v>44962.4375</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
@@ -2242,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>8.5</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6187902</v>
+        <v>6187901</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,37 +2319,37 @@
         <v>44962.55208333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L21">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M21">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q21">
         <v>-1.25</v>
@@ -2364,31 +2364,31 @@
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6187901</v>
+        <v>6187902</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,37 +2408,37 @@
         <v>44962.55208333334</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L22">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N22">
         <v>1.4</v>
       </c>
       <c r="O22">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q22">
         <v>-1.25</v>
@@ -2453,31 +2453,31 @@
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X22">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,10 +2497,10 @@
         <v>44967.4375</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2586,10 +2586,10 @@
         <v>44967.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>3.1</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6187905</v>
+        <v>6187906</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>44967.55208333334</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <v>2.2</v>
+      </c>
+      <c r="L25">
+        <v>3.2</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>2.6</v>
+      </c>
+      <c r="O25">
+        <v>2.9</v>
+      </c>
+      <c r="P25">
+        <v>2.7</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25">
-        <v>1.75</v>
-      </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>1.65</v>
-      </c>
-      <c r="O25">
-        <v>3.8</v>
-      </c>
-      <c r="P25">
-        <v>4.2</v>
-      </c>
-      <c r="Q25">
-        <v>-0.75</v>
-      </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6187906</v>
+        <v>6187905</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>44967.55208333334</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.65</v>
+      </c>
+      <c r="O26">
+        <v>3.8</v>
+      </c>
+      <c r="P26">
+        <v>4.2</v>
+      </c>
+      <c r="Q26">
+        <v>-0.75</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="N26">
-        <v>2.6</v>
-      </c>
-      <c r="O26">
-        <v>2.9</v>
-      </c>
-      <c r="P26">
-        <v>2.7</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="U26">
         <v>1.875</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.925</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>2</v>
-      </c>
-      <c r="V26">
-        <v>1.8</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X26">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6187907</v>
+        <v>6187908</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>46</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N27">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1.85</v>
+      </c>
+      <c r="S27">
+        <v>1.95</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>1.8</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
         <v>0.5</v>
       </c>
-      <c r="R27">
-        <v>1.95</v>
-      </c>
-      <c r="S27">
-        <v>1.85</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>1.825</v>
-      </c>
-      <c r="V27">
-        <v>1.975</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>2.6</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
       <c r="Z27">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6187908</v>
+        <v>6187907</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28">
+        <v>3.3</v>
+      </c>
+      <c r="M28">
+        <v>2.15</v>
+      </c>
+      <c r="N28">
         <v>3.6</v>
       </c>
-      <c r="M28">
-        <v>1.7</v>
-      </c>
-      <c r="N28">
-        <v>5.25</v>
-      </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
         <v>1.85</v>
       </c>
-      <c r="S28">
-        <v>1.95</v>
-      </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6187911</v>
+        <v>6187912</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
         <v>1.5</v>
       </c>
       <c r="N31">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O31">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P31">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q31">
         <v>1.25</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z31">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6187912</v>
+        <v>6187911</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M32">
         <v>1.5</v>
       </c>
       <c r="N32">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O32">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P32">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q32">
         <v>1.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>44974.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6187914</v>
+        <v>6187915</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>1.571</v>
+        <v>1.222</v>
       </c>
       <c r="L34">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M34">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="N34">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P34">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>0.615</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6187915</v>
+        <v>6187914</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,58 +3565,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
         <v>2</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
       <c r="K35">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="L35">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="M35">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="N35">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O35">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q35">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>44987.4375</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>37</v>
@@ -3755,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>2.875</v>
@@ -3924,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3933,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>2.2</v>
@@ -4010,7 +4010,7 @@
         <v>44987.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -4022,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>4.2</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6187921</v>
+        <v>6187920</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,55 +4099,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41">
+        <v>2.7</v>
+      </c>
+      <c r="L41">
+        <v>3.4</v>
+      </c>
+      <c r="M41">
+        <v>2.3</v>
+      </c>
+      <c r="N41">
+        <v>3.6</v>
+      </c>
+      <c r="O41">
+        <v>3.6</v>
+      </c>
+      <c r="P41">
+        <v>1.8</v>
+      </c>
+      <c r="Q41">
+        <v>0.5</v>
+      </c>
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="J41" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41">
-        <v>4.75</v>
-      </c>
-      <c r="L41">
-        <v>4</v>
-      </c>
-      <c r="M41">
-        <v>1.571</v>
-      </c>
-      <c r="N41">
-        <v>6.5</v>
-      </c>
-      <c r="O41">
-        <v>4.333</v>
-      </c>
-      <c r="P41">
-        <v>1.4</v>
-      </c>
-      <c r="Q41">
-        <v>1.25</v>
-      </c>
-      <c r="R41">
-        <v>1.9</v>
-      </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4156,19 +4156,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6187920</v>
+        <v>6187921</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,55 +4188,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="N42">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4245,19 +4245,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>44988.55208333334</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -4289,7 +4289,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>1.85</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6187922</v>
+        <v>6187926</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4366,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>1.95</v>
+      </c>
+      <c r="V44">
+        <v>1.85</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
         <v>2.75</v>
       </c>
-      <c r="U44">
-        <v>1.8</v>
-      </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>2.25</v>
-      </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6187926</v>
+        <v>6187922</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
+        <v>2.4</v>
+      </c>
+      <c r="O45">
+        <v>3.25</v>
+      </c>
+      <c r="P45">
+        <v>2.55</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <v>1.8</v>
       </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.5</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.875</v>
-      </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4556,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>3.5</v>
@@ -4645,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>2.6</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6188376</v>
+        <v>6187925</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48">
+        <v>1.909</v>
+      </c>
+      <c r="L48">
+        <v>3.5</v>
+      </c>
+      <c r="M48">
+        <v>3.3</v>
+      </c>
+      <c r="N48">
+        <v>1.8</v>
+      </c>
+      <c r="O48">
+        <v>3.4</v>
+      </c>
+      <c r="P48">
+        <v>4</v>
+      </c>
+      <c r="Q48">
+        <v>-0.5</v>
+      </c>
+      <c r="R48">
+        <v>1.8</v>
+      </c>
+      <c r="S48">
         <v>2</v>
       </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48">
-        <v>2.625</v>
-      </c>
-      <c r="L48">
-        <v>3.4</v>
-      </c>
-      <c r="M48">
-        <v>2.3</v>
-      </c>
-      <c r="N48">
-        <v>2.25</v>
-      </c>
-      <c r="O48">
-        <v>3.3</v>
-      </c>
-      <c r="P48">
-        <v>2.75</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>2.05</v>
-      </c>
-      <c r="S48">
-        <v>1.75</v>
-      </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6187925</v>
+        <v>6188376</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
+        <v>2.3</v>
+      </c>
+      <c r="N49">
+        <v>2.25</v>
+      </c>
+      <c r="O49">
         <v>3.3</v>
       </c>
-      <c r="N49">
-        <v>1.8</v>
-      </c>
-      <c r="O49">
-        <v>3.4</v>
-      </c>
       <c r="P49">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,10 +4900,10 @@
         <v>44996.5625</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2.5</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6236618</v>
+        <v>6236425</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45002.44791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N51">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6236425</v>
+        <v>6236618</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45002.44791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N52">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="O52">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P52">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>1.444</v>
@@ -5256,7 +5256,7 @@
         <v>45002.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -5268,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>7</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6236424</v>
+        <v>6236426</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,40 +5345,40 @@
         <v>45003.44791666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N55">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="O55">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P55">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q55">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R55">
         <v>1.95</v>
@@ -5387,19 +5387,19 @@
         <v>1.85</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X55">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5414,7 +5414,7 @@
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6236426</v>
+        <v>6236424</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,40 +5434,40 @@
         <v>45003.44791666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.222</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="O56">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P56">
-        <v>9.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q56">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
         <v>1.95</v>
@@ -5476,19 +5476,19 @@
         <v>1.85</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5503,7 +5503,7 @@
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,10 +5523,10 @@
         <v>45003.5625</v>
       </c>
       <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
         <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>2.875</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6236428</v>
+        <v>6236623</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,40 +5612,40 @@
         <v>45016.625</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O58">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
         <v>1.95</v>
@@ -5654,34 +5654,34 @@
         <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6236623</v>
+        <v>6236428</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,40 +5701,40 @@
         <v>45016.625</v>
       </c>
       <c r="F59" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s">
         <v>32</v>
       </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N59">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P59">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="Q59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R59">
         <v>1.95</v>
@@ -5743,34 +5743,34 @@
         <v>1.85</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6236427</v>
+        <v>6236624</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45017.625</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J60" t="s">
         <v>46</v>
       </c>
       <c r="K60">
+        <v>3.4</v>
+      </c>
+      <c r="L60">
+        <v>3.6</v>
+      </c>
+      <c r="M60">
         <v>1.909</v>
       </c>
-      <c r="L60">
-        <v>3.75</v>
-      </c>
-      <c r="M60">
-        <v>3.5</v>
-      </c>
       <c r="N60">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O60">
         <v>3.75</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6236624</v>
+        <v>6236429</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,55 +5879,55 @@
         <v>45017.625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>2</v>
       </c>
-      <c r="I61">
-        <v>4</v>
-      </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61">
+        <v>2.15</v>
+      </c>
+      <c r="L61">
         <v>3.4</v>
       </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
       <c r="M61">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N61">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5936,19 +5936,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6236429</v>
+        <v>6236427</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45017.625</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M62">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N62">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
+        <v>1.825</v>
+      </c>
+      <c r="S62">
         <v>1.975</v>
       </c>
-      <c r="S62">
-        <v>1.825</v>
-      </c>
       <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="U62">
+        <v>1.95</v>
+      </c>
+      <c r="V62">
+        <v>1.85</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>2.75</v>
       </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
       <c r="Y62">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB62">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6238,7 +6238,7 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6247,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>2.4</v>
@@ -6416,7 +6416,7 @@
         <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6236431</v>
+        <v>6236626</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,58 +6502,58 @@
         <v>45025.625</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
-        <v>1.2</v>
+        <v>2.875</v>
       </c>
       <c r="L68">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O68">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="Q68">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.125</v>
+        <v>2.8</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6236626</v>
+        <v>6236431</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,58 +6591,58 @@
         <v>45025.625</v>
       </c>
       <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
         <v>33</v>
       </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N69">
-        <v>3.8</v>
+        <v>1.125</v>
       </c>
       <c r="O69">
+        <v>7.5</v>
+      </c>
+      <c r="P69">
+        <v>15</v>
+      </c>
+      <c r="Q69">
+        <v>-2.25</v>
+      </c>
+      <c r="R69">
+        <v>1.875</v>
+      </c>
+      <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
         <v>3.5</v>
       </c>
-      <c r="P69">
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.8</v>
       </c>
-      <c r="Q69">
-        <v>0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
       <c r="W69">
-        <v>2.8</v>
+        <v>0.125</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6692,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
         <v>5</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>7</v>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6236433</v>
+        <v>6236629</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,73 +6858,73 @@
         <v>45034.625</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
         <v>46</v>
       </c>
       <c r="K72">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="Q72">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6236632</v>
+        <v>6236433</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45034.625</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6236629</v>
+        <v>6236632</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,55 +7125,55 @@
         <v>45034.625</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75">
+      <c r="J75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75">
+        <v>2.1</v>
+      </c>
+      <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
         <v>3</v>
       </c>
-      <c r="J75" t="s">
-        <v>47</v>
-      </c>
-      <c r="K75">
-        <v>3.2</v>
-      </c>
-      <c r="L75">
-        <v>3.5</v>
-      </c>
-      <c r="M75">
-        <v>2</v>
-      </c>
       <c r="N75">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
+        <v>2.55</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
         <v>1.95</v>
       </c>
-      <c r="Q75">
-        <v>0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7182,19 +7182,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
+        <v>1.55</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
         <v>0.95</v>
       </c>
-      <c r="Z75">
-        <v>-1</v>
-      </c>
-      <c r="AA75">
-        <v>1</v>
-      </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7217,7 +7217,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6236630</v>
+        <v>6236631</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,73 +7306,73 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77" t="s">
+        <v>46</v>
+      </c>
+      <c r="K77">
+        <v>2.1</v>
+      </c>
+      <c r="L77">
+        <v>3.5</v>
+      </c>
+      <c r="M77">
+        <v>2.9</v>
+      </c>
+      <c r="N77">
+        <v>2.2</v>
+      </c>
+      <c r="O77">
+        <v>3.5</v>
+      </c>
+      <c r="P77">
+        <v>2.7</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
         <v>3</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K77">
-        <v>1.55</v>
-      </c>
-      <c r="L77">
-        <v>3.8</v>
-      </c>
-      <c r="M77">
-        <v>5</v>
-      </c>
-      <c r="N77">
-        <v>1.533</v>
-      </c>
-      <c r="O77">
-        <v>4</v>
-      </c>
-      <c r="P77">
-        <v>5</v>
-      </c>
-      <c r="Q77">
-        <v>-1</v>
-      </c>
-      <c r="R77">
-        <v>1.925</v>
-      </c>
-      <c r="S77">
-        <v>1.875</v>
-      </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
       <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
         <v>1.8</v>
       </c>
-      <c r="V77">
-        <v>2</v>
-      </c>
       <c r="W77">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6236631</v>
+        <v>6236630</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,73 +7395,73 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="J78" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78">
+        <v>1.55</v>
+      </c>
+      <c r="L78">
+        <v>3.8</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>1.533</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78">
+        <v>5</v>
+      </c>
+      <c r="Q78">
+        <v>-1</v>
+      </c>
+      <c r="R78">
+        <v>1.925</v>
+      </c>
+      <c r="S78">
+        <v>1.875</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.8</v>
+      </c>
+      <c r="V78">
         <v>2</v>
       </c>
-      <c r="J78" t="s">
-        <v>47</v>
-      </c>
-      <c r="K78">
-        <v>2.1</v>
-      </c>
-      <c r="L78">
-        <v>3.5</v>
-      </c>
-      <c r="M78">
-        <v>2.9</v>
-      </c>
-      <c r="N78">
-        <v>2.2</v>
-      </c>
-      <c r="O78">
-        <v>3.5</v>
-      </c>
-      <c r="P78">
-        <v>2.7</v>
-      </c>
-      <c r="Q78">
-        <v>-0.25</v>
-      </c>
-      <c r="R78">
-        <v>2</v>
-      </c>
-      <c r="S78">
-        <v>1.8</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-      <c r="V78">
-        <v>1.8</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,10 +7481,10 @@
         <v>45039.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>1.363</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6236438</v>
+        <v>6236634</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,10 +7570,10 @@
         <v>45039.57291666666</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7582,61 +7582,61 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M80">
+        <v>1.6</v>
+      </c>
+      <c r="N80">
+        <v>6</v>
+      </c>
+      <c r="O80">
         <v>4.5</v>
       </c>
-      <c r="N80">
-        <v>1.65</v>
-      </c>
-      <c r="O80">
-        <v>3.8</v>
-      </c>
       <c r="P80">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
+        <v>1.975</v>
+      </c>
+      <c r="V80">
         <v>1.825</v>
       </c>
-      <c r="V80">
-        <v>1.975</v>
-      </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6236634</v>
+        <v>6236438</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,10 +7659,10 @@
         <v>45039.57291666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7671,61 +7671,61 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
+        <v>1.615</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>4.5</v>
+      </c>
+      <c r="N81">
+        <v>1.65</v>
+      </c>
+      <c r="O81">
+        <v>3.8</v>
+      </c>
+      <c r="P81">
         <v>4.333</v>
       </c>
-      <c r="L81">
-        <v>4.2</v>
-      </c>
-      <c r="M81">
-        <v>1.6</v>
-      </c>
-      <c r="N81">
-        <v>6</v>
-      </c>
-      <c r="O81">
-        <v>4.5</v>
-      </c>
-      <c r="P81">
-        <v>1.4</v>
-      </c>
       <c r="Q81">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
+        <v>1.875</v>
+      </c>
+      <c r="S81">
+        <v>1.925</v>
+      </c>
+      <c r="T81">
+        <v>2.75</v>
+      </c>
+      <c r="U81">
+        <v>1.825</v>
+      </c>
+      <c r="V81">
         <v>1.975</v>
       </c>
-      <c r="S81">
-        <v>1.825</v>
-      </c>
-      <c r="T81">
-        <v>3.25</v>
-      </c>
-      <c r="U81">
-        <v>1.975</v>
-      </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6236633</v>
+        <v>6236636</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>2</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>1.571</v>
+      </c>
+      <c r="N82">
+        <v>5.75</v>
+      </c>
+      <c r="O82">
         <v>4.5</v>
       </c>
-      <c r="M82">
-        <v>5.5</v>
-      </c>
-      <c r="N82">
+      <c r="P82">
+        <v>1.444</v>
+      </c>
+      <c r="Q82">
         <v>1.25</v>
       </c>
-      <c r="O82">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>9</v>
-      </c>
-      <c r="Q82">
-        <v>-1.75</v>
-      </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6236636</v>
+        <v>6236633</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M83">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N83">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P83">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q83">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8104,7 +8104,7 @@
         <v>45052.46875</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8116,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>1.4</v>
@@ -8193,7 +8193,7 @@
         <v>45052.46875</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>42</v>
@@ -8282,7 +8282,7 @@
         <v>45052.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8371,7 +8371,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8383,7 +8383,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>3.3</v>
@@ -8460,7 +8460,7 @@
         <v>45053.46875</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>37</v>
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>1.833</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6236441</v>
+        <v>6236639</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,55 +8549,55 @@
         <v>45053.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="N91">
         <v>4.75</v>
       </c>
       <c r="O91">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P91">
         <v>1.5</v>
       </c>
       <c r="Q91">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
         <v>3</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8609,16 +8609,16 @@
         <v>0.5</v>
       </c>
       <c r="Z91">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6236639</v>
+        <v>6236441</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,55 +8638,55 @@
         <v>45053.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>2</v>
       </c>
-      <c r="I92">
-        <v>3</v>
-      </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="N92">
         <v>4.75</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P92">
         <v>1.5</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8698,16 +8698,16 @@
         <v>0.5</v>
       </c>
       <c r="Z92">
+        <v>0.3875</v>
+      </c>
+      <c r="AA92">
+        <v>-0.5</v>
+      </c>
+      <c r="AB92">
         <v>0</v>
       </c>
-      <c r="AA92">
+      <c r="AC92">
         <v>-0</v>
-      </c>
-      <c r="AB92">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8819,7 +8819,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>5</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>3.75</v>
@@ -8908,7 +8908,7 @@
         <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236642</v>
+        <v>6236641</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M96">
+        <v>9</v>
+      </c>
+      <c r="N96">
+        <v>1.142</v>
+      </c>
+      <c r="O96">
         <v>7</v>
       </c>
-      <c r="N96">
-        <v>1.285</v>
-      </c>
-      <c r="O96">
-        <v>5.5</v>
-      </c>
       <c r="P96">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Q96">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X96">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236641</v>
+        <v>6236642</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97">
+        <v>1.3</v>
+      </c>
+      <c r="L97">
         <v>5</v>
       </c>
-      <c r="I97">
+      <c r="M97">
+        <v>7</v>
+      </c>
+      <c r="N97">
+        <v>1.285</v>
+      </c>
+      <c r="O97">
+        <v>5.5</v>
+      </c>
+      <c r="P97">
+        <v>7.5</v>
+      </c>
+      <c r="Q97">
+        <v>-1.75</v>
+      </c>
+      <c r="R97">
         <v>2</v>
       </c>
-      <c r="J97" t="s">
-        <v>45</v>
-      </c>
-      <c r="K97">
-        <v>1.181</v>
-      </c>
-      <c r="L97">
-        <v>6.5</v>
-      </c>
-      <c r="M97">
-        <v>9</v>
-      </c>
-      <c r="N97">
-        <v>1.142</v>
-      </c>
-      <c r="O97">
-        <v>7</v>
-      </c>
-      <c r="P97">
-        <v>13</v>
-      </c>
-      <c r="Q97">
-        <v>-2.25</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>1.3</v>
@@ -9264,7 +9264,7 @@
         <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6832493</v>
+        <v>6832491</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,56 +9350,56 @@
         <v>45156.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100" t="s">
+        <v>46</v>
+      </c>
+      <c r="K100">
+        <v>3.8</v>
+      </c>
+      <c r="L100">
+        <v>3.6</v>
+      </c>
+      <c r="M100">
+        <v>1.8</v>
+      </c>
+      <c r="N100">
+        <v>3.8</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
+        <v>1.8</v>
+      </c>
+      <c r="Q100">
+        <v>0.5</v>
+      </c>
+      <c r="R100">
         <v>2</v>
       </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>1.25</v>
-      </c>
-      <c r="L100">
-        <v>6</v>
-      </c>
-      <c r="M100">
-        <v>8.5</v>
-      </c>
-      <c r="N100">
-        <v>1.25</v>
-      </c>
-      <c r="O100">
-        <v>6</v>
-      </c>
-      <c r="P100">
-        <v>8.5</v>
-      </c>
-      <c r="Q100">
-        <v>-1.75</v>
-      </c>
-      <c r="R100">
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
+        <v>1.925</v>
+      </c>
+      <c r="V100">
         <v>1.875</v>
       </c>
-      <c r="S100">
-        <v>1.925</v>
-      </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.8</v>
+      </c>
+      <c r="AB100">
         <v>0.925</v>
       </c>
-      <c r="AB100">
-        <v>-0.5</v>
-      </c>
       <c r="AC100">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6832491</v>
+        <v>6832493</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,55 +9439,55 @@
         <v>45156.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
         <v>31</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N101">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P101">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>45156.5625</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
         <v>41</v>
@@ -9540,7 +9540,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>4.2</v>
@@ -9795,7 +9795,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
         <v>43</v>
@@ -9896,7 +9896,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>3.2</v>
@@ -9976,7 +9976,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -9985,7 +9985,7 @@
         <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>3.5</v>
@@ -10074,7 +10074,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>2.375</v>
@@ -10163,7 +10163,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>5</v>
@@ -10240,10 +10240,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>3.25</v>
@@ -10507,10 +10507,10 @@
         <v>45165.5625</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>2.05</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K114">
+        <v>3.75</v>
+      </c>
+      <c r="L114">
         <v>3.6</v>
       </c>
-      <c r="L114">
-        <v>3.8</v>
-      </c>
       <c r="M114">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N114">
         <v>3.8</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P114">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10653,19 +10653,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,55 +10685,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N115">
         <v>3.8</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P115">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,19 +10742,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>1.727</v>
@@ -10866,7 +10866,7 @@
         <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>6</v>
@@ -10952,7 +10952,7 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>41</v>
@@ -10964,7 +10964,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
         <v>5.75</v>
@@ -11130,7 +11130,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11231,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>3.6</v>
@@ -11308,7 +11308,7 @@
         <v>45197.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11320,7 +11320,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>2.9</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J123" t="s">
         <v>46</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>1.8</v>
+      </c>
+      <c r="O124">
+        <v>4</v>
+      </c>
+      <c r="P124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.55</v>
-      </c>
-      <c r="N124">
-        <v>2.875</v>
-      </c>
-      <c r="O124">
-        <v>3.6</v>
-      </c>
-      <c r="P124">
-        <v>2.15</v>
-      </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
+        <v>3.25</v>
+      </c>
+      <c r="U124">
+        <v>1.925</v>
+      </c>
+      <c r="V124">
+        <v>1.875</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
         <v>3</v>
       </c>
-      <c r="U124">
-        <v>1.9</v>
-      </c>
-      <c r="V124">
-        <v>1.9</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
       <c r="Y124">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11756,7 +11756,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11765,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>5</v>
@@ -11842,7 +11842,7 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>44</v>
@@ -11931,7 +11931,7 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12109,10 +12109,10 @@
         <v>45206.43055555555</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12210,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K132">
         <v>2.5</v>
@@ -12290,7 +12290,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12299,7 +12299,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
         <v>4.333</v>
@@ -12468,7 +12468,7 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>5</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>6.5</v>
@@ -12554,10 +12554,10 @@
         <v>45226.40625</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>2.9</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L137">
+        <v>4.75</v>
+      </c>
+      <c r="M137">
+        <v>5.25</v>
+      </c>
+      <c r="N137">
+        <v>1.4</v>
+      </c>
+      <c r="O137">
+        <v>5</v>
+      </c>
+      <c r="P137">
+        <v>5.5</v>
+      </c>
+      <c r="Q137">
+        <v>-1.25</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>3.25</v>
+      </c>
+      <c r="U137">
+        <v>1.925</v>
+      </c>
+      <c r="V137">
+        <v>1.875</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>4</v>
       </c>
-      <c r="M137">
-        <v>4.2</v>
-      </c>
-      <c r="N137">
-        <v>1.666</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <v>4.2</v>
-      </c>
-      <c r="Q137">
-        <v>-0.75</v>
-      </c>
-      <c r="R137">
-        <v>1.85</v>
-      </c>
-      <c r="S137">
-        <v>1.95</v>
-      </c>
-      <c r="T137">
-        <v>3</v>
-      </c>
-      <c r="U137">
-        <v>1.775</v>
-      </c>
-      <c r="V137">
-        <v>2.025</v>
-      </c>
-      <c r="W137">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>45</v>
+      </c>
+      <c r="K138">
+        <v>1.666</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>4.2</v>
+      </c>
+      <c r="N138">
+        <v>1.666</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138">
+        <v>4.2</v>
+      </c>
+      <c r="Q138">
+        <v>-0.75</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>1.95</v>
+      </c>
+      <c r="T138">
         <v>3</v>
       </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
-      <c r="J138" t="s">
-        <v>46</v>
-      </c>
-      <c r="K138">
-        <v>1.45</v>
-      </c>
-      <c r="L138">
-        <v>4.75</v>
-      </c>
-      <c r="M138">
-        <v>5.25</v>
-      </c>
-      <c r="N138">
-        <v>1.4</v>
-      </c>
-      <c r="O138">
-        <v>5</v>
-      </c>
-      <c r="P138">
-        <v>5.5</v>
-      </c>
-      <c r="Q138">
-        <v>-1.25</v>
-      </c>
-      <c r="R138">
-        <v>1.9</v>
-      </c>
-      <c r="S138">
-        <v>1.9</v>
-      </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X138">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,58 +12821,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>45</v>
       </c>
       <c r="K139">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L139">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N139">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O139">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P139">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q139">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
         <v>3.5</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12881,13 +12881,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,58 +12910,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>45</v>
       </c>
       <c r="K140">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M140">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N140">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O140">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P140">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q140">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>3.5</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12970,13 +12970,13 @@
         <v>-1</v>
       </c>
       <c r="Z140">
+        <v>-0.5</v>
+      </c>
+      <c r="AA140">
+        <v>0.4625</v>
+      </c>
+      <c r="AB140">
         <v>0.95</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12999,7 +12999,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
         <v>35</v>
@@ -13091,7 +13091,7 @@
         <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13100,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
         <v>2.25</v>
@@ -13177,7 +13177,7 @@
         <v>45232.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
         <v>36</v>
@@ -13269,7 +13269,7 @@
         <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13278,7 +13278,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K144">
         <v>1.6</v>
@@ -13367,7 +13367,7 @@
         <v>4</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>1.8</v>
@@ -13444,7 +13444,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>41</v>
@@ -13456,7 +13456,7 @@
         <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
         <v>4.75</v>
@@ -13622,7 +13622,7 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
         <v>40</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>4.5</v>
@@ -13711,10 +13711,10 @@
         <v>45253.52083333334</v>
       </c>
       <c r="F149" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" t="s">
         <v>32</v>
-      </c>
-      <c r="G149" t="s">
-        <v>31</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13723,7 +13723,7 @@
         <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>4.5</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6832537</v>
+        <v>7499792</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L150">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N150">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O150">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7499792</v>
+        <v>6832537</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K151">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M151">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N151">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P151">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -13990,7 +13990,7 @@
         <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>2.4</v>
@@ -14070,7 +14070,7 @@
         <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14079,7 +14079,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K153">
         <v>2.2</v>
@@ -14156,7 +14156,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14168,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K154">
         <v>2.45</v>
@@ -14257,7 +14257,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K155">
         <v>2.9</v>
@@ -14337,7 +14337,7 @@
         <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14346,7 +14346,7 @@
         <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K156">
         <v>3</v>
@@ -14423,7 +14423,7 @@
         <v>45261.40625</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
         <v>44</v>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K157">
         <v>1.8</v>
@@ -14524,7 +14524,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K158">
         <v>3.2</v>
@@ -14601,10 +14601,10 @@
         <v>45262.40625</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -14702,7 +14702,7 @@
         <v>4</v>
       </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K160">
         <v>3.6</v>
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K161">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M161">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P161">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
         <v>1.85</v>
       </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
       <c r="W161">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
         <v>1</v>
       </c>
-      <c r="I162">
-        <v>5</v>
-      </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L162">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N162">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O162">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q162">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>1.8</v>
+      </c>
+      <c r="T162">
+        <v>2.75</v>
+      </c>
+      <c r="U162">
+        <v>1.85</v>
+      </c>
+      <c r="V162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
-      <c r="T162">
-        <v>3.75</v>
-      </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>1.85</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15058,7 +15058,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K164">
         <v>2.875</v>
@@ -15227,7 +15227,7 @@
         <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15236,7 +15236,7 @@
         <v>4</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>15</v>
@@ -15313,7 +15313,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>36</v>
@@ -15325,7 +15325,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K167">
         <v>5.75</v>
@@ -15405,7 +15405,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15414,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>3.3</v>
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K169">
         <v>5.75</v>
@@ -15592,7 +15592,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K170">
         <v>5.25</v>
@@ -15669,7 +15669,7 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
         <v>37</v>
@@ -15758,10 +15758,10 @@
         <v>45276.40625</v>
       </c>
       <c r="F172" t="s">
+        <v>29</v>
+      </c>
+      <c r="G172" t="s">
         <v>30</v>
-      </c>
-      <c r="G172" t="s">
-        <v>29</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15847,7 +15847,7 @@
         <v>45276.40625</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
         <v>38</v>
@@ -15859,7 +15859,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K173">
         <v>3.4</v>
@@ -15948,7 +15948,7 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>1.727</v>
@@ -16114,7 +16114,7 @@
         <v>45280.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
         <v>41</v>
@@ -16126,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
         <v>2.7</v>
@@ -16384,7 +16384,7 @@
         <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16470,10 +16470,10 @@
         <v>45284.40625</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K180">
         <v>1.25</v>
@@ -16559,7 +16559,7 @@
         <v>45284.40625</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>36</v>
@@ -16571,7 +16571,7 @@
         <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K181">
         <v>7.5</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6832555</v>
+        <v>6832557</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K182">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="L182">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M182">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N182">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O182">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P182">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q182">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
         <v>1.875</v>
-      </c>
-      <c r="S182">
-        <v>1.925</v>
       </c>
       <c r="T182">
         <v>3.25</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W182">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
         <v>0.875</v>
       </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
       <c r="AB182">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6832557</v>
+        <v>6832555</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="L183">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M183">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N183">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P183">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
         <v>1.925</v>
-      </c>
-      <c r="S183">
-        <v>1.875</v>
       </c>
       <c r="T183">
         <v>3.25</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
         <v>0.875</v>
       </c>
-      <c r="AB183">
-        <v>-0.5</v>
-      </c>
       <c r="AC183">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16838,7 +16838,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K184">
         <v>2.05</v>
@@ -16915,7 +16915,7 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>37</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K185">
         <v>1.7</v>
@@ -17004,7 +17004,7 @@
         <v>45335.54166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17170,7 +17170,7 @@
         <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K188">
         <v>7</v>
@@ -17182,7 +17182,7 @@
         <v>1.285</v>
       </c>
       <c r="N188">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O188">
         <v>7.5</v>
@@ -17194,19 +17194,19 @@
         <v>2</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
         <v>3.75</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17315,10 +17315,10 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K190">
         <v>1.571</v>
@@ -17342,10 +17342,10 @@
         <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
         <v>3.25</v>
@@ -17389,7 +17389,7 @@
         <v>45347.4375</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>40</v>
@@ -17422,13 +17422,13 @@
         <v>1.9</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V191">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17466,7 +17466,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K192">
         <v>1.3</v>
@@ -17496,13 +17496,13 @@
         <v>1.95</v>
       </c>
       <c r="T192">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U192">
+        <v>1.8</v>
+      </c>
+      <c r="V192">
         <v>2</v>
-      </c>
-      <c r="V192">
-        <v>1.8</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17564,19 +17564,19 @@
         <v>1.5</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T193">
         <v>3.5</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6159576</v>
+        <v>6159514</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>44954.42708333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z13">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6159514</v>
+        <v>6159576</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>44954.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N14">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6187897</v>
+        <v>6187896</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,13 +1874,13 @@
         <v>44961.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1889,43 +1889,43 @@
         <v>45</v>
       </c>
       <c r="K16">
+        <v>1.222</v>
+      </c>
+      <c r="L16">
+        <v>5.5</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>1.181</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <v>-2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1.8</v>
+      </c>
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="L16">
-        <v>3.25</v>
-      </c>
-      <c r="M16">
-        <v>2.15</v>
-      </c>
-      <c r="N16">
-        <v>3.1</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
-      <c r="P16">
-        <v>2.1</v>
-      </c>
-      <c r="Q16">
-        <v>0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>1.9</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
       <c r="U16">
+        <v>1.8</v>
+      </c>
+      <c r="V16">
         <v>2</v>
       </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
       <c r="W16">
-        <v>2.1</v>
+        <v>0.181</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6187896</v>
+        <v>6187897</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,13 +1963,13 @@
         <v>44961.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1978,43 +1978,43 @@
         <v>45</v>
       </c>
       <c r="K17">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q17">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
+        <v>1.9</v>
+      </c>
+      <c r="S17">
+        <v>1.9</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>2</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>1.8</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
       <c r="W17">
-        <v>0.181</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
         <v>1</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.8</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6187899</v>
+        <v>6187900</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M19">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="N19">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P19">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.6659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6187900</v>
+        <v>6187899</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="L20">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="N20">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="O20">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="Q20">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.222</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6187904</v>
+        <v>6187903</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6187903</v>
+        <v>6187904</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M24">
+        <v>6.5</v>
+      </c>
+      <c r="N24">
+        <v>1.4</v>
+      </c>
+      <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>-1.25</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="N24">
-        <v>3.1</v>
-      </c>
-      <c r="O24">
-        <v>3.3</v>
-      </c>
-      <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <v>0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.975</v>
-      </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6187908</v>
+        <v>6187907</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>2.15</v>
+      </c>
+      <c r="N27">
         <v>3.6</v>
       </c>
-      <c r="M27">
-        <v>1.7</v>
-      </c>
-      <c r="N27">
-        <v>5.25</v>
-      </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
+        <v>1.95</v>
+      </c>
+      <c r="S27">
         <v>1.85</v>
       </c>
-      <c r="S27">
-        <v>1.95</v>
-      </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y27">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6187907</v>
+        <v>6187908</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1.85</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
+        <v>2.5</v>
+      </c>
+      <c r="U28">
+        <v>1.8</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
         <v>0.5</v>
       </c>
-      <c r="R28">
-        <v>1.95</v>
-      </c>
-      <c r="S28">
-        <v>1.85</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>2.6</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6187915</v>
+        <v>6187914</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
         <v>2</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="L34">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="M34">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="N34">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O34">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q34">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6187914</v>
+        <v>6187915</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,58 +3565,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
       <c r="K35">
-        <v>1.571</v>
+        <v>1.222</v>
       </c>
       <c r="L35">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M35">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="N35">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P35">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>0.615</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6187917</v>
+        <v>6187918</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>44987.4375</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37">
+        <v>1.166</v>
+      </c>
+      <c r="L37">
+        <v>6.5</v>
+      </c>
+      <c r="M37">
+        <v>12</v>
+      </c>
+      <c r="N37">
+        <v>1.09</v>
+      </c>
+      <c r="O37">
+        <v>8.5</v>
+      </c>
+      <c r="P37">
+        <v>23</v>
+      </c>
+      <c r="Q37">
+        <v>-2.5</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>3.5</v>
+      </c>
+      <c r="U37">
         <v>2</v>
       </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-      <c r="J37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37">
-        <v>2.875</v>
-      </c>
-      <c r="L37">
-        <v>3.5</v>
-      </c>
-      <c r="M37">
-        <v>2.1</v>
-      </c>
-      <c r="N37">
-        <v>2.45</v>
-      </c>
-      <c r="O37">
-        <v>3.5</v>
-      </c>
-      <c r="P37">
-        <v>2.3</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>1.975</v>
-      </c>
-      <c r="S37">
-        <v>1.825</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.775</v>
-      </c>
       <c r="V37">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6187918</v>
+        <v>6187917</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>44987.4375</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38">
+        <v>2.875</v>
+      </c>
+      <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>2.1</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
+        <v>3.5</v>
+      </c>
+      <c r="P38">
+        <v>2.3</v>
+      </c>
+      <c r="Q38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K38">
-        <v>1.166</v>
-      </c>
-      <c r="L38">
-        <v>6.5</v>
-      </c>
-      <c r="M38">
-        <v>12</v>
-      </c>
-      <c r="N38">
-        <v>1.09</v>
-      </c>
-      <c r="O38">
-        <v>8.5</v>
-      </c>
-      <c r="P38">
-        <v>23</v>
-      </c>
-      <c r="Q38">
-        <v>-2.5</v>
-      </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W38">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6187920</v>
+        <v>6187921</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,55 +4099,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>46</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="N41">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4156,19 +4156,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6187921</v>
+        <v>6187920</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,55 +4188,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>46</v>
       </c>
       <c r="K42">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="N42">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4245,19 +4245,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6187925</v>
+        <v>6188376</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
+        <v>2.3</v>
+      </c>
+      <c r="N48">
+        <v>2.25</v>
+      </c>
+      <c r="O48">
         <v>3.3</v>
       </c>
-      <c r="N48">
-        <v>1.8</v>
-      </c>
-      <c r="O48">
-        <v>3.4</v>
-      </c>
       <c r="P48">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6188376</v>
+        <v>6187925</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49">
+        <v>1.909</v>
+      </c>
+      <c r="L49">
+        <v>3.5</v>
+      </c>
+      <c r="M49">
+        <v>3.3</v>
+      </c>
+      <c r="N49">
+        <v>1.8</v>
+      </c>
+      <c r="O49">
+        <v>3.4</v>
+      </c>
+      <c r="P49">
+        <v>4</v>
+      </c>
+      <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.8</v>
+      </c>
+      <c r="S49">
         <v>2</v>
       </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-      <c r="J49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49">
-        <v>2.625</v>
-      </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
-      <c r="M49">
-        <v>2.3</v>
-      </c>
-      <c r="N49">
-        <v>2.25</v>
-      </c>
-      <c r="O49">
-        <v>3.3</v>
-      </c>
-      <c r="P49">
-        <v>2.75</v>
-      </c>
-      <c r="Q49">
-        <v>-0.25</v>
-      </c>
-      <c r="R49">
-        <v>2.05</v>
-      </c>
-      <c r="S49">
-        <v>1.75</v>
-      </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6236623</v>
+        <v>6236428</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,40 +5612,40 @@
         <v>45016.625</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N58">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P58">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R58">
         <v>1.95</v>
@@ -5654,34 +5654,34 @@
         <v>1.85</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6236428</v>
+        <v>6236623</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,40 +5701,40 @@
         <v>45016.625</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O59">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R59">
         <v>1.95</v>
@@ -5743,34 +5743,34 @@
         <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6236624</v>
+        <v>6236427</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45017.625</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N60">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="O60">
         <v>3.75</v>
       </c>
       <c r="P60">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
+        <v>1.825</v>
+      </c>
+      <c r="S60">
+        <v>1.975</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
         <v>1.95</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1.85</v>
       </c>
-      <c r="T60">
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
         <v>2.75</v>
       </c>
-      <c r="U60">
-        <v>1.8</v>
-      </c>
-      <c r="V60">
-        <v>2</v>
-      </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
       <c r="Y60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB60">
-        <v>0.8</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6236427</v>
+        <v>6236624</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45017.625</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
+        <v>3.4</v>
+      </c>
+      <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
         <v>1.909</v>
       </c>
-      <c r="L62">
-        <v>3.75</v>
-      </c>
-      <c r="M62">
-        <v>3.5</v>
-      </c>
       <c r="N62">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O62">
         <v>3.75</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6236621</v>
+        <v>6236622</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,13 +6057,13 @@
         <v>45018.625</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6072,61 +6072,61 @@
         <v>45</v>
       </c>
       <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>3.4</v>
+      </c>
+      <c r="M63">
+        <v>2.1</v>
+      </c>
+      <c r="N63">
+        <v>3.3</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
         <v>1.909</v>
       </c>
-      <c r="L63">
-        <v>3.5</v>
-      </c>
-      <c r="M63">
-        <v>3.4</v>
-      </c>
-      <c r="N63">
+      <c r="Q63">
+        <v>0.5</v>
+      </c>
+      <c r="R63">
         <v>1.85</v>
       </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
-      <c r="P63">
-        <v>3.5</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
+        <v>2.3</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.875</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>0.4875</v>
-      </c>
-      <c r="AC63">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6236622</v>
+        <v>6236621</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45018.625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,43 +6161,43 @@
         <v>45</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
         <v>3.4</v>
       </c>
-      <c r="M64">
-        <v>2.1</v>
-      </c>
       <c r="N64">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="O64">
+        <v>3.6</v>
+      </c>
+      <c r="P64">
         <v>3.5</v>
       </c>
-      <c r="P64">
-        <v>1.909</v>
-      </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
         <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>2.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6206,16 +6206,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6236627</v>
+        <v>6236432</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,46 +6235,46 @@
         <v>45023.625</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N65">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
         <v>2.75</v>
@@ -6286,25 +6286,25 @@
         <v>1.975</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6236432</v>
+        <v>6236627</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,46 +6324,46 @@
         <v>45023.625</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O66">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
         <v>2.75</v>
@@ -6375,25 +6375,25 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6236626</v>
+        <v>6236431</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,58 +6502,58 @@
         <v>45025.625</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N68">
-        <v>3.8</v>
+        <v>1.125</v>
       </c>
       <c r="O68">
+        <v>7.5</v>
+      </c>
+      <c r="P68">
+        <v>15</v>
+      </c>
+      <c r="Q68">
+        <v>-2.25</v>
+      </c>
+      <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
         <v>3.5</v>
       </c>
-      <c r="P68">
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
         <v>1.8</v>
       </c>
-      <c r="Q68">
-        <v>0.5</v>
-      </c>
-      <c r="R68">
-        <v>1.975</v>
-      </c>
-      <c r="S68">
-        <v>1.825</v>
-      </c>
-      <c r="T68">
-        <v>2.75</v>
-      </c>
-      <c r="U68">
-        <v>1.85</v>
-      </c>
-      <c r="V68">
-        <v>1.95</v>
-      </c>
       <c r="W68">
-        <v>2.8</v>
+        <v>0.125</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6236431</v>
+        <v>6236626</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,58 +6591,58 @@
         <v>45025.625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>1.2</v>
+        <v>2.875</v>
       </c>
       <c r="L69">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N69">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O69">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="Q69">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>0.125</v>
+        <v>2.8</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6236629</v>
+        <v>6236632</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,55 +6858,55 @@
         <v>45034.625</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
       </c>
       <c r="J72" t="s">
         <v>46</v>
       </c>
       <c r="K72">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
+        <v>2.55</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
         <v>1.95</v>
       </c>
-      <c r="Q72">
-        <v>0.5</v>
-      </c>
-      <c r="R72">
-        <v>1.8</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6915,19 +6915,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
+        <v>1.55</v>
+      </c>
+      <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
         <v>0.95</v>
       </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
-      <c r="AA72">
-        <v>1</v>
-      </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6236435</v>
+        <v>6236629</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,46 +7036,46 @@
         <v>45034.625</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>3</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
         <v>3.3</v>
       </c>
-      <c r="M74">
-        <v>3</v>
-      </c>
-      <c r="N74">
-        <v>2.6</v>
-      </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
+        <v>1.8</v>
+      </c>
+      <c r="S74">
         <v>2</v>
-      </c>
-      <c r="S74">
-        <v>1.8</v>
       </c>
       <c r="T74">
         <v>3</v>
@@ -7087,19 +7087,19 @@
         <v>1.825</v>
       </c>
       <c r="W74">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
         <v>1</v>
-      </c>
-      <c r="AA74">
-        <v>-1</v>
       </c>
       <c r="AB74">
         <v>0.9750000000000001</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6236632</v>
+        <v>6236435</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45034.625</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
         <v>3</v>
       </c>
       <c r="N75">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6236434</v>
+        <v>6236630</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,13 +7214,13 @@
         <v>45035.625</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7229,43 +7229,43 @@
         <v>45</v>
       </c>
       <c r="K76">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N76">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6236631</v>
+        <v>6236434</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45035.625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O77">
         <v>3.5</v>
       </c>
       <c r="P77">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
+        <v>1.8</v>
+      </c>
+      <c r="S77">
         <v>2</v>
       </c>
-      <c r="S77">
-        <v>1.8</v>
-      </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6236630</v>
+        <v>6236631</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45035.625</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78" t="s">
+        <v>46</v>
+      </c>
+      <c r="K78">
+        <v>2.1</v>
+      </c>
+      <c r="L78">
+        <v>3.5</v>
+      </c>
+      <c r="M78">
+        <v>2.9</v>
+      </c>
+      <c r="N78">
+        <v>2.2</v>
+      </c>
+      <c r="O78">
+        <v>3.5</v>
+      </c>
+      <c r="P78">
+        <v>2.7</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
         <v>3</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s">
-        <v>45</v>
-      </c>
-      <c r="K78">
-        <v>1.55</v>
-      </c>
-      <c r="L78">
-        <v>3.8</v>
-      </c>
-      <c r="M78">
-        <v>5</v>
-      </c>
-      <c r="N78">
-        <v>1.533</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78">
-        <v>5</v>
-      </c>
-      <c r="Q78">
-        <v>-1</v>
-      </c>
-      <c r="R78">
-        <v>1.925</v>
-      </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
       <c r="U78">
+        <v>2</v>
+      </c>
+      <c r="V78">
         <v>1.8</v>
       </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
       <c r="W78">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6236634</v>
+        <v>6236438</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,10 +7570,10 @@
         <v>45039.57291666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7585,58 +7585,58 @@
         <v>47</v>
       </c>
       <c r="K80">
+        <v>1.615</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>4.5</v>
+      </c>
+      <c r="N80">
+        <v>1.65</v>
+      </c>
+      <c r="O80">
+        <v>3.8</v>
+      </c>
+      <c r="P80">
         <v>4.333</v>
       </c>
-      <c r="L80">
-        <v>4.2</v>
-      </c>
-      <c r="M80">
-        <v>1.6</v>
-      </c>
-      <c r="N80">
-        <v>6</v>
-      </c>
-      <c r="O80">
-        <v>4.5</v>
-      </c>
-      <c r="P80">
-        <v>1.4</v>
-      </c>
       <c r="Q80">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
+        <v>1.875</v>
+      </c>
+      <c r="S80">
+        <v>1.925</v>
+      </c>
+      <c r="T80">
+        <v>2.75</v>
+      </c>
+      <c r="U80">
+        <v>1.825</v>
+      </c>
+      <c r="V80">
         <v>1.975</v>
       </c>
-      <c r="S80">
-        <v>1.825</v>
-      </c>
-      <c r="T80">
-        <v>3.25</v>
-      </c>
-      <c r="U80">
-        <v>1.975</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6236438</v>
+        <v>6236634</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,10 +7659,10 @@
         <v>45039.57291666666</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7674,58 +7674,58 @@
         <v>47</v>
       </c>
       <c r="K81">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M81">
+        <v>1.6</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81">
         <v>4.5</v>
       </c>
-      <c r="N81">
-        <v>1.65</v>
-      </c>
-      <c r="O81">
-        <v>3.8</v>
-      </c>
       <c r="P81">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U81">
+        <v>1.975</v>
+      </c>
+      <c r="V81">
         <v>1.825</v>
       </c>
-      <c r="V81">
-        <v>1.975</v>
-      </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6236636</v>
+        <v>6236633</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M82">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N82">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O82">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P82">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q82">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6236633</v>
+        <v>6236636</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>2</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1.571</v>
+      </c>
+      <c r="N83">
+        <v>5.75</v>
+      </c>
+      <c r="O83">
         <v>4.5</v>
       </c>
-      <c r="M83">
-        <v>5.5</v>
-      </c>
-      <c r="N83">
+      <c r="P83">
+        <v>1.444</v>
+      </c>
+      <c r="Q83">
         <v>1.25</v>
       </c>
-      <c r="O83">
-        <v>6</v>
-      </c>
-      <c r="P83">
-        <v>9</v>
-      </c>
-      <c r="Q83">
-        <v>-1.75</v>
-      </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6236635</v>
+        <v>6236436</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,13 +7926,13 @@
         <v>45040.57291666666</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -7941,43 +7941,43 @@
         <v>45</v>
       </c>
       <c r="K84">
+        <v>1.222</v>
+      </c>
+      <c r="L84">
+        <v>6.5</v>
+      </c>
+      <c r="M84">
+        <v>10</v>
+      </c>
+      <c r="N84">
+        <v>1.222</v>
+      </c>
+      <c r="O84">
+        <v>6</v>
+      </c>
+      <c r="P84">
+        <v>9.5</v>
+      </c>
+      <c r="Q84">
+        <v>-1.75</v>
+      </c>
+      <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>1.95</v>
+      </c>
+      <c r="T84">
         <v>3.5</v>
       </c>
-      <c r="L84">
-        <v>3.4</v>
-      </c>
-      <c r="M84">
-        <v>1.95</v>
-      </c>
-      <c r="N84">
-        <v>2.75</v>
-      </c>
-      <c r="O84">
-        <v>3.3</v>
-      </c>
-      <c r="P84">
-        <v>2.3</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>2</v>
-      </c>
-      <c r="S84">
-        <v>1.8</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.75</v>
+        <v>0.222</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,16 +7986,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6236436</v>
+        <v>6236635</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,13 +8015,13 @@
         <v>45040.57291666666</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -8030,43 +8030,43 @@
         <v>45</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>3.5</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>10</v>
+        <v>1.95</v>
       </c>
       <c r="N85">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="O85">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q85">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>3.5</v>
-      </c>
-      <c r="U85">
-        <v>1.9</v>
-      </c>
-      <c r="V85">
-        <v>1.9</v>
-      </c>
       <c r="W85">
-        <v>0.222</v>
+        <v>1.75</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,16 +8075,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
+        <v>0.475</v>
+      </c>
+      <c r="AC85">
         <v>-0.5</v>
-      </c>
-      <c r="AB85">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6236440</v>
+        <v>6236638</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45052.46875</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K86">
+        <v>3.4</v>
+      </c>
+      <c r="L86">
+        <v>3.5</v>
+      </c>
+      <c r="M86">
+        <v>1.95</v>
+      </c>
+      <c r="N86">
+        <v>3.1</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
+        <v>2.05</v>
+      </c>
+      <c r="Q86">
+        <v>0.25</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
+        <v>1.85</v>
+      </c>
+      <c r="W86">
+        <v>2.1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>47</v>
-      </c>
-      <c r="K86">
-        <v>1.4</v>
-      </c>
-      <c r="L86">
-        <v>4.5</v>
-      </c>
-      <c r="M86">
-        <v>6</v>
-      </c>
-      <c r="N86">
-        <v>1.4</v>
-      </c>
-      <c r="O86">
-        <v>4.333</v>
-      </c>
-      <c r="P86">
-        <v>6</v>
-      </c>
-      <c r="Q86">
-        <v>-1.25</v>
-      </c>
-      <c r="R86">
-        <v>1.95</v>
-      </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.975</v>
-      </c>
-      <c r="V86">
-        <v>1.825</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>3.333</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>-1</v>
-      </c>
       <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
-      <c r="AC86">
-        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6236439</v>
+        <v>6236440</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,40 +8193,40 @@
         <v>45052.46875</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
+        <v>1.4</v>
+      </c>
+      <c r="L87">
+        <v>4.5</v>
+      </c>
+      <c r="M87">
         <v>6</v>
       </c>
-      <c r="L87">
-        <v>4.75</v>
-      </c>
-      <c r="M87">
+      <c r="N87">
         <v>1.4</v>
       </c>
-      <c r="N87">
-        <v>8.5</v>
-      </c>
       <c r="O87">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P87">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
         <v>1.95</v>
@@ -8235,34 +8235,34 @@
         <v>1.85</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6236638</v>
+        <v>6236439</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,58 +8282,58 @@
         <v>45052.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
       </c>
       <c r="K88">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L88">
+        <v>4.75</v>
+      </c>
+      <c r="M88">
+        <v>1.4</v>
+      </c>
+      <c r="N88">
+        <v>8.5</v>
+      </c>
+      <c r="O88">
+        <v>5.5</v>
+      </c>
+      <c r="P88">
+        <v>1.25</v>
+      </c>
+      <c r="Q88">
+        <v>1.75</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
+        <v>1.85</v>
+      </c>
+      <c r="T88">
         <v>3.5</v>
       </c>
-      <c r="M88">
+      <c r="U88">
+        <v>1.85</v>
+      </c>
+      <c r="V88">
         <v>1.95</v>
       </c>
-      <c r="N88">
-        <v>3.1</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>2.05</v>
-      </c>
-      <c r="Q88">
-        <v>0.25</v>
-      </c>
-      <c r="R88">
-        <v>2</v>
-      </c>
-      <c r="S88">
-        <v>1.8</v>
-      </c>
-      <c r="T88">
-        <v>3</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.85</v>
-      </c>
       <c r="W88">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,16 +8342,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236641</v>
+        <v>6236643</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96">
+        <v>1.3</v>
+      </c>
+      <c r="L96">
         <v>5</v>
       </c>
-      <c r="I96">
-        <v>2</v>
-      </c>
-      <c r="J96" t="s">
-        <v>45</v>
-      </c>
-      <c r="K96">
-        <v>1.181</v>
-      </c>
-      <c r="L96">
-        <v>6.5</v>
-      </c>
       <c r="M96">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N96">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236642</v>
+        <v>6236641</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M97">
+        <v>9</v>
+      </c>
+      <c r="N97">
+        <v>1.142</v>
+      </c>
+      <c r="O97">
         <v>7</v>
       </c>
-      <c r="N97">
-        <v>1.285</v>
-      </c>
-      <c r="O97">
-        <v>5.5</v>
-      </c>
       <c r="P97">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Q97">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X97">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236643</v>
+        <v>6236642</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45058.46875</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9196,25 +9196,25 @@
         <v>7</v>
       </c>
       <c r="N98">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.825</v>
@@ -9226,7 +9226,7 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3.333</v>
+        <v>4.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9235,7 +9235,7 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6832494</v>
+        <v>6832698</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,76 +9528,76 @@
         <v>45156.5625</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M102">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P102">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q102">
+        <v>-1.75</v>
+      </c>
+      <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>3.5</v>
+      </c>
+      <c r="U102">
+        <v>2</v>
+      </c>
+      <c r="V102">
+        <v>1.8</v>
+      </c>
+      <c r="W102">
+        <v>0.25</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB102">
         <v>1</v>
       </c>
-      <c r="R102">
-        <v>1.925</v>
-      </c>
-      <c r="S102">
-        <v>1.875</v>
-      </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
-      <c r="U102">
-        <v>1.9</v>
-      </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
-      <c r="AA102">
-        <v>0.875</v>
-      </c>
-      <c r="AB102">
-        <v>0</v>
-      </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832698</v>
+        <v>6832494</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45156.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>3</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="L103">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="N103">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="O103">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q103">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832489</v>
+        <v>6832492</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,58 +9706,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N104">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832492</v>
+        <v>6832489</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,58 +9795,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
         <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="N105">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q105">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>45</v>
+      </c>
+      <c r="K137">
+        <v>1.666</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>4.2</v>
+      </c>
+      <c r="N137">
+        <v>1.666</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>4.2</v>
+      </c>
+      <c r="Q137">
+        <v>-0.75</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
         <v>3</v>
       </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
-      <c r="J137" t="s">
-        <v>47</v>
-      </c>
-      <c r="K137">
-        <v>1.45</v>
-      </c>
-      <c r="L137">
-        <v>4.75</v>
-      </c>
-      <c r="M137">
-        <v>5.25</v>
-      </c>
-      <c r="N137">
-        <v>1.4</v>
-      </c>
-      <c r="O137">
-        <v>5</v>
-      </c>
-      <c r="P137">
-        <v>5.5</v>
-      </c>
-      <c r="Q137">
-        <v>-1.25</v>
-      </c>
-      <c r="R137">
-        <v>1.9</v>
-      </c>
-      <c r="S137">
-        <v>1.9</v>
-      </c>
-      <c r="T137">
-        <v>3.25</v>
-      </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X137">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L138">
+        <v>4.75</v>
+      </c>
+      <c r="M138">
+        <v>5.25</v>
+      </c>
+      <c r="N138">
+        <v>1.4</v>
+      </c>
+      <c r="O138">
+        <v>5</v>
+      </c>
+      <c r="P138">
+        <v>5.5</v>
+      </c>
+      <c r="Q138">
+        <v>-1.25</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
+        <v>3.25</v>
+      </c>
+      <c r="U138">
+        <v>1.925</v>
+      </c>
+      <c r="V138">
+        <v>1.875</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>4</v>
       </c>
-      <c r="M138">
-        <v>4.2</v>
-      </c>
-      <c r="N138">
-        <v>1.666</v>
-      </c>
-      <c r="O138">
-        <v>4</v>
-      </c>
-      <c r="P138">
-        <v>4.2</v>
-      </c>
-      <c r="Q138">
-        <v>-0.75</v>
-      </c>
-      <c r="R138">
-        <v>1.85</v>
-      </c>
-      <c r="S138">
-        <v>1.95</v>
-      </c>
-      <c r="T138">
-        <v>3</v>
-      </c>
-      <c r="U138">
-        <v>1.775</v>
-      </c>
-      <c r="V138">
-        <v>2.025</v>
-      </c>
-      <c r="W138">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7499792</v>
+        <v>6832537</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K150">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M150">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N150">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P150">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6832537</v>
+        <v>7499792</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K151">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L151">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N151">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O151">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P151">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q151">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T151">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U151">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832543</v>
+        <v>6832542</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>47</v>
+      </c>
+      <c r="K156">
+        <v>1.8</v>
+      </c>
+      <c r="L156">
+        <v>3.7</v>
+      </c>
+      <c r="M156">
+        <v>3.75</v>
+      </c>
+      <c r="N156">
+        <v>1.8</v>
+      </c>
+      <c r="O156">
         <v>4</v>
       </c>
-      <c r="J156" t="s">
-        <v>46</v>
-      </c>
-      <c r="K156">
+      <c r="P156">
+        <v>3.5</v>
+      </c>
+      <c r="Q156">
+        <v>-0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.85</v>
+      </c>
+      <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
         <v>3</v>
       </c>
-      <c r="L156">
-        <v>3.5</v>
-      </c>
-      <c r="M156">
-        <v>2.1</v>
-      </c>
-      <c r="N156">
-        <v>3.75</v>
-      </c>
-      <c r="O156">
-        <v>3.8</v>
-      </c>
-      <c r="P156">
-        <v>1.75</v>
-      </c>
-      <c r="Q156">
-        <v>0.5</v>
-      </c>
-      <c r="R156">
-        <v>1.975</v>
-      </c>
-      <c r="S156">
-        <v>1.825</v>
-      </c>
-      <c r="T156">
-        <v>3.25</v>
-      </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832542</v>
+        <v>6832543</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157" t="s">
+        <v>46</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>3.5</v>
+      </c>
+      <c r="M157">
+        <v>2.1</v>
+      </c>
+      <c r="N157">
+        <v>3.75</v>
+      </c>
+      <c r="O157">
+        <v>3.8</v>
+      </c>
+      <c r="P157">
+        <v>1.75</v>
+      </c>
+      <c r="Q157">
+        <v>0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.975</v>
+      </c>
+      <c r="S157">
+        <v>1.825</v>
+      </c>
+      <c r="T157">
+        <v>3.25</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
+        <v>1.8</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>0.75</v>
+      </c>
+      <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
+        <v>0.825</v>
+      </c>
+      <c r="AB157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-      <c r="J157" t="s">
-        <v>47</v>
-      </c>
-      <c r="K157">
-        <v>1.8</v>
-      </c>
-      <c r="L157">
-        <v>3.7</v>
-      </c>
-      <c r="M157">
-        <v>3.75</v>
-      </c>
-      <c r="N157">
-        <v>1.8</v>
-      </c>
-      <c r="O157">
-        <v>4</v>
-      </c>
-      <c r="P157">
-        <v>3.5</v>
-      </c>
-      <c r="Q157">
-        <v>-0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.85</v>
-      </c>
-      <c r="S157">
-        <v>1.95</v>
-      </c>
-      <c r="T157">
-        <v>3</v>
-      </c>
-      <c r="U157">
-        <v>1.875</v>
-      </c>
-      <c r="V157">
-        <v>1.925</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>3</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
-      <c r="AA157">
-        <v>0.95</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>5</v>
-      </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K161">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L161">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N161">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O161">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q161">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>1.8</v>
+      </c>
+      <c r="T161">
+        <v>2.75</v>
+      </c>
+      <c r="U161">
+        <v>1.85</v>
+      </c>
+      <c r="V161">
         <v>1.95</v>
       </c>
-      <c r="S161">
-        <v>1.85</v>
-      </c>
-      <c r="T161">
-        <v>3.75</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K162">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M162">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N162">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P162">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U162">
+        <v>1.95</v>
+      </c>
+      <c r="V162">
         <v>1.85</v>
       </c>
-      <c r="V162">
-        <v>1.95</v>
-      </c>
       <c r="W162">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB162">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,49 +15402,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K168">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M168">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N168">
+        <v>4.75</v>
+      </c>
+      <c r="O168">
+        <v>4.5</v>
+      </c>
+      <c r="P168">
+        <v>1.533</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>1.8</v>
+      </c>
+      <c r="T168">
         <v>4</v>
-      </c>
-      <c r="O168">
-        <v>3.75</v>
-      </c>
-      <c r="P168">
-        <v>1.727</v>
-      </c>
-      <c r="Q168">
-        <v>0.75</v>
-      </c>
-      <c r="R168">
-        <v>1.825</v>
-      </c>
-      <c r="S168">
-        <v>1.975</v>
-      </c>
-      <c r="T168">
-        <v>3</v>
       </c>
       <c r="U168">
         <v>2</v>
@@ -15456,16 +15456,16 @@
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15479,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15491,49 +15491,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L169">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M169">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N169">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O169">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q169">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U169">
         <v>2</v>
@@ -15545,16 +15545,16 @@
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y169">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
         <v>-1</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6832551</v>
+        <v>6832552</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H170">
+        <v>4</v>
+      </c>
+      <c r="I170">
         <v>1</v>
       </c>
-      <c r="I170">
-        <v>2</v>
-      </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K170">
+        <v>1.3</v>
+      </c>
+      <c r="L170">
         <v>5.25</v>
       </c>
-      <c r="L170">
-        <v>4.75</v>
-      </c>
       <c r="M170">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="N170">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O170">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P170">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q170">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R170">
+        <v>1.95</v>
+      </c>
+      <c r="S170">
         <v>1.85</v>
-      </c>
-      <c r="S170">
-        <v>1.95</v>
       </c>
       <c r="T170">
         <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6832552</v>
+        <v>6832551</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K171">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L171">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M171">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="N171">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O171">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P171">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q171">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
         <v>1.95</v>
-      </c>
-      <c r="S171">
-        <v>1.85</v>
       </c>
       <c r="T171">
         <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W171">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z171">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,49 +16470,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L180">
+        <v>5</v>
+      </c>
+      <c r="M180">
+        <v>1.333</v>
+      </c>
+      <c r="N180">
+        <v>8</v>
+      </c>
+      <c r="O180">
         <v>5.5</v>
       </c>
-      <c r="M180">
-        <v>9</v>
-      </c>
-      <c r="N180">
-        <v>1.5</v>
-      </c>
-      <c r="O180">
-        <v>4.5</v>
-      </c>
       <c r="P180">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U180">
         <v>1.925</v>
@@ -16524,22 +16524,22 @@
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,49 +16559,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L181">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M181">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N181">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P181">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q181">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
         <v>1.925</v>
@@ -16613,22 +16613,22 @@
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y181">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6832557</v>
+        <v>6832555</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K182">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="L182">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M182">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N182">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O182">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P182">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R182">
+        <v>1.875</v>
+      </c>
+      <c r="S182">
         <v>1.925</v>
-      </c>
-      <c r="S182">
-        <v>1.875</v>
       </c>
       <c r="T182">
         <v>3.25</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA182">
+        <v>-1</v>
+      </c>
+      <c r="AB182">
         <v>0.875</v>
       </c>
-      <c r="AB182">
-        <v>-0.5</v>
-      </c>
       <c r="AC182">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6832555</v>
+        <v>6832557</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K183">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="L183">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M183">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N183">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O183">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q183">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R183">
+        <v>1.925</v>
+      </c>
+      <c r="S183">
         <v>1.875</v>
-      </c>
-      <c r="S183">
-        <v>1.925</v>
       </c>
       <c r="T183">
         <v>3.25</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
         <v>0.875</v>
       </c>
-      <c r="AA183">
-        <v>-1</v>
-      </c>
       <c r="AB183">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17564,19 +17564,19 @@
         <v>1.5</v>
       </c>
       <c r="R193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T193">
         <v>3.5</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -103,10 +103,10 @@
     <t>UAE Premier League</t>
   </si>
   <si>
-    <t>Al Wasl SC</t>
+    <t>Al Ittihad Kalba</t>
   </si>
   <si>
-    <t>Al Ittihad Kalba</t>
+    <t>Al Wasl SC</t>
   </si>
   <si>
     <t>Al Bataeh</t>
@@ -115,10 +115,10 @@
     <t>Sharjah SCC</t>
   </si>
   <si>
-    <t>Al Dhafra SCC</t>
+    <t>Ajman SCC</t>
   </si>
   <si>
-    <t>Ajman SCC</t>
+    <t>Al Dhafra SCC</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5386589</v>
+        <v>5374839</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,55 +631,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N2">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="O2">
         <v>3.6</v>
       </c>
       <c r="P2">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>0.615</v>
+        <v>3.333</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5374839</v>
+        <v>5386589</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,55 +720,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="O3">
         <v>3.6</v>
       </c>
       <c r="P3">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>3.333</v>
+        <v>0.615</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,16 +777,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5386588</v>
+        <v>5374838</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,70 +987,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>0.825</v>
+      </c>
+      <c r="AB6">
         <v>0.875</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5374838</v>
+        <v>5386588</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,70 +1076,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
+        <v>2.55</v>
+      </c>
+      <c r="N7">
         <v>2.1</v>
       </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P7">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.825</v>
-      </c>
-      <c r="AB7">
-        <v>0.875</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6159575</v>
+        <v>6159513</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>44953.54166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6159513</v>
+        <v>6159575</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>44953.54166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6159514</v>
+        <v>6159576</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>44954.42708333334</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N13">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q13">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y13">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6159576</v>
+        <v>6159514</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>44954.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N14">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6187896</v>
+        <v>6187897</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,13 +1874,13 @@
         <v>44961.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1889,43 +1889,43 @@
         <v>45</v>
       </c>
       <c r="K16">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="N16">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.8</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>0.181</v>
+        <v>2.1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6187897</v>
+        <v>6187896</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,13 +1963,13 @@
         <v>44961.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1978,43 +1978,43 @@
         <v>45</v>
       </c>
       <c r="K17">
+        <v>1.222</v>
+      </c>
+      <c r="L17">
+        <v>5.5</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>1.181</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>11</v>
+      </c>
+      <c r="Q17">
+        <v>-2</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1.8</v>
+      </c>
+      <c r="T17">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>3.25</v>
-      </c>
-      <c r="M17">
-        <v>2.15</v>
-      </c>
-      <c r="N17">
-        <v>3.1</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
-      <c r="P17">
-        <v>2.1</v>
-      </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>1.9</v>
-      </c>
-      <c r="S17">
-        <v>1.9</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
       <c r="U17">
+        <v>1.8</v>
+      </c>
+      <c r="V17">
         <v>2</v>
       </c>
-      <c r="V17">
-        <v>1.8</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>0.181</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6187900</v>
+        <v>6187899</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="N19">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="O19">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="Q19">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6187899</v>
+        <v>6187900</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="N20">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P20">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.6659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>44962.55208333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6187903</v>
+        <v>6187904</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
         <v>33</v>
       </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
       <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M23">
+        <v>6.5</v>
+      </c>
+      <c r="N23">
+        <v>1.4</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>-1.25</v>
+      </c>
+      <c r="R23">
         <v>1.95</v>
       </c>
-      <c r="N23">
-        <v>3.1</v>
-      </c>
-      <c r="O23">
-        <v>3.3</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>0.25</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6187904</v>
+        <v>6187903</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6187907</v>
+        <v>6187908</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N27">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1.85</v>
+      </c>
+      <c r="S27">
+        <v>1.95</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>1.8</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
         <v>0.5</v>
       </c>
-      <c r="R27">
-        <v>1.95</v>
-      </c>
-      <c r="S27">
-        <v>1.85</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>1.825</v>
-      </c>
-      <c r="V27">
-        <v>1.975</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>2.6</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
       <c r="Z27">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6187908</v>
+        <v>6187907</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28">
+        <v>3.3</v>
+      </c>
+      <c r="M28">
+        <v>2.15</v>
+      </c>
+      <c r="N28">
         <v>3.6</v>
       </c>
-      <c r="M28">
-        <v>1.7</v>
-      </c>
-      <c r="N28">
-        <v>5.25</v>
-      </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
         <v>1.85</v>
       </c>
-      <c r="S28">
-        <v>1.95</v>
-      </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>44974.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3387,7 +3387,7 @@
         <v>44974.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6187914</v>
+        <v>6187915</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>1.571</v>
+        <v>1.222</v>
       </c>
       <c r="L34">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M34">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="N34">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P34">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>0.615</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6187915</v>
+        <v>6187914</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,58 +3565,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
         <v>2</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
       <c r="K35">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="L35">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="M35">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="N35">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O35">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q35">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4010,7 +4010,7 @@
         <v>44987.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6187921</v>
+        <v>6187920</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,55 +4099,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>46</v>
       </c>
       <c r="K41">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="N41">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O41">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q41">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4156,19 +4156,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6187920</v>
+        <v>6187921</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,55 +4188,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>46</v>
       </c>
       <c r="K42">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="N42">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4245,19 +4245,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6187926</v>
+        <v>6187922</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4366,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
+        <v>2.4</v>
+      </c>
+      <c r="O44">
+        <v>3.25</v>
+      </c>
+      <c r="P44">
+        <v>2.55</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
         <v>1.8</v>
       </c>
-      <c r="O44">
-        <v>3.75</v>
-      </c>
-      <c r="P44">
-        <v>3.5</v>
-      </c>
-      <c r="Q44">
-        <v>-0.5</v>
-      </c>
-      <c r="R44">
-        <v>1.875</v>
-      </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6187922</v>
+        <v>6187926</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>1.95</v>
+      </c>
+      <c r="V45">
+        <v>1.85</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>2.75</v>
       </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>2.25</v>
-      </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>44996.5625</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6236425</v>
+        <v>6236618</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45002.44791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N51">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="O51">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6236618</v>
+        <v>6236425</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45002.44791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P52">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45002.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -5434,7 +5434,7 @@
         <v>45003.44791666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>42</v>
@@ -5523,10 +5523,10 @@
         <v>45003.5625</v>
       </c>
       <c r="F57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
         <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5879,7 +5879,7 @@
         <v>45017.625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>42</v>
@@ -5968,7 +5968,7 @@
         <v>45017.625</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -6149,7 +6149,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6236432</v>
+        <v>6236627</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,46 +6235,46 @@
         <v>45023.625</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
         <v>2.75</v>
@@ -6286,25 +6286,25 @@
         <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6236627</v>
+        <v>6236432</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,46 +6324,46 @@
         <v>45023.625</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L66">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N66">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
         <v>2.75</v>
@@ -6375,25 +6375,25 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6236431</v>
+        <v>6236628</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45025.625</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="L68">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="N68">
-        <v>1.125</v>
+        <v>6.5</v>
       </c>
       <c r="O68">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P68">
-        <v>15</v>
+        <v>1.363</v>
       </c>
       <c r="Q68">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>2</v>
@@ -6553,25 +6553,25 @@
         <v>1.8</v>
       </c>
       <c r="W68">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,10 +6591,10 @@
         <v>45025.625</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6236628</v>
+        <v>6236431</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,49 +6680,49 @@
         <v>45025.625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M70">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="N70">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P70">
-        <v>1.363</v>
+        <v>15</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6731,25 +6731,25 @@
         <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6236632</v>
+        <v>6236433</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>45034.625</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N72">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y72">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6236433</v>
+        <v>6236629</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,73 +6947,73 @@
         <v>45034.625</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73">
+        <v>3.2</v>
+      </c>
+      <c r="L73">
+        <v>3.5</v>
+      </c>
+      <c r="M73">
         <v>2</v>
       </c>
-      <c r="I73">
+      <c r="N73">
+        <v>3.3</v>
+      </c>
+      <c r="O73">
+        <v>3.6</v>
+      </c>
+      <c r="P73">
+        <v>1.95</v>
+      </c>
+      <c r="Q73">
+        <v>0.5</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
         <v>2</v>
       </c>
-      <c r="J73" t="s">
-        <v>47</v>
-      </c>
-      <c r="K73">
-        <v>4.75</v>
-      </c>
-      <c r="L73">
-        <v>3.8</v>
-      </c>
-      <c r="M73">
-        <v>1.615</v>
-      </c>
-      <c r="N73">
-        <v>4.75</v>
-      </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>1.666</v>
-      </c>
-      <c r="Q73">
-        <v>0.75</v>
-      </c>
-      <c r="R73">
-        <v>1.925</v>
-      </c>
-      <c r="S73">
-        <v>1.875</v>
-      </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6236629</v>
+        <v>6236435</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,46 +7036,46 @@
         <v>45034.625</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="I74">
+      <c r="J74" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74">
+        <v>2.15</v>
+      </c>
+      <c r="L74">
+        <v>3.3</v>
+      </c>
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="J74" t="s">
-        <v>46</v>
-      </c>
-      <c r="K74">
-        <v>3.2</v>
-      </c>
-      <c r="L74">
-        <v>3.5</v>
-      </c>
-      <c r="M74">
+      <c r="N74">
+        <v>2.6</v>
+      </c>
+      <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
+        <v>2.375</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <v>2</v>
       </c>
-      <c r="N74">
-        <v>3.3</v>
-      </c>
-      <c r="O74">
-        <v>3.6</v>
-      </c>
-      <c r="P74">
-        <v>1.95</v>
-      </c>
-      <c r="Q74">
-        <v>0.5</v>
-      </c>
-      <c r="R74">
+      <c r="S74">
         <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
       </c>
       <c r="T74">
         <v>3</v>
@@ -7087,19 +7087,19 @@
         <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>0.9750000000000001</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6236435</v>
+        <v>6236632</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45034.625</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
         <v>3</v>
       </c>
       <c r="N75">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>45035.625</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>35</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6236434</v>
+        <v>6236631</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45035.625</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>2</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
+        <v>2.1</v>
+      </c>
+      <c r="L77">
+        <v>3.5</v>
+      </c>
+      <c r="M77">
+        <v>2.9</v>
+      </c>
+      <c r="N77">
         <v>2.2</v>
-      </c>
-      <c r="L77">
-        <v>3.3</v>
-      </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
-        <v>1.8</v>
       </c>
       <c r="O77">
         <v>3.5</v>
       </c>
       <c r="P77">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
         <v>1.8</v>
       </c>
-      <c r="S77">
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
         <v>2</v>
       </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
-      <c r="U77">
-        <v>1.95</v>
-      </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>1.7</v>
+      </c>
+      <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.8</v>
       </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>-1</v>
-      </c>
-      <c r="Z77">
+      <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.8</v>
-      </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
-      <c r="AB77">
-        <v>-1</v>
-      </c>
-      <c r="AC77">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6236631</v>
+        <v>6236434</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45035.625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O78">
         <v>3.5</v>
       </c>
       <c r="P78">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
         <v>2</v>
       </c>
-      <c r="S78">
-        <v>1.8</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" t="s">
         <v>34</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6236440</v>
+        <v>6236439</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,40 +8193,40 @@
         <v>45052.46875</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
+        <v>6</v>
+      </c>
+      <c r="L87">
+        <v>4.75</v>
+      </c>
+      <c r="M87">
         <v>1.4</v>
       </c>
-      <c r="L87">
-        <v>4.5</v>
-      </c>
-      <c r="M87">
-        <v>6</v>
-      </c>
       <c r="N87">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="O87">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R87">
         <v>1.95</v>
@@ -8235,34 +8235,34 @@
         <v>1.85</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="X87">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6236439</v>
+        <v>6236440</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,40 +8282,40 @@
         <v>45052.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
+        <v>1.4</v>
+      </c>
+      <c r="L88">
+        <v>4.5</v>
+      </c>
+      <c r="M88">
         <v>6</v>
       </c>
-      <c r="L88">
-        <v>4.75</v>
-      </c>
-      <c r="M88">
+      <c r="N88">
         <v>1.4</v>
       </c>
-      <c r="N88">
-        <v>8.5</v>
-      </c>
       <c r="O88">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P88">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
         <v>1.95</v>
@@ -8324,34 +8324,34 @@
         <v>1.85</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8460,7 +8460,7 @@
         <v>45053.46875</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>37</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6236639</v>
+        <v>6236441</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,55 +8549,55 @@
         <v>45053.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>2</v>
-      </c>
-      <c r="I91">
-        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>46</v>
       </c>
       <c r="K91">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="N91">
         <v>4.75</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P91">
         <v>1.5</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>3</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8609,16 +8609,16 @@
         <v>0.5</v>
       </c>
       <c r="Z91">
+        <v>0.3875</v>
+      </c>
+      <c r="AA91">
+        <v>-0.5</v>
+      </c>
+      <c r="AB91">
         <v>0</v>
       </c>
-      <c r="AA91">
+      <c r="AC91">
         <v>-0</v>
-      </c>
-      <c r="AB91">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6236441</v>
+        <v>6236639</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,55 +8638,55 @@
         <v>45053.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="N92">
         <v>4.75</v>
       </c>
       <c r="O92">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P92">
         <v>1.5</v>
       </c>
       <c r="Q92">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R92">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8698,16 +8698,16 @@
         <v>0.5</v>
       </c>
       <c r="Z92">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236442</v>
+        <v>6236644</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,49 +8727,49 @@
         <v>45057.46875</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="J93" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93">
+        <v>3.75</v>
+      </c>
+      <c r="L93">
+        <v>3.75</v>
+      </c>
+      <c r="M93">
+        <v>1.727</v>
+      </c>
+      <c r="N93">
+        <v>4.333</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
+        <v>1.6</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1.8</v>
+      </c>
+      <c r="S93">
         <v>2</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>45</v>
-      </c>
-      <c r="K93">
-        <v>1.5</v>
-      </c>
-      <c r="L93">
-        <v>4.2</v>
-      </c>
-      <c r="M93">
-        <v>4.75</v>
-      </c>
-      <c r="N93">
-        <v>1.45</v>
-      </c>
-      <c r="O93">
-        <v>4.75</v>
-      </c>
-      <c r="P93">
-        <v>5.25</v>
-      </c>
-      <c r="Q93">
-        <v>-1.25</v>
-      </c>
-      <c r="R93">
-        <v>1.9</v>
-      </c>
-      <c r="S93">
-        <v>1.9</v>
-      </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.85</v>
@@ -8778,25 +8778,25 @@
         <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236644</v>
+        <v>6236442</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,49 +8816,49 @@
         <v>45057.46875</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
+        <v>1.5</v>
+      </c>
+      <c r="L94">
+        <v>4.2</v>
+      </c>
+      <c r="M94">
+        <v>4.75</v>
+      </c>
+      <c r="N94">
+        <v>1.45</v>
+      </c>
+      <c r="O94">
+        <v>4.75</v>
+      </c>
+      <c r="P94">
+        <v>5.25</v>
+      </c>
+      <c r="Q94">
+        <v>-1.25</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
         <v>3.75</v>
-      </c>
-      <c r="L94">
-        <v>3.75</v>
-      </c>
-      <c r="M94">
-        <v>1.727</v>
-      </c>
-      <c r="N94">
-        <v>4.333</v>
-      </c>
-      <c r="O94">
-        <v>4.2</v>
-      </c>
-      <c r="P94">
-        <v>1.6</v>
-      </c>
-      <c r="Q94">
-        <v>1</v>
-      </c>
-      <c r="R94">
-        <v>1.8</v>
-      </c>
-      <c r="S94">
-        <v>2</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
       </c>
       <c r="U94">
         <v>1.85</v>
@@ -8867,25 +8867,25 @@
         <v>1.95</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236643</v>
+        <v>6236642</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,10 +8994,10 @@
         <v>45058.46875</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9018,25 +9018,25 @@
         <v>7</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
         <v>1.825</v>
@@ -9048,7 +9048,7 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3.333</v>
+        <v>4.5</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9057,7 +9057,7 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236642</v>
+        <v>6236643</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45058.46875</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9196,25 +9196,25 @@
         <v>7</v>
       </c>
       <c r="N98">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="O98">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P98">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
         <v>1.825</v>
@@ -9226,7 +9226,7 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>4.5</v>
+        <v>3.333</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9235,7 +9235,7 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9264,7 +9264,7 @@
         <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9350,7 +9350,7 @@
         <v>45156.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9617,7 +9617,7 @@
         <v>45156.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>41</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832492</v>
+        <v>6832489</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,58 +9706,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="N104">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O104">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832489</v>
+        <v>6832492</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,58 +9795,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P105">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10243,7 +10243,7 @@
         <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J114" t="s">
         <v>46</v>
       </c>
       <c r="K114">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N114">
         <v>3.8</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10653,19 +10653,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,55 +10685,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>46</v>
       </c>
       <c r="K115">
+        <v>3.75</v>
+      </c>
+      <c r="L115">
         <v>3.6</v>
       </c>
-      <c r="L115">
-        <v>3.8</v>
-      </c>
       <c r="M115">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N115">
         <v>3.8</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,19 +10742,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6832501</v>
+        <v>6832503</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H116">
+        <v>6</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>2</v>
-      </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P116">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6832503</v>
+        <v>6832501</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L117">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O117">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q117">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>47</v>
+      </c>
+      <c r="K123">
+        <v>1.666</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
+        <v>4</v>
+      </c>
+      <c r="P123">
+        <v>3.5</v>
+      </c>
+      <c r="Q123">
+        <v>-0.5</v>
+      </c>
+      <c r="R123">
+        <v>1.825</v>
+      </c>
+      <c r="S123">
+        <v>1.975</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
+        <v>1.925</v>
+      </c>
+      <c r="V123">
+        <v>1.875</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>5</v>
-      </c>
-      <c r="J123" t="s">
-        <v>46</v>
-      </c>
-      <c r="K123">
-        <v>2.4</v>
-      </c>
-      <c r="L123">
-        <v>3.5</v>
-      </c>
-      <c r="M123">
-        <v>2.55</v>
-      </c>
-      <c r="N123">
-        <v>2.875</v>
-      </c>
-      <c r="O123">
-        <v>3.6</v>
-      </c>
-      <c r="P123">
-        <v>2.15</v>
-      </c>
-      <c r="Q123">
-        <v>0.25</v>
-      </c>
-      <c r="R123">
-        <v>1.85</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>3</v>
-      </c>
-      <c r="U123">
-        <v>1.9</v>
-      </c>
-      <c r="V123">
-        <v>1.9</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N124">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6832514</v>
+        <v>6832519</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,13 +11842,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11857,43 +11857,43 @@
         <v>45</v>
       </c>
       <c r="K128">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N128">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q128">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
+        <v>2.025</v>
+      </c>
+      <c r="S128">
+        <v>1.775</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
-      <c r="U128">
-        <v>1.975</v>
-      </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11902,16 +11902,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA128">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832519</v>
+        <v>6832514</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,13 +11931,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11946,43 +11946,43 @@
         <v>45</v>
       </c>
       <c r="K129">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N129">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12109,10 +12109,10 @@
         <v>45206.43055555555</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12468,7 +12468,7 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L137">
+        <v>4.75</v>
+      </c>
+      <c r="M137">
+        <v>5.25</v>
+      </c>
+      <c r="N137">
+        <v>1.4</v>
+      </c>
+      <c r="O137">
+        <v>5</v>
+      </c>
+      <c r="P137">
+        <v>5.5</v>
+      </c>
+      <c r="Q137">
+        <v>-1.25</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>3.25</v>
+      </c>
+      <c r="U137">
+        <v>1.925</v>
+      </c>
+      <c r="V137">
+        <v>1.875</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>4</v>
       </c>
-      <c r="M137">
-        <v>4.2</v>
-      </c>
-      <c r="N137">
-        <v>1.666</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <v>4.2</v>
-      </c>
-      <c r="Q137">
-        <v>-0.75</v>
-      </c>
-      <c r="R137">
-        <v>1.85</v>
-      </c>
-      <c r="S137">
-        <v>1.95</v>
-      </c>
-      <c r="T137">
-        <v>3</v>
-      </c>
-      <c r="U137">
-        <v>1.775</v>
-      </c>
-      <c r="V137">
-        <v>2.025</v>
-      </c>
-      <c r="W137">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>45</v>
+      </c>
+      <c r="K138">
+        <v>1.666</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>4.2</v>
+      </c>
+      <c r="N138">
+        <v>1.666</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138">
+        <v>4.2</v>
+      </c>
+      <c r="Q138">
+        <v>-0.75</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>1.95</v>
+      </c>
+      <c r="T138">
         <v>3</v>
       </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
-      <c r="J138" t="s">
-        <v>47</v>
-      </c>
-      <c r="K138">
-        <v>1.45</v>
-      </c>
-      <c r="L138">
-        <v>4.75</v>
-      </c>
-      <c r="M138">
-        <v>5.25</v>
-      </c>
-      <c r="N138">
-        <v>1.4</v>
-      </c>
-      <c r="O138">
-        <v>5</v>
-      </c>
-      <c r="P138">
-        <v>5.5</v>
-      </c>
-      <c r="Q138">
-        <v>-1.25</v>
-      </c>
-      <c r="R138">
-        <v>1.9</v>
-      </c>
-      <c r="S138">
-        <v>1.9</v>
-      </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X138">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,58 +12821,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>45</v>
       </c>
       <c r="K139">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M139">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N139">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P139">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q139">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
         <v>3.5</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12881,13 +12881,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>-0.5</v>
+      </c>
+      <c r="AA139">
+        <v>0.4625</v>
+      </c>
+      <c r="AB139">
         <v>0.95</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,58 +12910,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>45</v>
       </c>
       <c r="K140">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L140">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N140">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O140">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P140">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q140">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
         <v>3.5</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12970,13 +12970,13 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA140">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13177,7 +13177,7 @@
         <v>45232.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
         <v>36</v>
@@ -13444,7 +13444,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>41</v>
@@ -13622,7 +13622,7 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>40</v>
@@ -13981,7 +13981,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14070,7 +14070,7 @@
         <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832542</v>
+        <v>6832543</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+      <c r="J156" t="s">
+        <v>46</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>3.5</v>
+      </c>
+      <c r="M156">
+        <v>2.1</v>
+      </c>
+      <c r="N156">
+        <v>3.75</v>
+      </c>
+      <c r="O156">
+        <v>3.8</v>
+      </c>
+      <c r="P156">
+        <v>1.75</v>
+      </c>
+      <c r="Q156">
+        <v>0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.975</v>
+      </c>
+      <c r="S156">
+        <v>1.825</v>
+      </c>
+      <c r="T156">
+        <v>3.25</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
+        <v>1.8</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>0.75</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.825</v>
+      </c>
+      <c r="AB156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-      <c r="J156" t="s">
-        <v>47</v>
-      </c>
-      <c r="K156">
-        <v>1.8</v>
-      </c>
-      <c r="L156">
-        <v>3.7</v>
-      </c>
-      <c r="M156">
-        <v>3.75</v>
-      </c>
-      <c r="N156">
-        <v>1.8</v>
-      </c>
-      <c r="O156">
-        <v>4</v>
-      </c>
-      <c r="P156">
-        <v>3.5</v>
-      </c>
-      <c r="Q156">
-        <v>-0.5</v>
-      </c>
-      <c r="R156">
-        <v>1.85</v>
-      </c>
-      <c r="S156">
-        <v>1.95</v>
-      </c>
-      <c r="T156">
-        <v>3</v>
-      </c>
-      <c r="U156">
-        <v>1.875</v>
-      </c>
-      <c r="V156">
-        <v>1.925</v>
-      </c>
-      <c r="W156">
-        <v>-1</v>
-      </c>
-      <c r="X156">
-        <v>3</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>-1</v>
-      </c>
-      <c r="AA156">
-        <v>0.95</v>
-      </c>
-      <c r="AB156">
-        <v>-1</v>
-      </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832543</v>
+        <v>6832542</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>47</v>
+      </c>
+      <c r="K157">
+        <v>1.8</v>
+      </c>
+      <c r="L157">
+        <v>3.7</v>
+      </c>
+      <c r="M157">
+        <v>3.75</v>
+      </c>
+      <c r="N157">
+        <v>1.8</v>
+      </c>
+      <c r="O157">
         <v>4</v>
       </c>
-      <c r="J157" t="s">
-        <v>46</v>
-      </c>
-      <c r="K157">
+      <c r="P157">
+        <v>3.5</v>
+      </c>
+      <c r="Q157">
+        <v>-0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.85</v>
+      </c>
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
         <v>3</v>
       </c>
-      <c r="L157">
-        <v>3.5</v>
-      </c>
-      <c r="M157">
-        <v>2.1</v>
-      </c>
-      <c r="N157">
-        <v>3.75</v>
-      </c>
-      <c r="O157">
-        <v>3.8</v>
-      </c>
-      <c r="P157">
-        <v>1.75</v>
-      </c>
-      <c r="Q157">
-        <v>0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.975</v>
-      </c>
-      <c r="S157">
-        <v>1.825</v>
-      </c>
-      <c r="T157">
-        <v>3.25</v>
-      </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14601,7 +14601,7 @@
         <v>45262.40625</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
         <v>31</v>
@@ -14871,7 +14871,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,73 +15135,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K165">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M165">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N165">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O165">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P165">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,73 +15224,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>4</v>
-      </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L166">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N166">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P166">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q166">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15313,7 +15313,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
         <v>36</v>
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,49 +15402,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K168">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L168">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N168">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O168">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q168">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U168">
         <v>2</v>
@@ -15456,16 +15456,16 @@
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y168">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15479,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15491,49 +15491,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K169">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L169">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M169">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N169">
+        <v>4.75</v>
+      </c>
+      <c r="O169">
+        <v>4.5</v>
+      </c>
+      <c r="P169">
+        <v>1.533</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>1.8</v>
+      </c>
+      <c r="T169">
         <v>4</v>
-      </c>
-      <c r="O169">
-        <v>3.75</v>
-      </c>
-      <c r="P169">
-        <v>1.727</v>
-      </c>
-      <c r="Q169">
-        <v>0.75</v>
-      </c>
-      <c r="R169">
-        <v>1.825</v>
-      </c>
-      <c r="S169">
-        <v>1.975</v>
-      </c>
-      <c r="T169">
-        <v>3</v>
       </c>
       <c r="U169">
         <v>2</v>
@@ -15545,16 +15545,16 @@
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
         <v>-1</v>
@@ -15758,10 +15758,10 @@
         <v>45276.40625</v>
       </c>
       <c r="F172" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
         <v>29</v>
-      </c>
-      <c r="G172" t="s">
-        <v>30</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15847,7 +15847,7 @@
         <v>45276.40625</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
         <v>38</v>
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,13 +16203,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -16218,25 +16218,25 @@
         <v>45</v>
       </c>
       <c r="K177">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L177">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M177">
+        <v>10</v>
+      </c>
+      <c r="N177">
+        <v>1.222</v>
+      </c>
+      <c r="O177">
         <v>6</v>
       </c>
-      <c r="N177">
-        <v>1.333</v>
-      </c>
-      <c r="O177">
-        <v>5</v>
-      </c>
       <c r="P177">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R177">
         <v>1.9</v>
@@ -16245,16 +16245,16 @@
         <v>1.9</v>
       </c>
       <c r="T177">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16307,25 +16307,25 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L178">
+        <v>4.75</v>
+      </c>
+      <c r="M178">
         <v>6</v>
       </c>
-      <c r="M178">
-        <v>10</v>
-      </c>
       <c r="N178">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O178">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P178">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q178">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
         <v>1.9</v>
@@ -16334,16 +16334,16 @@
         <v>1.9</v>
       </c>
       <c r="T178">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,16 +16352,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16562,7 +16562,7 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16740,7 +16740,7 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
         <v>37</v>
@@ -17004,7 +17004,7 @@
         <v>45335.54166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17120,19 +17120,19 @@
         <v>0.25</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>3</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17170,7 +17170,7 @@
         <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K188">
         <v>7</v>
@@ -17182,7 +17182,7 @@
         <v>1.285</v>
       </c>
       <c r="N188">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O188">
         <v>7.5</v>
@@ -17191,13 +17191,13 @@
         <v>1.2</v>
       </c>
       <c r="Q188">
+        <v>2.25</v>
+      </c>
+      <c r="R188">
+        <v>1.8</v>
+      </c>
+      <c r="S188">
         <v>2</v>
-      </c>
-      <c r="R188">
-        <v>1.95</v>
-      </c>
-      <c r="S188">
-        <v>1.85</v>
       </c>
       <c r="T188">
         <v>3.75</v>
@@ -17256,22 +17256,22 @@
         <v>4.333</v>
       </c>
       <c r="N189">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q189">
         <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
         <v>3.25</v>
@@ -17318,7 +17318,7 @@
         <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K190">
         <v>1.571</v>
@@ -17466,7 +17466,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K192">
         <v>1.3</v>
@@ -17564,19 +17564,19 @@
         <v>1.5</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T193">
         <v>3.5</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -103,10 +103,10 @@
     <t>UAE Premier League</t>
   </si>
   <si>
-    <t>Al Ittihad Kalba</t>
+    <t>Al Wasl SC</t>
   </si>
   <si>
-    <t>Al Wasl SC</t>
+    <t>Al Ittihad Kalba</t>
   </si>
   <si>
     <t>Al Bataeh</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5374839</v>
+        <v>5386589</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,55 +631,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="O2">
         <v>3.6</v>
       </c>
       <c r="P2">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>3.333</v>
+        <v>0.615</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5386589</v>
+        <v>5374839</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,55 +720,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N3">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="O3">
         <v>3.6</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>0.615</v>
+        <v>3.333</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,16 +777,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1610,7 +1610,7 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1788,7 +1788,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6187899</v>
+        <v>6187900</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M19">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="N19">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P19">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.6659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6187900</v>
+        <v>6187899</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="L20">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="N20">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="O20">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="Q20">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.222</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6187901</v>
+        <v>6187902</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,37 +2319,37 @@
         <v>44962.55208333334</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N21">
         <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q21">
         <v>-1.25</v>
@@ -2364,31 +2364,31 @@
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6187902</v>
+        <v>6187901</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,37 +2408,37 @@
         <v>44962.55208333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L22">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M22">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N22">
         <v>1.4</v>
       </c>
       <c r="O22">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P22">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q22">
         <v>-1.25</v>
@@ -2453,31 +2453,31 @@
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>44974.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3387,7 +3387,7 @@
         <v>44974.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6187919</v>
+        <v>6188374</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,56 +3921,56 @@
         <v>44987.55208333334</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>2</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="N39">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
+        <v>1.825</v>
+      </c>
+      <c r="V39">
         <v>1.975</v>
       </c>
-      <c r="V39">
-        <v>1.825</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
@@ -3978,19 +3978,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6188374</v>
+        <v>6187919</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>44987.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
       </c>
       <c r="K40">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="N40">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
+        <v>1.95</v>
+      </c>
+      <c r="S40">
+        <v>1.85</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>1.975</v>
+      </c>
+      <c r="V40">
+        <v>1.825</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
         <v>1.9</v>
       </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.825</v>
-      </c>
-      <c r="V40">
-        <v>1.975</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6187923</v>
+        <v>6187924</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,49 +4544,49 @@
         <v>44995.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N46">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>1.95</v>
@@ -4598,22 +4598,22 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6187924</v>
+        <v>6187923</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,49 +4633,49 @@
         <v>44995.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
         <v>1.95</v>
@@ -4687,22 +4687,22 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>44996.5625</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6236618</v>
+        <v>6236425</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45002.44791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N51">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6236425</v>
+        <v>6236618</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45002.44791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N52">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="O52">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P52">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6236426</v>
+        <v>6236424</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,40 +5345,40 @@
         <v>45003.44791666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>1.222</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="O55">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P55">
-        <v>9.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q55">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R55">
         <v>1.95</v>
@@ -5387,19 +5387,19 @@
         <v>1.85</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5414,7 +5414,7 @@
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6236424</v>
+        <v>6236426</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,40 +5434,40 @@
         <v>45003.44791666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N56">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="O56">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P56">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R56">
         <v>1.95</v>
@@ -5476,19 +5476,19 @@
         <v>1.85</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X56">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5503,7 +5503,7 @@
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,10 +5523,10 @@
         <v>45003.5625</v>
       </c>
       <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
         <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6236427</v>
+        <v>6236429</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45017.625</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N60">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1.975</v>
+      </c>
+      <c r="S60">
+        <v>1.825</v>
+      </c>
+      <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
+        <v>1.9</v>
+      </c>
+      <c r="V60">
+        <v>1.9</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>1.4</v>
+      </c>
+      <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>0.825</v>
+      </c>
+      <c r="AB60">
+        <v>0.45</v>
+      </c>
+      <c r="AC60">
         <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>1.825</v>
-      </c>
-      <c r="S60">
-        <v>1.975</v>
-      </c>
-      <c r="T60">
-        <v>3</v>
-      </c>
-      <c r="U60">
-        <v>1.95</v>
-      </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
-      <c r="X60">
-        <v>2.75</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
-        <v>-1</v>
-      </c>
-      <c r="AA60">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
-      <c r="AC60">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6236429</v>
+        <v>6236624</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,55 +5879,55 @@
         <v>45017.625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L61">
+        <v>3.6</v>
+      </c>
+      <c r="M61">
+        <v>1.909</v>
+      </c>
+      <c r="N61">
         <v>3.4</v>
       </c>
-      <c r="M61">
-        <v>2.9</v>
-      </c>
-      <c r="N61">
-        <v>2.55</v>
-      </c>
       <c r="O61">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5936,19 +5936,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6236624</v>
+        <v>6236427</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45017.625</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M62">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N62">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="O62">
         <v>3.75</v>
       </c>
       <c r="P62">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
+        <v>1.825</v>
+      </c>
+      <c r="S62">
+        <v>1.975</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="U62">
         <v>1.95</v>
       </c>
-      <c r="S62">
+      <c r="V62">
         <v>1.85</v>
       </c>
-      <c r="T62">
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>2.75</v>
       </c>
-      <c r="U62">
-        <v>1.8</v>
-      </c>
-      <c r="V62">
-        <v>2</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
       <c r="Y62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB62">
-        <v>0.8</v>
-      </c>
-      <c r="AC62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6236622</v>
+        <v>6236621</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,13 +6057,13 @@
         <v>45018.625</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6072,43 +6072,43 @@
         <v>45</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
         <v>3.4</v>
       </c>
-      <c r="M63">
-        <v>2.1</v>
-      </c>
       <c r="N63">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="O63">
+        <v>3.6</v>
+      </c>
+      <c r="P63">
         <v>3.5</v>
       </c>
-      <c r="P63">
-        <v>1.909</v>
-      </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>2.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6117,16 +6117,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6236621</v>
+        <v>6236622</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45018.625</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,61 +6161,61 @@
         <v>45</v>
       </c>
       <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>3.4</v>
+      </c>
+      <c r="M64">
+        <v>2.1</v>
+      </c>
+      <c r="N64">
+        <v>3.3</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
         <v>1.909</v>
       </c>
-      <c r="L64">
-        <v>3.5</v>
-      </c>
-      <c r="M64">
-        <v>3.4</v>
-      </c>
-      <c r="N64">
+      <c r="Q64">
+        <v>0.5</v>
+      </c>
+      <c r="R64">
         <v>1.85</v>
       </c>
-      <c r="O64">
-        <v>3.6</v>
-      </c>
-      <c r="P64">
-        <v>3.5</v>
-      </c>
-      <c r="Q64">
-        <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>1.875</v>
-      </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
         <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
+        <v>2.3</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
+      <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.875</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>0.4875</v>
-      </c>
-      <c r="AC64">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6236626</v>
+        <v>6236431</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,58 +6591,58 @@
         <v>45025.625</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N69">
-        <v>3.8</v>
+        <v>1.125</v>
       </c>
       <c r="O69">
+        <v>7.5</v>
+      </c>
+      <c r="P69">
+        <v>15</v>
+      </c>
+      <c r="Q69">
+        <v>-2.25</v>
+      </c>
+      <c r="R69">
+        <v>1.875</v>
+      </c>
+      <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
         <v>3.5</v>
       </c>
-      <c r="P69">
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.8</v>
       </c>
-      <c r="Q69">
-        <v>0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
       <c r="W69">
-        <v>2.8</v>
+        <v>0.125</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6236431</v>
+        <v>6236626</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,58 +6680,58 @@
         <v>45025.625</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.2</v>
+        <v>2.875</v>
       </c>
       <c r="L70">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N70">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O70">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="Q70">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>0.125</v>
+        <v>2.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6740,16 +6740,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6236433</v>
+        <v>6236629</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,73 +6858,73 @@
         <v>45034.625</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72">
+        <v>3.2</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
         <v>2</v>
       </c>
-      <c r="I72">
+      <c r="N72">
+        <v>3.3</v>
+      </c>
+      <c r="O72">
+        <v>3.6</v>
+      </c>
+      <c r="P72">
+        <v>1.95</v>
+      </c>
+      <c r="Q72">
+        <v>0.5</v>
+      </c>
+      <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
         <v>2</v>
       </c>
-      <c r="J72" t="s">
-        <v>47</v>
-      </c>
-      <c r="K72">
-        <v>4.75</v>
-      </c>
-      <c r="L72">
-        <v>3.8</v>
-      </c>
-      <c r="M72">
-        <v>1.615</v>
-      </c>
-      <c r="N72">
-        <v>4.75</v>
-      </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>1.666</v>
-      </c>
-      <c r="Q72">
-        <v>0.75</v>
-      </c>
-      <c r="R72">
-        <v>1.925</v>
-      </c>
-      <c r="S72">
-        <v>1.875</v>
-      </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6236629</v>
+        <v>6236435</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,46 +6947,46 @@
         <v>45034.625</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
+      <c r="J73" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73">
+        <v>2.15</v>
+      </c>
+      <c r="L73">
+        <v>3.3</v>
+      </c>
+      <c r="M73">
         <v>3</v>
       </c>
-      <c r="J73" t="s">
-        <v>46</v>
-      </c>
-      <c r="K73">
-        <v>3.2</v>
-      </c>
-      <c r="L73">
-        <v>3.5</v>
-      </c>
-      <c r="M73">
+      <c r="N73">
+        <v>2.6</v>
+      </c>
+      <c r="O73">
+        <v>3.4</v>
+      </c>
+      <c r="P73">
+        <v>2.375</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <v>2</v>
       </c>
-      <c r="N73">
-        <v>3.3</v>
-      </c>
-      <c r="O73">
-        <v>3.6</v>
-      </c>
-      <c r="P73">
-        <v>1.95</v>
-      </c>
-      <c r="Q73">
-        <v>0.5</v>
-      </c>
-      <c r="R73">
+      <c r="S73">
         <v>1.8</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
       </c>
       <c r="T73">
         <v>3</v>
@@ -6998,19 +6998,19 @@
         <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>0.9750000000000001</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6236435</v>
+        <v>6236433</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,73 +7036,73 @@
         <v>45034.625</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N74">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6236630</v>
+        <v>6236631</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,73 +7217,73 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76">
+        <v>2.1</v>
+      </c>
+      <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76">
+        <v>2.9</v>
+      </c>
+      <c r="N76">
+        <v>2.2</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
+        <v>2.7</v>
+      </c>
+      <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
         <v>3</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s">
-        <v>45</v>
-      </c>
-      <c r="K76">
-        <v>1.55</v>
-      </c>
-      <c r="L76">
-        <v>3.8</v>
-      </c>
-      <c r="M76">
-        <v>5</v>
-      </c>
-      <c r="N76">
-        <v>1.533</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
-      <c r="P76">
-        <v>5</v>
-      </c>
-      <c r="Q76">
-        <v>-1</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
-      <c r="S76">
-        <v>1.875</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
       <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
         <v>1.8</v>
       </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
       <c r="W76">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6236631</v>
+        <v>6236434</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45035.625</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O77">
         <v>3.5</v>
       </c>
       <c r="P77">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
+        <v>1.8</v>
+      </c>
+      <c r="S77">
         <v>2</v>
       </c>
-      <c r="S77">
-        <v>1.8</v>
-      </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6236434</v>
+        <v>6236630</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,13 +7392,13 @@
         <v>45035.625</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7407,43 +7407,43 @@
         <v>45</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6236633</v>
+        <v>6236636</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>2</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>1.571</v>
+      </c>
+      <c r="N82">
+        <v>5.75</v>
+      </c>
+      <c r="O82">
         <v>4.5</v>
       </c>
-      <c r="M82">
-        <v>5.5</v>
-      </c>
-      <c r="N82">
+      <c r="P82">
+        <v>1.444</v>
+      </c>
+      <c r="Q82">
         <v>1.25</v>
       </c>
-      <c r="O82">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>9</v>
-      </c>
-      <c r="Q82">
-        <v>-1.75</v>
-      </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6236636</v>
+        <v>6236633</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M83">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N83">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P83">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q83">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6236439</v>
+        <v>6236440</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,40 +8193,40 @@
         <v>45052.46875</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
+        <v>1.4</v>
+      </c>
+      <c r="L87">
+        <v>4.5</v>
+      </c>
+      <c r="M87">
         <v>6</v>
       </c>
-      <c r="L87">
-        <v>4.75</v>
-      </c>
-      <c r="M87">
+      <c r="N87">
         <v>1.4</v>
       </c>
-      <c r="N87">
-        <v>8.5</v>
-      </c>
       <c r="O87">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P87">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
         <v>1.95</v>
@@ -8235,34 +8235,34 @@
         <v>1.85</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6236440</v>
+        <v>6236439</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,40 +8282,40 @@
         <v>45052.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88">
+        <v>4.75</v>
+      </c>
+      <c r="M88">
         <v>1.4</v>
       </c>
-      <c r="L88">
-        <v>4.5</v>
-      </c>
-      <c r="M88">
-        <v>6</v>
-      </c>
       <c r="N88">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="O88">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R88">
         <v>1.95</v>
@@ -8324,34 +8324,34 @@
         <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="X88">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45053.46875</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>37</v>
@@ -8638,7 +8638,7 @@
         <v>45053.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
         <v>36</v>
@@ -8730,7 +8730,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8819,7 +8819,7 @@
         <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236642</v>
+        <v>6236641</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M96">
+        <v>9</v>
+      </c>
+      <c r="N96">
+        <v>1.142</v>
+      </c>
+      <c r="O96">
         <v>7</v>
       </c>
-      <c r="N96">
-        <v>1.285</v>
-      </c>
-      <c r="O96">
-        <v>5.5</v>
-      </c>
       <c r="P96">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Q96">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X96">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236641</v>
+        <v>6236642</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97">
+        <v>1.3</v>
+      </c>
+      <c r="L97">
         <v>5</v>
       </c>
-      <c r="I97">
+      <c r="M97">
+        <v>7</v>
+      </c>
+      <c r="N97">
+        <v>1.285</v>
+      </c>
+      <c r="O97">
+        <v>5.5</v>
+      </c>
+      <c r="P97">
+        <v>7.5</v>
+      </c>
+      <c r="Q97">
+        <v>-1.75</v>
+      </c>
+      <c r="R97">
         <v>2</v>
       </c>
-      <c r="J97" t="s">
-        <v>45</v>
-      </c>
-      <c r="K97">
-        <v>1.181</v>
-      </c>
-      <c r="L97">
-        <v>6.5</v>
-      </c>
-      <c r="M97">
-        <v>9</v>
-      </c>
-      <c r="N97">
-        <v>1.142</v>
-      </c>
-      <c r="O97">
-        <v>7</v>
-      </c>
-      <c r="P97">
-        <v>13</v>
-      </c>
-      <c r="Q97">
-        <v>-2.25</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>45156.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832489</v>
+        <v>6832492</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,58 +9706,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N104">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832492</v>
+        <v>6832489</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,58 +9795,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
         <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="N105">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q105">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10243,7 +10243,7 @@
         <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -11130,7 +11130,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124">
+        <v>1.666</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>1.8</v>
+      </c>
+      <c r="O124">
+        <v>4</v>
+      </c>
+      <c r="P124">
+        <v>3.5</v>
+      </c>
+      <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.825</v>
+      </c>
+      <c r="S124">
+        <v>1.975</v>
+      </c>
+      <c r="T124">
+        <v>3.25</v>
+      </c>
+      <c r="U124">
+        <v>1.925</v>
+      </c>
+      <c r="V124">
+        <v>1.875</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>5</v>
-      </c>
-      <c r="J124" t="s">
-        <v>46</v>
-      </c>
-      <c r="K124">
-        <v>2.4</v>
-      </c>
-      <c r="L124">
-        <v>3.5</v>
-      </c>
-      <c r="M124">
-        <v>2.55</v>
-      </c>
-      <c r="N124">
-        <v>2.875</v>
-      </c>
-      <c r="O124">
-        <v>3.6</v>
-      </c>
-      <c r="P124">
-        <v>2.15</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
-      <c r="U124">
-        <v>1.9</v>
-      </c>
-      <c r="V124">
-        <v>1.9</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
       <c r="Y124">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11931,7 +11931,7 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
         <v>44</v>
@@ -12109,7 +12109,7 @@
         <v>45206.43055555555</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6832525</v>
+        <v>6832521</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45226.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="L135">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N135">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="O135">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y135">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6832521</v>
+        <v>6832525</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45226.40625</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P136">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12735,7 +12735,7 @@
         <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -13177,7 +13177,7 @@
         <v>45232.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
         <v>36</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6832531</v>
+        <v>6833137</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,49 +13266,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
         <v>46</v>
       </c>
       <c r="K144">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N144">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O144">
         <v>4</v>
       </c>
       <c r="P144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q144">
         <v>-0.75</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13323,19 +13323,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6833137</v>
+        <v>6832531</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,49 +13355,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>2</v>
-      </c>
-      <c r="I145">
-        <v>4</v>
       </c>
       <c r="J145" t="s">
         <v>46</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N145">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O145">
         <v>4</v>
       </c>
       <c r="P145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q145">
         <v>-0.75</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
         <v>1.8</v>
@@ -13412,19 +13412,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>41</v>
@@ -13981,7 +13981,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14156,7 +14156,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14337,7 +14337,7 @@
         <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14601,7 +14601,7 @@
         <v>45262.40625</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
         <v>31</v>
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K161">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M161">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P161">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
         <v>1.85</v>
       </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
       <c r="W161">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
         <v>1</v>
       </c>
-      <c r="I162">
-        <v>5</v>
-      </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L162">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N162">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O162">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q162">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>1.8</v>
+      </c>
+      <c r="T162">
+        <v>2.75</v>
+      </c>
+      <c r="U162">
+        <v>1.85</v>
+      </c>
+      <c r="V162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
-      <c r="T162">
-        <v>3.75</v>
-      </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>1.85</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,73 +14957,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H163">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>47</v>
+      </c>
+      <c r="K163">
+        <v>2.875</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>2.3</v>
+      </c>
+      <c r="N163">
+        <v>2.625</v>
+      </c>
+      <c r="O163">
+        <v>3.6</v>
+      </c>
+      <c r="P163">
+        <v>2.45</v>
+      </c>
+      <c r="Q163">
         <v>0</v>
       </c>
-      <c r="J163" t="s">
-        <v>45</v>
-      </c>
-      <c r="K163">
-        <v>1.222</v>
-      </c>
-      <c r="L163">
-        <v>6</v>
-      </c>
-      <c r="M163">
-        <v>8</v>
-      </c>
-      <c r="N163">
-        <v>1.25</v>
-      </c>
-      <c r="O163">
-        <v>6</v>
-      </c>
-      <c r="P163">
-        <v>6.5</v>
-      </c>
-      <c r="Q163">
-        <v>-1.75</v>
-      </c>
       <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>3</v>
+      </c>
+      <c r="U163">
         <v>1.95</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.85</v>
       </c>
-      <c r="T163">
-        <v>3.5</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
-      <c r="V163">
-        <v>1.925</v>
-      </c>
       <c r="W163">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>-0</v>
+      </c>
+      <c r="AB163">
         <v>0.95</v>
-      </c>
-      <c r="AA163">
-        <v>-1</v>
-      </c>
-      <c r="AB163">
-        <v>0.875</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,73 +15046,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M164">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N164">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P164">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X164">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,73 +15135,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>4</v>
-      </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L165">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N165">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O165">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P165">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q165">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,73 +15224,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K166">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M166">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N166">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O166">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P166">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q166">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15313,7 +15313,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>36</v>
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,49 +15402,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K168">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M168">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N168">
+        <v>4.75</v>
+      </c>
+      <c r="O168">
+        <v>4.5</v>
+      </c>
+      <c r="P168">
+        <v>1.533</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>1.8</v>
+      </c>
+      <c r="T168">
         <v>4</v>
-      </c>
-      <c r="O168">
-        <v>3.75</v>
-      </c>
-      <c r="P168">
-        <v>1.727</v>
-      </c>
-      <c r="Q168">
-        <v>0.75</v>
-      </c>
-      <c r="R168">
-        <v>1.825</v>
-      </c>
-      <c r="S168">
-        <v>1.975</v>
-      </c>
-      <c r="T168">
-        <v>3</v>
       </c>
       <c r="U168">
         <v>2</v>
@@ -15456,16 +15456,16 @@
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15479,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15491,49 +15491,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L169">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M169">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N169">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O169">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q169">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U169">
         <v>2</v>
@@ -15545,16 +15545,16 @@
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y169">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
         <v>-1</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6832553</v>
+        <v>6832554</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>3</v>
+      </c>
+      <c r="J172" t="s">
+        <v>46</v>
+      </c>
+      <c r="K172">
+        <v>3.4</v>
+      </c>
+      <c r="L172">
+        <v>3.75</v>
+      </c>
+      <c r="M172">
+        <v>1.85</v>
+      </c>
+      <c r="N172">
+        <v>3.1</v>
+      </c>
+      <c r="O172">
+        <v>3.6</v>
+      </c>
+      <c r="P172">
         <v>2</v>
       </c>
-      <c r="I172">
+      <c r="Q172">
+        <v>0.25</v>
+      </c>
+      <c r="R172">
+        <v>2.025</v>
+      </c>
+      <c r="S172">
+        <v>1.775</v>
+      </c>
+      <c r="T172">
+        <v>3</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
+      <c r="V172">
+        <v>1.8</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
         <v>1</v>
       </c>
-      <c r="J172" t="s">
-        <v>45</v>
-      </c>
-      <c r="K172">
-        <v>1.5</v>
-      </c>
-      <c r="L172">
-        <v>4.333</v>
-      </c>
-      <c r="M172">
-        <v>5.25</v>
-      </c>
-      <c r="N172">
-        <v>1.444</v>
-      </c>
-      <c r="O172">
-        <v>4.5</v>
-      </c>
-      <c r="P172">
-        <v>5.5</v>
-      </c>
-      <c r="Q172">
-        <v>-1.25</v>
-      </c>
-      <c r="R172">
-        <v>1.9</v>
-      </c>
-      <c r="S172">
-        <v>1.9</v>
-      </c>
-      <c r="T172">
-        <v>3.5</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
-      <c r="W172">
-        <v>0.444</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6832554</v>
+        <v>6832553</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M173">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P173">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,49 +16470,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M180">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N180">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P180">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q180">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T180">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
         <v>1.925</v>
@@ -16524,22 +16524,22 @@
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y180">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,49 +16559,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K181">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L181">
+        <v>5</v>
+      </c>
+      <c r="M181">
+        <v>1.333</v>
+      </c>
+      <c r="N181">
+        <v>8</v>
+      </c>
+      <c r="O181">
         <v>5.5</v>
       </c>
-      <c r="M181">
-        <v>9</v>
-      </c>
-      <c r="N181">
-        <v>1.5</v>
-      </c>
-      <c r="O181">
-        <v>4.5</v>
-      </c>
       <c r="P181">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U181">
         <v>1.925</v>
@@ -16613,22 +16613,22 @@
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16740,7 +16740,7 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>37</v>
@@ -17004,7 +17004,7 @@
         <v>45335.54166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17129,10 +17129,10 @@
         <v>3</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17170,7 +17170,7 @@
         <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K188">
         <v>7</v>
@@ -17277,10 +17277,10 @@
         <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17318,7 +17318,7 @@
         <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K190">
         <v>1.571</v>
@@ -17342,19 +17342,19 @@
         <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
         <v>3.25</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17496,13 +17496,13 @@
         <v>1.95</v>
       </c>
       <c r="T192">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
         <v>1.8</v>
-      </c>
-      <c r="V192">
-        <v>2</v>
       </c>
       <c r="W192">
         <v>0</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Sharjah SCC</t>
   </si>
   <si>
-    <t>Ajman SCC</t>
+    <t>Al Dhafra SCC</t>
   </si>
   <si>
-    <t>Al Dhafra SCC</t>
+    <t>Ajman SCC</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC193"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5374838</v>
+        <v>5386588</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,70 +987,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
+        <v>2.55</v>
+      </c>
+      <c r="N6">
         <v>2.1</v>
       </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.825</v>
-      </c>
-      <c r="AB6">
-        <v>0.875</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5386588</v>
+        <v>5374838</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,70 +1076,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <v>0.825</v>
+      </c>
+      <c r="AB7">
         <v>0.875</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6159513</v>
+        <v>6159575</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>44953.54166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M11">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6159575</v>
+        <v>6159513</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>44953.54166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>44961.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -2141,7 +2141,7 @@
         <v>44962.4375</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6187902</v>
+        <v>6187901</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,37 +2319,37 @@
         <v>44962.55208333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L21">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M21">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q21">
         <v>-1.25</v>
@@ -2364,31 +2364,31 @@
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6187901</v>
+        <v>6187902</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,37 +2408,37 @@
         <v>44962.55208333334</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L22">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N22">
         <v>1.4</v>
       </c>
       <c r="O22">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q22">
         <v>-1.25</v>
@@ -2453,31 +2453,31 @@
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X22">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6187904</v>
+        <v>6187903</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6187903</v>
+        <v>6187904</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>44967.4375</v>
       </c>
       <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
         <v>34</v>
       </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
       <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M24">
+        <v>6.5</v>
+      </c>
+      <c r="N24">
+        <v>1.4</v>
+      </c>
+      <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>-1.25</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="N24">
-        <v>3.1</v>
-      </c>
-      <c r="O24">
-        <v>3.3</v>
-      </c>
-      <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <v>0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.975</v>
-      </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6187906</v>
+        <v>6187905</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>44967.55208333334</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>1.65</v>
+      </c>
+      <c r="O25">
+        <v>3.8</v>
+      </c>
+      <c r="P25">
+        <v>4.2</v>
+      </c>
+      <c r="Q25">
+        <v>-0.75</v>
+      </c>
+      <c r="R25">
+        <v>1.825</v>
+      </c>
+      <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
         <v>3</v>
       </c>
-      <c r="N25">
-        <v>2.6</v>
-      </c>
-      <c r="O25">
-        <v>2.9</v>
-      </c>
-      <c r="P25">
-        <v>2.7</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
+      <c r="U25">
         <v>1.875</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>1.925</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>2</v>
-      </c>
-      <c r="V25">
-        <v>1.8</v>
-      </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X25">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6187905</v>
+        <v>6187906</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>44967.55208333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>2.2</v>
+      </c>
+      <c r="L26">
+        <v>3.2</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>2.6</v>
+      </c>
+      <c r="O26">
+        <v>2.9</v>
+      </c>
+      <c r="P26">
+        <v>2.7</v>
+      </c>
+      <c r="Q26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>1.75</v>
-      </c>
-      <c r="L26">
-        <v>3.5</v>
-      </c>
-      <c r="M26">
-        <v>4</v>
-      </c>
-      <c r="N26">
-        <v>1.65</v>
-      </c>
-      <c r="O26">
-        <v>3.8</v>
-      </c>
-      <c r="P26">
-        <v>4.2</v>
-      </c>
-      <c r="Q26">
-        <v>-0.75</v>
-      </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6187912</v>
+        <v>6187911</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <v>1.5</v>
       </c>
       <c r="N31">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O31">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q31">
         <v>1.25</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6187911</v>
+        <v>6187912</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
         <v>1.5</v>
       </c>
       <c r="N32">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P32">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q32">
         <v>1.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6187915</v>
+        <v>6187914</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
         <v>2</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="L34">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="M34">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="N34">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O34">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q34">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6187914</v>
+        <v>6187915</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,58 +3565,58 @@
         <v>44975.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
       <c r="K35">
-        <v>1.571</v>
+        <v>1.222</v>
       </c>
       <c r="L35">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M35">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="N35">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P35">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>0.615</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6187920</v>
+        <v>6187921</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,55 +4099,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>46</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="N41">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4156,19 +4156,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6187921</v>
+        <v>6187920</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,55 +4188,55 @@
         <v>44988.4375</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>46</v>
       </c>
       <c r="K42">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="N42">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4245,19 +4245,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6187922</v>
+        <v>6187926</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4366,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>1.95</v>
+      </c>
+      <c r="V44">
+        <v>1.85</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
         <v>2.75</v>
       </c>
-      <c r="U44">
-        <v>1.8</v>
-      </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>2.25</v>
-      </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6187926</v>
+        <v>6187922</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
+        <v>2.4</v>
+      </c>
+      <c r="O45">
+        <v>3.25</v>
+      </c>
+      <c r="P45">
+        <v>2.55</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <v>1.8</v>
       </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.5</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.875</v>
-      </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6187924</v>
+        <v>6187923</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,49 +4544,49 @@
         <v>44995.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
         <v>1.95</v>
@@ -4598,22 +4598,22 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6187923</v>
+        <v>6187924</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,49 +4633,49 @@
         <v>44995.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N47">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
         <v>1.95</v>
@@ -4687,22 +4687,22 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45002.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -5345,7 +5345,7 @@
         <v>45003.44791666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -5704,7 +5704,7 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5879,7 +5879,7 @@
         <v>45017.625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6236621</v>
+        <v>6236622</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,13 +6057,13 @@
         <v>45018.625</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6072,61 +6072,61 @@
         <v>45</v>
       </c>
       <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>3.4</v>
+      </c>
+      <c r="M63">
+        <v>2.1</v>
+      </c>
+      <c r="N63">
+        <v>3.3</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
         <v>1.909</v>
       </c>
-      <c r="L63">
-        <v>3.5</v>
-      </c>
-      <c r="M63">
-        <v>3.4</v>
-      </c>
-      <c r="N63">
+      <c r="Q63">
+        <v>0.5</v>
+      </c>
+      <c r="R63">
         <v>1.85</v>
       </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
-      <c r="P63">
-        <v>3.5</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
+        <v>2.3</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.875</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>0.4875</v>
-      </c>
-      <c r="AC63">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6236622</v>
+        <v>6236621</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45018.625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,43 +6161,43 @@
         <v>45</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
         <v>3.4</v>
       </c>
-      <c r="M64">
-        <v>2.1</v>
-      </c>
       <c r="N64">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="O64">
+        <v>3.6</v>
+      </c>
+      <c r="P64">
         <v>3.5</v>
       </c>
-      <c r="P64">
-        <v>1.909</v>
-      </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
         <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>2.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6206,16 +6206,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6680,7 +6680,7 @@
         <v>45025.625</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>29</v>
@@ -6858,7 +6858,7 @@
         <v>45034.625</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>37</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6236433</v>
+        <v>6236632</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45034.625</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6236632</v>
+        <v>6236433</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45034.625</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N75">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y75">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7217,7 +7217,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6236434</v>
+        <v>6236630</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,13 +7303,13 @@
         <v>45035.625</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7318,43 +7318,43 @@
         <v>45</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6236630</v>
+        <v>6236434</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,13 +7392,13 @@
         <v>45035.625</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7407,43 +7407,43 @@
         <v>45</v>
       </c>
       <c r="K78">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
+        <v>3.3</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>1.8</v>
+      </c>
+      <c r="O78">
+        <v>3.5</v>
+      </c>
+      <c r="P78">
         <v>3.8</v>
       </c>
-      <c r="M78">
-        <v>5</v>
-      </c>
-      <c r="N78">
-        <v>1.533</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78">
-        <v>5</v>
-      </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7837,10 +7837,10 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
         <v>33</v>
-      </c>
-      <c r="G83" t="s">
-        <v>34</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8282,7 +8282,7 @@
         <v>45052.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>42</v>
@@ -8371,7 +8371,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236641</v>
+        <v>6236643</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96">
+        <v>1.3</v>
+      </c>
+      <c r="L96">
         <v>5</v>
       </c>
-      <c r="I96">
-        <v>2</v>
-      </c>
-      <c r="J96" t="s">
-        <v>45</v>
-      </c>
-      <c r="K96">
-        <v>1.181</v>
-      </c>
-      <c r="L96">
-        <v>6.5</v>
-      </c>
       <c r="M96">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N96">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236642</v>
+        <v>6236641</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M97">
+        <v>9</v>
+      </c>
+      <c r="N97">
+        <v>1.142</v>
+      </c>
+      <c r="O97">
         <v>7</v>
       </c>
-      <c r="N97">
-        <v>1.285</v>
-      </c>
-      <c r="O97">
-        <v>5.5</v>
-      </c>
       <c r="P97">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Q97">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X97">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236643</v>
+        <v>6236642</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45058.46875</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9196,25 +9196,25 @@
         <v>7</v>
       </c>
       <c r="N98">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.825</v>
@@ -9226,7 +9226,7 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3.333</v>
+        <v>4.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9235,7 +9235,7 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9264,7 +9264,7 @@
         <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9617,7 +9617,7 @@
         <v>45156.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>41</v>
@@ -9976,7 +9976,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>46</v>
       </c>
       <c r="K114">
+        <v>3.75</v>
+      </c>
+      <c r="L114">
         <v>3.6</v>
       </c>
-      <c r="L114">
-        <v>3.8</v>
-      </c>
       <c r="M114">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N114">
         <v>3.8</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P114">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10653,19 +10653,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,55 +10685,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J115" t="s">
         <v>46</v>
       </c>
       <c r="K115">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N115">
         <v>3.8</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P115">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,19 +10742,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>6</v>
@@ -11397,7 +11397,7 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
         <v>30</v>
@@ -12112,7 +12112,7 @@
         <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12468,7 +12468,7 @@
         <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6833137</v>
+        <v>6832531</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,49 +13266,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>2</v>
-      </c>
-      <c r="I144">
-        <v>4</v>
       </c>
       <c r="J144" t="s">
         <v>46</v>
       </c>
       <c r="K144">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N144">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O144">
         <v>4</v>
       </c>
       <c r="P144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q144">
         <v>-0.75</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13323,19 +13323,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6832531</v>
+        <v>6833137</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,49 +13355,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J145" t="s">
         <v>46</v>
       </c>
       <c r="K145">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N145">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O145">
         <v>4</v>
       </c>
       <c r="P145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q145">
         <v>-0.75</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
         <v>1.8</v>
@@ -13412,19 +13412,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
         <v>40</v>
@@ -14070,7 +14070,7 @@
         <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832543</v>
+        <v>6832542</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>47</v>
+      </c>
+      <c r="K156">
+        <v>1.8</v>
+      </c>
+      <c r="L156">
+        <v>3.7</v>
+      </c>
+      <c r="M156">
+        <v>3.75</v>
+      </c>
+      <c r="N156">
+        <v>1.8</v>
+      </c>
+      <c r="O156">
         <v>4</v>
       </c>
-      <c r="J156" t="s">
-        <v>46</v>
-      </c>
-      <c r="K156">
+      <c r="P156">
+        <v>3.5</v>
+      </c>
+      <c r="Q156">
+        <v>-0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.85</v>
+      </c>
+      <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
         <v>3</v>
       </c>
-      <c r="L156">
-        <v>3.5</v>
-      </c>
-      <c r="M156">
-        <v>2.1</v>
-      </c>
-      <c r="N156">
-        <v>3.75</v>
-      </c>
-      <c r="O156">
-        <v>3.8</v>
-      </c>
-      <c r="P156">
-        <v>1.75</v>
-      </c>
-      <c r="Q156">
-        <v>0.5</v>
-      </c>
-      <c r="R156">
-        <v>1.975</v>
-      </c>
-      <c r="S156">
-        <v>1.825</v>
-      </c>
-      <c r="T156">
-        <v>3.25</v>
-      </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832542</v>
+        <v>6832543</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157" t="s">
+        <v>46</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>3.5</v>
+      </c>
+      <c r="M157">
+        <v>2.1</v>
+      </c>
+      <c r="N157">
+        <v>3.75</v>
+      </c>
+      <c r="O157">
+        <v>3.8</v>
+      </c>
+      <c r="P157">
+        <v>1.75</v>
+      </c>
+      <c r="Q157">
+        <v>0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.975</v>
+      </c>
+      <c r="S157">
+        <v>1.825</v>
+      </c>
+      <c r="T157">
+        <v>3.25</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
+        <v>1.8</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>0.75</v>
+      </c>
+      <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
+        <v>0.825</v>
+      </c>
+      <c r="AB157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-      <c r="J157" t="s">
-        <v>47</v>
-      </c>
-      <c r="K157">
-        <v>1.8</v>
-      </c>
-      <c r="L157">
-        <v>3.7</v>
-      </c>
-      <c r="M157">
-        <v>3.75</v>
-      </c>
-      <c r="N157">
-        <v>1.8</v>
-      </c>
-      <c r="O157">
-        <v>4</v>
-      </c>
-      <c r="P157">
-        <v>3.5</v>
-      </c>
-      <c r="Q157">
-        <v>-0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.85</v>
-      </c>
-      <c r="S157">
-        <v>1.95</v>
-      </c>
-      <c r="T157">
-        <v>3</v>
-      </c>
-      <c r="U157">
-        <v>1.875</v>
-      </c>
-      <c r="V157">
-        <v>1.925</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>3</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
-      <c r="AA157">
-        <v>0.95</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,73 +14957,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M163">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N163">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O163">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P163">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R163">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X163">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,73 +15046,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H164">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164" t="s">
+        <v>47</v>
+      </c>
+      <c r="K164">
+        <v>2.875</v>
+      </c>
+      <c r="L164">
+        <v>3.6</v>
+      </c>
+      <c r="M164">
+        <v>2.3</v>
+      </c>
+      <c r="N164">
+        <v>2.625</v>
+      </c>
+      <c r="O164">
+        <v>3.6</v>
+      </c>
+      <c r="P164">
+        <v>2.45</v>
+      </c>
+      <c r="Q164">
         <v>0</v>
       </c>
-      <c r="J164" t="s">
-        <v>45</v>
-      </c>
-      <c r="K164">
-        <v>1.222</v>
-      </c>
-      <c r="L164">
-        <v>6</v>
-      </c>
-      <c r="M164">
-        <v>8</v>
-      </c>
-      <c r="N164">
-        <v>1.25</v>
-      </c>
-      <c r="O164">
-        <v>6</v>
-      </c>
-      <c r="P164">
-        <v>6.5</v>
-      </c>
-      <c r="Q164">
-        <v>-1.75</v>
-      </c>
       <c r="R164">
+        <v>2.025</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
+        <v>3</v>
+      </c>
+      <c r="U164">
         <v>1.95</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.85</v>
       </c>
-      <c r="T164">
-        <v>3.5</v>
-      </c>
-      <c r="U164">
-        <v>1.875</v>
-      </c>
-      <c r="V164">
-        <v>1.925</v>
-      </c>
       <c r="W164">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>-0</v>
+      </c>
+      <c r="AB164">
         <v>0.95</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>0.875</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,49 +15402,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K168">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L168">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N168">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O168">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q168">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U168">
         <v>2</v>
@@ -15456,16 +15456,16 @@
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y168">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15479,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15491,49 +15491,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K169">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L169">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M169">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N169">
+        <v>4.75</v>
+      </c>
+      <c r="O169">
+        <v>4.5</v>
+      </c>
+      <c r="P169">
+        <v>1.533</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>1.8</v>
+      </c>
+      <c r="T169">
         <v>4</v>
-      </c>
-      <c r="O169">
-        <v>3.75</v>
-      </c>
-      <c r="P169">
-        <v>1.727</v>
-      </c>
-      <c r="Q169">
-        <v>0.75</v>
-      </c>
-      <c r="R169">
-        <v>1.825</v>
-      </c>
-      <c r="S169">
-        <v>1.975</v>
-      </c>
-      <c r="T169">
-        <v>3</v>
       </c>
       <c r="U169">
         <v>2</v>
@@ -15545,16 +15545,16 @@
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
         <v>-1</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6832552</v>
+        <v>6832551</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L170">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M170">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="N170">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P170">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q170">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
         <v>1.95</v>
-      </c>
-      <c r="S170">
-        <v>1.85</v>
       </c>
       <c r="T170">
         <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z170">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6832551</v>
+        <v>6832552</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H171">
+        <v>4</v>
+      </c>
+      <c r="I171">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>2</v>
-      </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K171">
+        <v>1.3</v>
+      </c>
+      <c r="L171">
         <v>5.25</v>
       </c>
-      <c r="L171">
-        <v>4.75</v>
-      </c>
       <c r="M171">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="N171">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O171">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P171">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q171">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R171">
+        <v>1.95</v>
+      </c>
+      <c r="S171">
         <v>1.85</v>
-      </c>
-      <c r="S171">
-        <v>1.95</v>
       </c>
       <c r="T171">
         <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>45276.40625</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
         <v>38</v>
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,13 +16203,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -16218,25 +16218,25 @@
         <v>45</v>
       </c>
       <c r="K177">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L177">
+        <v>4.75</v>
+      </c>
+      <c r="M177">
         <v>6</v>
       </c>
-      <c r="M177">
-        <v>10</v>
-      </c>
       <c r="N177">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O177">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P177">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q177">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R177">
         <v>1.9</v>
@@ -16245,16 +16245,16 @@
         <v>1.9</v>
       </c>
       <c r="T177">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16307,25 +16307,25 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L178">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M178">
+        <v>10</v>
+      </c>
+      <c r="N178">
+        <v>1.222</v>
+      </c>
+      <c r="O178">
         <v>6</v>
       </c>
-      <c r="N178">
-        <v>1.333</v>
-      </c>
-      <c r="O178">
-        <v>5</v>
-      </c>
       <c r="P178">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R178">
         <v>1.9</v>
@@ -16334,16 +16334,16 @@
         <v>1.9</v>
       </c>
       <c r="T178">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U178">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,16 +16352,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6832568</v>
+        <v>6832566</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17090,49 +17090,49 @@
         <v>28</v>
       </c>
       <c r="E187" s="2">
-        <v>45346.4375</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K187">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M187">
+        <v>4.333</v>
+      </c>
+      <c r="N187">
         <v>2.15</v>
       </c>
-      <c r="N187">
-        <v>3.2</v>
-      </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P187">
+        <v>2.625</v>
+      </c>
+      <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
         <v>2</v>
       </c>
-      <c r="Q187">
-        <v>0.25</v>
-      </c>
-      <c r="R187">
-        <v>1.975</v>
-      </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
         <v>3</v>
       </c>
       <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
         <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.85</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17155,7 +17155,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6832569</v>
+        <v>6832567</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17164,43 +17164,43 @@
         <v>28</v>
       </c>
       <c r="E188" s="2">
-        <v>45346.4375</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K188">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="L188">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M188">
-        <v>1.285</v>
+        <v>4.333</v>
       </c>
       <c r="N188">
-        <v>8.5</v>
+        <v>1.615</v>
       </c>
       <c r="O188">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>1.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q188">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T188">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U188">
         <v>1.825</v>
@@ -17229,7 +17229,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6832566</v>
+        <v>6832570</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17238,49 +17238,49 @@
         <v>28</v>
       </c>
       <c r="E189" s="2">
-        <v>45346.54166666666</v>
+        <v>45347.4375</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K189">
+        <v>4.75</v>
+      </c>
+      <c r="L189">
+        <v>4.2</v>
+      </c>
+      <c r="M189">
+        <v>1.55</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="O189">
+        <v>4.2</v>
+      </c>
+      <c r="P189">
         <v>1.533</v>
       </c>
-      <c r="L189">
-        <v>4.5</v>
-      </c>
-      <c r="M189">
-        <v>4.333</v>
-      </c>
-      <c r="N189">
-        <v>1.7</v>
-      </c>
-      <c r="O189">
-        <v>4.333</v>
-      </c>
-      <c r="P189">
-        <v>3.6</v>
-      </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17303,7 +17303,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6832567</v>
+        <v>6832565</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17312,49 +17312,49 @@
         <v>28</v>
       </c>
       <c r="E190" s="2">
-        <v>45346.54166666666</v>
+        <v>45347.4375</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K190">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L190">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P190">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
         <v>3.25</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17377,7 +17377,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6832570</v>
+        <v>6832712</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17386,49 +17386,49 @@
         <v>28</v>
       </c>
       <c r="E191" s="2">
-        <v>45347.4375</v>
+        <v>45347.54166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K191">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="L191">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M191">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="N191">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O191">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P191">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="Q191">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17443,154 +17443,6 @@
         <v>0</v>
       </c>
       <c r="AA191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>6832565</v>
-      </c>
-      <c r="C192" t="s">
-        <v>28</v>
-      </c>
-      <c r="D192" t="s">
-        <v>28</v>
-      </c>
-      <c r="E192" s="2">
-        <v>45347.4375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>41</v>
-      </c>
-      <c r="G192" t="s">
-        <v>33</v>
-      </c>
-      <c r="K192">
-        <v>1.3</v>
-      </c>
-      <c r="L192">
-        <v>5.75</v>
-      </c>
-      <c r="M192">
-        <v>6.5</v>
-      </c>
-      <c r="N192">
-        <v>1.333</v>
-      </c>
-      <c r="O192">
-        <v>5.5</v>
-      </c>
-      <c r="P192">
-        <v>6</v>
-      </c>
-      <c r="Q192">
-        <v>-1.5</v>
-      </c>
-      <c r="R192">
-        <v>1.85</v>
-      </c>
-      <c r="S192">
-        <v>1.95</v>
-      </c>
-      <c r="T192">
-        <v>3.5</v>
-      </c>
-      <c r="U192">
-        <v>2</v>
-      </c>
-      <c r="V192">
-        <v>1.8</v>
-      </c>
-      <c r="W192">
-        <v>0</v>
-      </c>
-      <c r="X192">
-        <v>0</v>
-      </c>
-      <c r="Y192">
-        <v>0</v>
-      </c>
-      <c r="Z192">
-        <v>0</v>
-      </c>
-      <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>6832712</v>
-      </c>
-      <c r="C193" t="s">
-        <v>28</v>
-      </c>
-      <c r="D193" t="s">
-        <v>28</v>
-      </c>
-      <c r="E193" s="2">
-        <v>45347.54166666666</v>
-      </c>
-      <c r="F193" t="s">
-        <v>35</v>
-      </c>
-      <c r="G193" t="s">
-        <v>36</v>
-      </c>
-      <c r="K193">
-        <v>6.5</v>
-      </c>
-      <c r="L193">
-        <v>5</v>
-      </c>
-      <c r="M193">
-        <v>1.363</v>
-      </c>
-      <c r="N193">
-        <v>7</v>
-      </c>
-      <c r="O193">
-        <v>5.25</v>
-      </c>
-      <c r="P193">
-        <v>1.3</v>
-      </c>
-      <c r="Q193">
-        <v>1.5</v>
-      </c>
-      <c r="R193">
-        <v>1.975</v>
-      </c>
-      <c r="S193">
-        <v>1.825</v>
-      </c>
-      <c r="T193">
-        <v>3.5</v>
-      </c>
-      <c r="U193">
-        <v>1.95</v>
-      </c>
-      <c r="V193">
-        <v>1.85</v>
-      </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-      <c r="X193">
-        <v>0</v>
-      </c>
-      <c r="Y193">
-        <v>0</v>
-      </c>
-      <c r="Z193">
-        <v>0</v>
-      </c>
-      <c r="AA193">
         <v>0</v>
       </c>
     </row>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>Baniyas SC</t>
   </si>
   <si>
-    <t>Al Ain SCC</t>
+    <t>Khor Fakkan</t>
   </si>
   <si>
-    <t>Khor Fakkan</t>
+    <t>Al Ain SCC</t>
   </si>
   <si>
     <t>Al Nasr SC</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6159573</v>
+        <v>6159574</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L9">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB9">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6159574</v>
+        <v>6159573</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>1.363</v>
+      </c>
+      <c r="L10">
+        <v>4.75</v>
+      </c>
+      <c r="M10">
+        <v>6.5</v>
+      </c>
+      <c r="N10">
+        <v>1.363</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>-1.5</v>
+      </c>
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10">
-        <v>2.6</v>
-      </c>
-      <c r="L10">
-        <v>3.4</v>
-      </c>
-      <c r="M10">
-        <v>2.4</v>
-      </c>
-      <c r="N10">
-        <v>2.7</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.3</v>
-      </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.75</v>
-      </c>
       <c r="S10">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6159575</v>
+        <v>6159513</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>44953.54166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6159513</v>
+        <v>6159575</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>44953.54166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6187897</v>
+        <v>6187896</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,13 +1874,13 @@
         <v>44961.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1889,43 +1889,43 @@
         <v>45</v>
       </c>
       <c r="K16">
+        <v>1.222</v>
+      </c>
+      <c r="L16">
+        <v>5.5</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>1.181</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <v>-2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1.8</v>
+      </c>
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="L16">
-        <v>3.25</v>
-      </c>
-      <c r="M16">
-        <v>2.15</v>
-      </c>
-      <c r="N16">
-        <v>3.1</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
-      <c r="P16">
-        <v>2.1</v>
-      </c>
-      <c r="Q16">
-        <v>0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>1.9</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
       <c r="U16">
+        <v>1.8</v>
+      </c>
+      <c r="V16">
         <v>2</v>
       </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
       <c r="W16">
-        <v>2.1</v>
+        <v>0.181</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6187896</v>
+        <v>6187897</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,13 +1963,13 @@
         <v>44961.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1978,43 +1978,43 @@
         <v>45</v>
       </c>
       <c r="K17">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q17">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
+        <v>1.9</v>
+      </c>
+      <c r="S17">
+        <v>1.9</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>2</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>1.8</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
       <c r="W17">
-        <v>0.181</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
         <v>1</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.8</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6187900</v>
+        <v>6187899</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="N19">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="O19">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="Q19">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6187899</v>
+        <v>6187900</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44962.4375</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="N20">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P20">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.6659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6187905</v>
+        <v>6187906</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>44967.55208333334</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <v>2.2</v>
+      </c>
+      <c r="L25">
+        <v>3.2</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>2.6</v>
+      </c>
+      <c r="O25">
+        <v>2.9</v>
+      </c>
+      <c r="P25">
+        <v>2.7</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25">
-        <v>1.75</v>
-      </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>1.65</v>
-      </c>
-      <c r="O25">
-        <v>3.8</v>
-      </c>
-      <c r="P25">
-        <v>4.2</v>
-      </c>
-      <c r="Q25">
-        <v>-0.75</v>
-      </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6187906</v>
+        <v>6187905</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>44967.55208333334</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.65</v>
+      </c>
+      <c r="O26">
+        <v>3.8</v>
+      </c>
+      <c r="P26">
+        <v>4.2</v>
+      </c>
+      <c r="Q26">
+        <v>-0.75</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="N26">
-        <v>2.6</v>
-      </c>
-      <c r="O26">
-        <v>2.9</v>
-      </c>
-      <c r="P26">
-        <v>2.7</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="U26">
         <v>1.875</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.925</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>2</v>
-      </c>
-      <c r="V26">
-        <v>1.8</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X26">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6187908</v>
+        <v>6187907</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>2.15</v>
+      </c>
+      <c r="N27">
         <v>3.6</v>
       </c>
-      <c r="M27">
-        <v>1.7</v>
-      </c>
-      <c r="N27">
-        <v>5.25</v>
-      </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
+        <v>1.95</v>
+      </c>
+      <c r="S27">
         <v>1.85</v>
       </c>
-      <c r="S27">
-        <v>1.95</v>
-      </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y27">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6187907</v>
+        <v>6187908</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>44968.4375</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1.85</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
+        <v>2.5</v>
+      </c>
+      <c r="U28">
+        <v>1.8</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
         <v>0.5</v>
       </c>
-      <c r="R28">
-        <v>1.95</v>
-      </c>
-      <c r="S28">
-        <v>1.85</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>2.6</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>44968.55208333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6187911</v>
+        <v>6187912</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>37</v>
       </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
         <v>1.5</v>
       </c>
       <c r="N31">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O31">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P31">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q31">
         <v>1.25</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z31">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6187912</v>
+        <v>6187911</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>44974.4375</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M32">
         <v>1.5</v>
       </c>
       <c r="N32">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O32">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P32">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q32">
         <v>1.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6187918</v>
+        <v>6187917</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>44987.4375</v>
       </c>
       <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
         <v>36</v>
       </c>
-      <c r="G37" t="s">
-        <v>39</v>
-      </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>2.875</v>
+      </c>
+      <c r="L37">
+        <v>3.5</v>
+      </c>
+      <c r="M37">
+        <v>2.1</v>
+      </c>
+      <c r="N37">
+        <v>2.45</v>
+      </c>
+      <c r="O37">
+        <v>3.5</v>
+      </c>
+      <c r="P37">
+        <v>2.3</v>
+      </c>
+      <c r="Q37">
         <v>0</v>
       </c>
-      <c r="J37" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37">
-        <v>1.166</v>
-      </c>
-      <c r="L37">
-        <v>6.5</v>
-      </c>
-      <c r="M37">
-        <v>12</v>
-      </c>
-      <c r="N37">
-        <v>1.09</v>
-      </c>
-      <c r="O37">
-        <v>8.5</v>
-      </c>
-      <c r="P37">
-        <v>23</v>
-      </c>
-      <c r="Q37">
-        <v>-2.5</v>
-      </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6187917</v>
+        <v>6187918</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>44987.4375</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38">
+        <v>1.166</v>
+      </c>
+      <c r="L38">
+        <v>6.5</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="N38">
+        <v>1.09</v>
+      </c>
+      <c r="O38">
+        <v>8.5</v>
+      </c>
+      <c r="P38">
+        <v>23</v>
+      </c>
+      <c r="Q38">
+        <v>-2.5</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>3.5</v>
+      </c>
+      <c r="U38">
         <v>2</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>2.875</v>
-      </c>
-      <c r="L38">
-        <v>3.5</v>
-      </c>
-      <c r="M38">
-        <v>2.1</v>
-      </c>
-      <c r="N38">
-        <v>2.45</v>
-      </c>
-      <c r="O38">
-        <v>3.5</v>
-      </c>
-      <c r="P38">
-        <v>2.3</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>1.775</v>
-      </c>
       <c r="V38">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4455,7 +4455,7 @@
         <v>44995.44791666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4636,7 +4636,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5167,7 +5167,7 @@
         <v>45002.5625</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6236424</v>
+        <v>6236426</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,40 +5345,40 @@
         <v>45003.44791666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N55">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="O55">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P55">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q55">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R55">
         <v>1.95</v>
@@ -5387,19 +5387,19 @@
         <v>1.85</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X55">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5414,7 +5414,7 @@
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6236426</v>
+        <v>6236424</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,40 +5434,40 @@
         <v>45003.44791666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.222</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="O56">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P56">
-        <v>9.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q56">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
         <v>1.95</v>
@@ -5476,19 +5476,19 @@
         <v>1.85</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5503,7 +5503,7 @@
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6236429</v>
+        <v>6236624</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,55 +5790,55 @@
         <v>45017.625</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60" t="s">
         <v>46</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L60">
+        <v>3.6</v>
+      </c>
+      <c r="M60">
+        <v>1.909</v>
+      </c>
+      <c r="N60">
         <v>3.4</v>
       </c>
-      <c r="M60">
-        <v>2.9</v>
-      </c>
-      <c r="N60">
-        <v>2.55</v>
-      </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5847,19 +5847,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB60">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6236624</v>
+        <v>6236429</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,55 +5879,55 @@
         <v>45017.625</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>2</v>
-      </c>
-      <c r="I61">
-        <v>4</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
+        <v>2.15</v>
+      </c>
+      <c r="L61">
         <v>3.4</v>
       </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
       <c r="M61">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N61">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5936,19 +5936,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>45017.625</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
         <v>41</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6236622</v>
+        <v>6236621</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,13 +6057,13 @@
         <v>45018.625</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6072,43 +6072,43 @@
         <v>45</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
         <v>3.4</v>
       </c>
-      <c r="M63">
-        <v>2.1</v>
-      </c>
       <c r="N63">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="O63">
+        <v>3.6</v>
+      </c>
+      <c r="P63">
         <v>3.5</v>
       </c>
-      <c r="P63">
-        <v>1.909</v>
-      </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>2.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6117,16 +6117,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6236621</v>
+        <v>6236622</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45018.625</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,61 +6161,61 @@
         <v>45</v>
       </c>
       <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>3.4</v>
+      </c>
+      <c r="M64">
+        <v>2.1</v>
+      </c>
+      <c r="N64">
+        <v>3.3</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
         <v>1.909</v>
       </c>
-      <c r="L64">
-        <v>3.5</v>
-      </c>
-      <c r="M64">
-        <v>3.4</v>
-      </c>
-      <c r="N64">
+      <c r="Q64">
+        <v>0.5</v>
+      </c>
+      <c r="R64">
         <v>1.85</v>
       </c>
-      <c r="O64">
-        <v>3.6</v>
-      </c>
-      <c r="P64">
-        <v>3.5</v>
-      </c>
-      <c r="Q64">
-        <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>1.875</v>
-      </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
         <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
+        <v>2.3</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
+      <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.875</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>0.4875</v>
-      </c>
-      <c r="AC64">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6236628</v>
+        <v>6236431</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45025.625</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M68">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="N68">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="O68">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P68">
-        <v>1.363</v>
+        <v>15</v>
       </c>
       <c r="Q68">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
         <v>2</v>
@@ -6553,25 +6553,25 @@
         <v>1.8</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6236431</v>
+        <v>6236626</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,58 +6591,58 @@
         <v>45025.625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>1.2</v>
+        <v>2.875</v>
       </c>
       <c r="L69">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N69">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O69">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="Q69">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>0.125</v>
+        <v>2.8</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6236626</v>
+        <v>6236628</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,40 +6680,40 @@
         <v>45025.625</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N70">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
         <v>1.975</v>
@@ -6722,34 +6722,34 @@
         <v>1.825</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6236629</v>
+        <v>6236435</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,46 +6858,46 @@
         <v>45034.625</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
+      <c r="J72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72">
+        <v>2.15</v>
+      </c>
+      <c r="L72">
+        <v>3.3</v>
+      </c>
+      <c r="M72">
         <v>3</v>
       </c>
-      <c r="J72" t="s">
-        <v>46</v>
-      </c>
-      <c r="K72">
-        <v>3.2</v>
-      </c>
-      <c r="L72">
-        <v>3.5</v>
-      </c>
-      <c r="M72">
+      <c r="N72">
+        <v>2.6</v>
+      </c>
+      <c r="O72">
+        <v>3.4</v>
+      </c>
+      <c r="P72">
+        <v>2.375</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
         <v>2</v>
       </c>
-      <c r="N72">
-        <v>3.3</v>
-      </c>
-      <c r="O72">
-        <v>3.6</v>
-      </c>
-      <c r="P72">
-        <v>1.95</v>
-      </c>
-      <c r="Q72">
-        <v>0.5</v>
-      </c>
-      <c r="R72">
+      <c r="S72">
         <v>1.8</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
       </c>
       <c r="T72">
         <v>3</v>
@@ -6909,19 +6909,19 @@
         <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>0.9750000000000001</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6236435</v>
+        <v>6236433</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,73 +6947,73 @@
         <v>45034.625</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L73">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6236433</v>
+        <v>6236629</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,73 +7125,73 @@
         <v>45034.625</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75">
+        <v>3.2</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
         <v>2</v>
       </c>
-      <c r="I75">
+      <c r="N75">
+        <v>3.3</v>
+      </c>
+      <c r="O75">
+        <v>3.6</v>
+      </c>
+      <c r="P75">
+        <v>1.95</v>
+      </c>
+      <c r="Q75">
+        <v>0.5</v>
+      </c>
+      <c r="R75">
+        <v>1.8</v>
+      </c>
+      <c r="S75">
         <v>2</v>
       </c>
-      <c r="J75" t="s">
-        <v>47</v>
-      </c>
-      <c r="K75">
-        <v>4.75</v>
-      </c>
-      <c r="L75">
-        <v>3.8</v>
-      </c>
-      <c r="M75">
-        <v>1.615</v>
-      </c>
-      <c r="N75">
-        <v>4.75</v>
-      </c>
-      <c r="O75">
-        <v>3.5</v>
-      </c>
-      <c r="P75">
-        <v>1.666</v>
-      </c>
-      <c r="Q75">
-        <v>0.75</v>
-      </c>
-      <c r="R75">
-        <v>1.925</v>
-      </c>
-      <c r="S75">
-        <v>1.875</v>
-      </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7392,7 +7392,7 @@
         <v>45035.625</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
         <v>32</v>
@@ -7662,7 +7662,7 @@
         <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6236636</v>
+        <v>6236633</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M82">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N82">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O82">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P82">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q82">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6236633</v>
+        <v>6236636</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45040.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>2</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1.571</v>
+      </c>
+      <c r="N83">
+        <v>5.75</v>
+      </c>
+      <c r="O83">
         <v>4.5</v>
       </c>
-      <c r="M83">
-        <v>5.5</v>
-      </c>
-      <c r="N83">
+      <c r="P83">
+        <v>1.444</v>
+      </c>
+      <c r="Q83">
         <v>1.25</v>
       </c>
-      <c r="O83">
-        <v>6</v>
-      </c>
-      <c r="P83">
-        <v>9</v>
-      </c>
-      <c r="Q83">
-        <v>-1.75</v>
-      </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6236638</v>
+        <v>6236439</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,58 +8104,58 @@
         <v>45052.46875</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L86">
+        <v>4.75</v>
+      </c>
+      <c r="M86">
+        <v>1.4</v>
+      </c>
+      <c r="N86">
+        <v>8.5</v>
+      </c>
+      <c r="O86">
+        <v>5.5</v>
+      </c>
+      <c r="P86">
+        <v>1.25</v>
+      </c>
+      <c r="Q86">
+        <v>1.75</v>
+      </c>
+      <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
         <v>3.5</v>
       </c>
-      <c r="M86">
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="N86">
-        <v>3.1</v>
-      </c>
-      <c r="O86">
-        <v>3.6</v>
-      </c>
-      <c r="P86">
-        <v>2.05</v>
-      </c>
-      <c r="Q86">
-        <v>0.25</v>
-      </c>
-      <c r="R86">
-        <v>2</v>
-      </c>
-      <c r="S86">
-        <v>1.8</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
-      <c r="V86">
-        <v>1.85</v>
-      </c>
       <c r="W86">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,16 +8164,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6236440</v>
+        <v>6236638</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45052.46875</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>45</v>
+      </c>
+      <c r="K87">
+        <v>3.4</v>
+      </c>
+      <c r="L87">
+        <v>3.5</v>
+      </c>
+      <c r="M87">
+        <v>1.95</v>
+      </c>
+      <c r="N87">
+        <v>3.1</v>
+      </c>
+      <c r="O87">
+        <v>3.6</v>
+      </c>
+      <c r="P87">
+        <v>2.05</v>
+      </c>
+      <c r="Q87">
+        <v>0.25</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>1.8</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
+        <v>1.85</v>
+      </c>
+      <c r="W87">
+        <v>2.1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87">
-        <v>1.4</v>
-      </c>
-      <c r="L87">
-        <v>4.5</v>
-      </c>
-      <c r="M87">
-        <v>6</v>
-      </c>
-      <c r="N87">
-        <v>1.4</v>
-      </c>
-      <c r="O87">
-        <v>4.333</v>
-      </c>
-      <c r="P87">
-        <v>6</v>
-      </c>
-      <c r="Q87">
-        <v>-1.25</v>
-      </c>
-      <c r="R87">
-        <v>1.95</v>
-      </c>
-      <c r="S87">
-        <v>1.85</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
-      <c r="V87">
-        <v>1.825</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>3.333</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
       <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6236439</v>
+        <v>6236440</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,40 +8282,40 @@
         <v>45052.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
+        <v>1.4</v>
+      </c>
+      <c r="L88">
+        <v>4.5</v>
+      </c>
+      <c r="M88">
         <v>6</v>
       </c>
-      <c r="L88">
-        <v>4.75</v>
-      </c>
-      <c r="M88">
+      <c r="N88">
         <v>1.4</v>
       </c>
-      <c r="N88">
-        <v>8.5</v>
-      </c>
       <c r="O88">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P88">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
         <v>1.95</v>
@@ -8324,34 +8324,34 @@
         <v>1.85</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8463,7 +8463,7 @@
         <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6236441</v>
+        <v>6236639</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,55 +8549,55 @@
         <v>45053.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>46</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="N91">
         <v>4.75</v>
       </c>
       <c r="O91">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P91">
         <v>1.5</v>
       </c>
       <c r="Q91">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
         <v>3</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8609,16 +8609,16 @@
         <v>0.5</v>
       </c>
       <c r="Z91">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6236639</v>
+        <v>6236441</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,55 +8638,55 @@
         <v>45053.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>2</v>
-      </c>
-      <c r="I92">
-        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="N92">
         <v>4.75</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P92">
         <v>1.5</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8698,16 +8698,16 @@
         <v>0.5</v>
       </c>
       <c r="Z92">
+        <v>0.3875</v>
+      </c>
+      <c r="AA92">
+        <v>-0.5</v>
+      </c>
+      <c r="AB92">
         <v>0</v>
       </c>
-      <c r="AA92">
+      <c r="AC92">
         <v>-0</v>
-      </c>
-      <c r="AB92">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236644</v>
+        <v>6236442</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,49 +8727,49 @@
         <v>45057.46875</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
+        <v>1.5</v>
+      </c>
+      <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>4.75</v>
+      </c>
+      <c r="N93">
+        <v>1.45</v>
+      </c>
+      <c r="O93">
+        <v>4.75</v>
+      </c>
+      <c r="P93">
+        <v>5.25</v>
+      </c>
+      <c r="Q93">
+        <v>-1.25</v>
+      </c>
+      <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
         <v>3.75</v>
-      </c>
-      <c r="L93">
-        <v>3.75</v>
-      </c>
-      <c r="M93">
-        <v>1.727</v>
-      </c>
-      <c r="N93">
-        <v>4.333</v>
-      </c>
-      <c r="O93">
-        <v>4.2</v>
-      </c>
-      <c r="P93">
-        <v>1.6</v>
-      </c>
-      <c r="Q93">
-        <v>1</v>
-      </c>
-      <c r="R93">
-        <v>1.8</v>
-      </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.85</v>
@@ -8778,25 +8778,25 @@
         <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236442</v>
+        <v>6236644</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,49 +8816,49 @@
         <v>45057.46875</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94">
+        <v>3.75</v>
+      </c>
+      <c r="L94">
+        <v>3.75</v>
+      </c>
+      <c r="M94">
+        <v>1.727</v>
+      </c>
+      <c r="N94">
+        <v>4.333</v>
+      </c>
+      <c r="O94">
+        <v>4.2</v>
+      </c>
+      <c r="P94">
+        <v>1.6</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1.8</v>
+      </c>
+      <c r="S94">
         <v>2</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K94">
-        <v>1.5</v>
-      </c>
-      <c r="L94">
-        <v>4.2</v>
-      </c>
-      <c r="M94">
-        <v>4.75</v>
-      </c>
-      <c r="N94">
-        <v>1.45</v>
-      </c>
-      <c r="O94">
-        <v>4.75</v>
-      </c>
-      <c r="P94">
-        <v>5.25</v>
-      </c>
-      <c r="Q94">
-        <v>-1.25</v>
-      </c>
-      <c r="R94">
-        <v>1.9</v>
-      </c>
-      <c r="S94">
-        <v>1.9</v>
-      </c>
       <c r="T94">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
         <v>1.85</v>
@@ -8867,25 +8867,25 @@
         <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236641</v>
+        <v>6236642</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97">
+        <v>1.3</v>
+      </c>
+      <c r="L97">
         <v>5</v>
       </c>
-      <c r="I97">
+      <c r="M97">
+        <v>7</v>
+      </c>
+      <c r="N97">
+        <v>1.285</v>
+      </c>
+      <c r="O97">
+        <v>5.5</v>
+      </c>
+      <c r="P97">
+        <v>7.5</v>
+      </c>
+      <c r="Q97">
+        <v>-1.75</v>
+      </c>
+      <c r="R97">
         <v>2</v>
       </c>
-      <c r="J97" t="s">
-        <v>45</v>
-      </c>
-      <c r="K97">
-        <v>1.181</v>
-      </c>
-      <c r="L97">
-        <v>6.5</v>
-      </c>
-      <c r="M97">
-        <v>9</v>
-      </c>
-      <c r="N97">
-        <v>1.142</v>
-      </c>
-      <c r="O97">
-        <v>7</v>
-      </c>
-      <c r="P97">
-        <v>13</v>
-      </c>
-      <c r="Q97">
-        <v>-2.25</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236642</v>
+        <v>6236641</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45058.46875</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M98">
+        <v>9</v>
+      </c>
+      <c r="N98">
+        <v>1.142</v>
+      </c>
+      <c r="O98">
         <v>7</v>
       </c>
-      <c r="N98">
-        <v>1.285</v>
-      </c>
-      <c r="O98">
-        <v>5.5</v>
-      </c>
       <c r="P98">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X98">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6832698</v>
+        <v>6832494</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,76 +9528,76 @@
         <v>45156.5625</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>3</v>
       </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="L102">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="N102">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="O102">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q102">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832494</v>
+        <v>6832698</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45156.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q103">
+        <v>-1.75</v>
+      </c>
+      <c r="R103">
+        <v>1.825</v>
+      </c>
+      <c r="S103">
+        <v>1.975</v>
+      </c>
+      <c r="T103">
+        <v>3.5</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
+        <v>1.8</v>
+      </c>
+      <c r="W103">
+        <v>0.25</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB103">
         <v>1</v>
       </c>
-      <c r="R103">
-        <v>1.925</v>
-      </c>
-      <c r="S103">
-        <v>1.875</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
-      <c r="AA103">
-        <v>0.875</v>
-      </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832492</v>
+        <v>6832489</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,58 +9706,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="N104">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O104">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832489</v>
+        <v>6832492</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,58 +9795,58 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P105">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10421,7 +10421,7 @@
         <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J114" t="s">
         <v>46</v>
       </c>
       <c r="K114">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N114">
         <v>3.8</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10653,19 +10653,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,55 +10685,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>46</v>
       </c>
       <c r="K115">
+        <v>3.75</v>
+      </c>
+      <c r="L115">
         <v>3.6</v>
       </c>
-      <c r="L115">
-        <v>3.8</v>
-      </c>
       <c r="M115">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N115">
         <v>3.8</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,19 +10742,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6832503</v>
+        <v>6832501</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,73 +10777,73 @@
         <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L116">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M116">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N116">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O116">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P116">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q116">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6832501</v>
+        <v>6832503</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,73 +10866,73 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H117">
+        <v>6</v>
+      </c>
+      <c r="I117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K117">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N117">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O117">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P117">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6832505</v>
+        <v>6832506</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L118">
         <v>5</v>
       </c>
       <c r="M118">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="N118">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O118">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P118">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="Q118">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6832506</v>
+        <v>6832505</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L119">
         <v>5</v>
       </c>
       <c r="M119">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="N119">
+        <v>5.75</v>
+      </c>
+      <c r="O119">
+        <v>5</v>
+      </c>
+      <c r="P119">
+        <v>1.444</v>
+      </c>
+      <c r="Q119">
         <v>1.25</v>
       </c>
-      <c r="O119">
-        <v>5.5</v>
-      </c>
-      <c r="P119">
-        <v>10</v>
-      </c>
-      <c r="Q119">
-        <v>-1.75</v>
-      </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11753,7 +11753,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>29</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6832519</v>
+        <v>6832514</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,13 +11842,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11857,43 +11857,43 @@
         <v>45</v>
       </c>
       <c r="K128">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N128">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P128">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R128">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11902,16 +11902,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832514</v>
+        <v>6832519</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,13 +11931,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11946,43 +11946,43 @@
         <v>45</v>
       </c>
       <c r="K129">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>2.025</v>
+      </c>
+      <c r="S129">
+        <v>1.775</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
-      <c r="U129">
-        <v>1.975</v>
-      </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA129">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12821,7 +12821,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
         <v>43</v>
@@ -12910,7 +12910,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13180,7 +13180,7 @@
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13536,7 +13536,7 @@
         <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -14067,7 +14067,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>34</v>
@@ -14248,7 +14248,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832542</v>
+        <v>6832543</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+      <c r="J156" t="s">
+        <v>46</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>3.5</v>
+      </c>
+      <c r="M156">
+        <v>2.1</v>
+      </c>
+      <c r="N156">
+        <v>3.75</v>
+      </c>
+      <c r="O156">
+        <v>3.8</v>
+      </c>
+      <c r="P156">
+        <v>1.75</v>
+      </c>
+      <c r="Q156">
+        <v>0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.975</v>
+      </c>
+      <c r="S156">
+        <v>1.825</v>
+      </c>
+      <c r="T156">
+        <v>3.25</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
+        <v>1.8</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>0.75</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.825</v>
+      </c>
+      <c r="AB156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-      <c r="J156" t="s">
-        <v>47</v>
-      </c>
-      <c r="K156">
-        <v>1.8</v>
-      </c>
-      <c r="L156">
-        <v>3.7</v>
-      </c>
-      <c r="M156">
-        <v>3.75</v>
-      </c>
-      <c r="N156">
-        <v>1.8</v>
-      </c>
-      <c r="O156">
-        <v>4</v>
-      </c>
-      <c r="P156">
-        <v>3.5</v>
-      </c>
-      <c r="Q156">
-        <v>-0.5</v>
-      </c>
-      <c r="R156">
-        <v>1.85</v>
-      </c>
-      <c r="S156">
-        <v>1.95</v>
-      </c>
-      <c r="T156">
-        <v>3</v>
-      </c>
-      <c r="U156">
-        <v>1.875</v>
-      </c>
-      <c r="V156">
-        <v>1.925</v>
-      </c>
-      <c r="W156">
-        <v>-1</v>
-      </c>
-      <c r="X156">
-        <v>3</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>-1</v>
-      </c>
-      <c r="AA156">
-        <v>0.95</v>
-      </c>
-      <c r="AB156">
-        <v>-1</v>
-      </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832543</v>
+        <v>6832542</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>47</v>
+      </c>
+      <c r="K157">
+        <v>1.8</v>
+      </c>
+      <c r="L157">
+        <v>3.7</v>
+      </c>
+      <c r="M157">
+        <v>3.75</v>
+      </c>
+      <c r="N157">
+        <v>1.8</v>
+      </c>
+      <c r="O157">
         <v>4</v>
       </c>
-      <c r="J157" t="s">
-        <v>46</v>
-      </c>
-      <c r="K157">
+      <c r="P157">
+        <v>3.5</v>
+      </c>
+      <c r="Q157">
+        <v>-0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.85</v>
+      </c>
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
         <v>3</v>
       </c>
-      <c r="L157">
-        <v>3.5</v>
-      </c>
-      <c r="M157">
-        <v>2.1</v>
-      </c>
-      <c r="N157">
-        <v>3.75</v>
-      </c>
-      <c r="O157">
-        <v>3.8</v>
-      </c>
-      <c r="P157">
-        <v>1.75</v>
-      </c>
-      <c r="Q157">
-        <v>0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.975</v>
-      </c>
-      <c r="S157">
-        <v>1.825</v>
-      </c>
-      <c r="T157">
-        <v>3.25</v>
-      </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,73 +15135,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K165">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M165">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N165">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O165">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P165">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,73 +15224,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>4</v>
-      </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L166">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N166">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P166">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q166">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15316,7 +15316,7 @@
         <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15672,7 +15672,7 @@
         <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <v>4</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6832554</v>
+        <v>6832553</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K172">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M172">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="N172">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P172">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6832553</v>
+        <v>6832554</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173" t="s">
+        <v>46</v>
+      </c>
+      <c r="K173">
+        <v>3.4</v>
+      </c>
+      <c r="L173">
+        <v>3.75</v>
+      </c>
+      <c r="M173">
+        <v>1.85</v>
+      </c>
+      <c r="N173">
+        <v>3.1</v>
+      </c>
+      <c r="O173">
+        <v>3.6</v>
+      </c>
+      <c r="P173">
         <v>2</v>
       </c>
-      <c r="I173">
+      <c r="Q173">
+        <v>0.25</v>
+      </c>
+      <c r="R173">
+        <v>2.025</v>
+      </c>
+      <c r="S173">
+        <v>1.775</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
+        <v>1.8</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
         <v>1</v>
       </c>
-      <c r="J173" t="s">
-        <v>45</v>
-      </c>
-      <c r="K173">
-        <v>1.5</v>
-      </c>
-      <c r="L173">
-        <v>4.333</v>
-      </c>
-      <c r="M173">
-        <v>5.25</v>
-      </c>
-      <c r="N173">
-        <v>1.444</v>
-      </c>
-      <c r="O173">
-        <v>4.5</v>
-      </c>
-      <c r="P173">
-        <v>5.5</v>
-      </c>
-      <c r="Q173">
-        <v>-1.25</v>
-      </c>
-      <c r="R173">
-        <v>1.9</v>
-      </c>
-      <c r="S173">
-        <v>1.9</v>
-      </c>
-      <c r="T173">
-        <v>3.5</v>
-      </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
-        <v>0.444</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>45276.52083333334</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
         <v>40</v>
@@ -16025,10 +16025,10 @@
         <v>45280.40625</v>
       </c>
       <c r="F175" t="s">
+        <v>37</v>
+      </c>
+      <c r="G175" t="s">
         <v>36</v>
-      </c>
-      <c r="G175" t="s">
-        <v>37</v>
       </c>
       <c r="H175">
         <v>4</v>
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,13 +16203,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -16218,25 +16218,25 @@
         <v>45</v>
       </c>
       <c r="K177">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L177">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M177">
+        <v>10</v>
+      </c>
+      <c r="N177">
+        <v>1.222</v>
+      </c>
+      <c r="O177">
         <v>6</v>
       </c>
-      <c r="N177">
-        <v>1.333</v>
-      </c>
-      <c r="O177">
-        <v>5</v>
-      </c>
       <c r="P177">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R177">
         <v>1.9</v>
@@ -16245,16 +16245,16 @@
         <v>1.9</v>
       </c>
       <c r="T177">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16307,25 +16307,25 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L178">
+        <v>4.75</v>
+      </c>
+      <c r="M178">
         <v>6</v>
       </c>
-      <c r="M178">
-        <v>10</v>
-      </c>
       <c r="N178">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O178">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P178">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q178">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
         <v>1.9</v>
@@ -16334,16 +16334,16 @@
         <v>1.9</v>
       </c>
       <c r="T178">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,16 +16352,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,49 +16470,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L180">
+        <v>5</v>
+      </c>
+      <c r="M180">
+        <v>1.333</v>
+      </c>
+      <c r="N180">
+        <v>8</v>
+      </c>
+      <c r="O180">
         <v>5.5</v>
       </c>
-      <c r="M180">
-        <v>9</v>
-      </c>
-      <c r="N180">
-        <v>1.5</v>
-      </c>
-      <c r="O180">
-        <v>4.5</v>
-      </c>
       <c r="P180">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U180">
         <v>1.925</v>
@@ -16524,22 +16524,22 @@
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,49 +16559,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L181">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M181">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N181">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P181">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q181">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
         <v>1.925</v>
@@ -16613,22 +16613,22 @@
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y181">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>40</v>
@@ -16918,7 +16918,7 @@
         <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6832566</v>
+        <v>6832569</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17090,64 +17090,79 @@
         <v>28</v>
       </c>
       <c r="E187" s="2">
-        <v>45346.54166666666</v>
+        <v>45346.4375</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187" t="s">
+        <v>46</v>
       </c>
       <c r="K187">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="L187">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M187">
-        <v>4.333</v>
+        <v>1.285</v>
       </c>
       <c r="N187">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="O187">
+        <v>9</v>
+      </c>
+      <c r="P187">
+        <v>1.142</v>
+      </c>
+      <c r="Q187">
+        <v>2.5</v>
+      </c>
+      <c r="R187">
+        <v>1.8</v>
+      </c>
+      <c r="S187">
+        <v>2</v>
+      </c>
+      <c r="T187">
         <v>4</v>
       </c>
-      <c r="P187">
-        <v>2.625</v>
-      </c>
-      <c r="Q187">
-        <v>-0.25</v>
-      </c>
-      <c r="R187">
-        <v>2</v>
-      </c>
-      <c r="S187">
-        <v>1.8</v>
-      </c>
-      <c r="T187">
-        <v>3</v>
-      </c>
       <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
         <v>1.85</v>
       </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
       <c r="W187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17155,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6832567</v>
+        <v>6832568</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17164,64 +17179,79 @@
         <v>28</v>
       </c>
       <c r="E188" s="2">
-        <v>45346.54166666666</v>
+        <v>45346.4375</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>46</v>
       </c>
       <c r="K188">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N188">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17229,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6832570</v>
+        <v>6832566</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17238,64 +17268,79 @@
         <v>28</v>
       </c>
       <c r="E189" s="2">
-        <v>45347.4375</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+      <c r="J189" t="s">
+        <v>46</v>
       </c>
       <c r="K189">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M189">
+        <v>4.333</v>
+      </c>
+      <c r="N189">
+        <v>2.25</v>
+      </c>
+      <c r="O189">
+        <v>4</v>
+      </c>
+      <c r="P189">
+        <v>2.55</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.025</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
+        <v>2</v>
+      </c>
+      <c r="V189">
+        <v>1.8</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.55</v>
       </c>
-      <c r="N189">
-        <v>5</v>
-      </c>
-      <c r="O189">
-        <v>4.2</v>
-      </c>
-      <c r="P189">
-        <v>1.533</v>
-      </c>
-      <c r="Q189">
+      <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
+        <v>1.025</v>
+      </c>
+      <c r="AB189">
         <v>1</v>
       </c>
-      <c r="R189">
-        <v>1.9</v>
-      </c>
-      <c r="S189">
-        <v>1.9</v>
-      </c>
-      <c r="T189">
-        <v>3</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.775</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-      <c r="Z189">
-        <v>0</v>
-      </c>
-      <c r="AA189">
-        <v>0</v>
+      <c r="AC189">
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17303,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6832565</v>
+        <v>6832567</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17312,64 +17357,79 @@
         <v>28</v>
       </c>
       <c r="E190" s="2">
-        <v>45347.4375</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L190">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M190">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N190">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="O190">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P190">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q190">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
         <v>0</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17377,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6832712</v>
+        <v>6832570</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17386,49 +17446,49 @@
         <v>28</v>
       </c>
       <c r="E191" s="2">
-        <v>45347.54166666666</v>
+        <v>45347.4375</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K191">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="L191">
+        <v>4.2</v>
+      </c>
+      <c r="M191">
+        <v>1.55</v>
+      </c>
+      <c r="N191">
         <v>5</v>
       </c>
-      <c r="M191">
-        <v>1.363</v>
-      </c>
-      <c r="N191">
-        <v>7</v>
-      </c>
       <c r="O191">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P191">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q191">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T191">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17443,6 +17503,154 @@
         <v>0</v>
       </c>
       <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>6832565</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45347.4375</v>
+      </c>
+      <c r="F192" t="s">
+        <v>41</v>
+      </c>
+      <c r="G192" t="s">
+        <v>34</v>
+      </c>
+      <c r="K192">
+        <v>1.3</v>
+      </c>
+      <c r="L192">
+        <v>5.75</v>
+      </c>
+      <c r="M192">
+        <v>6.5</v>
+      </c>
+      <c r="N192">
+        <v>1.333</v>
+      </c>
+      <c r="O192">
+        <v>5.5</v>
+      </c>
+      <c r="P192">
+        <v>6.5</v>
+      </c>
+      <c r="Q192">
+        <v>-1.5</v>
+      </c>
+      <c r="R192">
+        <v>1.85</v>
+      </c>
+      <c r="S192">
+        <v>1.95</v>
+      </c>
+      <c r="T192">
+        <v>3.25</v>
+      </c>
+      <c r="U192">
+        <v>1.85</v>
+      </c>
+      <c r="V192">
+        <v>1.95</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6832712</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45347.54166666666</v>
+      </c>
+      <c r="F193" t="s">
+        <v>35</v>
+      </c>
+      <c r="G193" t="s">
+        <v>37</v>
+      </c>
+      <c r="K193">
+        <v>6.5</v>
+      </c>
+      <c r="L193">
+        <v>5</v>
+      </c>
+      <c r="M193">
+        <v>1.363</v>
+      </c>
+      <c r="N193">
+        <v>7</v>
+      </c>
+      <c r="O193">
+        <v>5.25</v>
+      </c>
+      <c r="P193">
+        <v>1.333</v>
+      </c>
+      <c r="Q193">
+        <v>1.5</v>
+      </c>
+      <c r="R193">
+        <v>1.95</v>
+      </c>
+      <c r="S193">
+        <v>1.85</v>
+      </c>
+      <c r="T193">
+        <v>3.25</v>
+      </c>
+      <c r="U193">
+        <v>1.825</v>
+      </c>
+      <c r="V193">
+        <v>1.975</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
         <v>0</v>
       </c>
     </row>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>5</v>
-      </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K161">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L161">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N161">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O161">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q161">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>1.8</v>
+      </c>
+      <c r="T161">
+        <v>2.75</v>
+      </c>
+      <c r="U161">
+        <v>1.85</v>
+      </c>
+      <c r="V161">
         <v>1.95</v>
       </c>
-      <c r="S161">
-        <v>1.85</v>
-      </c>
-      <c r="T161">
-        <v>3.75</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K162">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M162">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N162">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P162">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U162">
+        <v>1.95</v>
+      </c>
+      <c r="V162">
         <v>1.85</v>
       </c>
-      <c r="V162">
-        <v>1.95</v>
-      </c>
       <c r="W162">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB162">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,49 +15402,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K168">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M168">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N168">
+        <v>4.75</v>
+      </c>
+      <c r="O168">
+        <v>4.5</v>
+      </c>
+      <c r="P168">
+        <v>1.533</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>1.8</v>
+      </c>
+      <c r="T168">
         <v>4</v>
-      </c>
-      <c r="O168">
-        <v>3.75</v>
-      </c>
-      <c r="P168">
-        <v>1.727</v>
-      </c>
-      <c r="Q168">
-        <v>0.75</v>
-      </c>
-      <c r="R168">
-        <v>1.825</v>
-      </c>
-      <c r="S168">
-        <v>1.975</v>
-      </c>
-      <c r="T168">
-        <v>3</v>
       </c>
       <c r="U168">
         <v>2</v>
@@ -15456,16 +15456,16 @@
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15479,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15491,49 +15491,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L169">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M169">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N169">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O169">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q169">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U169">
         <v>2</v>
@@ -15545,16 +15545,16 @@
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y169">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
         <v>-1</v>
@@ -17633,10 +17633,10 @@
         <v>3.25</v>
       </c>
       <c r="U193">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -103,16 +103,16 @@
     <t>UAE Premier League</t>
   </si>
   <si>
+    <t>Al Ittihad Kalba</t>
+  </si>
+  <si>
     <t>Al Wahda Abu Dhabi</t>
   </si>
   <si>
-    <t>Al Ittihad Kalba</t>
+    <t>Ajman SCC</t>
   </si>
   <si>
     <t>Al Ain SCC</t>
-  </si>
-  <si>
-    <t>Ajman SCC</t>
   </si>
   <si>
     <t>Khor Fakkan</t>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6832493</v>
+        <v>6832491</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,53 +625,53 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N2">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q2">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1.8</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
+        <v>1.925</v>
+      </c>
+      <c r="V2">
         <v>1.875</v>
       </c>
-      <c r="S2">
-        <v>1.925</v>
-      </c>
-      <c r="T2">
-        <v>3.25</v>
-      </c>
-      <c r="U2">
-        <v>1.975</v>
-      </c>
-      <c r="V2">
-        <v>1.825</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
@@ -679,19 +679,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
+        <v>0.8</v>
+      </c>
+      <c r="AB2">
         <v>0.925</v>
       </c>
-      <c r="AB2">
-        <v>-0.5</v>
-      </c>
       <c r="AC2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832491</v>
+        <v>6832493</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,52 +714,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N3">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -768,19 +768,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832698</v>
+        <v>6832494</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="N4">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q4">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6832494</v>
+        <v>6832698</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M5">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="N5">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P5">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832501</v>
+        <v>6832503</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,76 +2046,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P18">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832503</v>
+        <v>6832501</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832506</v>
+        <v>6832505</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="N20">
+        <v>5.75</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>1.444</v>
+      </c>
+      <c r="Q20">
         <v>1.25</v>
       </c>
-      <c r="O20">
-        <v>5.5</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20">
-        <v>-1.75</v>
-      </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832505</v>
+        <v>6832506</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
       <c r="M21">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="N21">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P21">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="Q21">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2758,10 +2758,10 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2850,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3203,7 +3203,7 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3295,7 +3295,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3915,10 +3915,10 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
         <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4182,7 +4182,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>36</v>
@@ -4452,7 +4452,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4716,7 +4716,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -4894,10 +4894,10 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832537</v>
+        <v>7499792</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52">
+        <v>3.4</v>
+      </c>
+      <c r="L52">
+        <v>3.6</v>
+      </c>
+      <c r="M52">
+        <v>1.909</v>
+      </c>
+      <c r="N52">
+        <v>4.2</v>
+      </c>
+      <c r="O52">
         <v>4</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>44</v>
-      </c>
-      <c r="K52">
-        <v>1.363</v>
-      </c>
-      <c r="L52">
-        <v>4.75</v>
-      </c>
-      <c r="M52">
-        <v>6.5</v>
-      </c>
-      <c r="N52">
-        <v>1.3</v>
-      </c>
-      <c r="O52">
-        <v>5.25</v>
-      </c>
       <c r="P52">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7499792</v>
+        <v>6832537</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5161,76 +5161,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P53">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q53">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA53">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6832534</v>
+        <v>6832533</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5339,76 +5339,76 @@
         <v>45256.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55">
+        <v>2.45</v>
+      </c>
+      <c r="L55">
+        <v>3.6</v>
+      </c>
+      <c r="M55">
+        <v>2.45</v>
+      </c>
+      <c r="N55">
+        <v>2.625</v>
+      </c>
+      <c r="O55">
+        <v>3.6</v>
+      </c>
+      <c r="P55">
+        <v>2.25</v>
+      </c>
+      <c r="Q55">
+        <v>0.25</v>
+      </c>
+      <c r="R55">
+        <v>1.8</v>
+      </c>
+      <c r="S55">
         <v>2</v>
       </c>
-      <c r="J55" t="s">
-        <v>43</v>
-      </c>
-      <c r="K55">
-        <v>2.2</v>
-      </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>2.8</v>
-      </c>
-      <c r="N55">
-        <v>2.1</v>
-      </c>
-      <c r="O55">
-        <v>3.5</v>
-      </c>
-      <c r="P55">
+      <c r="T55">
         <v>3</v>
       </c>
-      <c r="Q55">
-        <v>-0.25</v>
-      </c>
-      <c r="R55">
-        <v>1.85</v>
-      </c>
-      <c r="S55">
-        <v>1.95</v>
-      </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y55">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5416,7 +5416,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6832533</v>
+        <v>6832534</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5428,76 +5428,76 @@
         <v>45256.40625</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N56">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
+        <v>1.95</v>
+      </c>
+      <c r="T56">
+        <v>2.75</v>
+      </c>
+      <c r="U56">
+        <v>1.85</v>
+      </c>
+      <c r="V56">
+        <v>1.95</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
         <v>2</v>
       </c>
-      <c r="T56">
-        <v>3</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.875</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>2.6</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
       <c r="Z56">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
+        <v>0.95</v>
+      </c>
+      <c r="AB56">
+        <v>0.425</v>
+      </c>
+      <c r="AC56">
         <v>-0.5</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.875</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832543</v>
+        <v>6832542</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58">
+        <v>1.8</v>
+      </c>
+      <c r="L58">
+        <v>3.7</v>
+      </c>
+      <c r="M58">
+        <v>3.75</v>
+      </c>
+      <c r="N58">
+        <v>1.8</v>
+      </c>
+      <c r="O58">
         <v>4</v>
       </c>
-      <c r="J58" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58">
+      <c r="P58">
+        <v>3.5</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>1.95</v>
+      </c>
+      <c r="T58">
         <v>3</v>
       </c>
-      <c r="L58">
-        <v>3.5</v>
-      </c>
-      <c r="M58">
-        <v>2.1</v>
-      </c>
-      <c r="N58">
-        <v>3.75</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
-      <c r="P58">
-        <v>1.75</v>
-      </c>
-      <c r="Q58">
-        <v>0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.975</v>
-      </c>
-      <c r="S58">
-        <v>1.825</v>
-      </c>
-      <c r="T58">
-        <v>3.25</v>
-      </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832542</v>
+        <v>6832543</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>3.5</v>
+      </c>
+      <c r="M59">
+        <v>2.1</v>
+      </c>
+      <c r="N59">
+        <v>3.75</v>
+      </c>
+      <c r="O59">
+        <v>3.8</v>
+      </c>
+      <c r="P59">
+        <v>1.75</v>
+      </c>
+      <c r="Q59">
+        <v>0.5</v>
+      </c>
+      <c r="R59">
+        <v>1.975</v>
+      </c>
+      <c r="S59">
+        <v>1.825</v>
+      </c>
+      <c r="T59">
+        <v>3.25</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
         <v>1.8</v>
       </c>
-      <c r="L59">
-        <v>3.7</v>
-      </c>
-      <c r="M59">
-        <v>3.75</v>
-      </c>
-      <c r="N59">
-        <v>1.8</v>
-      </c>
-      <c r="O59">
-        <v>4</v>
-      </c>
-      <c r="P59">
-        <v>3.5</v>
-      </c>
-      <c r="Q59">
-        <v>-0.5</v>
-      </c>
-      <c r="R59">
-        <v>1.85</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>1.875</v>
-      </c>
-      <c r="V59">
-        <v>1.925</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P67">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q67">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O68">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6585,10 +6585,10 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,49 +6674,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M70">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N70">
+        <v>4.75</v>
+      </c>
+      <c r="O70">
+        <v>4.5</v>
+      </c>
+      <c r="P70">
+        <v>1.533</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
         <v>4</v>
-      </c>
-      <c r="O70">
-        <v>3.75</v>
-      </c>
-      <c r="P70">
-        <v>1.727</v>
-      </c>
-      <c r="Q70">
-        <v>0.75</v>
-      </c>
-      <c r="R70">
-        <v>1.825</v>
-      </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
-      <c r="T70">
-        <v>3</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N71">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O71">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y71">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -7030,7 +7030,7 @@
         <v>45276.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>35</v>
@@ -7122,7 +7122,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7208,10 +7208,10 @@
         <v>45276.52083333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>45280.40625</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -7656,7 +7656,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,7 +7742,7 @@
         <v>45284.40625</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7751,40 +7751,40 @@
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>1.333</v>
+      </c>
+      <c r="N82">
+        <v>8</v>
+      </c>
+      <c r="O82">
         <v>5.5</v>
       </c>
-      <c r="M82">
-        <v>9</v>
-      </c>
-      <c r="N82">
-        <v>1.5</v>
-      </c>
-      <c r="O82">
-        <v>4.5</v>
-      </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U82">
         <v>1.925</v>
@@ -7796,22 +7796,22 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,7 +7831,7 @@
         <v>45284.40625</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -7840,40 +7840,40 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M83">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N83">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O83">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q83">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U83">
         <v>1.925</v>
@@ -7885,22 +7885,22 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y83">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7923,7 +7923,7 @@
         <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8098,7 +8098,7 @@
         <v>45335.43402777778</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8187,7 +8187,7 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>33</v>
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6832569</v>
+        <v>6832568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,10 +8365,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8380,41 +8380,41 @@
         <v>43</v>
       </c>
       <c r="K89">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="L89">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="N89">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q89">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
+        <v>1.95</v>
+      </c>
+      <c r="S89">
+        <v>1.85</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
         <v>1.8</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>2</v>
       </c>
-      <c r="T89">
-        <v>4</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
-      <c r="V89">
-        <v>1.85</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
@@ -8422,19 +8422,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832568</v>
+        <v>6832569</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,10 +8454,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8469,41 +8469,41 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M90">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="P90">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
+        <v>4</v>
+      </c>
+      <c r="U90">
         <v>1.95</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.85</v>
       </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.8</v>
-      </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
@@ -8511,19 +8511,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.05</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832566</v>
+        <v>6832567</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,76 +8543,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M91">
         <v>4.333</v>
       </c>
       <c r="N91">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q91">
+        <v>-1</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>1.8</v>
+      </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
+        <v>1.975</v>
+      </c>
+      <c r="W91">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
         <v>0</v>
       </c>
-      <c r="R91">
-        <v>1.775</v>
-      </c>
-      <c r="S91">
-        <v>2.025</v>
-      </c>
-      <c r="T91">
-        <v>3.25</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>1.55</v>
-      </c>
-      <c r="Z91">
-        <v>-1</v>
-      </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832567</v>
+        <v>6832566</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,76 +8632,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
         <v>4.333</v>
       </c>
       <c r="N92">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R92">
+        <v>1.775</v>
+      </c>
+      <c r="S92">
+        <v>2.025</v>
+      </c>
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
         <v>2</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>1.825</v>
-      </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8813,7 +8813,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8902,7 +8902,7 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>0</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Wahda Abu Dhabi</t>
   </si>
   <si>
-    <t>Ajman SCC</t>
+    <t>Al Ain SCC</t>
   </si>
   <si>
-    <t>Al Ain SCC</t>
+    <t>Ajman SCC</t>
   </si>
   <si>
     <t>Khor Fakkan</t>
@@ -130,10 +130,10 @@
     <t>Al Jazira SC</t>
   </si>
   <si>
-    <t>Hatta Dubai</t>
+    <t>Al Bataeh</t>
   </si>
   <si>
-    <t>Al Bataeh</t>
+    <t>Hatta Dubai</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC95"/>
+  <dimension ref="A1:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832494</v>
+        <v>6832698</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M4">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P4">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q4">
+        <v>-1.75</v>
+      </c>
+      <c r="R4">
+        <v>1.825</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>1.8</v>
+      </c>
+      <c r="W4">
+        <v>0.25</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB4">
         <v>1</v>
       </c>
-      <c r="R4">
-        <v>1.925</v>
-      </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>1.9</v>
-      </c>
-      <c r="V4">
-        <v>1.9</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
-      <c r="AA4">
-        <v>0.875</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6832698</v>
+        <v>6832494</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="L5">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="N5">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="O5">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q5">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832699</v>
+        <v>6832497</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <v>3.25</v>
+      </c>
+      <c r="L11">
+        <v>3.3</v>
+      </c>
+      <c r="M11">
+        <v>2.05</v>
+      </c>
+      <c r="N11">
+        <v>3.5</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
+        <v>1.95</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>4.333</v>
-      </c>
-      <c r="M11">
-        <v>1.5</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>1.3</v>
-      </c>
-      <c r="Q11">
-        <v>1.5</v>
-      </c>
-      <c r="R11">
-        <v>1.975</v>
-      </c>
-      <c r="S11">
-        <v>1.825</v>
-      </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832497</v>
+        <v>6832699</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>4.333</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>1.3</v>
+      </c>
+      <c r="Q12">
+        <v>1.5</v>
+      </c>
+      <c r="R12">
+        <v>1.975</v>
+      </c>
+      <c r="S12">
+        <v>1.825</v>
+      </c>
+      <c r="T12">
         <v>3.25</v>
       </c>
-      <c r="L12">
-        <v>3.3</v>
-      </c>
-      <c r="M12">
-        <v>2.05</v>
-      </c>
-      <c r="N12">
-        <v>3.5</v>
-      </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
-      <c r="P12">
+      <c r="U12">
         <v>1.95</v>
       </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.8</v>
-      </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,55 +1868,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N16">
         <v>3.8</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1925,19 +1925,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
         <v>3.6</v>
       </c>
-      <c r="L17">
-        <v>3.8</v>
-      </c>
       <c r="M17">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N17">
         <v>3.8</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2014,19 +2014,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,10 +2046,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -2224,7 +2224,7 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2316,7 +2316,7 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>45197.43055555555</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2583,7 +2583,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>1.666</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.8</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>3.5</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.25</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>2.4</v>
-      </c>
-      <c r="L26">
-        <v>3.5</v>
-      </c>
-      <c r="M26">
-        <v>2.55</v>
-      </c>
-      <c r="N26">
-        <v>2.875</v>
-      </c>
-      <c r="O26">
-        <v>3.6</v>
-      </c>
-      <c r="P26">
-        <v>2.15</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.85</v>
-      </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.9</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2939,7 +2939,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3114,7 +3114,7 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3737,10 +3737,10 @@
         <v>45226.40625</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3826,7 +3826,7 @@
         <v>45226.40625</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -4182,7 +4182,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
         <v>36</v>
@@ -4452,7 +4452,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4541,7 +4541,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -4983,7 +4983,7 @@
         <v>45253.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5072,7 +5072,7 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5431,7 +5431,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5520,7 +5520,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>45261.40625</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M63">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N63">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P63">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U63">
+        <v>1.95</v>
+      </c>
+      <c r="V63">
         <v>1.85</v>
       </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L64">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N64">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q64">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>1.95</v>
       </c>
-      <c r="S64">
-        <v>1.85</v>
-      </c>
-      <c r="T64">
-        <v>3.75</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O67">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>4</v>
-      </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L68">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P68">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q68">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6588,7 +6588,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,49 +6674,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L70">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O70">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y70">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N71">
+        <v>4.75</v>
+      </c>
+      <c r="O71">
+        <v>4.5</v>
+      </c>
+      <c r="P71">
+        <v>1.533</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
         <v>4</v>
-      </c>
-      <c r="O71">
-        <v>3.75</v>
-      </c>
-      <c r="P71">
-        <v>1.727</v>
-      </c>
-      <c r="Q71">
-        <v>0.75</v>
-      </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>3</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6832551</v>
+        <v>6832552</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,76 +6852,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
+        <v>1.3</v>
+      </c>
+      <c r="L72">
         <v>5.25</v>
       </c>
-      <c r="L72">
-        <v>4.75</v>
-      </c>
       <c r="M72">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q72">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>1.95</v>
       </c>
       <c r="T72">
         <v>3.5</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6832552</v>
+        <v>6832551</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L73">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M73">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="N73">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O73">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q73">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
       </c>
       <c r="T73">
         <v>3.5</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832554</v>
+        <v>6832553</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M74">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P74">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832553</v>
+        <v>6832554</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,76 +7119,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75">
+        <v>3.4</v>
+      </c>
+      <c r="L75">
+        <v>3.75</v>
+      </c>
+      <c r="M75">
+        <v>1.85</v>
+      </c>
+      <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
+        <v>3.6</v>
+      </c>
+      <c r="P75">
         <v>2</v>
       </c>
-      <c r="I75">
+      <c r="Q75">
+        <v>0.25</v>
+      </c>
+      <c r="R75">
+        <v>2.025</v>
+      </c>
+      <c r="S75">
+        <v>1.775</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>1.8</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>1</v>
       </c>
-      <c r="J75" t="s">
-        <v>44</v>
-      </c>
-      <c r="K75">
-        <v>1.5</v>
-      </c>
-      <c r="L75">
-        <v>4.333</v>
-      </c>
-      <c r="M75">
-        <v>5.25</v>
-      </c>
-      <c r="N75">
-        <v>1.444</v>
-      </c>
-      <c r="O75">
-        <v>4.5</v>
-      </c>
-      <c r="P75">
-        <v>5.5</v>
-      </c>
-      <c r="Q75">
-        <v>-1.25</v>
-      </c>
-      <c r="R75">
-        <v>1.9</v>
-      </c>
-      <c r="S75">
-        <v>1.9</v>
-      </c>
-      <c r="T75">
-        <v>3.5</v>
-      </c>
-      <c r="U75">
-        <v>1.975</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
-      <c r="W75">
-        <v>0.444</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45276.52083333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7297,7 +7297,7 @@
         <v>45280.40625</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7490,25 +7490,25 @@
         <v>44</v>
       </c>
       <c r="K79">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L79">
+        <v>4.75</v>
+      </c>
+      <c r="M79">
         <v>6</v>
       </c>
-      <c r="M79">
-        <v>10</v>
-      </c>
       <c r="N79">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P79">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q79">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R79">
         <v>1.9</v>
@@ -7517,16 +7517,16 @@
         <v>1.9</v>
       </c>
       <c r="T79">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7579,25 +7579,25 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M80">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>1.222</v>
+      </c>
+      <c r="O80">
         <v>6</v>
       </c>
-      <c r="N80">
-        <v>1.333</v>
-      </c>
-      <c r="O80">
-        <v>5</v>
-      </c>
       <c r="P80">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R80">
         <v>1.9</v>
@@ -7606,16 +7606,16 @@
         <v>1.9</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7742,10 +7742,10 @@
         <v>45284.40625</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>45346.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832567</v>
+        <v>6832566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,76 +8543,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L91">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
         <v>4.333</v>
       </c>
       <c r="N91">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R91">
+        <v>1.775</v>
+      </c>
+      <c r="S91">
+        <v>2.025</v>
+      </c>
+      <c r="T91">
+        <v>3.25</v>
+      </c>
+      <c r="U91">
         <v>2</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>1.825</v>
-      </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832566</v>
+        <v>6832567</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,76 +8632,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M92">
         <v>4.333</v>
       </c>
       <c r="N92">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8810,7 +8810,7 @@
         <v>45347.4375</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
@@ -8902,7 +8902,7 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8969,6 +8969,524 @@
       </c>
       <c r="AC95">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>6832713</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45351.44097222222</v>
+      </c>
+      <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96">
+        <v>1.125</v>
+      </c>
+      <c r="L96">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>15</v>
+      </c>
+      <c r="N96">
+        <v>1.125</v>
+      </c>
+      <c r="O96">
+        <v>7.5</v>
+      </c>
+      <c r="P96">
+        <v>15</v>
+      </c>
+      <c r="Q96">
+        <v>-2.5</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>1.8</v>
+      </c>
+      <c r="T96">
+        <v>3.75</v>
+      </c>
+      <c r="U96">
+        <v>1.975</v>
+      </c>
+      <c r="V96">
+        <v>1.825</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>6832571</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45351.55208333334</v>
+      </c>
+      <c r="F97" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
+        <v>38</v>
+      </c>
+      <c r="K97">
+        <v>1.8</v>
+      </c>
+      <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
+        <v>3.6</v>
+      </c>
+      <c r="N97">
+        <v>1.8</v>
+      </c>
+      <c r="O97">
+        <v>3.8</v>
+      </c>
+      <c r="P97">
+        <v>3.6</v>
+      </c>
+      <c r="Q97">
+        <v>-0.5</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1.875</v>
+      </c>
+      <c r="V97">
+        <v>1.925</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>6832576</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45352.44097222222</v>
+      </c>
+      <c r="F98" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98">
+        <v>1.6</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>4.75</v>
+      </c>
+      <c r="N98">
+        <v>1.615</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>4.75</v>
+      </c>
+      <c r="Q98">
+        <v>-0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>3.25</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>6832572</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45352.44097222222</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+      <c r="L99">
+        <v>5.5</v>
+      </c>
+      <c r="M99">
+        <v>1.333</v>
+      </c>
+      <c r="N99">
+        <v>5.25</v>
+      </c>
+      <c r="O99">
+        <v>5</v>
+      </c>
+      <c r="P99">
+        <v>1.444</v>
+      </c>
+      <c r="Q99">
+        <v>1.25</v>
+      </c>
+      <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>1.9</v>
+      </c>
+      <c r="T99">
+        <v>3.5</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>1.8</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>6832575</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45352.55208333334</v>
+      </c>
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100">
+        <v>1.85</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>1.75</v>
+      </c>
+      <c r="O100">
+        <v>4</v>
+      </c>
+      <c r="P100">
+        <v>3.75</v>
+      </c>
+      <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.975</v>
+      </c>
+      <c r="S100">
+        <v>1.825</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.8</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>6832574</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45353.44097222222</v>
+      </c>
+      <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
+        <v>40</v>
+      </c>
+      <c r="K101">
+        <v>1.571</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>4.75</v>
+      </c>
+      <c r="N101">
+        <v>1.85</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
+        <v>3.5</v>
+      </c>
+      <c r="Q101">
+        <v>-0.5</v>
+      </c>
+      <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.8</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>6832573</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45353.55208333334</v>
+      </c>
+      <c r="F102" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="K102">
+        <v>1.95</v>
+      </c>
+      <c r="L102">
+        <v>3.75</v>
+      </c>
+      <c r="M102">
+        <v>3.3</v>
+      </c>
+      <c r="N102">
+        <v>2.05</v>
+      </c>
+      <c r="O102">
+        <v>3.6</v>
+      </c>
+      <c r="P102">
+        <v>3.2</v>
+      </c>
+      <c r="Q102">
+        <v>-0.25</v>
+      </c>
+      <c r="R102">
+        <v>1.775</v>
+      </c>
+      <c r="S102">
+        <v>2.025</v>
+      </c>
+      <c r="T102">
+        <v>3.25</v>
+      </c>
+      <c r="U102">
+        <v>1.925</v>
+      </c>
+      <c r="V102">
+        <v>1.875</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>UAE Premier League</t>
   </si>
   <si>
-    <t>Al Ittihad Kalba</t>
+    <t>Al Wahda Abu Dhabi</t>
   </si>
   <si>
-    <t>Al Wahda Abu Dhabi</t>
+    <t>Al Ittihad Kalba</t>
   </si>
   <si>
     <t>Al Ain SCC</t>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6832491</v>
+        <v>6832493</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,52 +625,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N2">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -679,19 +679,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832493</v>
+        <v>6832491</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,53 +714,53 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N3">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q3">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1.8</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="S3">
-        <v>1.925</v>
-      </c>
-      <c r="T3">
-        <v>3.25</v>
-      </c>
-      <c r="U3">
-        <v>1.975</v>
-      </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
@@ -768,19 +768,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
+        <v>0.8</v>
+      </c>
+      <c r="AB3">
         <v>0.925</v>
       </c>
-      <c r="AB3">
-        <v>-0.5</v>
-      </c>
       <c r="AC3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832503</v>
+        <v>6832501</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,76 +2046,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q18">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832501</v>
+        <v>6832503</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832505</v>
+        <v>6832506</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P20">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="Q20">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832506</v>
+        <v>6832505</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
       <c r="M21">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="N21">
+        <v>5.75</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>1.444</v>
+      </c>
+      <c r="Q21">
         <v>1.25</v>
       </c>
-      <c r="O21">
-        <v>5.5</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="Q21">
-        <v>-1.75</v>
-      </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2850,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6832519</v>
+        <v>6832514</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,13 +3114,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3129,43 +3129,43 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="V30">
-        <v>1.975</v>
-      </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832514</v>
+        <v>6832519</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,13 +3203,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3218,43 +3218,43 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
+        <v>1.775</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>3.25</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
-      <c r="V31">
-        <v>1.825</v>
-      </c>
       <c r="W31">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6832521</v>
+        <v>6832525</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,76 +3737,76 @@
         <v>45226.40625</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N37">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6832525</v>
+        <v>6832521</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45226.40625</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="L38">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N38">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L39">
+        <v>4.75</v>
+      </c>
+      <c r="M39">
+        <v>5.25</v>
+      </c>
+      <c r="N39">
+        <v>1.4</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>5.5</v>
+      </c>
+      <c r="Q39">
+        <v>-1.25</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
+        <v>1.925</v>
+      </c>
+      <c r="V39">
+        <v>1.875</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>4.2</v>
-      </c>
-      <c r="N39">
-        <v>1.666</v>
-      </c>
-      <c r="O39">
-        <v>4</v>
-      </c>
-      <c r="P39">
-        <v>4.2</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.85</v>
-      </c>
-      <c r="S39">
-        <v>1.95</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.775</v>
-      </c>
-      <c r="V39">
-        <v>2.025</v>
-      </c>
-      <c r="W39">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40">
+        <v>1.666</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>4.2</v>
+      </c>
+      <c r="N40">
+        <v>1.666</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>4.2</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
+        <v>1.95</v>
+      </c>
+      <c r="T40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>45</v>
-      </c>
-      <c r="K40">
-        <v>1.45</v>
-      </c>
-      <c r="L40">
-        <v>4.75</v>
-      </c>
-      <c r="M40">
-        <v>5.25</v>
-      </c>
-      <c r="N40">
-        <v>1.4</v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>5.5</v>
-      </c>
-      <c r="Q40">
-        <v>-1.25</v>
-      </c>
-      <c r="R40">
-        <v>1.9</v>
-      </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
-      </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,58 +4093,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L41">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M41">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N41">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O41">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P41">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q41">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4153,13 +4153,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-0.5</v>
+      </c>
+      <c r="AA41">
+        <v>0.4625</v>
+      </c>
+      <c r="AB41">
         <v>0.95</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,58 +4182,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="K42">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N42">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q42">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4242,13 +4242,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -4897,7 +4897,7 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5161,7 +5161,7 @@
         <v>45255.40625</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
         <v>36</v>
@@ -5339,7 +5339,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832542</v>
+        <v>6832543</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>3.5</v>
+      </c>
+      <c r="M58">
+        <v>2.1</v>
+      </c>
+      <c r="N58">
+        <v>3.75</v>
+      </c>
+      <c r="O58">
+        <v>3.8</v>
+      </c>
+      <c r="P58">
+        <v>1.75</v>
+      </c>
+      <c r="Q58">
+        <v>0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.975</v>
+      </c>
+      <c r="S58">
+        <v>1.825</v>
+      </c>
+      <c r="T58">
+        <v>3.25</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>1.8</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>0.75</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
+        <v>0.825</v>
+      </c>
+      <c r="AB58">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>45</v>
-      </c>
-      <c r="K58">
-        <v>1.8</v>
-      </c>
-      <c r="L58">
-        <v>3.7</v>
-      </c>
-      <c r="M58">
-        <v>3.75</v>
-      </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
-      <c r="O58">
-        <v>4</v>
-      </c>
-      <c r="P58">
-        <v>3.5</v>
-      </c>
-      <c r="Q58">
-        <v>-0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
-      </c>
-      <c r="T58">
-        <v>3</v>
-      </c>
-      <c r="U58">
-        <v>1.875</v>
-      </c>
-      <c r="V58">
-        <v>1.925</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>3</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
-      <c r="AA58">
-        <v>0.95</v>
-      </c>
-      <c r="AB58">
-        <v>-1</v>
-      </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832543</v>
+        <v>6832542</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59">
+        <v>1.8</v>
+      </c>
+      <c r="L59">
+        <v>3.7</v>
+      </c>
+      <c r="M59">
+        <v>3.75</v>
+      </c>
+      <c r="N59">
+        <v>1.8</v>
+      </c>
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="J59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K59">
+      <c r="P59">
+        <v>3.5</v>
+      </c>
+      <c r="Q59">
+        <v>-0.5</v>
+      </c>
+      <c r="R59">
+        <v>1.85</v>
+      </c>
+      <c r="S59">
+        <v>1.95</v>
+      </c>
+      <c r="T59">
         <v>3</v>
       </c>
-      <c r="L59">
-        <v>3.5</v>
-      </c>
-      <c r="M59">
-        <v>2.1</v>
-      </c>
-      <c r="N59">
-        <v>3.75</v>
-      </c>
-      <c r="O59">
-        <v>3.8</v>
-      </c>
-      <c r="P59">
-        <v>1.75</v>
-      </c>
-      <c r="Q59">
-        <v>0.5</v>
-      </c>
-      <c r="R59">
-        <v>1.975</v>
-      </c>
-      <c r="S59">
-        <v>1.825</v>
-      </c>
-      <c r="T59">
-        <v>3.25</v>
-      </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,73 +6229,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65">
+        <v>2.875</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.3</v>
+      </c>
+      <c r="N65">
+        <v>2.625</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.45</v>
+      </c>
+      <c r="Q65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>44</v>
-      </c>
-      <c r="K65">
-        <v>1.222</v>
-      </c>
-      <c r="L65">
-        <v>6</v>
-      </c>
-      <c r="M65">
-        <v>8</v>
-      </c>
-      <c r="N65">
-        <v>1.25</v>
-      </c>
-      <c r="O65">
-        <v>6</v>
-      </c>
-      <c r="P65">
-        <v>6.5</v>
-      </c>
-      <c r="Q65">
-        <v>-1.75</v>
-      </c>
       <c r="R65">
+        <v>2.025</v>
+      </c>
+      <c r="S65">
+        <v>1.775</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
         <v>1.95</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.85</v>
       </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-0</v>
+      </c>
+      <c r="AB65">
         <v>0.95</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.875</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N66">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P66">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P67">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q67">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O68">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6585,7 +6585,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>31</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832553</v>
+        <v>6832554</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74">
+        <v>3.4</v>
+      </c>
+      <c r="L74">
+        <v>3.75</v>
+      </c>
+      <c r="M74">
+        <v>1.85</v>
+      </c>
+      <c r="N74">
+        <v>3.1</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
         <v>2</v>
       </c>
-      <c r="I74">
+      <c r="Q74">
+        <v>0.25</v>
+      </c>
+      <c r="R74">
+        <v>2.025</v>
+      </c>
+      <c r="S74">
+        <v>1.775</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1.8</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
         <v>1</v>
       </c>
-      <c r="J74" t="s">
-        <v>44</v>
-      </c>
-      <c r="K74">
-        <v>1.5</v>
-      </c>
-      <c r="L74">
-        <v>4.333</v>
-      </c>
-      <c r="M74">
-        <v>5.25</v>
-      </c>
-      <c r="N74">
-        <v>1.444</v>
-      </c>
-      <c r="O74">
-        <v>4.5</v>
-      </c>
-      <c r="P74">
-        <v>5.5</v>
-      </c>
-      <c r="Q74">
-        <v>-1.25</v>
-      </c>
-      <c r="R74">
-        <v>1.9</v>
-      </c>
-      <c r="S74">
-        <v>1.9</v>
-      </c>
-      <c r="T74">
-        <v>3.5</v>
-      </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
-      <c r="W74">
-        <v>0.444</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832554</v>
+        <v>6832553</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,76 +7119,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,49 +7742,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M82">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N82">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O82">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q82">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T82">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U82">
         <v>1.925</v>
@@ -7796,22 +7796,22 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y82">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,49 +7831,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>1.333</v>
+      </c>
+      <c r="N83">
+        <v>8</v>
+      </c>
+      <c r="O83">
         <v>5.5</v>
       </c>
-      <c r="M83">
-        <v>9</v>
-      </c>
-      <c r="N83">
-        <v>1.5</v>
-      </c>
-      <c r="O83">
-        <v>4.5</v>
-      </c>
       <c r="P83">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
         <v>1.925</v>
@@ -7885,22 +7885,22 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832555</v>
+        <v>6832557</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,76 +7920,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="L84">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N84">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
+        <v>1.925</v>
+      </c>
+      <c r="S84">
         <v>1.875</v>
-      </c>
-      <c r="S84">
-        <v>1.925</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.875</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832557</v>
+        <v>6832555</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,76 +8009,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M85">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N85">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
-      </c>
-      <c r="S85">
-        <v>1.875</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.875</v>
       </c>
-      <c r="AB85">
-        <v>-0.5</v>
-      </c>
       <c r="AC85">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>45335.43402777778</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8187,7 +8187,7 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>33</v>
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832566</v>
+        <v>6832567</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,76 +8543,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M91">
         <v>4.333</v>
       </c>
       <c r="N91">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q91">
+        <v>-1</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>1.8</v>
+      </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
+        <v>1.975</v>
+      </c>
+      <c r="W91">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
         <v>0</v>
       </c>
-      <c r="R91">
-        <v>1.775</v>
-      </c>
-      <c r="S91">
-        <v>2.025</v>
-      </c>
-      <c r="T91">
-        <v>3.25</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>1.55</v>
-      </c>
-      <c r="Z91">
-        <v>-1</v>
-      </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832567</v>
+        <v>6832566</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,76 +8632,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
         <v>4.333</v>
       </c>
       <c r="N92">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R92">
+        <v>1.775</v>
+      </c>
+      <c r="S92">
+        <v>2.025</v>
+      </c>
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
         <v>2</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>1.825</v>
-      </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8993,6 +8993,15 @@
       <c r="G96" t="s">
         <v>39</v>
       </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96" t="s">
+        <v>44</v>
+      </c>
       <c r="K96">
         <v>1.125</v>
       </c>
@@ -9003,49 +9012,55 @@
         <v>15</v>
       </c>
       <c r="N96">
-        <v>1.125</v>
+        <v>1.2</v>
       </c>
       <c r="O96">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="P96">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q96">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>3.75</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB96">
+        <v>0.925</v>
+      </c>
+      <c r="AC96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9062,11 +9077,20 @@
         <v>45351.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
       </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>43</v>
+      </c>
       <c r="K97">
         <v>1.8</v>
       </c>
@@ -9077,49 +9101,55 @@
         <v>3.6</v>
       </c>
       <c r="N97">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O97">
         <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
         <v>1.8</v>
-      </c>
-      <c r="S97">
-        <v>2</v>
       </c>
       <c r="T97">
         <v>3</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>2.75</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8</v>
+      </c>
+      <c r="AB97">
         <v>0</v>
       </c>
-      <c r="X97">
-        <v>0</v>
-      </c>
-      <c r="Y97">
-        <v>0</v>
-      </c>
-      <c r="Z97">
-        <v>0</v>
-      </c>
-      <c r="AA97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27">
+      <c r="AC97">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9141,6 +9171,15 @@
       <c r="G98" t="s">
         <v>36</v>
       </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>44</v>
+      </c>
       <c r="K98">
         <v>1.6</v>
       </c>
@@ -9151,49 +9190,55 @@
         <v>4.75</v>
       </c>
       <c r="N98">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
         <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9215,6 +9260,15 @@
       <c r="G99" t="s">
         <v>41</v>
       </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>43</v>
+      </c>
       <c r="K99">
         <v>6</v>
       </c>
@@ -9225,49 +9279,55 @@
         <v>1.333</v>
       </c>
       <c r="N99">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="O99">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P99">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="Q99">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T99">
         <v>3.5</v>
       </c>
       <c r="U99">
+        <v>1.8</v>
+      </c>
+      <c r="V99">
         <v>2</v>
       </c>
-      <c r="V99">
-        <v>1.8</v>
-      </c>
       <c r="W99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27">
+        <v>1</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9289,6 +9349,15 @@
       <c r="G100" t="s">
         <v>42</v>
       </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>44</v>
+      </c>
       <c r="K100">
         <v>1.85</v>
       </c>
@@ -9299,49 +9368,55 @@
         <v>3.5</v>
       </c>
       <c r="N100">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9373,22 +9448,22 @@
         <v>4.75</v>
       </c>
       <c r="N101">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.75</v>
@@ -9415,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:29">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9432,7 +9507,7 @@
         <v>45353.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9447,31 +9522,31 @@
         <v>3.3</v>
       </c>
       <c r="N102">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O102">
         <v>3.6</v>
       </c>
       <c r="P102">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
         <v>0</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>UAE Premier League</t>
   </si>
   <si>
-    <t>Al Wahda Abu Dhabi</t>
+    <t>Al Ittihad Kalba</t>
   </si>
   <si>
-    <t>Al Ittihad Kalba</t>
+    <t>Al Wahda Abu Dhabi</t>
   </si>
   <si>
     <t>Al Ain SCC</t>
@@ -115,10 +115,10 @@
     <t>Ajman SCC</t>
   </si>
   <si>
-    <t>Khor Fakkan</t>
+    <t>Al Wasl SC</t>
   </si>
   <si>
-    <t>Al Wasl SC</t>
+    <t>Khor Fakkan</t>
   </si>
   <si>
     <t>Al Nasr SC</t>
@@ -130,10 +130,10 @@
     <t>Al Jazira SC</t>
   </si>
   <si>
-    <t>Al Bataeh</t>
+    <t>Hatta Dubai</t>
   </si>
   <si>
-    <t>Hatta Dubai</t>
+    <t>Al Bataeh</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6832493</v>
+        <v>6832491</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,53 +625,53 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N2">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q2">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1.8</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
+        <v>1.925</v>
+      </c>
+      <c r="V2">
         <v>1.875</v>
       </c>
-      <c r="S2">
-        <v>1.925</v>
-      </c>
-      <c r="T2">
-        <v>3.25</v>
-      </c>
-      <c r="U2">
-        <v>1.975</v>
-      </c>
-      <c r="V2">
-        <v>1.825</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
@@ -679,19 +679,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
+        <v>0.8</v>
+      </c>
+      <c r="AB2">
         <v>0.925</v>
       </c>
-      <c r="AB2">
-        <v>-0.5</v>
-      </c>
       <c r="AC2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832491</v>
+        <v>6832493</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,52 +714,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N3">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -768,19 +768,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6832489</v>
+        <v>6832492</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,55 +981,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M6">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P6">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6832492</v>
+        <v>6832489</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,55 +1070,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
       </c>
       <c r="K7">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="N7">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1127,16 +1127,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832497</v>
+        <v>6832699</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>4.333</v>
+      </c>
+      <c r="M11">
+        <v>1.5</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>1.3</v>
+      </c>
+      <c r="Q11">
+        <v>1.5</v>
+      </c>
+      <c r="R11">
+        <v>1.975</v>
+      </c>
+      <c r="S11">
+        <v>1.825</v>
+      </c>
+      <c r="T11">
         <v>3.25</v>
       </c>
-      <c r="L11">
-        <v>3.3</v>
-      </c>
-      <c r="M11">
-        <v>2.05</v>
-      </c>
-      <c r="N11">
-        <v>3.5</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
+      <c r="U11">
         <v>1.95</v>
       </c>
-      <c r="Q11">
-        <v>0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.8</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.8</v>
-      </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832699</v>
+        <v>6832497</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>3.25</v>
+      </c>
+      <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
+        <v>2.05</v>
+      </c>
+      <c r="N12">
+        <v>3.5</v>
+      </c>
+      <c r="O12">
+        <v>3.4</v>
+      </c>
+      <c r="P12">
+        <v>1.95</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>1.8</v>
+      </c>
+      <c r="S12">
         <v>2</v>
       </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>4.333</v>
-      </c>
-      <c r="M12">
-        <v>1.5</v>
-      </c>
-      <c r="N12">
-        <v>7</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>1.3</v>
-      </c>
-      <c r="Q12">
-        <v>1.5</v>
-      </c>
-      <c r="R12">
-        <v>1.975</v>
-      </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1782,7 +1782,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -2046,7 +2046,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832506</v>
+        <v>6832505</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="N20">
+        <v>5.75</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>1.444</v>
+      </c>
+      <c r="Q20">
         <v>1.25</v>
       </c>
-      <c r="O20">
-        <v>5.5</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20">
-        <v>-1.75</v>
-      </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832505</v>
+        <v>6832506</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>38</v>
       </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
       <c r="M21">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="N21">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P21">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="Q21">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2491,7 +2491,7 @@
         <v>45197.43055555555</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2672,7 +2672,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2850,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2939,7 +2939,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3025,10 +3025,10 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
         <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3114,10 +3114,10 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3203,10 +3203,10 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3295,7 +3295,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>45206.43055555555</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6832525</v>
+        <v>6832521</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,73 +3740,73 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="O37">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6832521</v>
+        <v>6832525</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,73 +3829,73 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M38">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P38">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>1.666</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>4.2</v>
+      </c>
+      <c r="N39">
+        <v>1.666</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>4.2</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
+        <v>1.95</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39">
-        <v>1.45</v>
-      </c>
-      <c r="L39">
-        <v>4.75</v>
-      </c>
-      <c r="M39">
-        <v>5.25</v>
-      </c>
-      <c r="N39">
-        <v>1.4</v>
-      </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <v>5.5</v>
-      </c>
-      <c r="Q39">
-        <v>-1.25</v>
-      </c>
-      <c r="R39">
-        <v>1.9</v>
-      </c>
-      <c r="S39">
-        <v>1.9</v>
-      </c>
-      <c r="T39">
-        <v>3.25</v>
-      </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X39">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L40">
+        <v>4.75</v>
+      </c>
+      <c r="M40">
+        <v>5.25</v>
+      </c>
+      <c r="N40">
+        <v>1.4</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>5.5</v>
+      </c>
+      <c r="Q40">
+        <v>-1.25</v>
+      </c>
+      <c r="R40">
+        <v>1.9</v>
+      </c>
+      <c r="S40">
+        <v>1.9</v>
+      </c>
+      <c r="T40">
+        <v>3.25</v>
+      </c>
+      <c r="U40">
+        <v>1.925</v>
+      </c>
+      <c r="V40">
+        <v>1.875</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>4</v>
       </c>
-      <c r="M40">
-        <v>4.2</v>
-      </c>
-      <c r="N40">
-        <v>1.666</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>4.2</v>
-      </c>
-      <c r="Q40">
-        <v>-0.75</v>
-      </c>
-      <c r="R40">
-        <v>1.85</v>
-      </c>
-      <c r="S40">
-        <v>1.95</v>
-      </c>
-      <c r="T40">
-        <v>3</v>
-      </c>
-      <c r="U40">
-        <v>1.775</v>
-      </c>
-      <c r="V40">
-        <v>2.025</v>
-      </c>
-      <c r="W40">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,58 +4093,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N41">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O41">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P41">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q41">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4153,13 +4153,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,58 +4182,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="K42">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L42">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M42">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O42">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P42">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q42">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4242,13 +4242,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
+        <v>0.4625</v>
+      </c>
+      <c r="AB42">
         <v>0.95</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>45232.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -4541,7 +4541,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -4808,7 +4808,7 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>45253.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5072,7 +5072,7 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5161,7 +5161,7 @@
         <v>45255.40625</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>36</v>
@@ -5253,7 +5253,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5339,7 +5339,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5428,7 +5428,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5609,7 +5609,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5698,7 +5698,7 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5787,7 +5787,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5873,10 +5873,10 @@
         <v>45262.40625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L63">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N63">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.85</v>
-      </c>
-      <c r="T63">
-        <v>3.75</v>
-      </c>
-      <c r="U63">
-        <v>1.95</v>
-      </c>
-      <c r="V63">
-        <v>1.85</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M64">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N64">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U64">
+        <v>1.95</v>
+      </c>
+      <c r="V64">
         <v>1.85</v>
       </c>
-      <c r="V64">
-        <v>1.95</v>
-      </c>
       <c r="W64">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB64">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,73 +6229,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M65">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N65">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P65">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66">
+        <v>2.875</v>
+      </c>
+      <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>2.3</v>
+      </c>
+      <c r="N66">
+        <v>2.625</v>
+      </c>
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
+        <v>2.45</v>
+      </c>
+      <c r="Q66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>44</v>
-      </c>
-      <c r="K66">
-        <v>1.222</v>
-      </c>
-      <c r="L66">
-        <v>6</v>
-      </c>
-      <c r="M66">
-        <v>8</v>
-      </c>
-      <c r="N66">
-        <v>1.25</v>
-      </c>
-      <c r="O66">
-        <v>6</v>
-      </c>
-      <c r="P66">
-        <v>6.5</v>
-      </c>
-      <c r="Q66">
-        <v>-1.75</v>
-      </c>
       <c r="R66">
+        <v>2.025</v>
+      </c>
+      <c r="S66">
+        <v>1.775</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
         <v>1.95</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.85</v>
       </c>
-      <c r="T66">
-        <v>3.5</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.925</v>
-      </c>
       <c r="W66">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-0</v>
+      </c>
+      <c r="AB66">
         <v>0.95</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.875</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O67">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L68">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P68">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q68">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6585,7 +6585,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>31</v>
@@ -6674,10 +6674,10 @@
         <v>45275.40625</v>
       </c>
       <c r="F70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s">
         <v>39</v>
-      </c>
-      <c r="G70" t="s">
-        <v>38</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -7119,10 +7119,10 @@
         <v>45276.40625</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7211,7 +7211,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7490,25 +7490,25 @@
         <v>44</v>
       </c>
       <c r="K79">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>1.222</v>
+      </c>
+      <c r="O79">
         <v>6</v>
       </c>
-      <c r="N79">
-        <v>1.333</v>
-      </c>
-      <c r="O79">
-        <v>5</v>
-      </c>
       <c r="P79">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R79">
         <v>1.9</v>
@@ -7517,16 +7517,16 @@
         <v>1.9</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7579,25 +7579,25 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L80">
+        <v>4.75</v>
+      </c>
+      <c r="M80">
         <v>6</v>
       </c>
-      <c r="M80">
-        <v>10</v>
-      </c>
       <c r="N80">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P80">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q80">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R80">
         <v>1.9</v>
@@ -7606,16 +7606,16 @@
         <v>1.9</v>
       </c>
       <c r="T80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7831,7 +7831,7 @@
         <v>45284.40625</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832557</v>
+        <v>6832555</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,76 +7920,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M84">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
         <v>1.925</v>
-      </c>
-      <c r="S84">
-        <v>1.875</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.875</v>
       </c>
-      <c r="AB84">
-        <v>-0.5</v>
-      </c>
       <c r="AC84">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832555</v>
+        <v>6832557</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,76 +8009,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s">
         <v>33</v>
       </c>
-      <c r="G85" t="s">
-        <v>29</v>
-      </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="L85">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N85">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
         <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.875</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>45335.43402777778</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8187,10 +8187,10 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8276,7 +8276,7 @@
         <v>45335.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6832568</v>
+        <v>6832569</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,7 +8365,7 @@
         <v>45346.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8380,41 +8380,41 @@
         <v>43</v>
       </c>
       <c r="K89">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M89">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="P89">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R89">
+        <v>1.8</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
         <v>1.95</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.8</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
@@ -8422,19 +8422,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.05</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832569</v>
+        <v>6832568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,7 +8454,7 @@
         <v>45346.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -8469,41 +8469,41 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="L90">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="N90">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q90">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
+        <v>1.85</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
         <v>1.8</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>2</v>
       </c>
-      <c r="T90">
-        <v>4</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>1.85</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
@@ -8511,19 +8511,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6832565</v>
+        <v>6832570</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8721,49 +8721,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>43</v>
+      </c>
+      <c r="K93">
+        <v>4.75</v>
+      </c>
+      <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>1.55</v>
+      </c>
+      <c r="N93">
+        <v>4.5</v>
+      </c>
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>1.6</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1.775</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
         <v>3</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>44</v>
-      </c>
-      <c r="K93">
-        <v>1.3</v>
-      </c>
-      <c r="L93">
-        <v>5.75</v>
-      </c>
-      <c r="M93">
-        <v>6.5</v>
-      </c>
-      <c r="N93">
-        <v>1.45</v>
-      </c>
-      <c r="O93">
-        <v>4.75</v>
-      </c>
-      <c r="P93">
-        <v>5</v>
-      </c>
-      <c r="Q93">
-        <v>-1.25</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
-      <c r="S93">
-        <v>1.825</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
       </c>
       <c r="U93">
         <v>2</v>
@@ -8772,25 +8772,25 @@
         <v>1.8</v>
       </c>
       <c r="W93">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832570</v>
+        <v>6832565</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8810,49 +8810,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
+        <v>1.3</v>
+      </c>
+      <c r="L94">
+        <v>5.75</v>
+      </c>
+      <c r="M94">
+        <v>6.5</v>
+      </c>
+      <c r="N94">
+        <v>1.45</v>
+      </c>
+      <c r="O94">
         <v>4.75</v>
       </c>
-      <c r="L94">
-        <v>4.2</v>
-      </c>
-      <c r="M94">
-        <v>1.55</v>
-      </c>
-      <c r="N94">
-        <v>4.5</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
       <c r="P94">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8861,25 +8861,25 @@
         <v>1.8</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8991,7 +8991,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>5</v>
@@ -9077,10 +9077,10 @@
         <v>45351.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832576</v>
+        <v>6832572</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,76 +9166,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>43</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+      <c r="L98">
+        <v>5.5</v>
+      </c>
+      <c r="M98">
+        <v>1.333</v>
+      </c>
+      <c r="N98">
+        <v>6.5</v>
+      </c>
+      <c r="O98">
+        <v>5.75</v>
+      </c>
+      <c r="P98">
+        <v>1.3</v>
+      </c>
+      <c r="Q98">
+        <v>1.75</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
         <v>2</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>44</v>
-      </c>
-      <c r="K98">
-        <v>1.6</v>
-      </c>
-      <c r="L98">
-        <v>4</v>
-      </c>
-      <c r="M98">
-        <v>4.75</v>
-      </c>
-      <c r="N98">
-        <v>1.7</v>
-      </c>
-      <c r="O98">
-        <v>3.8</v>
-      </c>
-      <c r="P98">
-        <v>4.333</v>
-      </c>
-      <c r="Q98">
-        <v>-0.75</v>
-      </c>
-      <c r="R98">
-        <v>1.875</v>
-      </c>
-      <c r="S98">
-        <v>1.925</v>
-      </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832572</v>
+        <v>6832576</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,76 +9255,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="L99">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="N99">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>1.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>45352.55208333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>42</v>
@@ -9438,6 +9438,15 @@
       <c r="G101" t="s">
         <v>40</v>
       </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>44</v>
+      </c>
       <c r="K101">
         <v>1.571</v>
       </c>
@@ -9460,34 +9469,40 @@
         <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9507,11 +9522,20 @@
         <v>45353.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
       </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102" t="s">
+        <v>44</v>
+      </c>
       <c r="K102">
         <v>1.95</v>
       </c>
@@ -9525,43 +9549,49 @@
         <v>2</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q102">
         <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>0.8</v>
+      </c>
+      <c r="AC102">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Wahda Abu Dhabi</t>
   </si>
   <si>
-    <t>Al Ain SCC</t>
+    <t>Ajman SCC</t>
   </si>
   <si>
-    <t>Ajman SCC</t>
+    <t>Al Ain SCC</t>
   </si>
   <si>
     <t>Al Wasl SC</t>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832698</v>
+        <v>6832494</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="N4">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q4">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6832494</v>
+        <v>6832698</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M5">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="N5">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P5">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
         <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
       </c>
       <c r="H19">
         <v>6</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832505</v>
+        <v>6832506</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P20">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="Q20">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832506</v>
+        <v>6832505</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
       <c r="M21">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="N21">
+        <v>5.75</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>1.444</v>
+      </c>
+      <c r="Q21">
         <v>1.25</v>
       </c>
-      <c r="O21">
-        <v>5.5</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="Q21">
-        <v>-1.75</v>
-      </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>1.666</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>1.8</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>3.5</v>
+      </c>
+      <c r="Q25">
+        <v>-0.5</v>
+      </c>
+      <c r="R25">
+        <v>1.825</v>
+      </c>
+      <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>3.25</v>
+      </c>
+      <c r="U25">
+        <v>1.925</v>
+      </c>
+      <c r="V25">
+        <v>1.875</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25">
-        <v>2.4</v>
-      </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>2.55</v>
-      </c>
-      <c r="N25">
-        <v>2.875</v>
-      </c>
-      <c r="O25">
-        <v>3.6</v>
-      </c>
-      <c r="P25">
-        <v>2.15</v>
-      </c>
-      <c r="Q25">
-        <v>0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.85</v>
-      </c>
-      <c r="S25">
-        <v>1.95</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.9</v>
-      </c>
-      <c r="V25">
-        <v>1.9</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
       <c r="Y25">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L39">
+        <v>4.75</v>
+      </c>
+      <c r="M39">
+        <v>5.25</v>
+      </c>
+      <c r="N39">
+        <v>1.4</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>5.5</v>
+      </c>
+      <c r="Q39">
+        <v>-1.25</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
+        <v>1.925</v>
+      </c>
+      <c r="V39">
+        <v>1.875</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>4.2</v>
-      </c>
-      <c r="N39">
-        <v>1.666</v>
-      </c>
-      <c r="O39">
-        <v>4</v>
-      </c>
-      <c r="P39">
-        <v>4.2</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.85</v>
-      </c>
-      <c r="S39">
-        <v>1.95</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.775</v>
-      </c>
-      <c r="V39">
-        <v>2.025</v>
-      </c>
-      <c r="W39">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40">
+        <v>1.666</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>4.2</v>
+      </c>
+      <c r="N40">
+        <v>1.666</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>4.2</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
+        <v>1.95</v>
+      </c>
+      <c r="T40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>45</v>
-      </c>
-      <c r="K40">
-        <v>1.45</v>
-      </c>
-      <c r="L40">
-        <v>4.75</v>
-      </c>
-      <c r="M40">
-        <v>5.25</v>
-      </c>
-      <c r="N40">
-        <v>1.4</v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>5.5</v>
-      </c>
-      <c r="Q40">
-        <v>-1.25</v>
-      </c>
-      <c r="R40">
-        <v>1.9</v>
-      </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
-      </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>36</v>
@@ -4452,7 +4452,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6833137</v>
+        <v>6832531</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>2</v>
-      </c>
-      <c r="I46">
-        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46">
         <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4595,19 +4595,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6832531</v>
+        <v>6833137</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,49 +4627,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4684,19 +4684,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7499792</v>
+        <v>6832537</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M52">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P52">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q52">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA52">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6832537</v>
+        <v>7499792</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5161,76 +5161,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53">
+        <v>3.4</v>
+      </c>
+      <c r="L53">
+        <v>3.6</v>
+      </c>
+      <c r="M53">
+        <v>1.909</v>
+      </c>
+      <c r="N53">
+        <v>4.2</v>
+      </c>
+      <c r="O53">
         <v>4</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K53">
-        <v>1.363</v>
-      </c>
-      <c r="L53">
-        <v>4.75</v>
-      </c>
-      <c r="M53">
-        <v>6.5</v>
-      </c>
-      <c r="N53">
-        <v>1.3</v>
-      </c>
-      <c r="O53">
-        <v>5.25</v>
-      </c>
       <c r="P53">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q53">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z53">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5520,7 +5520,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>45261.40625</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -6143,7 +6143,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,73 +6229,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65">
+        <v>2.875</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.3</v>
+      </c>
+      <c r="N65">
+        <v>2.625</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.45</v>
+      </c>
+      <c r="Q65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>44</v>
-      </c>
-      <c r="K65">
-        <v>1.222</v>
-      </c>
-      <c r="L65">
-        <v>6</v>
-      </c>
-      <c r="M65">
-        <v>8</v>
-      </c>
-      <c r="N65">
-        <v>1.25</v>
-      </c>
-      <c r="O65">
-        <v>6</v>
-      </c>
-      <c r="P65">
-        <v>6.5</v>
-      </c>
-      <c r="Q65">
-        <v>-1.75</v>
-      </c>
       <c r="R65">
+        <v>2.025</v>
+      </c>
+      <c r="S65">
+        <v>1.775</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
         <v>1.95</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.85</v>
       </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-0</v>
+      </c>
+      <c r="AB65">
         <v>0.95</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.875</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N66">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P66">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P67">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q67">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O68">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6588,7 +6588,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832554</v>
+        <v>6832553</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M74">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P74">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832553</v>
+        <v>6832554</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,76 +7119,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75">
+        <v>3.4</v>
+      </c>
+      <c r="L75">
+        <v>3.75</v>
+      </c>
+      <c r="M75">
+        <v>1.85</v>
+      </c>
+      <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
+        <v>3.6</v>
+      </c>
+      <c r="P75">
         <v>2</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>44</v>
-      </c>
-      <c r="K75">
-        <v>1.5</v>
-      </c>
-      <c r="L75">
-        <v>4.333</v>
-      </c>
-      <c r="M75">
-        <v>5.25</v>
-      </c>
-      <c r="N75">
-        <v>1.444</v>
-      </c>
-      <c r="O75">
-        <v>4.5</v>
-      </c>
-      <c r="P75">
-        <v>5.5</v>
-      </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45276.52083333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7297,7 +7297,7 @@
         <v>45280.40625</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>34</v>
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7490,25 +7490,25 @@
         <v>44</v>
       </c>
       <c r="K79">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L79">
+        <v>4.75</v>
+      </c>
+      <c r="M79">
         <v>6</v>
       </c>
-      <c r="M79">
-        <v>10</v>
-      </c>
       <c r="N79">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P79">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q79">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R79">
         <v>1.9</v>
@@ -7517,16 +7517,16 @@
         <v>1.9</v>
       </c>
       <c r="T79">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7579,25 +7579,25 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M80">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>1.222</v>
+      </c>
+      <c r="O80">
         <v>6</v>
       </c>
-      <c r="N80">
-        <v>1.333</v>
-      </c>
-      <c r="O80">
-        <v>5</v>
-      </c>
       <c r="P80">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R80">
         <v>1.9</v>
@@ -7606,16 +7606,16 @@
         <v>1.9</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6832570</v>
+        <v>6832565</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8721,49 +8721,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93">
+        <v>1.3</v>
+      </c>
+      <c r="L93">
+        <v>5.75</v>
+      </c>
+      <c r="M93">
+        <v>6.5</v>
+      </c>
+      <c r="N93">
+        <v>1.45</v>
+      </c>
+      <c r="O93">
         <v>4.75</v>
       </c>
-      <c r="L93">
-        <v>4.2</v>
-      </c>
-      <c r="M93">
-        <v>1.55</v>
-      </c>
-      <c r="N93">
-        <v>4.5</v>
-      </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
       <c r="P93">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>2</v>
@@ -8772,25 +8772,25 @@
         <v>1.8</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832565</v>
+        <v>6832570</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8810,49 +8810,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94">
+        <v>4.75</v>
+      </c>
+      <c r="L94">
+        <v>4.2</v>
+      </c>
+      <c r="M94">
+        <v>1.55</v>
+      </c>
+      <c r="N94">
+        <v>4.5</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>1.6</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1.775</v>
+      </c>
+      <c r="S94">
+        <v>2.025</v>
+      </c>
+      <c r="T94">
         <v>3</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>44</v>
-      </c>
-      <c r="K94">
-        <v>1.3</v>
-      </c>
-      <c r="L94">
-        <v>5.75</v>
-      </c>
-      <c r="M94">
-        <v>6.5</v>
-      </c>
-      <c r="N94">
-        <v>1.45</v>
-      </c>
-      <c r="O94">
-        <v>4.75</v>
-      </c>
-      <c r="P94">
-        <v>5</v>
-      </c>
-      <c r="Q94">
-        <v>-1.25</v>
-      </c>
-      <c r="R94">
-        <v>1.975</v>
-      </c>
-      <c r="S94">
-        <v>1.825</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8861,25 +8861,25 @@
         <v>1.8</v>
       </c>
       <c r="W94">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>45351.44097222222</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>38</v>
@@ -9255,7 +9255,7 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>36</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -130,10 +130,10 @@
     <t>Al Jazira SC</t>
   </si>
   <si>
-    <t>Hatta Dubai</t>
+    <t>Al Bataeh</t>
   </si>
   <si>
-    <t>Al Bataeh</t>
+    <t>Hatta Dubai</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832699</v>
+        <v>6832497</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <v>3.25</v>
+      </c>
+      <c r="L11">
+        <v>3.3</v>
+      </c>
+      <c r="M11">
+        <v>2.05</v>
+      </c>
+      <c r="N11">
+        <v>3.5</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
+        <v>1.95</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>4.333</v>
-      </c>
-      <c r="M11">
-        <v>1.5</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>1.3</v>
-      </c>
-      <c r="Q11">
-        <v>1.5</v>
-      </c>
-      <c r="R11">
-        <v>1.975</v>
-      </c>
-      <c r="S11">
-        <v>1.825</v>
-      </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832497</v>
+        <v>6832699</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>4.333</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>1.3</v>
+      </c>
+      <c r="Q12">
+        <v>1.5</v>
+      </c>
+      <c r="R12">
+        <v>1.975</v>
+      </c>
+      <c r="S12">
+        <v>1.825</v>
+      </c>
+      <c r="T12">
         <v>3.25</v>
       </c>
-      <c r="L12">
-        <v>3.3</v>
-      </c>
-      <c r="M12">
-        <v>2.05</v>
-      </c>
-      <c r="N12">
-        <v>3.5</v>
-      </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
-      <c r="P12">
+      <c r="U12">
         <v>1.95</v>
       </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.8</v>
-      </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,55 +1868,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
+        <v>3.75</v>
+      </c>
+      <c r="L16">
         <v>3.6</v>
       </c>
-      <c r="L16">
-        <v>3.8</v>
-      </c>
       <c r="M16">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N16">
         <v>3.8</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1925,19 +1925,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N17">
         <v>3.8</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2014,19 +2014,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2491,7 +2491,7 @@
         <v>45197.43055555555</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2939,7 +2939,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6832514</v>
+        <v>6832519</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,13 +3114,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3129,43 +3129,43 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
+        <v>1.775</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.825</v>
+      </c>
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="S30">
-        <v>1.825</v>
-      </c>
-      <c r="T30">
-        <v>3.25</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>1.825</v>
-      </c>
       <c r="W30">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832519</v>
+        <v>6832514</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,13 +3203,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
         <v>39</v>
       </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3218,43 +3218,43 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
+        <v>1.975</v>
+      </c>
+      <c r="V31">
         <v>1.825</v>
       </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6832521</v>
+        <v>6832525</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,73 +3740,73 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N37">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6832525</v>
+        <v>6832521</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,73 +3829,73 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="L38">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N38">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,58 +4093,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L41">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M41">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N41">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O41">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P41">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q41">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4153,13 +4153,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-0.5</v>
+      </c>
+      <c r="AA41">
+        <v>0.4625</v>
+      </c>
+      <c r="AB41">
         <v>0.95</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,58 +4182,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="K42">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N42">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q42">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4242,13 +4242,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6832531</v>
+        <v>6833137</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N46">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q46">
         <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4595,19 +4595,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6833137</v>
+        <v>6832531</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,49 +4627,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>2</v>
-      </c>
-      <c r="I47">
-        <v>4</v>
       </c>
       <c r="J47" t="s">
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N47">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4684,19 +4684,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>45253.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832537</v>
+        <v>7499792</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52">
+        <v>3.4</v>
+      </c>
+      <c r="L52">
+        <v>3.6</v>
+      </c>
+      <c r="M52">
+        <v>1.909</v>
+      </c>
+      <c r="N52">
+        <v>4.2</v>
+      </c>
+      <c r="O52">
         <v>4</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>44</v>
-      </c>
-      <c r="K52">
-        <v>1.363</v>
-      </c>
-      <c r="L52">
-        <v>4.75</v>
-      </c>
-      <c r="M52">
-        <v>6.5</v>
-      </c>
-      <c r="N52">
-        <v>1.3</v>
-      </c>
-      <c r="O52">
-        <v>5.25</v>
-      </c>
       <c r="P52">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7499792</v>
+        <v>6832537</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5161,76 +5161,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P53">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q53">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA53">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5698,7 +5698,7 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -6051,7 +6051,7 @@
         <v>45268.40625</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,73 +6229,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M65">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N65">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P65">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66">
+        <v>2.875</v>
+      </c>
+      <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>2.3</v>
+      </c>
+      <c r="N66">
+        <v>2.625</v>
+      </c>
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
+        <v>2.45</v>
+      </c>
+      <c r="Q66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>44</v>
-      </c>
-      <c r="K66">
-        <v>1.222</v>
-      </c>
-      <c r="L66">
-        <v>6</v>
-      </c>
-      <c r="M66">
-        <v>8</v>
-      </c>
-      <c r="N66">
-        <v>1.25</v>
-      </c>
-      <c r="O66">
-        <v>6</v>
-      </c>
-      <c r="P66">
-        <v>6.5</v>
-      </c>
-      <c r="Q66">
-        <v>-1.75</v>
-      </c>
       <c r="R66">
+        <v>2.025</v>
+      </c>
+      <c r="S66">
+        <v>1.775</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
         <v>1.95</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.85</v>
       </c>
-      <c r="T66">
-        <v>3.5</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.925</v>
-      </c>
       <c r="W66">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-0</v>
+      </c>
+      <c r="AB66">
         <v>0.95</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.875</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O67">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L68">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P68">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q68">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,49 +6674,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M70">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N70">
+        <v>4.75</v>
+      </c>
+      <c r="O70">
+        <v>4.5</v>
+      </c>
+      <c r="P70">
+        <v>1.533</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
         <v>4</v>
-      </c>
-      <c r="O70">
-        <v>3.75</v>
-      </c>
-      <c r="P70">
-        <v>1.727</v>
-      </c>
-      <c r="Q70">
-        <v>0.75</v>
-      </c>
-      <c r="R70">
-        <v>1.825</v>
-      </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
-      <c r="T70">
-        <v>3</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N71">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O71">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y71">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7490,25 +7490,25 @@
         <v>44</v>
       </c>
       <c r="K79">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>1.222</v>
+      </c>
+      <c r="O79">
         <v>6</v>
       </c>
-      <c r="N79">
-        <v>1.333</v>
-      </c>
-      <c r="O79">
-        <v>5</v>
-      </c>
       <c r="P79">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R79">
         <v>1.9</v>
@@ -7517,16 +7517,16 @@
         <v>1.9</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7579,25 +7579,25 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L80">
+        <v>4.75</v>
+      </c>
+      <c r="M80">
         <v>6</v>
       </c>
-      <c r="M80">
-        <v>10</v>
-      </c>
       <c r="N80">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P80">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q80">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R80">
         <v>1.9</v>
@@ -7606,16 +7606,16 @@
         <v>1.9</v>
       </c>
       <c r="T80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>45284.40625</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6832569</v>
+        <v>6832568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,10 +8365,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8380,41 +8380,41 @@
         <v>43</v>
       </c>
       <c r="K89">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="L89">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="N89">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q89">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
+        <v>1.95</v>
+      </c>
+      <c r="S89">
+        <v>1.85</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
         <v>1.8</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>2</v>
       </c>
-      <c r="T89">
-        <v>4</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
-      <c r="V89">
-        <v>1.85</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
@@ -8422,19 +8422,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832568</v>
+        <v>6832569</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,10 +8454,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8469,41 +8469,41 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M90">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="P90">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
+        <v>4</v>
+      </c>
+      <c r="U90">
         <v>1.95</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.85</v>
       </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.8</v>
-      </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
@@ -8511,19 +8511,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.05</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832567</v>
+        <v>6832566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,76 +8543,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L91">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
         <v>4.333</v>
       </c>
       <c r="N91">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R91">
+        <v>1.775</v>
+      </c>
+      <c r="S91">
+        <v>2.025</v>
+      </c>
+      <c r="T91">
+        <v>3.25</v>
+      </c>
+      <c r="U91">
         <v>2</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>1.825</v>
-      </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832566</v>
+        <v>6832567</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,76 +8632,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M92">
         <v>4.333</v>
       </c>
       <c r="N92">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>1.8</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
+        <v>1.975</v>
+      </c>
+      <c r="W92">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
         <v>0</v>
       </c>
-      <c r="R92">
-        <v>1.775</v>
-      </c>
-      <c r="S92">
-        <v>2.025</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
-      <c r="V92">
-        <v>1.8</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>1.55</v>
-      </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8709,7 +8709,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6832565</v>
+        <v>6832570</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8721,49 +8721,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>43</v>
+      </c>
+      <c r="K93">
+        <v>4.75</v>
+      </c>
+      <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>1.55</v>
+      </c>
+      <c r="N93">
+        <v>4.5</v>
+      </c>
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>1.6</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1.775</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
         <v>3</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>44</v>
-      </c>
-      <c r="K93">
-        <v>1.3</v>
-      </c>
-      <c r="L93">
-        <v>5.75</v>
-      </c>
-      <c r="M93">
-        <v>6.5</v>
-      </c>
-      <c r="N93">
-        <v>1.45</v>
-      </c>
-      <c r="O93">
-        <v>4.75</v>
-      </c>
-      <c r="P93">
-        <v>5</v>
-      </c>
-      <c r="Q93">
-        <v>-1.25</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
-      <c r="S93">
-        <v>1.825</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
       </c>
       <c r="U93">
         <v>2</v>
@@ -8772,25 +8772,25 @@
         <v>1.8</v>
       </c>
       <c r="W93">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832570</v>
+        <v>6832565</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8810,49 +8810,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
+        <v>1.3</v>
+      </c>
+      <c r="L94">
+        <v>5.75</v>
+      </c>
+      <c r="M94">
+        <v>6.5</v>
+      </c>
+      <c r="N94">
+        <v>1.45</v>
+      </c>
+      <c r="O94">
         <v>4.75</v>
       </c>
-      <c r="L94">
-        <v>4.2</v>
-      </c>
-      <c r="M94">
-        <v>1.55</v>
-      </c>
-      <c r="N94">
-        <v>4.5</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
       <c r="P94">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8861,25 +8861,25 @@
         <v>1.8</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8991,7 +8991,7 @@
         <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>5</v>
@@ -9080,7 +9080,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>UAE Premier League</t>
   </si>
   <si>
-    <t>Al Ittihad Kalba</t>
+    <t>Al Wahda Abu Dhabi</t>
   </si>
   <si>
-    <t>Al Wahda Abu Dhabi</t>
+    <t>Al Ittihad Kalba</t>
   </si>
   <si>
     <t>Ajman SCC</t>
@@ -115,10 +115,10 @@
     <t>Al Ain SCC</t>
   </si>
   <si>
-    <t>Al Wasl SC</t>
+    <t>Khor Fakkan</t>
   </si>
   <si>
-    <t>Khor Fakkan</t>
+    <t>Al Wasl SC</t>
   </si>
   <si>
     <t>Al Nasr SC</t>
@@ -130,10 +130,10 @@
     <t>Al Jazira SC</t>
   </si>
   <si>
-    <t>Al Bataeh</t>
+    <t>Hatta Dubai</t>
   </si>
   <si>
-    <t>Hatta Dubai</t>
+    <t>Al Bataeh</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6832491</v>
+        <v>6832493</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,52 +625,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N2">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -679,19 +679,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832493</v>
+        <v>6832491</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,53 +714,53 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N3">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q3">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1.8</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="S3">
-        <v>1.925</v>
-      </c>
-      <c r="T3">
-        <v>3.25</v>
-      </c>
-      <c r="U3">
-        <v>1.975</v>
-      </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
@@ -768,19 +768,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
+        <v>0.8</v>
+      </c>
+      <c r="AB3">
         <v>0.925</v>
       </c>
-      <c r="AB3">
-        <v>-0.5</v>
-      </c>
       <c r="AC3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6832492</v>
+        <v>6832489</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,55 +981,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="N6">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q6">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6832489</v>
+        <v>6832492</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,55 +1070,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P7">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1127,16 +1127,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832497</v>
+        <v>6832699</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>4.333</v>
+      </c>
+      <c r="M11">
+        <v>1.5</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>1.3</v>
+      </c>
+      <c r="Q11">
+        <v>1.5</v>
+      </c>
+      <c r="R11">
+        <v>1.975</v>
+      </c>
+      <c r="S11">
+        <v>1.825</v>
+      </c>
+      <c r="T11">
         <v>3.25</v>
       </c>
-      <c r="L11">
-        <v>3.3</v>
-      </c>
-      <c r="M11">
-        <v>2.05</v>
-      </c>
-      <c r="N11">
-        <v>3.5</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
+      <c r="U11">
         <v>1.95</v>
       </c>
-      <c r="Q11">
-        <v>0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.8</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.8</v>
-      </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832699</v>
+        <v>6832497</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>3.25</v>
+      </c>
+      <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
+        <v>2.05</v>
+      </c>
+      <c r="N12">
+        <v>3.5</v>
+      </c>
+      <c r="O12">
+        <v>3.4</v>
+      </c>
+      <c r="P12">
+        <v>1.95</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>1.8</v>
+      </c>
+      <c r="S12">
         <v>2</v>
       </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>4.333</v>
-      </c>
-      <c r="M12">
-        <v>1.5</v>
-      </c>
-      <c r="N12">
-        <v>7</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>1.3</v>
-      </c>
-      <c r="Q12">
-        <v>1.5</v>
-      </c>
-      <c r="R12">
-        <v>1.975</v>
-      </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1782,7 +1782,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832501</v>
+        <v>6832503</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,76 +2046,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P18">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832503</v>
+        <v>6832501</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832506</v>
+        <v>6832505</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="N20">
+        <v>5.75</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>1.444</v>
+      </c>
+      <c r="Q20">
         <v>1.25</v>
       </c>
-      <c r="O20">
-        <v>5.5</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20">
-        <v>-1.75</v>
-      </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832505</v>
+        <v>6832506</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
         <v>38</v>
       </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
       <c r="M21">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="N21">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P21">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="Q21">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2491,7 +2491,7 @@
         <v>45197.43055555555</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2850,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2939,7 +2939,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3025,10 +3025,10 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
         <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3114,10 +3114,10 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3203,10 +3203,10 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3295,7 +3295,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>45206.43055555555</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3737,10 +3737,10 @@
         <v>45226.40625</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>45226.40625</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
         <v>31</v>
@@ -4004,10 +4004,10 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
         <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,58 +4093,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N41">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O41">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P41">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q41">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4153,13 +4153,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,58 +4182,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="K42">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L42">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M42">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O42">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P42">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q42">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4242,13 +4242,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
+        <v>0.4625</v>
+      </c>
+      <c r="AB42">
         <v>0.95</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>45232.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4541,7 +4541,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -4808,7 +4808,7 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>45253.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7499792</v>
+        <v>6832537</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M52">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P52">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q52">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA52">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6832537</v>
+        <v>7499792</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5161,76 +5161,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L53">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M53">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N53">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O53">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q53">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z53">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5339,7 +5339,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5428,7 +5428,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>31</v>
@@ -5609,7 +5609,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5698,7 +5698,7 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5787,7 +5787,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5873,10 +5873,10 @@
         <v>45262.40625</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -6051,7 +6051,7 @@
         <v>45268.40625</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -6318,10 +6318,10 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P67">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q67">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O68">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6585,7 +6585,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6763,10 +6763,10 @@
         <v>45275.40625</v>
       </c>
       <c r="F71" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" t="s">
         <v>39</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832553</v>
+        <v>6832554</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74">
+        <v>3.4</v>
+      </c>
+      <c r="L74">
+        <v>3.75</v>
+      </c>
+      <c r="M74">
+        <v>1.85</v>
+      </c>
+      <c r="N74">
+        <v>3.1</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
         <v>2</v>
       </c>
-      <c r="I74">
+      <c r="Q74">
+        <v>0.25</v>
+      </c>
+      <c r="R74">
+        <v>2.025</v>
+      </c>
+      <c r="S74">
+        <v>1.775</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1.8</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
         <v>1</v>
       </c>
-      <c r="J74" t="s">
-        <v>44</v>
-      </c>
-      <c r="K74">
-        <v>1.5</v>
-      </c>
-      <c r="L74">
-        <v>4.333</v>
-      </c>
-      <c r="M74">
-        <v>5.25</v>
-      </c>
-      <c r="N74">
-        <v>1.444</v>
-      </c>
-      <c r="O74">
-        <v>4.5</v>
-      </c>
-      <c r="P74">
-        <v>5.5</v>
-      </c>
-      <c r="Q74">
-        <v>-1.25</v>
-      </c>
-      <c r="R74">
-        <v>1.9</v>
-      </c>
-      <c r="S74">
-        <v>1.9</v>
-      </c>
-      <c r="T74">
-        <v>3.5</v>
-      </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
-      <c r="W74">
-        <v>0.444</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832554</v>
+        <v>6832553</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,76 +7119,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7490,25 +7490,25 @@
         <v>44</v>
       </c>
       <c r="K79">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L79">
+        <v>4.75</v>
+      </c>
+      <c r="M79">
         <v>6</v>
       </c>
-      <c r="M79">
-        <v>10</v>
-      </c>
       <c r="N79">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P79">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q79">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R79">
         <v>1.9</v>
@@ -7517,16 +7517,16 @@
         <v>1.9</v>
       </c>
       <c r="T79">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7579,25 +7579,25 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M80">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>1.222</v>
+      </c>
+      <c r="O80">
         <v>6</v>
       </c>
-      <c r="N80">
-        <v>1.333</v>
-      </c>
-      <c r="O80">
-        <v>5</v>
-      </c>
       <c r="P80">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R80">
         <v>1.9</v>
@@ -7606,16 +7606,16 @@
         <v>1.9</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,49 +7742,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>1.333</v>
+      </c>
+      <c r="N82">
+        <v>8</v>
+      </c>
+      <c r="O82">
         <v>5.5</v>
       </c>
-      <c r="M82">
-        <v>9</v>
-      </c>
-      <c r="N82">
-        <v>1.5</v>
-      </c>
-      <c r="O82">
-        <v>4.5</v>
-      </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U82">
         <v>1.925</v>
@@ -7796,22 +7796,22 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,49 +7831,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M83">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N83">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O83">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q83">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U83">
         <v>1.925</v>
@@ -7885,22 +7885,22 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y83">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832555</v>
+        <v>6832557</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,76 +7920,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s">
         <v>34</v>
       </c>
-      <c r="G84" t="s">
-        <v>30</v>
-      </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="L84">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N84">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
+        <v>1.925</v>
+      </c>
+      <c r="S84">
         <v>1.875</v>
-      </c>
-      <c r="S84">
-        <v>1.925</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.875</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832557</v>
+        <v>6832555</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,76 +8009,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M85">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N85">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
-      </c>
-      <c r="S85">
-        <v>1.875</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.875</v>
       </c>
-      <c r="AB85">
-        <v>-0.5</v>
-      </c>
       <c r="AC85">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>45335.43402777778</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8187,10 +8187,10 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8276,7 +8276,7 @@
         <v>45335.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8365,10 +8365,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8457,7 +8457,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8721,10 +8721,10 @@
         <v>45347.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8991,7 +8991,7 @@
         <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>5</v>
@@ -9077,10 +9077,10 @@
         <v>45351.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832572</v>
+        <v>6832576</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,76 +9166,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="L98">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="N98">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>1.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q98">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832576</v>
+        <v>6832572</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,76 +9255,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>43</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+      <c r="L99">
+        <v>5.5</v>
+      </c>
+      <c r="M99">
+        <v>1.333</v>
+      </c>
+      <c r="N99">
+        <v>6.5</v>
+      </c>
+      <c r="O99">
+        <v>5.75</v>
+      </c>
+      <c r="P99">
+        <v>1.3</v>
+      </c>
+      <c r="Q99">
+        <v>1.75</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
         <v>2</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>44</v>
-      </c>
-      <c r="K99">
-        <v>1.6</v>
-      </c>
-      <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99">
-        <v>4.75</v>
-      </c>
-      <c r="N99">
-        <v>1.7</v>
-      </c>
-      <c r="O99">
-        <v>3.8</v>
-      </c>
-      <c r="P99">
-        <v>4.333</v>
-      </c>
-      <c r="Q99">
-        <v>-0.75</v>
-      </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
-      <c r="S99">
-        <v>1.925</v>
-      </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>45352.55208333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
         <v>42</v>
@@ -9522,7 +9522,7 @@
         <v>45353.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9592,6 +9592,524 @@
       </c>
       <c r="AC102">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>6832583</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45364.625</v>
+      </c>
+      <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="K103">
+        <v>5.25</v>
+      </c>
+      <c r="L103">
+        <v>5.25</v>
+      </c>
+      <c r="M103">
+        <v>1.4</v>
+      </c>
+      <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>5.25</v>
+      </c>
+      <c r="P103">
+        <v>1.4</v>
+      </c>
+      <c r="Q103">
+        <v>1.25</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
+        <v>3.25</v>
+      </c>
+      <c r="U103">
+        <v>1.925</v>
+      </c>
+      <c r="V103">
+        <v>1.875</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>6832580</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45364.625</v>
+      </c>
+      <c r="F104" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" t="s">
+        <v>29</v>
+      </c>
+      <c r="K104">
+        <v>9</v>
+      </c>
+      <c r="L104">
+        <v>5.5</v>
+      </c>
+      <c r="M104">
+        <v>1.25</v>
+      </c>
+      <c r="N104">
+        <v>9</v>
+      </c>
+      <c r="O104">
+        <v>5.5</v>
+      </c>
+      <c r="P104">
+        <v>1.25</v>
+      </c>
+      <c r="Q104">
+        <v>1.75</v>
+      </c>
+      <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>3.25</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
+        <v>1.85</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>6832579</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45364.625</v>
+      </c>
+      <c r="F105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
+        <v>33</v>
+      </c>
+      <c r="K105">
+        <v>2.6</v>
+      </c>
+      <c r="L105">
+        <v>3.6</v>
+      </c>
+      <c r="M105">
+        <v>2.3</v>
+      </c>
+      <c r="N105">
+        <v>2.6</v>
+      </c>
+      <c r="O105">
+        <v>3.6</v>
+      </c>
+      <c r="P105">
+        <v>2.3</v>
+      </c>
+      <c r="Q105">
+        <v>0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.75</v>
+      </c>
+      <c r="S105">
+        <v>2.05</v>
+      </c>
+      <c r="T105">
+        <v>3.25</v>
+      </c>
+      <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
+        <v>1.825</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>6832582</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45365.625</v>
+      </c>
+      <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s">
+        <v>30</v>
+      </c>
+      <c r="K106">
+        <v>1.7</v>
+      </c>
+      <c r="L106">
+        <v>4.2</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+      <c r="N106">
+        <v>1.7</v>
+      </c>
+      <c r="O106">
+        <v>4.2</v>
+      </c>
+      <c r="P106">
+        <v>4</v>
+      </c>
+      <c r="Q106">
+        <v>-0.75</v>
+      </c>
+      <c r="R106">
+        <v>1.875</v>
+      </c>
+      <c r="S106">
+        <v>1.925</v>
+      </c>
+      <c r="T106">
+        <v>3.5</v>
+      </c>
+      <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
+        <v>1.85</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>6832578</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45365.625</v>
+      </c>
+      <c r="F107" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s">
+        <v>35</v>
+      </c>
+      <c r="K107">
+        <v>1.85</v>
+      </c>
+      <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>3.6</v>
+      </c>
+      <c r="N107">
+        <v>1.85</v>
+      </c>
+      <c r="O107">
+        <v>3.6</v>
+      </c>
+      <c r="P107">
+        <v>3.6</v>
+      </c>
+      <c r="Q107">
+        <v>-0.5</v>
+      </c>
+      <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.85</v>
+      </c>
+      <c r="V107">
+        <v>1.95</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>6832577</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45365.625</v>
+      </c>
+      <c r="F108" t="s">
+        <v>41</v>
+      </c>
+      <c r="G108" t="s">
+        <v>39</v>
+      </c>
+      <c r="K108">
+        <v>1.333</v>
+      </c>
+      <c r="L108">
+        <v>5</v>
+      </c>
+      <c r="M108">
+        <v>7.5</v>
+      </c>
+      <c r="N108">
+        <v>1.333</v>
+      </c>
+      <c r="O108">
+        <v>5</v>
+      </c>
+      <c r="P108">
+        <v>7.5</v>
+      </c>
+      <c r="Q108">
+        <v>-1.5</v>
+      </c>
+      <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>3.25</v>
+      </c>
+      <c r="U108">
+        <v>1.8</v>
+      </c>
+      <c r="V108">
+        <v>2</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>6832581</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109">
+        <v>5.25</v>
+      </c>
+      <c r="L109">
+        <v>4.75</v>
+      </c>
+      <c r="M109">
+        <v>1.45</v>
+      </c>
+      <c r="N109">
+        <v>4.5</v>
+      </c>
+      <c r="O109">
+        <v>4.333</v>
+      </c>
+      <c r="P109">
+        <v>1.55</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
+        <v>1.975</v>
+      </c>
+      <c r="V109">
+        <v>1.825</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Ittihad Kalba</t>
   </si>
   <si>
-    <t>Ajman SCC</t>
+    <t>Al Ain SCC</t>
   </si>
   <si>
-    <t>Al Ain SCC</t>
+    <t>Ajman SCC</t>
   </si>
   <si>
     <t>Khor Fakkan</t>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832494</v>
+        <v>6832698</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M4">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P4">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q4">
+        <v>-1.75</v>
+      </c>
+      <c r="R4">
+        <v>1.825</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>1.8</v>
+      </c>
+      <c r="W4">
+        <v>0.25</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB4">
         <v>1</v>
       </c>
-      <c r="R4">
-        <v>1.925</v>
-      </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>1.9</v>
-      </c>
-      <c r="V4">
-        <v>1.9</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
-      <c r="AA4">
-        <v>0.875</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6832698</v>
+        <v>6832494</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="L5">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="N5">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="O5">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q5">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -2583,7 +2583,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>1.666</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.8</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>3.5</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.25</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>2.4</v>
-      </c>
-      <c r="L26">
-        <v>3.5</v>
-      </c>
-      <c r="M26">
-        <v>2.55</v>
-      </c>
-      <c r="N26">
-        <v>2.875</v>
-      </c>
-      <c r="O26">
-        <v>3.6</v>
-      </c>
-      <c r="P26">
-        <v>2.15</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.85</v>
-      </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.9</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6832519</v>
+        <v>6832514</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,13 +3114,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3129,43 +3129,43 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="V30">
-        <v>1.975</v>
-      </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832514</v>
+        <v>6832519</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,13 +3203,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3218,43 +3218,43 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
+        <v>1.775</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>3.25</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
-      <c r="V31">
-        <v>1.825</v>
-      </c>
       <c r="W31">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3829,7 +3829,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>1.666</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>4.2</v>
+      </c>
+      <c r="N39">
+        <v>1.666</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>4.2</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
+        <v>1.95</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39">
-        <v>1.45</v>
-      </c>
-      <c r="L39">
-        <v>4.75</v>
-      </c>
-      <c r="M39">
-        <v>5.25</v>
-      </c>
-      <c r="N39">
-        <v>1.4</v>
-      </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <v>5.5</v>
-      </c>
-      <c r="Q39">
-        <v>-1.25</v>
-      </c>
-      <c r="R39">
-        <v>1.9</v>
-      </c>
-      <c r="S39">
-        <v>1.9</v>
-      </c>
-      <c r="T39">
-        <v>3.25</v>
-      </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X39">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L40">
+        <v>4.75</v>
+      </c>
+      <c r="M40">
+        <v>5.25</v>
+      </c>
+      <c r="N40">
+        <v>1.4</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>5.5</v>
+      </c>
+      <c r="Q40">
+        <v>-1.25</v>
+      </c>
+      <c r="R40">
+        <v>1.9</v>
+      </c>
+      <c r="S40">
+        <v>1.9</v>
+      </c>
+      <c r="T40">
+        <v>3.25</v>
+      </c>
+      <c r="U40">
+        <v>1.925</v>
+      </c>
+      <c r="V40">
+        <v>1.875</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>4</v>
       </c>
-      <c r="M40">
-        <v>4.2</v>
-      </c>
-      <c r="N40">
-        <v>1.666</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>4.2</v>
-      </c>
-      <c r="Q40">
-        <v>-0.75</v>
-      </c>
-      <c r="R40">
-        <v>1.85</v>
-      </c>
-      <c r="S40">
-        <v>1.95</v>
-      </c>
-      <c r="T40">
-        <v>3</v>
-      </c>
-      <c r="U40">
-        <v>1.775</v>
-      </c>
-      <c r="V40">
-        <v>2.025</v>
-      </c>
-      <c r="W40">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,58 +4093,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L41">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M41">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N41">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O41">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P41">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q41">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4153,13 +4153,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-0.5</v>
+      </c>
+      <c r="AA41">
+        <v>0.4625</v>
+      </c>
+      <c r="AB41">
         <v>0.95</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,58 +4182,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="K42">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N42">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q42">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4242,13 +4242,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4452,7 +4452,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6833137</v>
+        <v>6832531</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46">
         <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4595,19 +4595,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6832531</v>
+        <v>6833137</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,49 +4627,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4684,19 +4684,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832537</v>
+        <v>7499792</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L52">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N52">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O52">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7499792</v>
+        <v>6832537</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5161,76 +5161,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P53">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q53">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA53">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5520,7 +5520,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>45261.40625</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M63">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N63">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P63">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U63">
+        <v>1.95</v>
+      </c>
+      <c r="V63">
         <v>1.85</v>
       </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L64">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N64">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q64">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>1.95</v>
       </c>
-      <c r="S64">
-        <v>1.85</v>
-      </c>
-      <c r="T64">
-        <v>3.75</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O67">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>4</v>
-      </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L68">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P68">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q68">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6588,7 +6588,7 @@
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6832552</v>
+        <v>6832551</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,76 +6852,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M72">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="N72">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q72">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
         <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
       </c>
       <c r="T72">
         <v>3.5</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6832551</v>
+        <v>6832552</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
+        <v>1.3</v>
+      </c>
+      <c r="L73">
         <v>5.25</v>
       </c>
-      <c r="L73">
-        <v>4.75</v>
-      </c>
       <c r="M73">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O73">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P73">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q73">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
         <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>1.95</v>
       </c>
       <c r="T73">
         <v>3.5</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>45276.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>35</v>
@@ -7208,7 +7208,7 @@
         <v>45276.52083333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7297,7 +7297,7 @@
         <v>45280.40625</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,7 +7742,7 @@
         <v>45284.40625</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7751,40 +7751,40 @@
         <v>1</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M82">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N82">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O82">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q82">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T82">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U82">
         <v>1.925</v>
@@ -7796,22 +7796,22 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y82">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,7 +7831,7 @@
         <v>45284.40625</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -7840,40 +7840,40 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>1.333</v>
+      </c>
+      <c r="N83">
+        <v>8</v>
+      </c>
+      <c r="O83">
         <v>5.5</v>
       </c>
-      <c r="M83">
-        <v>9</v>
-      </c>
-      <c r="N83">
-        <v>1.5</v>
-      </c>
-      <c r="O83">
-        <v>4.5</v>
-      </c>
       <c r="P83">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
         <v>1.925</v>
@@ -7885,22 +7885,22 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8709,7 +8709,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6832570</v>
+        <v>6832565</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8721,49 +8721,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93">
+        <v>1.3</v>
+      </c>
+      <c r="L93">
+        <v>5.75</v>
+      </c>
+      <c r="M93">
+        <v>6.5</v>
+      </c>
+      <c r="N93">
+        <v>1.45</v>
+      </c>
+      <c r="O93">
         <v>4.75</v>
       </c>
-      <c r="L93">
-        <v>4.2</v>
-      </c>
-      <c r="M93">
-        <v>1.55</v>
-      </c>
-      <c r="N93">
-        <v>4.5</v>
-      </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
       <c r="P93">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>2</v>
@@ -8772,25 +8772,25 @@
         <v>1.8</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832565</v>
+        <v>6832570</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8810,49 +8810,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94">
+        <v>4.75</v>
+      </c>
+      <c r="L94">
+        <v>4.2</v>
+      </c>
+      <c r="M94">
+        <v>1.55</v>
+      </c>
+      <c r="N94">
+        <v>4.5</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>1.6</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1.775</v>
+      </c>
+      <c r="S94">
+        <v>2.025</v>
+      </c>
+      <c r="T94">
         <v>3</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>44</v>
-      </c>
-      <c r="K94">
-        <v>1.3</v>
-      </c>
-      <c r="L94">
-        <v>5.75</v>
-      </c>
-      <c r="M94">
-        <v>6.5</v>
-      </c>
-      <c r="N94">
-        <v>1.45</v>
-      </c>
-      <c r="O94">
-        <v>4.75</v>
-      </c>
-      <c r="P94">
-        <v>5</v>
-      </c>
-      <c r="Q94">
-        <v>-1.25</v>
-      </c>
-      <c r="R94">
-        <v>1.975</v>
-      </c>
-      <c r="S94">
-        <v>1.825</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8861,25 +8861,25 @@
         <v>1.8</v>
       </c>
       <c r="W94">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>45351.44097222222</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>38</v>
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832576</v>
+        <v>6832572</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,76 +9166,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M98">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>1.3</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832572</v>
+        <v>6832576</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,76 +9255,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="L99">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="N99">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>1.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832583</v>
+        <v>6832579</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,61 +9611,76 @@
         <v>45364.625</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>44</v>
       </c>
       <c r="K103">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="L103">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="O103">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q103">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-0.5</v>
+      </c>
+      <c r="AC103">
+        <v>0.4875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9690,6 +9705,15 @@
       <c r="G104" t="s">
         <v>29</v>
       </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>4</v>
+      </c>
+      <c r="J104" t="s">
+        <v>43</v>
+      </c>
       <c r="K104">
         <v>9</v>
       </c>
@@ -9700,46 +9724,52 @@
         <v>1.25</v>
       </c>
       <c r="N104">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O104">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P104">
+        <v>1.4</v>
+      </c>
+      <c r="Q104">
         <v>1.25</v>
       </c>
-      <c r="Q104">
-        <v>1.75</v>
-      </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC104">
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9747,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832579</v>
+        <v>6832583</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9759,61 +9789,76 @@
         <v>45364.625</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M105">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N105">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P105">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R105">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
         <v>1.975</v>
       </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9838,6 +9883,15 @@
       <c r="G106" t="s">
         <v>30</v>
       </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>45</v>
+      </c>
       <c r="K106">
         <v>1.7</v>
       </c>
@@ -9848,46 +9902,52 @@
         <v>4</v>
       </c>
       <c r="N106">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB106">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC106">
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9912,6 +9972,15 @@
       <c r="G107" t="s">
         <v>35</v>
       </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107" t="s">
+        <v>45</v>
+      </c>
       <c r="K107">
         <v>1.85</v>
       </c>
@@ -9922,46 +9991,52 @@
         <v>3.6</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
         <v>3.6</v>
       </c>
       <c r="P107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB107">
+        <v>1</v>
+      </c>
+      <c r="AC107">
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -9986,6 +10061,15 @@
       <c r="G108" t="s">
         <v>39</v>
       </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>44</v>
+      </c>
       <c r="K108">
         <v>1.333</v>
       </c>
@@ -9996,46 +10080,52 @@
         <v>7.5</v>
       </c>
       <c r="N108">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P108">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
+        <v>1.9</v>
+      </c>
+      <c r="S108">
+        <v>1.9</v>
+      </c>
+      <c r="T108">
+        <v>3.5</v>
+      </c>
+      <c r="U108">
         <v>1.875</v>
       </c>
-      <c r="S108">
+      <c r="V108">
         <v>1.925</v>
       </c>
-      <c r="T108">
-        <v>3.25</v>
-      </c>
-      <c r="U108">
-        <v>1.8</v>
-      </c>
-      <c r="V108">
-        <v>2</v>
-      </c>
       <c r="W108">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10055,10 +10145,19 @@
         <v>45366.625</v>
       </c>
       <c r="F109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
         <v>31</v>
       </c>
-      <c r="G109" t="s">
-        <v>32</v>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>4</v>
+      </c>
+      <c r="J109" t="s">
+        <v>43</v>
       </c>
       <c r="K109">
         <v>5.25</v>
@@ -10070,46 +10169,52 @@
         <v>1.45</v>
       </c>
       <c r="N109">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O109">
         <v>4.333</v>
       </c>
       <c r="P109">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
         <v>3.25</v>
       </c>
       <c r="U109">
+        <v>1.825</v>
+      </c>
+      <c r="V109">
         <v>1.975</v>
       </c>
-      <c r="V109">
-        <v>1.825</v>
-      </c>
       <c r="W109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB109">
+        <v>0.825</v>
+      </c>
+      <c r="AC109">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>UAE Premier League</t>
   </si>
   <si>
+    <t>Al Ittihad Kalba</t>
+  </si>
+  <si>
     <t>Al Wahda Abu Dhabi</t>
   </si>
   <si>
-    <t>Al Ittihad Kalba</t>
+    <t>Ajman SCC</t>
   </si>
   <si>
     <t>Al Ain SCC</t>
-  </si>
-  <si>
-    <t>Ajman SCC</t>
   </si>
   <si>
     <t>Khor Fakkan</t>
@@ -130,10 +130,10 @@
     <t>Al Jazira SC</t>
   </si>
   <si>
-    <t>Hatta Dubai</t>
+    <t>Al Bataeh</t>
   </si>
   <si>
-    <t>Al Bataeh</t>
+    <t>Hatta Dubai</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC109"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6832493</v>
+        <v>6832491</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,53 +625,53 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N2">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q2">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1.8</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
+        <v>1.925</v>
+      </c>
+      <c r="V2">
         <v>1.875</v>
       </c>
-      <c r="S2">
-        <v>1.925</v>
-      </c>
-      <c r="T2">
-        <v>3.25</v>
-      </c>
-      <c r="U2">
-        <v>1.975</v>
-      </c>
-      <c r="V2">
-        <v>1.825</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
@@ -679,19 +679,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
+        <v>0.8</v>
+      </c>
+      <c r="AB2">
         <v>0.925</v>
       </c>
-      <c r="AB2">
-        <v>-0.5</v>
-      </c>
       <c r="AC2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832491</v>
+        <v>6832493</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,52 +714,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N3">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -768,19 +768,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832698</v>
+        <v>6832494</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="N4">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q4">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6832494</v>
+        <v>6832698</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M5">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="N5">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P5">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
+        <v>-1.75</v>
+      </c>
+      <c r="R5">
+        <v>1.825</v>
+      </c>
+      <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>1.8</v>
+      </c>
+      <c r="W5">
+        <v>0.25</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB5">
         <v>1</v>
       </c>
-      <c r="R5">
-        <v>1.925</v>
-      </c>
-      <c r="S5">
-        <v>1.875</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>1.9</v>
-      </c>
-      <c r="V5">
-        <v>1.9</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
-      <c r="AA5">
-        <v>0.875</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832699</v>
+        <v>6832497</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832497</v>
+        <v>6832699</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>4.333</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>1.3</v>
+      </c>
+      <c r="Q12">
+        <v>1.5</v>
+      </c>
+      <c r="R12">
+        <v>1.975</v>
+      </c>
+      <c r="S12">
+        <v>1.825</v>
+      </c>
+      <c r="T12">
         <v>3.25</v>
       </c>
-      <c r="L12">
-        <v>3.3</v>
-      </c>
-      <c r="M12">
-        <v>2.05</v>
-      </c>
-      <c r="N12">
-        <v>3.5</v>
-      </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
-      <c r="P12">
+      <c r="U12">
         <v>1.95</v>
       </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.8</v>
-      </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,55 +1868,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N16">
         <v>3.8</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1925,19 +1925,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
         <v>3.6</v>
       </c>
-      <c r="L17">
-        <v>3.8</v>
-      </c>
       <c r="M17">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N17">
         <v>3.8</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2014,19 +2014,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832503</v>
+        <v>6832501</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,76 +2046,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q18">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832501</v>
+        <v>6832503</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2313,10 +2313,10 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>45197.43055555555</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2583,7 +2583,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>1.666</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>1.8</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>3.5</v>
+      </c>
+      <c r="Q25">
+        <v>-0.5</v>
+      </c>
+      <c r="R25">
+        <v>1.825</v>
+      </c>
+      <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>3.25</v>
+      </c>
+      <c r="U25">
+        <v>1.925</v>
+      </c>
+      <c r="V25">
+        <v>1.875</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25">
-        <v>2.4</v>
-      </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>2.55</v>
-      </c>
-      <c r="N25">
-        <v>2.875</v>
-      </c>
-      <c r="O25">
-        <v>3.6</v>
-      </c>
-      <c r="P25">
-        <v>2.15</v>
-      </c>
-      <c r="Q25">
-        <v>0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.85</v>
-      </c>
-      <c r="S25">
-        <v>1.95</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.9</v>
-      </c>
-      <c r="V25">
-        <v>1.9</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
       <c r="Y25">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2939,7 +2939,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6832514</v>
+        <v>6832519</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,13 +3114,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3129,43 +3129,43 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
+        <v>1.775</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.825</v>
+      </c>
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="S30">
-        <v>1.825</v>
-      </c>
-      <c r="T30">
-        <v>3.25</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>1.825</v>
-      </c>
       <c r="W30">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832519</v>
+        <v>6832514</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,13 +3203,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
         <v>39</v>
       </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3218,43 +3218,43 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
+        <v>1.975</v>
+      </c>
+      <c r="V31">
         <v>1.825</v>
       </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>45226.40625</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3826,10 +3826,10 @@
         <v>45226.40625</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3915,10 +3915,10 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
         <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,58 +4093,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N41">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O41">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P41">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q41">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4153,13 +4153,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,58 +4182,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="K42">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L42">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M42">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O42">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P42">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q42">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4242,13 +4242,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
+        <v>0.4625</v>
+      </c>
+      <c r="AB42">
         <v>0.95</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4452,7 +4452,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6832531</v>
+        <v>6833137</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N46">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q46">
         <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4595,19 +4595,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6833137</v>
+        <v>6832531</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,49 +4627,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N47">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4684,19 +4684,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -4894,10 +4894,10 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>45253.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5072,7 +5072,7 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5161,7 +5161,7 @@
         <v>45255.40625</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>36</v>
@@ -5339,7 +5339,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5431,7 +5431,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5520,7 +5520,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832543</v>
+        <v>6832542</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58">
+        <v>1.8</v>
+      </c>
+      <c r="L58">
+        <v>3.7</v>
+      </c>
+      <c r="M58">
+        <v>3.75</v>
+      </c>
+      <c r="N58">
+        <v>1.8</v>
+      </c>
+      <c r="O58">
         <v>4</v>
       </c>
-      <c r="J58" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58">
+      <c r="P58">
+        <v>3.5</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>1.95</v>
+      </c>
+      <c r="T58">
         <v>3</v>
       </c>
-      <c r="L58">
-        <v>3.5</v>
-      </c>
-      <c r="M58">
-        <v>2.1</v>
-      </c>
-      <c r="N58">
-        <v>3.75</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
-      <c r="P58">
-        <v>1.75</v>
-      </c>
-      <c r="Q58">
-        <v>0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.975</v>
-      </c>
-      <c r="S58">
-        <v>1.825</v>
-      </c>
-      <c r="T58">
-        <v>3.25</v>
-      </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832542</v>
+        <v>6832543</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>3.5</v>
+      </c>
+      <c r="M59">
+        <v>2.1</v>
+      </c>
+      <c r="N59">
+        <v>3.75</v>
+      </c>
+      <c r="O59">
+        <v>3.8</v>
+      </c>
+      <c r="P59">
+        <v>1.75</v>
+      </c>
+      <c r="Q59">
+        <v>0.5</v>
+      </c>
+      <c r="R59">
+        <v>1.975</v>
+      </c>
+      <c r="S59">
+        <v>1.825</v>
+      </c>
+      <c r="T59">
+        <v>3.25</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>1.8</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>0.75</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>0.825</v>
+      </c>
+      <c r="AB59">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>45</v>
-      </c>
-      <c r="K59">
-        <v>1.8</v>
-      </c>
-      <c r="L59">
-        <v>3.7</v>
-      </c>
-      <c r="M59">
-        <v>3.75</v>
-      </c>
-      <c r="N59">
-        <v>1.8</v>
-      </c>
-      <c r="O59">
-        <v>4</v>
-      </c>
-      <c r="P59">
-        <v>3.5</v>
-      </c>
-      <c r="Q59">
-        <v>-0.5</v>
-      </c>
-      <c r="R59">
-        <v>1.85</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>1.875</v>
-      </c>
-      <c r="V59">
-        <v>1.925</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>3</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>0.95</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>5</v>
-      </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L63">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N63">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.85</v>
-      </c>
-      <c r="T63">
-        <v>3.75</v>
-      </c>
-      <c r="U63">
-        <v>1.95</v>
-      </c>
-      <c r="V63">
-        <v>1.85</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M64">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N64">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U64">
+        <v>1.95</v>
+      </c>
+      <c r="V64">
         <v>1.85</v>
       </c>
-      <c r="V64">
-        <v>1.95</v>
-      </c>
       <c r="W64">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB64">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,73 +6229,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>1.222</v>
+        <v>2.875</v>
       </c>
       <c r="L65">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N65">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O65">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q65">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R65">
+        <v>2.025</v>
+      </c>
+      <c r="S65">
+        <v>1.775</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
         <v>1.95</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.85</v>
       </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-0</v>
+      </c>
+      <c r="AB65">
         <v>0.95</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.875</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N66">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P66">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832549</v>
+        <v>6832547</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P67">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q67">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832547</v>
+        <v>6832549</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>45269.40625</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O68">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6585,10 +6585,10 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,49 +6674,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L70">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O70">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y70">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N71">
+        <v>4.75</v>
+      </c>
+      <c r="O71">
+        <v>4.5</v>
+      </c>
+      <c r="P71">
+        <v>1.533</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
         <v>4</v>
-      </c>
-      <c r="O71">
-        <v>3.75</v>
-      </c>
-      <c r="P71">
-        <v>1.727</v>
-      </c>
-      <c r="Q71">
-        <v>0.75</v>
-      </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>3</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832554</v>
+        <v>6832553</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M74">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P74">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832553</v>
+        <v>6832554</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,76 +7119,76 @@
         <v>45276.40625</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75">
+        <v>3.4</v>
+      </c>
+      <c r="L75">
+        <v>3.75</v>
+      </c>
+      <c r="M75">
+        <v>1.85</v>
+      </c>
+      <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
+        <v>3.6</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <v>0.25</v>
+      </c>
+      <c r="R75">
+        <v>2.025</v>
+      </c>
+      <c r="S75">
+        <v>1.775</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>1.8</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>1</v>
       </c>
-      <c r="J75" t="s">
-        <v>44</v>
-      </c>
-      <c r="K75">
-        <v>1.5</v>
-      </c>
-      <c r="L75">
-        <v>4.333</v>
-      </c>
-      <c r="M75">
-        <v>5.25</v>
-      </c>
-      <c r="N75">
-        <v>1.444</v>
-      </c>
-      <c r="O75">
-        <v>4.5</v>
-      </c>
-      <c r="P75">
-        <v>5.5</v>
-      </c>
-      <c r="Q75">
-        <v>-1.25</v>
-      </c>
-      <c r="R75">
-        <v>1.9</v>
-      </c>
-      <c r="S75">
-        <v>1.9</v>
-      </c>
-      <c r="T75">
-        <v>3.5</v>
-      </c>
-      <c r="U75">
-        <v>1.975</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
-      <c r="W75">
-        <v>0.444</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,10 +7208,10 @@
         <v>45276.52083333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>45280.40625</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7490,25 +7490,25 @@
         <v>44</v>
       </c>
       <c r="K79">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>1.222</v>
+      </c>
+      <c r="O79">
         <v>6</v>
       </c>
-      <c r="N79">
-        <v>1.333</v>
-      </c>
-      <c r="O79">
-        <v>5</v>
-      </c>
       <c r="P79">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R79">
         <v>1.9</v>
@@ -7517,16 +7517,16 @@
         <v>1.9</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7579,25 +7579,25 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L80">
+        <v>4.75</v>
+      </c>
+      <c r="M80">
         <v>6</v>
       </c>
-      <c r="M80">
-        <v>10</v>
-      </c>
       <c r="N80">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P80">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q80">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R80">
         <v>1.9</v>
@@ -7606,16 +7606,16 @@
         <v>1.9</v>
       </c>
       <c r="T80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7745,7 +7745,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7831,10 +7831,10 @@
         <v>45284.40625</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832557</v>
+        <v>6832555</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,76 +7920,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M84">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
         <v>1.925</v>
-      </c>
-      <c r="S84">
-        <v>1.875</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.875</v>
       </c>
-      <c r="AB84">
-        <v>-0.5</v>
-      </c>
       <c r="AC84">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832555</v>
+        <v>6832557</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,76 +8009,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="L85">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N85">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
         <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.875</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>45335.43402777778</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8187,7 +8187,7 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>33</v>
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6832568</v>
+        <v>6832569</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,10 +8365,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8380,41 +8380,41 @@
         <v>43</v>
       </c>
       <c r="K89">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M89">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="P89">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R89">
+        <v>1.8</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
         <v>1.95</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.8</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
@@ -8422,19 +8422,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.05</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832569</v>
+        <v>6832568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,10 +8454,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8469,40 +8469,40 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="L90">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="N90">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q90">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
+        <v>1.85</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
         <v>1.8</v>
       </c>
-      <c r="S90">
-        <v>2</v>
-      </c>
-      <c r="T90">
-        <v>4</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8511,19 +8511,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832566</v>
+        <v>6832567</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,76 +8543,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M91">
         <v>4.333</v>
       </c>
       <c r="N91">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832567</v>
+        <v>6832566</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,76 +8632,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
         <v>4.333</v>
       </c>
       <c r="N92">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
+        <v>2.025</v>
+      </c>
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>1.825</v>
-      </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8709,7 +8709,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6832565</v>
+        <v>6832570</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8721,49 +8721,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>43</v>
+      </c>
+      <c r="K93">
+        <v>4.75</v>
+      </c>
+      <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>1.55</v>
+      </c>
+      <c r="N93">
+        <v>4.5</v>
+      </c>
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>1.6</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1.775</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
         <v>3</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>44</v>
-      </c>
-      <c r="K93">
-        <v>1.3</v>
-      </c>
-      <c r="L93">
-        <v>5.75</v>
-      </c>
-      <c r="M93">
-        <v>6.5</v>
-      </c>
-      <c r="N93">
-        <v>1.45</v>
-      </c>
-      <c r="O93">
-        <v>4.75</v>
-      </c>
-      <c r="P93">
-        <v>5</v>
-      </c>
-      <c r="Q93">
-        <v>-1.25</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
-      <c r="S93">
-        <v>1.825</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
       </c>
       <c r="U93">
         <v>2</v>
@@ -8772,25 +8772,25 @@
         <v>1.8</v>
       </c>
       <c r="W93">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832570</v>
+        <v>6832565</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8810,49 +8810,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
+        <v>1.3</v>
+      </c>
+      <c r="L94">
+        <v>5.75</v>
+      </c>
+      <c r="M94">
+        <v>6.5</v>
+      </c>
+      <c r="N94">
+        <v>1.45</v>
+      </c>
+      <c r="O94">
         <v>4.75</v>
       </c>
-      <c r="L94">
-        <v>4.2</v>
-      </c>
-      <c r="M94">
-        <v>1.55</v>
-      </c>
-      <c r="N94">
-        <v>4.5</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
       <c r="P94">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8861,25 +8861,25 @@
         <v>1.8</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>45351.44097222222</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>5</v>
@@ -9077,10 +9077,10 @@
         <v>45351.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9255,7 +9255,7 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>36</v>
@@ -9522,7 +9522,7 @@
         <v>45353.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832579</v>
+        <v>6832583</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,49 +9611,49 @@
         <v>45364.625</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103">
+        <v>5.25</v>
+      </c>
+      <c r="L103">
+        <v>5.25</v>
+      </c>
+      <c r="M103">
+        <v>1.4</v>
+      </c>
+      <c r="N103">
+        <v>4.75</v>
+      </c>
+      <c r="O103">
+        <v>4.75</v>
+      </c>
+      <c r="P103">
+        <v>1.5</v>
+      </c>
+      <c r="Q103">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>44</v>
-      </c>
-      <c r="K103">
-        <v>2.6</v>
-      </c>
-      <c r="L103">
-        <v>3.6</v>
-      </c>
-      <c r="M103">
-        <v>2.3</v>
-      </c>
-      <c r="N103">
-        <v>2.625</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>2.25</v>
-      </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
         <v>1.825</v>
@@ -9662,25 +9662,25 @@
         <v>1.975</v>
       </c>
       <c r="W103">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,10 +9700,10 @@
         <v>45364.625</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832583</v>
+        <v>6832579</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,49 +9789,49 @@
         <v>45364.625</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="L105">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
         <v>1.825</v>
@@ -9840,25 +9840,25 @@
         <v>1.975</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6832582</v>
+        <v>6832577</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,61 +9878,61 @@
         <v>45365.625</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K106">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P106">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
         <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
@@ -9941,13 +9941,13 @@
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6832578</v>
+        <v>6832582</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,10 +9967,10 @@
         <v>45365.625</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9982,46 +9982,46 @@
         <v>45</v>
       </c>
       <c r="K107">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N107">
         <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10030,10 +10030,10 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6832577</v>
+        <v>6832578</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45365.625</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>45</v>
+      </c>
+      <c r="K108">
+        <v>1.85</v>
+      </c>
+      <c r="L108">
+        <v>3.6</v>
+      </c>
+      <c r="M108">
+        <v>3.6</v>
+      </c>
+      <c r="N108">
+        <v>1.8</v>
+      </c>
+      <c r="O108">
+        <v>3.6</v>
+      </c>
+      <c r="P108">
+        <v>4</v>
+      </c>
+      <c r="Q108">
+        <v>-0.75</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>1.8</v>
+      </c>
+      <c r="T108">
+        <v>2.75</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
+        <v>1.8</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>2.6</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>0.8</v>
+      </c>
+      <c r="AB108">
         <v>1</v>
       </c>
-      <c r="J108" t="s">
-        <v>44</v>
-      </c>
-      <c r="K108">
-        <v>1.333</v>
-      </c>
-      <c r="L108">
-        <v>5</v>
-      </c>
-      <c r="M108">
-        <v>7.5</v>
-      </c>
-      <c r="N108">
-        <v>1.25</v>
-      </c>
-      <c r="O108">
-        <v>5.5</v>
-      </c>
-      <c r="P108">
-        <v>8.5</v>
-      </c>
-      <c r="Q108">
-        <v>-1.75</v>
-      </c>
-      <c r="R108">
-        <v>1.9</v>
-      </c>
-      <c r="S108">
-        <v>1.9</v>
-      </c>
-      <c r="T108">
-        <v>3.5</v>
-      </c>
-      <c r="U108">
-        <v>1.875</v>
-      </c>
-      <c r="V108">
-        <v>1.925</v>
-      </c>
-      <c r="W108">
-        <v>0.25</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>-1</v>
-      </c>
-      <c r="Z108">
-        <v>-1</v>
-      </c>
-      <c r="AA108">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
       <c r="AC108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,10 +10145,10 @@
         <v>45366.625</v>
       </c>
       <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
         <v>32</v>
-      </c>
-      <c r="G109" t="s">
-        <v>31</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10215,6 +10215,524 @@
       </c>
       <c r="AC109">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>6832584</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45379.625</v>
+      </c>
+      <c r="F110" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110">
+        <v>1.363</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+      <c r="M110">
+        <v>6</v>
+      </c>
+      <c r="N110">
+        <v>1.363</v>
+      </c>
+      <c r="O110">
+        <v>5</v>
+      </c>
+      <c r="P110">
+        <v>6.5</v>
+      </c>
+      <c r="Q110">
+        <v>-1.5</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>1.85</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>1.975</v>
+      </c>
+      <c r="V110">
+        <v>1.825</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>6832714</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45379.625</v>
+      </c>
+      <c r="F111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111">
+        <v>3.4</v>
+      </c>
+      <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>1.909</v>
+      </c>
+      <c r="N111">
+        <v>3.3</v>
+      </c>
+      <c r="O111">
+        <v>3.6</v>
+      </c>
+      <c r="P111">
+        <v>1.95</v>
+      </c>
+      <c r="Q111">
+        <v>0.5</v>
+      </c>
+      <c r="R111">
+        <v>1.85</v>
+      </c>
+      <c r="S111">
+        <v>1.95</v>
+      </c>
+      <c r="T111">
+        <v>3</v>
+      </c>
+      <c r="U111">
+        <v>1.825</v>
+      </c>
+      <c r="V111">
+        <v>1.975</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>6832587</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45380.625</v>
+      </c>
+      <c r="F112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112">
+        <v>1.85</v>
+      </c>
+      <c r="L112">
+        <v>3.75</v>
+      </c>
+      <c r="M112">
+        <v>3.5</v>
+      </c>
+      <c r="N112">
+        <v>1.8</v>
+      </c>
+      <c r="O112">
+        <v>3.8</v>
+      </c>
+      <c r="P112">
+        <v>3.6</v>
+      </c>
+      <c r="Q112">
+        <v>-0.5</v>
+      </c>
+      <c r="R112">
+        <v>1.825</v>
+      </c>
+      <c r="S112">
+        <v>1.975</v>
+      </c>
+      <c r="T112">
+        <v>3.25</v>
+      </c>
+      <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
+        <v>1.8</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>6832586</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45380.625</v>
+      </c>
+      <c r="F113" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s">
+        <v>41</v>
+      </c>
+      <c r="K113">
+        <v>2.6</v>
+      </c>
+      <c r="L113">
+        <v>3.5</v>
+      </c>
+      <c r="M113">
+        <v>2.375</v>
+      </c>
+      <c r="N113">
+        <v>2.5</v>
+      </c>
+      <c r="O113">
+        <v>3.5</v>
+      </c>
+      <c r="P113">
+        <v>2.5</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.875</v>
+      </c>
+      <c r="T113">
+        <v>3</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
+        <v>1.95</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>6832585</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F114" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>3.6</v>
+      </c>
+      <c r="M114">
+        <v>3.2</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>3.6</v>
+      </c>
+      <c r="P114">
+        <v>3.2</v>
+      </c>
+      <c r="Q114">
+        <v>-0.5</v>
+      </c>
+      <c r="R114">
+        <v>1.975</v>
+      </c>
+      <c r="S114">
+        <v>1.825</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
+        <v>1.85</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>6832588</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="K115">
+        <v>1.25</v>
+      </c>
+      <c r="L115">
+        <v>6</v>
+      </c>
+      <c r="M115">
+        <v>8</v>
+      </c>
+      <c r="N115">
+        <v>1.25</v>
+      </c>
+      <c r="O115">
+        <v>6</v>
+      </c>
+      <c r="P115">
+        <v>8</v>
+      </c>
+      <c r="Q115">
+        <v>-1.75</v>
+      </c>
+      <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>3.5</v>
+      </c>
+      <c r="U115">
+        <v>1.8</v>
+      </c>
+      <c r="V115">
+        <v>2</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>6832715</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F116" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116">
+        <v>4.333</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>1.615</v>
+      </c>
+      <c r="N116">
+        <v>4.333</v>
+      </c>
+      <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
+        <v>1.615</v>
+      </c>
+      <c r="Q116">
+        <v>0.75</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>3.5</v>
+      </c>
+      <c r="U116">
+        <v>1.925</v>
+      </c>
+      <c r="V116">
+        <v>1.875</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832505</v>
+        <v>6832506</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P20">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="Q20">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832506</v>
+        <v>6832505</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
       <c r="M21">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="N21">
+        <v>5.75</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>1.444</v>
+      </c>
+      <c r="Q21">
         <v>1.25</v>
       </c>
-      <c r="O21">
-        <v>5.5</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="Q21">
-        <v>-1.75</v>
-      </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>1.666</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.8</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>3.5</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.25</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>2.4</v>
-      </c>
-      <c r="L26">
-        <v>3.5</v>
-      </c>
-      <c r="M26">
-        <v>2.55</v>
-      </c>
-      <c r="N26">
-        <v>2.875</v>
-      </c>
-      <c r="O26">
-        <v>3.6</v>
-      </c>
-      <c r="P26">
-        <v>2.15</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.85</v>
-      </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.9</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6832519</v>
+        <v>6832514</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,13 +3114,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3129,43 +3129,43 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="V30">
-        <v>1.975</v>
-      </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832514</v>
+        <v>6832519</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,13 +3203,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3218,43 +3218,43 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
+        <v>1.775</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>3.25</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
-      <c r="V31">
-        <v>1.825</v>
-      </c>
       <c r="W31">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L39">
+        <v>4.75</v>
+      </c>
+      <c r="M39">
+        <v>5.25</v>
+      </c>
+      <c r="N39">
+        <v>1.4</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>5.5</v>
+      </c>
+      <c r="Q39">
+        <v>-1.25</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
+        <v>1.925</v>
+      </c>
+      <c r="V39">
+        <v>1.875</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>4.2</v>
-      </c>
-      <c r="N39">
-        <v>1.666</v>
-      </c>
-      <c r="O39">
-        <v>4</v>
-      </c>
-      <c r="P39">
-        <v>4.2</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.85</v>
-      </c>
-      <c r="S39">
-        <v>1.95</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.775</v>
-      </c>
-      <c r="V39">
-        <v>2.025</v>
-      </c>
-      <c r="W39">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40">
+        <v>1.666</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>4.2</v>
+      </c>
+      <c r="N40">
+        <v>1.666</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>4.2</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
+        <v>1.95</v>
+      </c>
+      <c r="T40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>45</v>
-      </c>
-      <c r="K40">
-        <v>1.45</v>
-      </c>
-      <c r="L40">
-        <v>4.75</v>
-      </c>
-      <c r="M40">
-        <v>5.25</v>
-      </c>
-      <c r="N40">
-        <v>1.4</v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>5.5</v>
-      </c>
-      <c r="Q40">
-        <v>-1.25</v>
-      </c>
-      <c r="R40">
-        <v>1.9</v>
-      </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
-      </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,58 +4093,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L41">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M41">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N41">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O41">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P41">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q41">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4153,13 +4153,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-0.5</v>
+      </c>
+      <c r="AA41">
+        <v>0.4625</v>
+      </c>
+      <c r="AB41">
         <v>0.95</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,58 +4182,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="K42">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N42">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q42">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4242,13 +4242,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6833137</v>
+        <v>6832531</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46">
         <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4595,19 +4595,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6832531</v>
+        <v>6833137</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,49 +4627,49 @@
         <v>45233.40625</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4684,19 +4684,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M63">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N63">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P63">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U63">
+        <v>1.95</v>
+      </c>
+      <c r="V63">
         <v>1.85</v>
       </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L64">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N64">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q64">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>1.95</v>
       </c>
-      <c r="S64">
-        <v>1.85</v>
-      </c>
-      <c r="T64">
-        <v>3.75</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,73 +6229,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M65">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N65">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P65">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66">
+        <v>2.875</v>
+      </c>
+      <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>2.3</v>
+      </c>
+      <c r="N66">
+        <v>2.625</v>
+      </c>
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
+        <v>2.45</v>
+      </c>
+      <c r="Q66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>44</v>
-      </c>
-      <c r="K66">
-        <v>1.222</v>
-      </c>
-      <c r="L66">
-        <v>6</v>
-      </c>
-      <c r="M66">
-        <v>8</v>
-      </c>
-      <c r="N66">
-        <v>1.25</v>
-      </c>
-      <c r="O66">
-        <v>6</v>
-      </c>
-      <c r="P66">
-        <v>6.5</v>
-      </c>
-      <c r="Q66">
-        <v>-1.75</v>
-      </c>
       <c r="R66">
+        <v>2.025</v>
+      </c>
+      <c r="S66">
+        <v>1.775</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
         <v>1.95</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.85</v>
       </c>
-      <c r="T66">
-        <v>3.5</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.925</v>
-      </c>
       <c r="W66">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-0</v>
+      </c>
+      <c r="AB66">
         <v>0.95</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.875</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,49 +6674,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M70">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N70">
+        <v>4.75</v>
+      </c>
+      <c r="O70">
+        <v>4.5</v>
+      </c>
+      <c r="P70">
+        <v>1.533</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
         <v>4</v>
-      </c>
-      <c r="O70">
-        <v>3.75</v>
-      </c>
-      <c r="P70">
-        <v>1.727</v>
-      </c>
-      <c r="Q70">
-        <v>0.75</v>
-      </c>
-      <c r="R70">
-        <v>1.825</v>
-      </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
-      <c r="T70">
-        <v>3</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N71">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O71">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y71">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6832551</v>
+        <v>6832552</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,76 +6852,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
+        <v>1.3</v>
+      </c>
+      <c r="L72">
         <v>5.25</v>
       </c>
-      <c r="L72">
-        <v>4.75</v>
-      </c>
       <c r="M72">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q72">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>1.95</v>
       </c>
       <c r="T72">
         <v>3.5</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6832552</v>
+        <v>6832551</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L73">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M73">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="N73">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O73">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q73">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
       </c>
       <c r="T73">
         <v>3.5</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,49 +7742,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>1.333</v>
+      </c>
+      <c r="N82">
+        <v>8</v>
+      </c>
+      <c r="O82">
         <v>5.5</v>
       </c>
-      <c r="M82">
-        <v>9</v>
-      </c>
-      <c r="N82">
-        <v>1.5</v>
-      </c>
-      <c r="O82">
-        <v>4.5</v>
-      </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U82">
         <v>1.925</v>
@@ -7796,22 +7796,22 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,49 +7831,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M83">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N83">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O83">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q83">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U83">
         <v>1.925</v>
@@ -7885,22 +7885,22 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y83">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832567</v>
+        <v>6832566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,76 +8543,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L91">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
         <v>4.333</v>
       </c>
       <c r="N91">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
+        <v>2.025</v>
+      </c>
+      <c r="T91">
+        <v>3.25</v>
+      </c>
+      <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>1.825</v>
-      </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832566</v>
+        <v>6832567</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,76 +8632,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M92">
         <v>4.333</v>
       </c>
       <c r="N92">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>1.8</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
+        <v>1.975</v>
+      </c>
+      <c r="W92">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
         <v>0</v>
       </c>
-      <c r="R92">
-        <v>1.775</v>
-      </c>
-      <c r="S92">
-        <v>2.025</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
-      <c r="V92">
-        <v>1.8</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>1.55</v>
-      </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8709,7 +8709,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6832570</v>
+        <v>6832565</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8721,49 +8721,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93">
+        <v>1.3</v>
+      </c>
+      <c r="L93">
+        <v>5.75</v>
+      </c>
+      <c r="M93">
+        <v>6.5</v>
+      </c>
+      <c r="N93">
+        <v>1.45</v>
+      </c>
+      <c r="O93">
         <v>4.75</v>
       </c>
-      <c r="L93">
-        <v>4.2</v>
-      </c>
-      <c r="M93">
-        <v>1.55</v>
-      </c>
-      <c r="N93">
-        <v>4.5</v>
-      </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
       <c r="P93">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>2</v>
@@ -8772,25 +8772,25 @@
         <v>1.8</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832565</v>
+        <v>6832570</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8810,49 +8810,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94">
+        <v>4.75</v>
+      </c>
+      <c r="L94">
+        <v>4.2</v>
+      </c>
+      <c r="M94">
+        <v>1.55</v>
+      </c>
+      <c r="N94">
+        <v>4.5</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>1.6</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1.775</v>
+      </c>
+      <c r="S94">
+        <v>2.025</v>
+      </c>
+      <c r="T94">
         <v>3</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>44</v>
-      </c>
-      <c r="K94">
-        <v>1.3</v>
-      </c>
-      <c r="L94">
-        <v>5.75</v>
-      </c>
-      <c r="M94">
-        <v>6.5</v>
-      </c>
-      <c r="N94">
-        <v>1.45</v>
-      </c>
-      <c r="O94">
-        <v>4.75</v>
-      </c>
-      <c r="P94">
-        <v>5</v>
-      </c>
-      <c r="Q94">
-        <v>-1.25</v>
-      </c>
-      <c r="R94">
-        <v>1.975</v>
-      </c>
-      <c r="S94">
-        <v>1.825</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8861,25 +8861,25 @@
         <v>1.8</v>
       </c>
       <c r="W94">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832583</v>
+        <v>6832579</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,49 +9611,49 @@
         <v>45364.625</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="L103">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
         <v>1.825</v>
@@ -9662,25 +9662,25 @@
         <v>1.975</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832580</v>
+        <v>6832583</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,40 +9700,40 @@
         <v>45364.625</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>43</v>
       </c>
       <c r="K104">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="L104">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="M104">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="N104">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O104">
         <v>4.75</v>
       </c>
       <c r="P104">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q104">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R104">
         <v>1.975</v>
@@ -9742,14 +9742,14 @@
         <v>1.825</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
         <v>1.975</v>
       </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z104">
         <v>-1</v>
@@ -9766,10 +9766,10 @@
         <v>0.825</v>
       </c>
       <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832579</v>
+        <v>6832580</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,76 +9789,76 @@
         <v>45364.625</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M105">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N105">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P105">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R105">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T105">
         <v>3.25</v>
       </c>
       <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="V105">
-        <v>1.975</v>
-      </c>
       <c r="W105">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z105">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6832577</v>
+        <v>6832578</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,76 +9878,76 @@
         <v>45365.625</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>45</v>
+      </c>
+      <c r="K106">
+        <v>1.85</v>
+      </c>
+      <c r="L106">
+        <v>3.6</v>
+      </c>
+      <c r="M106">
+        <v>3.6</v>
+      </c>
+      <c r="N106">
+        <v>1.8</v>
+      </c>
+      <c r="O106">
+        <v>3.6</v>
+      </c>
+      <c r="P106">
+        <v>4</v>
+      </c>
+      <c r="Q106">
+        <v>-0.75</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>1.8</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
+        <v>2</v>
+      </c>
+      <c r="V106">
+        <v>1.8</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>2.6</v>
+      </c>
+      <c r="Y106">
+        <v>-1</v>
+      </c>
+      <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>0.8</v>
+      </c>
+      <c r="AB106">
         <v>1</v>
       </c>
-      <c r="J106" t="s">
-        <v>44</v>
-      </c>
-      <c r="K106">
-        <v>1.333</v>
-      </c>
-      <c r="L106">
-        <v>5</v>
-      </c>
-      <c r="M106">
-        <v>7.5</v>
-      </c>
-      <c r="N106">
-        <v>1.25</v>
-      </c>
-      <c r="O106">
-        <v>5.5</v>
-      </c>
-      <c r="P106">
-        <v>8.5</v>
-      </c>
-      <c r="Q106">
-        <v>-1.75</v>
-      </c>
-      <c r="R106">
-        <v>1.9</v>
-      </c>
-      <c r="S106">
-        <v>1.9</v>
-      </c>
-      <c r="T106">
-        <v>3.5</v>
-      </c>
-      <c r="U106">
-        <v>1.875</v>
-      </c>
-      <c r="V106">
-        <v>1.925</v>
-      </c>
-      <c r="W106">
-        <v>0.25</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>-1</v>
-      </c>
-      <c r="Z106">
-        <v>-1</v>
-      </c>
-      <c r="AA106">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6832582</v>
+        <v>6832577</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,61 +9967,61 @@
         <v>45365.625</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
         <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10030,13 +10030,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6832578</v>
+        <v>6832582</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,10 +10056,10 @@
         <v>45365.625</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10071,46 +10071,46 @@
         <v>45</v>
       </c>
       <c r="K108">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N108">
         <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10119,10 +10119,10 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10239,6 +10239,15 @@
       <c r="G110" t="s">
         <v>39</v>
       </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>44</v>
+      </c>
       <c r="K110">
         <v>1.363</v>
       </c>
@@ -10249,46 +10258,52 @@
         <v>6</v>
       </c>
       <c r="N110">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P110">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q110">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R110">
+        <v>1.85</v>
+      </c>
+      <c r="S110">
         <v>1.95</v>
-      </c>
-      <c r="S110">
-        <v>1.85</v>
       </c>
       <c r="T110">
         <v>3.25</v>
       </c>
       <c r="U110">
+        <v>1.825</v>
+      </c>
+      <c r="V110">
         <v>1.975</v>
       </c>
-      <c r="V110">
-        <v>1.825</v>
-      </c>
       <c r="W110">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10313,6 +10328,15 @@
       <c r="G111" t="s">
         <v>40</v>
       </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
       <c r="K111">
         <v>3.4</v>
       </c>
@@ -10326,10 +10350,10 @@
         <v>3.3</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="Q111">
         <v>0.5</v>
@@ -10341,28 +10365,34 @@
         <v>1.95</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB111">
+        <v>-0.5</v>
+      </c>
+      <c r="AC111">
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10370,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6832587</v>
+        <v>6832586</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10382,46 +10412,46 @@
         <v>45380.625</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K112">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L112">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N112">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
+        <v>1.775</v>
+      </c>
+      <c r="S112">
+        <v>2.025</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
         <v>1.825</v>
       </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.975</v>
-      </c>
-      <c r="T112">
-        <v>3.25</v>
-      </c>
-      <c r="U112">
-        <v>2</v>
-      </c>
-      <c r="V112">
-        <v>1.8</v>
       </c>
       <c r="W112">
         <v>0</v>
@@ -10444,7 +10474,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6832586</v>
+        <v>6832587</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10456,31 +10486,31 @@
         <v>45380.625</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K113">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L113">
+        <v>3.75</v>
+      </c>
+      <c r="M113">
         <v>3.5</v>
       </c>
-      <c r="M113">
-        <v>2.375</v>
-      </c>
       <c r="N113">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O113">
+        <v>3.75</v>
+      </c>
+      <c r="P113">
         <v>3.5</v>
       </c>
-      <c r="P113">
-        <v>2.5</v>
-      </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
         <v>1.925</v>
@@ -10492,10 +10522,10 @@
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
         <v>0</v>
@@ -10619,25 +10649,25 @@
         <v>8</v>
       </c>
       <c r="N115">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="O115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P115">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Q115">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U115">
         <v>1.8</v>
@@ -10693,31 +10723,31 @@
         <v>1.615</v>
       </c>
       <c r="N116">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>3.5</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
         <v>0</v>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,55 +1868,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
+        <v>3.75</v>
+      </c>
+      <c r="L16">
         <v>3.6</v>
       </c>
-      <c r="L16">
-        <v>3.8</v>
-      </c>
       <c r="M16">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N16">
         <v>3.8</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1925,19 +1925,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N17">
         <v>3.8</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2014,19 +2014,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832501</v>
+        <v>6832503</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,76 +2046,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P18">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832503</v>
+        <v>6832501</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>1.666</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>1.8</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>3.5</v>
+      </c>
+      <c r="Q25">
+        <v>-0.5</v>
+      </c>
+      <c r="R25">
+        <v>1.825</v>
+      </c>
+      <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>3.25</v>
+      </c>
+      <c r="U25">
+        <v>1.925</v>
+      </c>
+      <c r="V25">
+        <v>1.875</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25">
-        <v>2.4</v>
-      </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>2.55</v>
-      </c>
-      <c r="N25">
-        <v>2.875</v>
-      </c>
-      <c r="O25">
-        <v>3.6</v>
-      </c>
-      <c r="P25">
-        <v>2.15</v>
-      </c>
-      <c r="Q25">
-        <v>0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.85</v>
-      </c>
-      <c r="S25">
-        <v>1.95</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.9</v>
-      </c>
-      <c r="V25">
-        <v>1.9</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
       <c r="Y25">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>1.666</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>4.2</v>
+      </c>
+      <c r="N39">
+        <v>1.666</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>4.2</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
+        <v>1.95</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39">
-        <v>1.45</v>
-      </c>
-      <c r="L39">
-        <v>4.75</v>
-      </c>
-      <c r="M39">
-        <v>5.25</v>
-      </c>
-      <c r="N39">
-        <v>1.4</v>
-      </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <v>5.5</v>
-      </c>
-      <c r="Q39">
-        <v>-1.25</v>
-      </c>
-      <c r="R39">
-        <v>1.9</v>
-      </c>
-      <c r="S39">
-        <v>1.9</v>
-      </c>
-      <c r="T39">
-        <v>3.25</v>
-      </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X39">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L40">
+        <v>4.75</v>
+      </c>
+      <c r="M40">
+        <v>5.25</v>
+      </c>
+      <c r="N40">
+        <v>1.4</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>5.5</v>
+      </c>
+      <c r="Q40">
+        <v>-1.25</v>
+      </c>
+      <c r="R40">
+        <v>1.9</v>
+      </c>
+      <c r="S40">
+        <v>1.9</v>
+      </c>
+      <c r="T40">
+        <v>3.25</v>
+      </c>
+      <c r="U40">
+        <v>1.925</v>
+      </c>
+      <c r="V40">
+        <v>1.875</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>4</v>
       </c>
-      <c r="M40">
-        <v>4.2</v>
-      </c>
-      <c r="N40">
-        <v>1.666</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>4.2</v>
-      </c>
-      <c r="Q40">
-        <v>-0.75</v>
-      </c>
-      <c r="R40">
-        <v>1.85</v>
-      </c>
-      <c r="S40">
-        <v>1.95</v>
-      </c>
-      <c r="T40">
-        <v>3</v>
-      </c>
-      <c r="U40">
-        <v>1.775</v>
-      </c>
-      <c r="V40">
-        <v>2.025</v>
-      </c>
-      <c r="W40">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7499792</v>
+        <v>6832537</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M52">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P52">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q52">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA52">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6832537</v>
+        <v>7499792</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5161,76 +5161,76 @@
         <v>45255.40625</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L53">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M53">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N53">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O53">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q53">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z53">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832542</v>
+        <v>6832543</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>3.5</v>
+      </c>
+      <c r="M58">
+        <v>2.1</v>
+      </c>
+      <c r="N58">
+        <v>3.75</v>
+      </c>
+      <c r="O58">
+        <v>3.8</v>
+      </c>
+      <c r="P58">
+        <v>1.75</v>
+      </c>
+      <c r="Q58">
+        <v>0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.975</v>
+      </c>
+      <c r="S58">
+        <v>1.825</v>
+      </c>
+      <c r="T58">
+        <v>3.25</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>1.8</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>0.75</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
+        <v>0.825</v>
+      </c>
+      <c r="AB58">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>45</v>
-      </c>
-      <c r="K58">
-        <v>1.8</v>
-      </c>
-      <c r="L58">
-        <v>3.7</v>
-      </c>
-      <c r="M58">
-        <v>3.75</v>
-      </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
-      <c r="O58">
-        <v>4</v>
-      </c>
-      <c r="P58">
-        <v>3.5</v>
-      </c>
-      <c r="Q58">
-        <v>-0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
-      </c>
-      <c r="T58">
-        <v>3</v>
-      </c>
-      <c r="U58">
-        <v>1.875</v>
-      </c>
-      <c r="V58">
-        <v>1.925</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>3</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
-      <c r="AA58">
-        <v>0.95</v>
-      </c>
-      <c r="AB58">
-        <v>-1</v>
-      </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832543</v>
+        <v>6832542</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59">
+        <v>1.8</v>
+      </c>
+      <c r="L59">
+        <v>3.7</v>
+      </c>
+      <c r="M59">
+        <v>3.75</v>
+      </c>
+      <c r="N59">
+        <v>1.8</v>
+      </c>
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="J59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K59">
+      <c r="P59">
+        <v>3.5</v>
+      </c>
+      <c r="Q59">
+        <v>-0.5</v>
+      </c>
+      <c r="R59">
+        <v>1.85</v>
+      </c>
+      <c r="S59">
+        <v>1.95</v>
+      </c>
+      <c r="T59">
         <v>3</v>
       </c>
-      <c r="L59">
-        <v>3.5</v>
-      </c>
-      <c r="M59">
-        <v>2.1</v>
-      </c>
-      <c r="N59">
-        <v>3.75</v>
-      </c>
-      <c r="O59">
-        <v>3.8</v>
-      </c>
-      <c r="P59">
-        <v>1.75</v>
-      </c>
-      <c r="Q59">
-        <v>0.5</v>
-      </c>
-      <c r="R59">
-        <v>1.975</v>
-      </c>
-      <c r="S59">
-        <v>1.825</v>
-      </c>
-      <c r="T59">
-        <v>3.25</v>
-      </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6832552</v>
+        <v>6832551</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,76 +6852,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M72">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="N72">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q72">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
         <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
       </c>
       <c r="T72">
         <v>3.5</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6832551</v>
+        <v>6832552</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
+        <v>1.3</v>
+      </c>
+      <c r="L73">
         <v>5.25</v>
       </c>
-      <c r="L73">
-        <v>4.75</v>
-      </c>
       <c r="M73">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O73">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P73">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q73">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
         <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>1.95</v>
       </c>
       <c r="T73">
         <v>3.5</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832555</v>
+        <v>6832557</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,76 +7920,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="L84">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N84">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
+        <v>1.925</v>
+      </c>
+      <c r="S84">
         <v>1.875</v>
-      </c>
-      <c r="S84">
-        <v>1.925</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.875</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832557</v>
+        <v>6832555</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,76 +8009,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M85">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N85">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
-      </c>
-      <c r="S85">
-        <v>1.875</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.875</v>
       </c>
-      <c r="AB85">
-        <v>-0.5</v>
-      </c>
       <c r="AC85">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6832569</v>
+        <v>6832568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,10 +8365,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8380,40 +8380,40 @@
         <v>43</v>
       </c>
       <c r="K89">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="L89">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="N89">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q89">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
+        <v>1.95</v>
+      </c>
+      <c r="S89">
+        <v>1.85</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
         <v>1.8</v>
       </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>4</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8422,19 +8422,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832568</v>
+        <v>6832569</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,10 +8454,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8469,41 +8469,41 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M90">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="P90">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
+        <v>4</v>
+      </c>
+      <c r="U90">
         <v>1.95</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.85</v>
       </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.8</v>
-      </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
@@ -8511,19 +8511,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.05</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832583</v>
+        <v>6832580</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,40 +9700,40 @@
         <v>45364.625</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J104" t="s">
         <v>43</v>
       </c>
       <c r="K104">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="L104">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="M104">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="N104">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="O104">
         <v>4.75</v>
       </c>
       <c r="P104">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R104">
         <v>1.975</v>
@@ -9742,14 +9742,14 @@
         <v>1.825</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
+        <v>1.975</v>
+      </c>
+      <c r="V104">
         <v>1.825</v>
       </c>
-      <c r="V104">
-        <v>1.975</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z104">
         <v>-1</v>
@@ -9766,10 +9766,10 @@
         <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832580</v>
+        <v>6832583</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,40 +9789,40 @@
         <v>45364.625</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>43</v>
       </c>
       <c r="K105">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="L105">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="M105">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="N105">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O105">
         <v>4.75</v>
       </c>
       <c r="P105">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q105">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R105">
         <v>1.975</v>
@@ -9831,14 +9831,14 @@
         <v>1.825</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
         <v>1.975</v>
       </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z105">
         <v>-1</v>
@@ -9855,10 +9855,10 @@
         <v>0.825</v>
       </c>
       <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6832586</v>
+        <v>6832585</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,49 +10409,49 @@
         <v>28</v>
       </c>
       <c r="E112" s="2">
-        <v>45380.625</v>
+        <v>45381.625</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N112">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O112">
+        <v>3.75</v>
+      </c>
+      <c r="P112">
         <v>3.4</v>
       </c>
-      <c r="P112">
-        <v>2.3</v>
-      </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
         <v>0</v>
@@ -10474,7 +10474,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6832587</v>
+        <v>6832588</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10483,49 +10483,49 @@
         <v>28</v>
       </c>
       <c r="E113" s="2">
-        <v>45380.625</v>
+        <v>45381.625</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K113">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="L113">
+        <v>6</v>
+      </c>
+      <c r="M113">
+        <v>8</v>
+      </c>
+      <c r="N113">
+        <v>1.2</v>
+      </c>
+      <c r="O113">
+        <v>7</v>
+      </c>
+      <c r="P113">
+        <v>9.5</v>
+      </c>
+      <c r="Q113">
+        <v>-2</v>
+      </c>
+      <c r="R113">
+        <v>1.825</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
         <v>3.75</v>
       </c>
-      <c r="M113">
-        <v>3.5</v>
-      </c>
-      <c r="N113">
-        <v>1.85</v>
-      </c>
-      <c r="O113">
-        <v>3.75</v>
-      </c>
-      <c r="P113">
-        <v>3.5</v>
-      </c>
-      <c r="Q113">
-        <v>-0.5</v>
-      </c>
-      <c r="R113">
-        <v>1.925</v>
-      </c>
-      <c r="S113">
-        <v>1.875</v>
-      </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832585</v>
+        <v>6832715</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10560,46 +10560,46 @@
         <v>45381.625</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -10614,154 +10614,6 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>6832588</v>
-      </c>
-      <c r="C115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" t="s">
-        <v>28</v>
-      </c>
-      <c r="E115" s="2">
-        <v>45381.625</v>
-      </c>
-      <c r="F115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
-      <c r="K115">
-        <v>1.25</v>
-      </c>
-      <c r="L115">
-        <v>6</v>
-      </c>
-      <c r="M115">
-        <v>8</v>
-      </c>
-      <c r="N115">
-        <v>1.2</v>
-      </c>
-      <c r="O115">
-        <v>7</v>
-      </c>
-      <c r="P115">
-        <v>9.5</v>
-      </c>
-      <c r="Q115">
-        <v>-2</v>
-      </c>
-      <c r="R115">
-        <v>1.825</v>
-      </c>
-      <c r="S115">
-        <v>1.975</v>
-      </c>
-      <c r="T115">
-        <v>3.75</v>
-      </c>
-      <c r="U115">
-        <v>1.8</v>
-      </c>
-      <c r="V115">
-        <v>2</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
-      <c r="Y115">
-        <v>0</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>6832715</v>
-      </c>
-      <c r="C116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" t="s">
-        <v>28</v>
-      </c>
-      <c r="E116" s="2">
-        <v>45381.625</v>
-      </c>
-      <c r="F116" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" t="s">
-        <v>37</v>
-      </c>
-      <c r="K116">
-        <v>4.333</v>
-      </c>
-      <c r="L116">
-        <v>4</v>
-      </c>
-      <c r="M116">
-        <v>1.615</v>
-      </c>
-      <c r="N116">
-        <v>4.75</v>
-      </c>
-      <c r="O116">
-        <v>4.2</v>
-      </c>
-      <c r="P116">
-        <v>1.55</v>
-      </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>1.925</v>
-      </c>
-      <c r="S116">
-        <v>1.875</v>
-      </c>
-      <c r="T116">
-        <v>3.5</v>
-      </c>
-      <c r="U116">
-        <v>1.9</v>
-      </c>
-      <c r="V116">
-        <v>1.9</v>
-      </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-      <c r="X116">
-        <v>0</v>
-      </c>
-      <c r="Y116">
-        <v>0</v>
-      </c>
-      <c r="Z116">
-        <v>0</v>
-      </c>
-      <c r="AA116">
         <v>0</v>
       </c>
     </row>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>UAE Premier League</t>
   </si>
   <si>
-    <t>Al Ittihad Kalba</t>
+    <t>Al Wahda Abu Dhabi</t>
   </si>
   <si>
-    <t>Al Wahda Abu Dhabi</t>
+    <t>Al Ittihad Kalba</t>
   </si>
   <si>
     <t>Ajman SCC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC114"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6832491</v>
+        <v>6832493</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,52 +625,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N2">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -679,19 +679,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832493</v>
+        <v>6832491</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,53 +714,53 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N3">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q3">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1.8</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="S3">
-        <v>1.925</v>
-      </c>
-      <c r="T3">
-        <v>3.25</v>
-      </c>
-      <c r="U3">
-        <v>1.975</v>
-      </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
@@ -768,19 +768,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
+        <v>0.8</v>
+      </c>
+      <c r="AB3">
         <v>0.925</v>
       </c>
-      <c r="AB3">
-        <v>-0.5</v>
-      </c>
       <c r="AC3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832502</v>
+        <v>6832504</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,55 +1868,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N16">
         <v>3.8</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1925,19 +1925,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832504</v>
+        <v>6832502</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
         <v>3.6</v>
       </c>
-      <c r="L17">
-        <v>3.8</v>
-      </c>
       <c r="M17">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N17">
         <v>3.8</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2014,19 +2014,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832503</v>
+        <v>6832501</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,76 +2046,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q18">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832501</v>
+        <v>6832503</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832701</v>
+        <v>6832512</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832512</v>
+        <v>6832701</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45198.43055555555</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>1.666</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.8</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>3.5</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.25</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>2.4</v>
-      </c>
-      <c r="L26">
-        <v>3.5</v>
-      </c>
-      <c r="M26">
-        <v>2.55</v>
-      </c>
-      <c r="N26">
-        <v>2.875</v>
-      </c>
-      <c r="O26">
-        <v>3.6</v>
-      </c>
-      <c r="P26">
-        <v>2.15</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.85</v>
-      </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.9</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3114,7 +3114,7 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>39</v>
@@ -3295,7 +3295,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6832520</v>
+        <v>6832522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L39">
+        <v>4.75</v>
+      </c>
+      <c r="M39">
+        <v>5.25</v>
+      </c>
+      <c r="N39">
+        <v>1.4</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>5.5</v>
+      </c>
+      <c r="Q39">
+        <v>-1.25</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
+        <v>1.925</v>
+      </c>
+      <c r="V39">
+        <v>1.875</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>4.2</v>
-      </c>
-      <c r="N39">
-        <v>1.666</v>
-      </c>
-      <c r="O39">
-        <v>4</v>
-      </c>
-      <c r="P39">
-        <v>4.2</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.85</v>
-      </c>
-      <c r="S39">
-        <v>1.95</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.775</v>
-      </c>
-      <c r="V39">
-        <v>2.025</v>
-      </c>
-      <c r="W39">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6832522</v>
+        <v>6832520</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40">
+        <v>1.666</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>4.2</v>
+      </c>
+      <c r="N40">
+        <v>1.666</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>4.2</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
+        <v>1.95</v>
+      </c>
+      <c r="T40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>45</v>
-      </c>
-      <c r="K40">
-        <v>1.45</v>
-      </c>
-      <c r="L40">
-        <v>4.75</v>
-      </c>
-      <c r="M40">
-        <v>5.25</v>
-      </c>
-      <c r="N40">
-        <v>1.4</v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>5.5</v>
-      </c>
-      <c r="Q40">
-        <v>-1.25</v>
-      </c>
-      <c r="R40">
-        <v>1.9</v>
-      </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
-      </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -4897,7 +4897,7 @@
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5339,7 +5339,7 @@
         <v>45256.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5609,7 +5609,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5787,7 +5787,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
@@ -6585,7 +6585,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,49 +6674,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L70">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O70">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y70">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N71">
+        <v>4.75</v>
+      </c>
+      <c r="O71">
+        <v>4.5</v>
+      </c>
+      <c r="P71">
+        <v>1.533</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
         <v>4</v>
-      </c>
-      <c r="O71">
-        <v>3.75</v>
-      </c>
-      <c r="P71">
-        <v>1.727</v>
-      </c>
-      <c r="Q71">
-        <v>0.75</v>
-      </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>3</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -7033,7 +7033,7 @@
         <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7211,7 +7211,7 @@
         <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -8012,7 +8012,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8098,7 +8098,7 @@
         <v>45335.43402777778</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8187,7 +8187,7 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>33</v>
@@ -8635,7 +8635,7 @@
         <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8813,7 +8813,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>45351.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832572</v>
+        <v>6832576</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,76 +9166,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="L98">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="N98">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>1.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q98">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832576</v>
+        <v>6832572</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,76 +9255,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M99">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P99">
-        <v>4.333</v>
+        <v>1.3</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>45353.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9703,7 +9703,7 @@
         <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6832577</v>
+        <v>6832582</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,61 +9967,61 @@
         <v>45365.625</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="L107">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10030,13 +10030,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
+        <v>1</v>
+      </c>
+      <c r="AB107">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6832582</v>
+        <v>6832577</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,61 +10056,61 @@
         <v>45365.625</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="L108">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P108">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X108">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10119,13 +10119,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10393,228 +10393,6 @@
       </c>
       <c r="AC111">
         <v>0.475</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>6832585</v>
-      </c>
-      <c r="C112" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" t="s">
-        <v>28</v>
-      </c>
-      <c r="E112" s="2">
-        <v>45381.625</v>
-      </c>
-      <c r="F112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>42</v>
-      </c>
-      <c r="K112">
-        <v>2</v>
-      </c>
-      <c r="L112">
-        <v>3.6</v>
-      </c>
-      <c r="M112">
-        <v>3.2</v>
-      </c>
-      <c r="N112">
-        <v>1.909</v>
-      </c>
-      <c r="O112">
-        <v>3.75</v>
-      </c>
-      <c r="P112">
-        <v>3.4</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.95</v>
-      </c>
-      <c r="S112">
-        <v>1.85</v>
-      </c>
-      <c r="T112">
-        <v>3</v>
-      </c>
-      <c r="U112">
-        <v>1.95</v>
-      </c>
-      <c r="V112">
-        <v>1.85</v>
-      </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <v>0</v>
-      </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
-      <c r="AA112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>6832588</v>
-      </c>
-      <c r="C113" t="s">
-        <v>28</v>
-      </c>
-      <c r="D113" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" s="2">
-        <v>45381.625</v>
-      </c>
-      <c r="F113" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" t="s">
-        <v>33</v>
-      </c>
-      <c r="K113">
-        <v>1.25</v>
-      </c>
-      <c r="L113">
-        <v>6</v>
-      </c>
-      <c r="M113">
-        <v>8</v>
-      </c>
-      <c r="N113">
-        <v>1.2</v>
-      </c>
-      <c r="O113">
-        <v>7</v>
-      </c>
-      <c r="P113">
-        <v>9.5</v>
-      </c>
-      <c r="Q113">
-        <v>-2</v>
-      </c>
-      <c r="R113">
-        <v>1.825</v>
-      </c>
-      <c r="S113">
-        <v>1.975</v>
-      </c>
-      <c r="T113">
-        <v>3.75</v>
-      </c>
-      <c r="U113">
-        <v>1.9</v>
-      </c>
-      <c r="V113">
-        <v>1.9</v>
-      </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-      <c r="X113">
-        <v>0</v>
-      </c>
-      <c r="Y113">
-        <v>0</v>
-      </c>
-      <c r="Z113">
-        <v>0</v>
-      </c>
-      <c r="AA113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>6832715</v>
-      </c>
-      <c r="C114" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" t="s">
-        <v>28</v>
-      </c>
-      <c r="E114" s="2">
-        <v>45381.625</v>
-      </c>
-      <c r="F114" t="s">
-        <v>38</v>
-      </c>
-      <c r="G114" t="s">
-        <v>37</v>
-      </c>
-      <c r="K114">
-        <v>4.333</v>
-      </c>
-      <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>1.615</v>
-      </c>
-      <c r="N114">
-        <v>5</v>
-      </c>
-      <c r="O114">
-        <v>4.2</v>
-      </c>
-      <c r="P114">
-        <v>1.5</v>
-      </c>
-      <c r="Q114">
-        <v>1</v>
-      </c>
-      <c r="R114">
-        <v>1.925</v>
-      </c>
-      <c r="S114">
-        <v>1.875</v>
-      </c>
-      <c r="T114">
-        <v>3.5</v>
-      </c>
-      <c r="U114">
-        <v>1.9</v>
-      </c>
-      <c r="V114">
-        <v>1.9</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-      <c r="X114">
-        <v>0</v>
-      </c>
-      <c r="Y114">
-        <v>0</v>
-      </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
-      <c r="AA114">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>UAE Premier League</t>
   </si>
   <si>
-    <t>Al Wahda Abu Dhabi</t>
+    <t>Al Ittihad Kalba</t>
   </si>
   <si>
-    <t>Al Ittihad Kalba</t>
+    <t>Al Wahda Abu Dhabi</t>
   </si>
   <si>
     <t>Ajman SCC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6832493</v>
+        <v>6832491</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,53 +625,53 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N2">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q2">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1.8</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
+        <v>1.925</v>
+      </c>
+      <c r="V2">
         <v>1.875</v>
       </c>
-      <c r="S2">
-        <v>1.925</v>
-      </c>
-      <c r="T2">
-        <v>3.25</v>
-      </c>
-      <c r="U2">
-        <v>1.975</v>
-      </c>
-      <c r="V2">
-        <v>1.825</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
@@ -679,19 +679,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
+        <v>0.8</v>
+      </c>
+      <c r="AB2">
         <v>0.925</v>
       </c>
-      <c r="AB2">
-        <v>-0.5</v>
-      </c>
       <c r="AC2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832491</v>
+        <v>6832493</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,52 +714,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N3">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -768,19 +768,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>45192.43055555555</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -2224,7 +2224,7 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2672,7 +2672,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2850,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6832514</v>
+        <v>6832519</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,13 +3114,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3129,43 +3129,43 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
+        <v>1.775</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.825</v>
+      </c>
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="S30">
-        <v>1.825</v>
-      </c>
-      <c r="T30">
-        <v>3.25</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>1.825</v>
-      </c>
       <c r="W30">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832519</v>
+        <v>6832514</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,13 +3203,13 @@
         <v>45205.43055555555</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3218,43 +3218,43 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
+        <v>1.975</v>
+      </c>
+      <c r="V31">
         <v>1.825</v>
       </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6832525</v>
+        <v>6832521</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,76 +3737,76 @@
         <v>45226.40625</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="O37">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6832521</v>
+        <v>6832525</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45226.40625</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M38">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P38">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4004,10 +4004,10 @@
         <v>45226.52083333334</v>
       </c>
       <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
         <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6832702</v>
+        <v>6832524</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,58 +4093,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N41">
-        <v>1.125</v>
+        <v>5.75</v>
       </c>
       <c r="O41">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P41">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q41">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.125</v>
+        <v>4.75</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4153,13 +4153,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832524</v>
+        <v>6832702</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,58 +4182,58 @@
         <v>45227.40625</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="K42">
-        <v>5.25</v>
+        <v>1.166</v>
       </c>
       <c r="L42">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M42">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.125</v>
       </c>
       <c r="O42">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P42">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q42">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>4.75</v>
+        <v>0.125</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4242,13 +4242,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
+        <v>0.4625</v>
+      </c>
+      <c r="AB42">
         <v>0.95</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>45233.52083333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -4897,7 +4897,7 @@
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>45255.40625</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5327,7 +5327,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6832533</v>
+        <v>6832534</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5339,76 +5339,76 @@
         <v>45256.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N55">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z55">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
+        <v>0.95</v>
+      </c>
+      <c r="AB55">
+        <v>0.425</v>
+      </c>
+      <c r="AC55">
         <v>-0.5</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5416,7 +5416,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6832534</v>
+        <v>6832533</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5428,76 +5428,76 @@
         <v>45256.40625</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N56">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
+        <v>2.25</v>
+      </c>
+      <c r="Q56">
+        <v>0.25</v>
+      </c>
+      <c r="R56">
+        <v>1.8</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
         <v>3</v>
       </c>
-      <c r="Q56">
-        <v>-0.25</v>
-      </c>
-      <c r="R56">
-        <v>1.85</v>
-      </c>
-      <c r="S56">
-        <v>1.95</v>
-      </c>
-      <c r="T56">
-        <v>2.75</v>
-      </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y56">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA56">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832543</v>
+        <v>6832542</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58">
+        <v>1.8</v>
+      </c>
+      <c r="L58">
+        <v>3.7</v>
+      </c>
+      <c r="M58">
+        <v>3.75</v>
+      </c>
+      <c r="N58">
+        <v>1.8</v>
+      </c>
+      <c r="O58">
         <v>4</v>
       </c>
-      <c r="J58" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58">
+      <c r="P58">
+        <v>3.5</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>1.95</v>
+      </c>
+      <c r="T58">
         <v>3</v>
       </c>
-      <c r="L58">
-        <v>3.5</v>
-      </c>
-      <c r="M58">
-        <v>2.1</v>
-      </c>
-      <c r="N58">
-        <v>3.75</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
-      <c r="P58">
-        <v>1.75</v>
-      </c>
-      <c r="Q58">
-        <v>0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.975</v>
-      </c>
-      <c r="S58">
-        <v>1.825</v>
-      </c>
-      <c r="T58">
-        <v>3.25</v>
-      </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832542</v>
+        <v>6832543</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45261.40625</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>3.5</v>
+      </c>
+      <c r="M59">
+        <v>2.1</v>
+      </c>
+      <c r="N59">
+        <v>3.75</v>
+      </c>
+      <c r="O59">
+        <v>3.8</v>
+      </c>
+      <c r="P59">
+        <v>1.75</v>
+      </c>
+      <c r="Q59">
+        <v>0.5</v>
+      </c>
+      <c r="R59">
+        <v>1.975</v>
+      </c>
+      <c r="S59">
+        <v>1.825</v>
+      </c>
+      <c r="T59">
+        <v>3.25</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>1.8</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>0.75</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>0.825</v>
+      </c>
+      <c r="AB59">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>45</v>
-      </c>
-      <c r="K59">
-        <v>1.8</v>
-      </c>
-      <c r="L59">
-        <v>3.7</v>
-      </c>
-      <c r="M59">
-        <v>3.75</v>
-      </c>
-      <c r="N59">
-        <v>1.8</v>
-      </c>
-      <c r="O59">
-        <v>4</v>
-      </c>
-      <c r="P59">
-        <v>3.5</v>
-      </c>
-      <c r="Q59">
-        <v>-0.5</v>
-      </c>
-      <c r="R59">
-        <v>1.85</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>1.875</v>
-      </c>
-      <c r="V59">
-        <v>1.925</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>3</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>0.95</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6832544</v>
+        <v>6832705</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>5</v>
-      </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L63">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N63">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.85</v>
-      </c>
-      <c r="T63">
-        <v>3.75</v>
-      </c>
-      <c r="U63">
-        <v>1.95</v>
-      </c>
-      <c r="V63">
-        <v>1.85</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6832705</v>
+        <v>6832544</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45268.40625</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M64">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N64">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U64">
+        <v>1.95</v>
+      </c>
+      <c r="V64">
         <v>1.85</v>
       </c>
-      <c r="V64">
-        <v>1.95</v>
-      </c>
       <c r="W64">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB64">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6832545</v>
+        <v>6832548</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,73 +6229,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65">
+        <v>2.875</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.3</v>
+      </c>
+      <c r="N65">
+        <v>2.625</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.45</v>
+      </c>
+      <c r="Q65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>44</v>
-      </c>
-      <c r="K65">
-        <v>1.222</v>
-      </c>
-      <c r="L65">
-        <v>6</v>
-      </c>
-      <c r="M65">
-        <v>8</v>
-      </c>
-      <c r="N65">
-        <v>1.25</v>
-      </c>
-      <c r="O65">
-        <v>6</v>
-      </c>
-      <c r="P65">
-        <v>6.5</v>
-      </c>
-      <c r="Q65">
-        <v>-1.75</v>
-      </c>
       <c r="R65">
+        <v>2.025</v>
+      </c>
+      <c r="S65">
+        <v>1.775</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
         <v>1.95</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.85</v>
       </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-0</v>
+      </c>
+      <c r="AB65">
         <v>0.95</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.875</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832548</v>
+        <v>6832545</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45268.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N66">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P66">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6585,7 +6585,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6832706</v>
+        <v>6832707</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,49 +6674,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M70">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N70">
+        <v>4.75</v>
+      </c>
+      <c r="O70">
+        <v>4.5</v>
+      </c>
+      <c r="P70">
+        <v>1.533</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
         <v>4</v>
-      </c>
-      <c r="O70">
-        <v>3.75</v>
-      </c>
-      <c r="P70">
-        <v>1.727</v>
-      </c>
-      <c r="Q70">
-        <v>0.75</v>
-      </c>
-      <c r="R70">
-        <v>1.825</v>
-      </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
-      <c r="T70">
-        <v>3</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6832707</v>
+        <v>6832706</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45275.40625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N71">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O71">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y71">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6832551</v>
+        <v>6832552</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,76 +6852,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
+        <v>1.3</v>
+      </c>
+      <c r="L72">
         <v>5.25</v>
       </c>
-      <c r="L72">
-        <v>4.75</v>
-      </c>
       <c r="M72">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q72">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>1.95</v>
       </c>
       <c r="T72">
         <v>3.5</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6832552</v>
+        <v>6832551</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45275.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L73">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M73">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="N73">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O73">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q73">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
       </c>
       <c r="T73">
         <v>3.5</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7033,7 +7033,7 @@
         <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7211,7 +7211,7 @@
         <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6832708</v>
+        <v>6832559</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7490,25 +7490,25 @@
         <v>44</v>
       </c>
       <c r="K79">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L79">
+        <v>4.75</v>
+      </c>
+      <c r="M79">
         <v>6</v>
       </c>
-      <c r="M79">
-        <v>10</v>
-      </c>
       <c r="N79">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P79">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q79">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R79">
         <v>1.9</v>
@@ -7517,16 +7517,16 @@
         <v>1.9</v>
       </c>
       <c r="T79">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832559</v>
+        <v>6832708</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45283.40625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7579,25 +7579,25 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M80">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>1.222</v>
+      </c>
+      <c r="O80">
         <v>6</v>
       </c>
-      <c r="N80">
-        <v>1.333</v>
-      </c>
-      <c r="O80">
-        <v>5</v>
-      </c>
       <c r="P80">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R80">
         <v>1.9</v>
@@ -7606,16 +7606,16 @@
         <v>1.9</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832709</v>
+        <v>6832558</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,49 +7742,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M82">
-        <v>1.333</v>
+        <v>9</v>
       </c>
       <c r="N82">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O82">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q82">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T82">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U82">
         <v>1.925</v>
@@ -7796,22 +7796,22 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y82">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832558</v>
+        <v>6832709</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,49 +7831,49 @@
         <v>45284.40625</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>1.333</v>
+      </c>
+      <c r="N83">
+        <v>8</v>
+      </c>
+      <c r="O83">
         <v>5.5</v>
       </c>
-      <c r="M83">
-        <v>9</v>
-      </c>
-      <c r="N83">
-        <v>1.5</v>
-      </c>
-      <c r="O83">
-        <v>4.5</v>
-      </c>
       <c r="P83">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
         <v>1.925</v>
@@ -7885,22 +7885,22 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832557</v>
+        <v>6832555</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,76 +7920,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M84">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
         <v>1.925</v>
-      </c>
-      <c r="S84">
-        <v>1.875</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.875</v>
       </c>
-      <c r="AB84">
-        <v>-0.5</v>
-      </c>
       <c r="AC84">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832555</v>
+        <v>6832557</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,76 +8009,76 @@
         <v>45284.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="L85">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N85">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
         <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.875</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>45335.43402777778</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8187,7 +8187,7 @@
         <v>45335.47569444445</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>33</v>
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6832568</v>
+        <v>6832569</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,10 +8365,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8380,41 +8380,41 @@
         <v>43</v>
       </c>
       <c r="K89">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M89">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="P89">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R89">
+        <v>1.8</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
         <v>1.95</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.8</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
@@ -8422,19 +8422,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.05</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832569</v>
+        <v>6832568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,10 +8454,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8469,40 +8469,40 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="L90">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="N90">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q90">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
+        <v>1.85</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
         <v>1.8</v>
       </c>
-      <c r="S90">
-        <v>2</v>
-      </c>
-      <c r="T90">
-        <v>4</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8511,19 +8511,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6832565</v>
+        <v>6832570</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8721,49 +8721,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>43</v>
+      </c>
+      <c r="K93">
+        <v>4.75</v>
+      </c>
+      <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>1.55</v>
+      </c>
+      <c r="N93">
+        <v>4.5</v>
+      </c>
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>1.6</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1.775</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
         <v>3</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>44</v>
-      </c>
-      <c r="K93">
-        <v>1.3</v>
-      </c>
-      <c r="L93">
-        <v>5.75</v>
-      </c>
-      <c r="M93">
-        <v>6.5</v>
-      </c>
-      <c r="N93">
-        <v>1.45</v>
-      </c>
-      <c r="O93">
-        <v>4.75</v>
-      </c>
-      <c r="P93">
-        <v>5</v>
-      </c>
-      <c r="Q93">
-        <v>-1.25</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
-      <c r="S93">
-        <v>1.825</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
       </c>
       <c r="U93">
         <v>2</v>
@@ -8772,25 +8772,25 @@
         <v>1.8</v>
       </c>
       <c r="W93">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832570</v>
+        <v>6832565</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8810,49 +8810,49 @@
         <v>45347.4375</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
+        <v>1.3</v>
+      </c>
+      <c r="L94">
+        <v>5.75</v>
+      </c>
+      <c r="M94">
+        <v>6.5</v>
+      </c>
+      <c r="N94">
+        <v>1.45</v>
+      </c>
+      <c r="O94">
         <v>4.75</v>
       </c>
-      <c r="L94">
-        <v>4.2</v>
-      </c>
-      <c r="M94">
-        <v>1.55</v>
-      </c>
-      <c r="N94">
-        <v>4.5</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
       <c r="P94">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8861,25 +8861,25 @@
         <v>1.8</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>45351.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832576</v>
+        <v>6832572</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,76 +9166,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M98">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>1.3</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832572</v>
+        <v>6832576</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,76 +9255,76 @@
         <v>45352.44097222222</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="L99">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="N99">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>1.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>45353.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832579</v>
+        <v>6832580</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,76 +9611,76 @@
         <v>45364.625</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N103">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>3.25</v>
       </c>
       <c r="U103">
+        <v>1.975</v>
+      </c>
+      <c r="V103">
         <v>1.825</v>
       </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
       <c r="W103">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832580</v>
+        <v>6832579</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,76 +9700,76 @@
         <v>45364.625</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="L104">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="O104">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q104">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
         <v>3.25</v>
       </c>
       <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
         <v>1.975</v>
       </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6832578</v>
+        <v>6832582</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,10 +9878,10 @@
         <v>45365.625</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9893,46 +9893,46 @@
         <v>45</v>
       </c>
       <c r="K106">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N106">
         <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>-1</v>
@@ -9941,10 +9941,10 @@
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB106">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6832582</v>
+        <v>6832577</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,61 +9967,61 @@
         <v>45365.625</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
         <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10030,13 +10030,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6832577</v>
+        <v>6832578</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45365.625</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>45</v>
+      </c>
+      <c r="K108">
+        <v>1.85</v>
+      </c>
+      <c r="L108">
+        <v>3.6</v>
+      </c>
+      <c r="M108">
+        <v>3.6</v>
+      </c>
+      <c r="N108">
+        <v>1.8</v>
+      </c>
+      <c r="O108">
+        <v>3.6</v>
+      </c>
+      <c r="P108">
+        <v>4</v>
+      </c>
+      <c r="Q108">
+        <v>-0.75</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>1.8</v>
+      </c>
+      <c r="T108">
+        <v>2.75</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
+        <v>1.8</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>2.6</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>0.8</v>
+      </c>
+      <c r="AB108">
         <v>1</v>
       </c>
-      <c r="J108" t="s">
-        <v>44</v>
-      </c>
-      <c r="K108">
-        <v>1.333</v>
-      </c>
-      <c r="L108">
-        <v>5</v>
-      </c>
-      <c r="M108">
-        <v>7.5</v>
-      </c>
-      <c r="N108">
-        <v>1.25</v>
-      </c>
-      <c r="O108">
-        <v>5.5</v>
-      </c>
-      <c r="P108">
-        <v>8.5</v>
-      </c>
-      <c r="Q108">
-        <v>-1.75</v>
-      </c>
-      <c r="R108">
-        <v>1.9</v>
-      </c>
-      <c r="S108">
-        <v>1.9</v>
-      </c>
-      <c r="T108">
-        <v>3.5</v>
-      </c>
-      <c r="U108">
-        <v>1.875</v>
-      </c>
-      <c r="V108">
-        <v>1.925</v>
-      </c>
-      <c r="W108">
-        <v>0.25</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>-1</v>
-      </c>
-      <c r="Z108">
-        <v>-1</v>
-      </c>
-      <c r="AA108">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
       <c r="AC108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6832584</v>
+        <v>6832714</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,40 +10234,40 @@
         <v>45379.625</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L110">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O110">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
         <v>1.85</v>
@@ -10279,19 +10279,19 @@
         <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z110">
         <v>-1</v>
@@ -10300,10 +10300,10 @@
         <v>0.95</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6832714</v>
+        <v>6832584</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,40 +10323,40 @@
         <v>45379.625</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M111">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N111">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P111">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="Q111">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
         <v>1.85</v>
@@ -10368,19 +10368,19 @@
         <v>3.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
@@ -10389,10 +10389,455 @@
         <v>0.95</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>6832586</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45380.625</v>
+      </c>
+      <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>41</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>45</v>
+      </c>
+      <c r="K112">
+        <v>2.6</v>
+      </c>
+      <c r="L112">
+        <v>3.5</v>
+      </c>
+      <c r="M112">
+        <v>2.375</v>
+      </c>
+      <c r="N112">
+        <v>2.55</v>
+      </c>
+      <c r="O112">
+        <v>3.3</v>
+      </c>
+      <c r="P112">
+        <v>2.45</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>1.975</v>
+      </c>
+      <c r="S112">
+        <v>1.825</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>1.9</v>
+      </c>
+      <c r="V112">
+        <v>1.9</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>2.3</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>-0</v>
+      </c>
+      <c r="AB112">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>6832587</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45380.625</v>
+      </c>
+      <c r="F113" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+      <c r="J113" t="s">
+        <v>43</v>
+      </c>
+      <c r="K113">
+        <v>1.85</v>
+      </c>
+      <c r="L113">
+        <v>3.75</v>
+      </c>
+      <c r="M113">
+        <v>3.5</v>
+      </c>
+      <c r="N113">
+        <v>1.95</v>
+      </c>
+      <c r="O113">
+        <v>3.6</v>
+      </c>
+      <c r="P113">
+        <v>3.25</v>
+      </c>
+      <c r="Q113">
+        <v>-0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>3</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
+        <v>1.95</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>2.25</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>1</v>
+      </c>
+      <c r="AB113">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>6832715</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F114" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>44</v>
+      </c>
+      <c r="K114">
+        <v>4.333</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>1.615</v>
+      </c>
+      <c r="N114">
+        <v>3.8</v>
+      </c>
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
+        <v>1.727</v>
+      </c>
+      <c r="Q114">
+        <v>0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
+        <v>3.75</v>
+      </c>
+      <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
+        <v>1.85</v>
+      </c>
+      <c r="W114">
+        <v>2.8</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.875</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>0.95</v>
+      </c>
+      <c r="AC114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>6832588</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>44</v>
+      </c>
+      <c r="K115">
+        <v>1.25</v>
+      </c>
+      <c r="L115">
+        <v>6</v>
+      </c>
+      <c r="M115">
+        <v>8</v>
+      </c>
+      <c r="N115">
+        <v>1.222</v>
+      </c>
+      <c r="O115">
+        <v>6.5</v>
+      </c>
+      <c r="P115">
+        <v>9.5</v>
+      </c>
+      <c r="Q115">
+        <v>-2</v>
+      </c>
+      <c r="R115">
+        <v>1.95</v>
+      </c>
+      <c r="S115">
+        <v>1.85</v>
+      </c>
+      <c r="T115">
+        <v>3.5</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>0.222</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.95</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>6832585</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F116" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>3.6</v>
+      </c>
+      <c r="M116">
+        <v>3.2</v>
+      </c>
+      <c r="N116">
+        <v>1.7</v>
+      </c>
+      <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
+        <v>4</v>
+      </c>
+      <c r="Q116">
+        <v>-0.75</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>3</v>
+      </c>
+      <c r="U116">
+        <v>1.85</v>
+      </c>
+      <c r="V116">
+        <v>1.95</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>3</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/UAE Premier League/UAE Premier League.xlsx
+++ b/UAE Premier League/UAE Premier League.xlsx
@@ -130,10 +130,10 @@
     <t>Al Jazira SC</t>
   </si>
   <si>
-    <t>Al Bataeh</t>
+    <t>Hatta Dubai</t>
   </si>
   <si>
-    <t>Hatta Dubai</t>
+    <t>Al Bataeh</t>
   </si>
   <si>
     <t>Baniyas SC</t>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832497</v>
+        <v>6832699</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>4.333</v>
+      </c>
+      <c r="M11">
+        <v>1.5</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>1.3</v>
+      </c>
+      <c r="Q11">
+        <v>1.5</v>
+      </c>
+      <c r="R11">
+        <v>1.975</v>
+      </c>
+      <c r="S11">
+        <v>1.825</v>
+      </c>
+      <c r="T11">
         <v>3.25</v>
       </c>
-      <c r="L11">
-        <v>3.3</v>
-      </c>
-      <c r="M11">
-        <v>2.05</v>
-      </c>
-      <c r="N11">
-        <v>3.5</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
+      <c r="U11">
         <v>1.95</v>
       </c>
-      <c r="Q11">
-        <v>0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.8</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.8</v>
-      </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832699</v>
+        <v>6832497</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>45193.43055555555</v>
       </c>
       <c r="F21" t="s">
-        <v>